--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -680,12 +680,6 @@
     <t>850</t>
   </si>
   <si>
-    <t>3/4/2018</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>9/4/2018</t>
   </si>
   <si>
@@ -699,6 +693,12 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>22/4/2018</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2838,10 +2838,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
@@ -4414,14 +4414,14 @@
         <v>21</v>
       </c>
       <c r="F94" s="20">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G94" s="43">
         <v>2.9</v>
       </c>
       <c r="H94" s="46">
         <f t="shared" si="2"/>
-        <v>304.5</v>
+        <v>298.7</v>
       </c>
       <c r="I94" s="42"/>
     </row>
@@ -4619,7 +4619,7 @@
         <v>104</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>177</v>
@@ -5044,7 +5044,7 @@
         <v>121</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>172</v>
@@ -5155,10 +5155,10 @@
         <v>128</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D124" s="19" t="s">
         <v>13</v>
@@ -5182,10 +5182,10 @@
         <v>179</v>
       </c>
       <c r="B125" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C125" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="D125" s="19" t="s">
         <v>13</v>
@@ -5903,7 +5903,7 @@
     <row r="147" spans="1:8" ht="48.75" customHeight="1">
       <c r="H147" s="47">
         <f>SUM(H3:H146)</f>
-        <v>19312.921999999995</v>
+        <v>19307.121999999999</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2971,14 +2971,14 @@
         <v>35</v>
       </c>
       <c r="F29" s="20">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G29" s="21">
         <v>2.6</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4414,14 +4414,14 @@
         <v>21</v>
       </c>
       <c r="F94" s="20">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G94" s="43">
         <v>2.9</v>
       </c>
       <c r="H94" s="46">
         <f t="shared" si="2"/>
-        <v>298.7</v>
+        <v>295.8</v>
       </c>
       <c r="I94" s="42"/>
     </row>
@@ -4752,14 +4752,14 @@
         <v>35</v>
       </c>
       <c r="F107" s="20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G107" s="21">
         <v>2.7</v>
       </c>
       <c r="H107" s="14">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5903,7 +5903,7 @@
     <row r="147" spans="1:8" ht="48.75" customHeight="1">
       <c r="H147" s="47">
         <f>SUM(H3:H146)</f>
-        <v>19307.121999999999</v>
+        <v>19093.221999999998</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$146</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$130</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$147</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$131</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="230">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t>80</t>
+  </si>
+  <si>
+    <t>Porta abiti lunghi soffietto</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>26/4/2018</t>
   </si>
 </sst>
 </file>
@@ -1852,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IU149"/>
+  <dimension ref="A1:IU150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2606,14 +2615,14 @@
         <v>16</v>
       </c>
       <c r="F16" s="17">
-        <v>739</v>
+        <v>699</v>
       </c>
       <c r="G16" s="13">
         <v>1.8280000000000001</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="0"/>
-        <v>1350.8920000000001</v>
+        <v>1277.7720000000002</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -3610,14 +3619,14 @@
         <v>21</v>
       </c>
       <c r="F58" s="20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G58" s="21">
         <v>0.44</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="1"/>
-        <v>5.28</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3834,7 +3843,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H68" s="14">
-        <f t="shared" ref="H68:H146" si="2">F68*G68</f>
+        <f t="shared" ref="H68:H147" si="2">F68*G68</f>
         <v>210.70000000000002</v>
       </c>
     </row>
@@ -4092,14 +4101,14 @@
         <v>21</v>
       </c>
       <c r="F80" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G80" s="21">
         <v>1.1000000000000001</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>7.7000000000000011</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4182,14 +4191,14 @@
         <v>10</v>
       </c>
       <c r="F84" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G84" s="21">
         <v>12.5</v>
       </c>
       <c r="H84" s="14">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4427,13 +4436,13 @@
     </row>
     <row r="95" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D95" s="19" t="s">
         <v>185</v>
@@ -4442,20 +4451,20 @@
         <v>21</v>
       </c>
       <c r="F95" s="20">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G95" s="43">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="H95" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>230.39999999999998</v>
       </c>
       <c r="I95" s="42"/>
     </row>
     <row r="96" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>184</v>
@@ -4470,388 +4479,389 @@
         <v>21</v>
       </c>
       <c r="F96" s="20">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G96" s="43">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H96" s="46">
         <f t="shared" si="2"/>
-        <v>183.75</v>
+        <v>0</v>
       </c>
       <c r="I96" s="42"/>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F97" s="20">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G97" s="43">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H97" s="46">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>183.75</v>
       </c>
       <c r="I97" s="42"/>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F98" s="20">
+        <v>12</v>
+      </c>
+      <c r="G98" s="43">
+        <v>4</v>
+      </c>
+      <c r="H98" s="46">
+        <f t="shared" si="2"/>
         <v>48</v>
-      </c>
-      <c r="G98" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="H98" s="46">
-        <f t="shared" si="2"/>
-        <v>38.400000000000006</v>
       </c>
       <c r="I98" s="42"/>
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F99" s="20">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G99" s="43">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="I99" s="42"/>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>199</v>
+      </c>
       <c r="D100" s="19" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F100" s="20">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G100" s="43">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C101" s="19" t="s">
-        <v>197</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="19" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F101" s="20">
-        <v>30</v>
-      </c>
-      <c r="G101" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="H101" s="45">
-        <f t="shared" si="2"/>
-        <v>24.9</v>
+        <v>170</v>
+      </c>
+      <c r="G101" s="43">
+        <v>2.4</v>
+      </c>
+      <c r="H101" s="46">
+        <f t="shared" si="2"/>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D102" s="19"/>
+        <v>197</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="E102" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F102" s="20">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="G102" s="21">
-        <v>4.7</v>
-      </c>
-      <c r="H102" s="14">
-        <f t="shared" si="2"/>
-        <v>653.30000000000007</v>
+        <v>0.83</v>
+      </c>
+      <c r="H102" s="45">
+        <f t="shared" si="2"/>
+        <v>24.9</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D103" s="19" t="s">
-        <v>158</v>
-      </c>
+      <c r="D103" s="19"/>
       <c r="E103" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F103" s="20">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="G103" s="21">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H103" s="14">
         <f t="shared" si="2"/>
-        <v>262.5</v>
+        <v>653.30000000000007</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="34"/>
+        <v>105</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="E104" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F104" s="20">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="G104" s="21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H104" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="D105" s="34"/>
       <c r="E105" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F105" s="20">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G105" s="21">
         <v>2</v>
       </c>
       <c r="H105" s="14">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>175</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
       <c r="E106" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F106" s="20">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G106" s="21">
-        <v>41.34</v>
+        <v>2</v>
       </c>
       <c r="H106" s="14">
         <f t="shared" si="2"/>
-        <v>289.38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="20">
+        <v>7</v>
+      </c>
+      <c r="G107" s="21">
+        <v>41.34</v>
+      </c>
+      <c r="H107" s="14">
+        <f t="shared" si="2"/>
+        <v>289.38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A108" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B108" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C107" s="19" t="s">
+      <c r="C108" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D107" s="19" t="s">
+      <c r="D108" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E108" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F107" s="20">
+      <c r="F108" s="20">
         <v>30</v>
       </c>
-      <c r="G107" s="21">
+      <c r="G108" s="21">
         <v>2.7</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H108" s="14">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A108" s="23" t="s">
+    <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A109" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="29">
+      <c r="B109" s="29">
         <v>43140</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C109" s="11">
         <v>12</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D109" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E109" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F108" s="24">
+      <c r="F109" s="24">
         <v>14</v>
       </c>
-      <c r="G108" s="25">
+      <c r="G109" s="25">
         <v>6</v>
       </c>
-      <c r="H108" s="14">
+      <c r="H109" s="14">
         <f t="shared" si="2"/>
         <v>84</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A109" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" s="20">
-        <v>1116</v>
-      </c>
-      <c r="G109" s="21">
-        <v>0.66</v>
-      </c>
-      <c r="H109" s="14">
-        <f t="shared" si="2"/>
-        <v>736.56000000000006</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F110" s="20">
-        <v>5</v>
+        <v>1116</v>
       </c>
       <c r="G110" s="21">
-        <v>2.85</v>
+        <v>0.66</v>
       </c>
       <c r="H110" s="14">
         <f t="shared" si="2"/>
-        <v>14.25</v>
+        <v>736.56000000000006</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>29</v>
@@ -4860,146 +4870,146 @@
         <v>21</v>
       </c>
       <c r="F111" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G111" s="21">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>12.04</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D112" s="19"/>
+        <v>183</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="E112" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F112" s="20">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G112" s="21">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>31.9</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A113" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>29</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="D113" s="19"/>
       <c r="E113" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F113" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G113" s="21">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>5.16</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A114" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="E114" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F114" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G114" s="21">
-        <v>5</v>
+        <v>1.72</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
+      <c r="D115" s="35"/>
       <c r="E115" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F115" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G115" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D116" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="20">
         <v>9</v>
       </c>
-      <c r="E116" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="20">
-        <v>169</v>
-      </c>
       <c r="G116" s="21">
-        <v>2.69</v>
+        <v>1</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>454.61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A117" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B117" s="19" t="s">
         <v>174</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>9</v>
@@ -5008,88 +5018,94 @@
         <v>12</v>
       </c>
       <c r="F117" s="20">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="G117" s="21">
-        <v>3.3</v>
+        <v>2.69</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="2"/>
-        <v>372.9</v>
+        <v>454.61</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
+        <v>119</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E118" s="19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F118" s="20">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="G118" s="21">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>14.350000000000001</v>
+        <v>372.9</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="20">
+        <v>5</v>
+      </c>
+      <c r="G119" s="21">
+        <v>2.87</v>
+      </c>
+      <c r="H119" s="14">
+        <f t="shared" si="2"/>
+        <v>14.350000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A120" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="B120" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C119" s="19" t="s">
+      <c r="C120" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D119" s="19" t="s">
+      <c r="D120" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="E120" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F119" s="20">
+      <c r="F120" s="20">
         <v>6</v>
       </c>
-      <c r="G119" s="21">
+      <c r="G120" s="21">
         <v>7</v>
       </c>
-      <c r="H119" s="14">
+      <c r="H120" s="14">
         <f t="shared" si="2"/>
         <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A120" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F120" s="20">
-        <v>584</v>
-      </c>
-      <c r="G120" s="21">
-        <v>3</v>
-      </c>
-      <c r="H120" s="14">
-        <f t="shared" si="2"/>
-        <v>1752</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -5098,94 +5114,88 @@
         <v>21</v>
       </c>
       <c r="F121" s="20">
+        <v>584</v>
+      </c>
+      <c r="G121" s="21">
+        <v>3</v>
+      </c>
+      <c r="H121" s="14">
+        <f t="shared" si="2"/>
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A122" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" s="20">
         <v>1</v>
       </c>
-      <c r="G121" s="21">
+      <c r="G122" s="21">
         <v>1.96</v>
       </c>
-      <c r="H121" s="14">
+      <c r="H122" s="14">
         <f t="shared" si="2"/>
         <v>1.96</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A122" s="23" t="s">
+    <row r="123" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A123" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="24">
-        <v>7</v>
-      </c>
-      <c r="G122" s="25">
-        <v>1.97</v>
-      </c>
-      <c r="H122" s="14">
-        <f t="shared" si="2"/>
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A123" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="20">
-        <v>95</v>
-      </c>
-      <c r="G123" s="21">
+      <c r="F123" s="24">
         <v>7</v>
       </c>
+      <c r="G123" s="25">
+        <v>1.97</v>
+      </c>
       <c r="H123" s="14">
         <f t="shared" si="2"/>
-        <v>665</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>13</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
       <c r="E124" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="20">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="G124" s="21">
-        <v>2.69</v>
+        <v>7</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="2"/>
-        <v>672.5</v>
+        <v>665</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.35" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>222</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D125" s="19" t="s">
         <v>13</v>
@@ -5194,61 +5204,67 @@
         <v>12</v>
       </c>
       <c r="F125" s="20">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G125" s="21">
-        <v>2.21</v>
+        <v>2.69</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="2"/>
-        <v>442</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A126" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
+      <c r="A126" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E126" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="24">
-        <v>100</v>
-      </c>
-      <c r="G126" s="25">
-        <v>1.43</v>
+      <c r="F126" s="20">
+        <v>200</v>
+      </c>
+      <c r="G126" s="21">
+        <v>2.21</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A127" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
+      <c r="A127" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="20">
-        <v>4</v>
-      </c>
-      <c r="G127" s="21">
-        <v>8.5</v>
+      <c r="F127" s="24">
+        <v>100</v>
+      </c>
+      <c r="G127" s="25">
+        <v>1.43</v>
       </c>
       <c r="H127" s="14">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.35" customHeight="1">
       <c r="A128" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -5257,373 +5273,373 @@
         <v>12</v>
       </c>
       <c r="F128" s="20">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G128" s="21">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H128" s="14">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:255" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
-      <c r="D129" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="D129" s="19"/>
       <c r="E129" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G129" s="21">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>564</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A130" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="A130" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="E130" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="24">
+      <c r="F130" s="20">
+        <v>12</v>
+      </c>
+      <c r="G130" s="21">
+        <v>47</v>
+      </c>
+      <c r="H130" s="14">
+        <f t="shared" si="2"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="131" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A131" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="24">
         <v>22</v>
       </c>
-      <c r="G130" s="25">
+      <c r="G131" s="25">
         <v>2.97</v>
       </c>
-      <c r="H130" s="14">
+      <c r="H131" s="14">
         <f t="shared" si="2"/>
         <v>65.34</v>
       </c>
     </row>
-    <row r="131" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A131" s="18" t="s">
+    <row r="132" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A132" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F131" s="20">
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="20">
         <v>140</v>
       </c>
-      <c r="G131" s="21">
+      <c r="G132" s="21">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H131" s="14">
+      <c r="H132" s="14">
         <f t="shared" si="2"/>
         <v>158.19999999999999</v>
       </c>
-      <c r="I131"/>
-      <c r="J131"/>
-      <c r="K131"/>
-      <c r="L131"/>
-      <c r="M131"/>
-      <c r="N131"/>
-      <c r="O131"/>
-      <c r="P131"/>
-      <c r="Q131"/>
-      <c r="R131"/>
-      <c r="S131"/>
-      <c r="T131"/>
-      <c r="U131"/>
-      <c r="V131"/>
-      <c r="W131"/>
-      <c r="X131"/>
-      <c r="Y131"/>
-      <c r="Z131"/>
-      <c r="AA131"/>
-      <c r="AB131"/>
-      <c r="AC131"/>
-      <c r="AD131"/>
-      <c r="AE131"/>
-      <c r="AF131"/>
-      <c r="AG131"/>
-      <c r="AH131"/>
-      <c r="AI131"/>
-      <c r="AJ131"/>
-      <c r="AK131"/>
-      <c r="AL131"/>
-      <c r="AM131"/>
-      <c r="AN131"/>
-      <c r="AO131"/>
-      <c r="AP131"/>
-      <c r="AQ131"/>
-      <c r="AR131"/>
-      <c r="AS131"/>
-      <c r="AT131"/>
-      <c r="AU131"/>
-      <c r="AV131"/>
-      <c r="AW131"/>
-      <c r="AX131"/>
-      <c r="AY131"/>
-      <c r="AZ131"/>
-      <c r="BA131"/>
-      <c r="BB131"/>
-      <c r="BC131"/>
-      <c r="BD131"/>
-      <c r="BE131"/>
-      <c r="BF131"/>
-      <c r="BG131"/>
-      <c r="BH131"/>
-      <c r="BI131"/>
-      <c r="BJ131"/>
-      <c r="BK131"/>
-      <c r="BL131"/>
-      <c r="BM131"/>
-      <c r="BN131"/>
-      <c r="BO131"/>
-      <c r="BP131"/>
-      <c r="BQ131"/>
-      <c r="BR131"/>
-      <c r="BS131"/>
-      <c r="BT131"/>
-      <c r="BU131"/>
-      <c r="BV131"/>
-      <c r="BW131"/>
-      <c r="BX131"/>
-      <c r="BY131"/>
-      <c r="BZ131"/>
-      <c r="CA131"/>
-      <c r="CB131"/>
-      <c r="CC131"/>
-      <c r="CD131"/>
-      <c r="CE131"/>
-      <c r="CF131"/>
-      <c r="CG131"/>
-      <c r="CH131"/>
-      <c r="CI131"/>
-      <c r="CJ131"/>
-      <c r="CK131"/>
-      <c r="CL131"/>
-      <c r="CM131"/>
-      <c r="CN131"/>
-      <c r="CO131"/>
-      <c r="CP131"/>
-      <c r="CQ131"/>
-      <c r="CR131"/>
-      <c r="CS131"/>
-      <c r="CT131"/>
-      <c r="CU131"/>
-      <c r="CV131"/>
-      <c r="CW131"/>
-      <c r="CX131"/>
-      <c r="CY131"/>
-      <c r="CZ131"/>
-      <c r="DA131"/>
-      <c r="DB131"/>
-      <c r="DC131"/>
-      <c r="DD131"/>
-      <c r="DE131"/>
-      <c r="DF131"/>
-      <c r="DG131"/>
-      <c r="DH131"/>
-      <c r="DI131"/>
-      <c r="DJ131"/>
-      <c r="DK131"/>
-      <c r="DL131"/>
-      <c r="DM131"/>
-      <c r="DN131"/>
-      <c r="DO131"/>
-      <c r="DP131"/>
-      <c r="DQ131"/>
-      <c r="DR131"/>
-      <c r="DS131"/>
-      <c r="DT131"/>
-      <c r="DU131"/>
-      <c r="DV131"/>
-      <c r="DW131"/>
-      <c r="DX131"/>
-      <c r="DY131"/>
-      <c r="DZ131"/>
-      <c r="EA131"/>
-      <c r="EB131"/>
-      <c r="EC131"/>
-      <c r="ED131"/>
-      <c r="EE131"/>
-      <c r="EF131"/>
-      <c r="EG131"/>
-      <c r="EH131"/>
-      <c r="EI131"/>
-      <c r="EJ131"/>
-      <c r="EK131"/>
-      <c r="EL131"/>
-      <c r="EM131"/>
-      <c r="EN131"/>
-      <c r="EO131"/>
-      <c r="EP131"/>
-      <c r="EQ131"/>
-      <c r="ER131"/>
-      <c r="ES131"/>
-      <c r="ET131"/>
-      <c r="EU131"/>
-      <c r="EV131"/>
-      <c r="EW131"/>
-      <c r="EX131"/>
-      <c r="EY131"/>
-      <c r="EZ131"/>
-      <c r="FA131"/>
-      <c r="FB131"/>
-      <c r="FC131"/>
-      <c r="FD131"/>
-      <c r="FE131"/>
-      <c r="FF131"/>
-      <c r="FG131"/>
-      <c r="FH131"/>
-      <c r="FI131"/>
-      <c r="FJ131"/>
-      <c r="FK131"/>
-      <c r="FL131"/>
-      <c r="FM131"/>
-      <c r="FN131"/>
-      <c r="FO131"/>
-      <c r="FP131"/>
-      <c r="FQ131"/>
-      <c r="FR131"/>
-      <c r="FS131"/>
-      <c r="FT131"/>
-      <c r="FU131"/>
-      <c r="FV131"/>
-      <c r="FW131"/>
-      <c r="FX131"/>
-      <c r="FY131"/>
-      <c r="FZ131"/>
-      <c r="GA131"/>
-      <c r="GB131"/>
-      <c r="GC131"/>
-      <c r="GD131"/>
-      <c r="GE131"/>
-      <c r="GF131"/>
-      <c r="GG131"/>
-      <c r="GH131"/>
-      <c r="GI131"/>
-      <c r="GJ131"/>
-      <c r="GK131"/>
-      <c r="GL131"/>
-      <c r="GM131"/>
-      <c r="GN131"/>
-      <c r="GO131"/>
-      <c r="GP131"/>
-      <c r="GQ131"/>
-      <c r="GR131"/>
-      <c r="GS131"/>
-      <c r="GT131"/>
-      <c r="GU131"/>
-      <c r="GV131"/>
-      <c r="GW131"/>
-      <c r="GX131"/>
-      <c r="GY131"/>
-      <c r="GZ131"/>
-      <c r="HA131"/>
-      <c r="HB131"/>
-      <c r="HC131"/>
-      <c r="HD131"/>
-      <c r="HE131"/>
-      <c r="HF131"/>
-      <c r="HG131"/>
-      <c r="HH131"/>
-      <c r="HI131"/>
-      <c r="HJ131"/>
-      <c r="HK131"/>
-      <c r="HL131"/>
-      <c r="HM131"/>
-      <c r="HN131"/>
-      <c r="HO131"/>
-      <c r="HP131"/>
-      <c r="HQ131"/>
-      <c r="HR131"/>
-      <c r="HS131"/>
-      <c r="HT131"/>
-      <c r="HU131"/>
-      <c r="HV131"/>
-      <c r="HW131"/>
-      <c r="HX131"/>
-      <c r="HY131"/>
-      <c r="HZ131"/>
-      <c r="IA131"/>
-      <c r="IB131"/>
-      <c r="IC131"/>
-      <c r="ID131"/>
-      <c r="IE131"/>
-      <c r="IF131"/>
-      <c r="IG131"/>
-      <c r="IH131"/>
-      <c r="II131"/>
-      <c r="IJ131"/>
-      <c r="IK131"/>
-      <c r="IL131"/>
-      <c r="IM131"/>
-      <c r="IN131"/>
-      <c r="IO131"/>
-      <c r="IP131"/>
-      <c r="IQ131"/>
-      <c r="IR131"/>
-      <c r="IS131"/>
-      <c r="IT131"/>
-      <c r="IU131"/>
-    </row>
-    <row r="132" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A132" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="24">
-        <v>25</v>
-      </c>
-      <c r="G132" s="25">
-        <v>5</v>
-      </c>
-      <c r="H132" s="14">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+      <c r="AA132"/>
+      <c r="AB132"/>
+      <c r="AC132"/>
+      <c r="AD132"/>
+      <c r="AE132"/>
+      <c r="AF132"/>
+      <c r="AG132"/>
+      <c r="AH132"/>
+      <c r="AI132"/>
+      <c r="AJ132"/>
+      <c r="AK132"/>
+      <c r="AL132"/>
+      <c r="AM132"/>
+      <c r="AN132"/>
+      <c r="AO132"/>
+      <c r="AP132"/>
+      <c r="AQ132"/>
+      <c r="AR132"/>
+      <c r="AS132"/>
+      <c r="AT132"/>
+      <c r="AU132"/>
+      <c r="AV132"/>
+      <c r="AW132"/>
+      <c r="AX132"/>
+      <c r="AY132"/>
+      <c r="AZ132"/>
+      <c r="BA132"/>
+      <c r="BB132"/>
+      <c r="BC132"/>
+      <c r="BD132"/>
+      <c r="BE132"/>
+      <c r="BF132"/>
+      <c r="BG132"/>
+      <c r="BH132"/>
+      <c r="BI132"/>
+      <c r="BJ132"/>
+      <c r="BK132"/>
+      <c r="BL132"/>
+      <c r="BM132"/>
+      <c r="BN132"/>
+      <c r="BO132"/>
+      <c r="BP132"/>
+      <c r="BQ132"/>
+      <c r="BR132"/>
+      <c r="BS132"/>
+      <c r="BT132"/>
+      <c r="BU132"/>
+      <c r="BV132"/>
+      <c r="BW132"/>
+      <c r="BX132"/>
+      <c r="BY132"/>
+      <c r="BZ132"/>
+      <c r="CA132"/>
+      <c r="CB132"/>
+      <c r="CC132"/>
+      <c r="CD132"/>
+      <c r="CE132"/>
+      <c r="CF132"/>
+      <c r="CG132"/>
+      <c r="CH132"/>
+      <c r="CI132"/>
+      <c r="CJ132"/>
+      <c r="CK132"/>
+      <c r="CL132"/>
+      <c r="CM132"/>
+      <c r="CN132"/>
+      <c r="CO132"/>
+      <c r="CP132"/>
+      <c r="CQ132"/>
+      <c r="CR132"/>
+      <c r="CS132"/>
+      <c r="CT132"/>
+      <c r="CU132"/>
+      <c r="CV132"/>
+      <c r="CW132"/>
+      <c r="CX132"/>
+      <c r="CY132"/>
+      <c r="CZ132"/>
+      <c r="DA132"/>
+      <c r="DB132"/>
+      <c r="DC132"/>
+      <c r="DD132"/>
+      <c r="DE132"/>
+      <c r="DF132"/>
+      <c r="DG132"/>
+      <c r="DH132"/>
+      <c r="DI132"/>
+      <c r="DJ132"/>
+      <c r="DK132"/>
+      <c r="DL132"/>
+      <c r="DM132"/>
+      <c r="DN132"/>
+      <c r="DO132"/>
+      <c r="DP132"/>
+      <c r="DQ132"/>
+      <c r="DR132"/>
+      <c r="DS132"/>
+      <c r="DT132"/>
+      <c r="DU132"/>
+      <c r="DV132"/>
+      <c r="DW132"/>
+      <c r="DX132"/>
+      <c r="DY132"/>
+      <c r="DZ132"/>
+      <c r="EA132"/>
+      <c r="EB132"/>
+      <c r="EC132"/>
+      <c r="ED132"/>
+      <c r="EE132"/>
+      <c r="EF132"/>
+      <c r="EG132"/>
+      <c r="EH132"/>
+      <c r="EI132"/>
+      <c r="EJ132"/>
+      <c r="EK132"/>
+      <c r="EL132"/>
+      <c r="EM132"/>
+      <c r="EN132"/>
+      <c r="EO132"/>
+      <c r="EP132"/>
+      <c r="EQ132"/>
+      <c r="ER132"/>
+      <c r="ES132"/>
+      <c r="ET132"/>
+      <c r="EU132"/>
+      <c r="EV132"/>
+      <c r="EW132"/>
+      <c r="EX132"/>
+      <c r="EY132"/>
+      <c r="EZ132"/>
+      <c r="FA132"/>
+      <c r="FB132"/>
+      <c r="FC132"/>
+      <c r="FD132"/>
+      <c r="FE132"/>
+      <c r="FF132"/>
+      <c r="FG132"/>
+      <c r="FH132"/>
+      <c r="FI132"/>
+      <c r="FJ132"/>
+      <c r="FK132"/>
+      <c r="FL132"/>
+      <c r="FM132"/>
+      <c r="FN132"/>
+      <c r="FO132"/>
+      <c r="FP132"/>
+      <c r="FQ132"/>
+      <c r="FR132"/>
+      <c r="FS132"/>
+      <c r="FT132"/>
+      <c r="FU132"/>
+      <c r="FV132"/>
+      <c r="FW132"/>
+      <c r="FX132"/>
+      <c r="FY132"/>
+      <c r="FZ132"/>
+      <c r="GA132"/>
+      <c r="GB132"/>
+      <c r="GC132"/>
+      <c r="GD132"/>
+      <c r="GE132"/>
+      <c r="GF132"/>
+      <c r="GG132"/>
+      <c r="GH132"/>
+      <c r="GI132"/>
+      <c r="GJ132"/>
+      <c r="GK132"/>
+      <c r="GL132"/>
+      <c r="GM132"/>
+      <c r="GN132"/>
+      <c r="GO132"/>
+      <c r="GP132"/>
+      <c r="GQ132"/>
+      <c r="GR132"/>
+      <c r="GS132"/>
+      <c r="GT132"/>
+      <c r="GU132"/>
+      <c r="GV132"/>
+      <c r="GW132"/>
+      <c r="GX132"/>
+      <c r="GY132"/>
+      <c r="GZ132"/>
+      <c r="HA132"/>
+      <c r="HB132"/>
+      <c r="HC132"/>
+      <c r="HD132"/>
+      <c r="HE132"/>
+      <c r="HF132"/>
+      <c r="HG132"/>
+      <c r="HH132"/>
+      <c r="HI132"/>
+      <c r="HJ132"/>
+      <c r="HK132"/>
+      <c r="HL132"/>
+      <c r="HM132"/>
+      <c r="HN132"/>
+      <c r="HO132"/>
+      <c r="HP132"/>
+      <c r="HQ132"/>
+      <c r="HR132"/>
+      <c r="HS132"/>
+      <c r="HT132"/>
+      <c r="HU132"/>
+      <c r="HV132"/>
+      <c r="HW132"/>
+      <c r="HX132"/>
+      <c r="HY132"/>
+      <c r="HZ132"/>
+      <c r="IA132"/>
+      <c r="IB132"/>
+      <c r="IC132"/>
+      <c r="ID132"/>
+      <c r="IE132"/>
+      <c r="IF132"/>
+      <c r="IG132"/>
+      <c r="IH132"/>
+      <c r="II132"/>
+      <c r="IJ132"/>
+      <c r="IK132"/>
+      <c r="IL132"/>
+      <c r="IM132"/>
+      <c r="IN132"/>
+      <c r="IO132"/>
+      <c r="IP132"/>
+      <c r="IQ132"/>
+      <c r="IR132"/>
+      <c r="IS132"/>
+      <c r="IT132"/>
+      <c r="IU132"/>
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F133" s="24">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G133" s="25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
       <c r="A134" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5632,40 +5648,40 @@
         <v>21</v>
       </c>
       <c r="F134" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G134" s="25">
-        <v>1.36</v>
+        <v>12</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>10.88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
       <c r="A135" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135" s="29"/>
+        <v>136</v>
+      </c>
+      <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F135" s="24">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G135" s="25">
-        <v>2.2000000000000002</v>
+        <v>1.36</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="2"/>
-        <v>55.000000000000007</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
       <c r="A136" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136" s="29"/>
       <c r="C136" s="11"/>
@@ -5674,19 +5690,19 @@
         <v>21</v>
       </c>
       <c r="F136" s="24">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G136" s="25">
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H136" s="14">
         <f t="shared" si="2"/>
-        <v>203.5</v>
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
       <c r="A137" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137" s="29"/>
       <c r="C137" s="11"/>
@@ -5695,61 +5711,61 @@
         <v>21</v>
       </c>
       <c r="F137" s="24">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G137" s="25">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>8.8000000000000007</v>
+        <v>203.5</v>
       </c>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
       <c r="A138" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138" s="11"/>
+        <v>139</v>
+      </c>
+      <c r="B138" s="29"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F138" s="24">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G138" s="25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" s="29"/>
+        <v>140</v>
+      </c>
+      <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F139" s="24">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G139" s="25">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
       <c r="A140" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140" s="29"/>
       <c r="C140" s="11"/>
@@ -5758,19 +5774,19 @@
         <v>21</v>
       </c>
       <c r="F140" s="24">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G140" s="25">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
       <c r="A141" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" s="29"/>
       <c r="C141" s="11"/>
@@ -5779,19 +5795,19 @@
         <v>21</v>
       </c>
       <c r="F141" s="24">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G141" s="25">
-        <v>2.85</v>
+        <v>0.9</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>85.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142" s="29"/>
       <c r="C142" s="11"/>
@@ -5800,86 +5816,84 @@
         <v>21</v>
       </c>
       <c r="F142" s="24">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G142" s="25">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>40.799999999999997</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" s="11"/>
+        <v>144</v>
+      </c>
+      <c r="B143" s="29"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F143" s="24">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G143" s="25">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B144" s="29"/>
+        <v>145</v>
+      </c>
+      <c r="B144" s="11"/>
       <c r="C144" s="11"/>
-      <c r="D144" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F144" s="24">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G144" s="25">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E145" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F145" s="24">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G145" s="25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>357</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="11"/>
@@ -5890,30 +5904,53 @@
         <v>21</v>
       </c>
       <c r="F146" s="24">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="G146" s="25">
         <v>10</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A147" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="29"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="24">
+        <v>9</v>
+      </c>
+      <c r="G147" s="25">
+        <v>10</v>
+      </c>
+      <c r="H147" s="14">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H147" s="47">
-        <f>SUM(H3:H146)</f>
-        <v>19093.221999999998</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="29.1" customHeight="1"/>
-    <row r="149" spans="1:8" ht="30" customHeight="1"/>
+    <row r="148" spans="1:8" ht="48.75" customHeight="1">
+      <c r="H148" s="47">
+        <f>SUM(H3:H147)</f>
+        <v>19206.601999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="29.1" customHeight="1"/>
+    <row r="150" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F110:F112 F21:F25 F80 F18:F19">
+  <conditionalFormatting sqref="F111:F113 F21:F25 F80 F18:F19">
     <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
@@ -5948,7 +5985,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45 F81:F82 F100 F86:F87">
+  <conditionalFormatting sqref="F45 F81:F82 F101 F86:F87">
     <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
@@ -5978,32 +6015,32 @@
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96 F92:F93">
+  <conditionalFormatting sqref="F97 F92:F93">
     <cfRule type="cellIs" dxfId="8" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113 F101">
+  <conditionalFormatting sqref="F114 F102">
     <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:F106">
+  <conditionalFormatting sqref="F104:F107">
     <cfRule type="cellIs" dxfId="6" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
+  <conditionalFormatting sqref="F100">
     <cfRule type="cellIs" dxfId="5" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F96">
     <cfRule type="cellIs" dxfId="4" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
+  <conditionalFormatting sqref="F94:F95">
     <cfRule type="cellIs" dxfId="3" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2665,14 +2665,14 @@
         <v>10</v>
       </c>
       <c r="F17" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G17" s="13">
         <v>2</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -5940,7 +5940,7 @@
     <row r="148" spans="1:8" ht="48.75" customHeight="1">
       <c r="H148" s="47">
         <f>SUM(H3:H147)</f>
-        <v>19206.601999999999</v>
+        <v>19202.601999999999</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$147</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$131</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$146</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$130</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="229">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Buste Plastica forate f.to 22x30</t>
-  </si>
-  <si>
-    <t>Buste porta cd TRASPARENTI</t>
   </si>
   <si>
     <t>Calicot   panna (cencio della nonna)</t>
@@ -1861,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IU150"/>
+  <dimension ref="A1:IU149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1881,7 +1878,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="60.75" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2046,7 +2043,7 @@
     </row>
     <row r="5" spans="1:35" ht="24.95" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2094,7 +2091,7 @@
     </row>
     <row r="6" spans="1:35" ht="24.2" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -2142,7 +2139,7 @@
     </row>
     <row r="7" spans="1:35" ht="25.35" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
@@ -2192,7 +2189,7 @@
     </row>
     <row r="8" spans="1:35" ht="23.25" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" s="10">
         <v>43174</v>
@@ -2246,7 +2243,7 @@
     </row>
     <row r="9" spans="1:35" ht="23.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="16"/>
@@ -2296,7 +2293,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2350,15 +2347,15 @@
     </row>
     <row r="11" spans="1:35" ht="28.35" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F11" s="17">
         <v>72</v>
@@ -2400,15 +2397,15 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="17">
         <v>10</v>
@@ -2604,12 +2601,12 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>16</v>
@@ -2707,13 +2704,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>21</v>
@@ -2725,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="14">
-        <f t="shared" ref="H18:H67" si="1">F18*G18</f>
+        <f t="shared" ref="H18:H66" si="1">F18*G18</f>
         <v>6</v>
       </c>
     </row>
@@ -2734,14 +2731,14 @@
         <v>23</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="20">
         <v>250</v>
@@ -2756,7 +2753,7 @@
     </row>
     <row r="20" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -2774,237 +2771,237 @@
       </c>
     </row>
     <row r="21" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="20">
-        <v>100</v>
-      </c>
-      <c r="G21" s="21">
-        <v>0</v>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="24">
+        <v>25</v>
+      </c>
+      <c r="G21" s="25">
+        <v>1.1399999999999999</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28.499999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="24">
-        <v>25</v>
-      </c>
-      <c r="G22" s="25">
-        <v>1.1399999999999999</v>
+      <c r="B22" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="20">
+        <v>4</v>
+      </c>
+      <c r="G22" s="21">
+        <v>8.5</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="1"/>
-        <v>28.499999999999996</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>27</v>
-      </c>
       <c r="F23" s="20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G23" s="21">
-        <v>8.5</v>
+        <v>25.13</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>251.29999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G24" s="21">
-        <v>25.13</v>
+        <v>17</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="1"/>
-        <v>251.29999999999998</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" s="21">
-        <v>17</v>
+        <v>7.9</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>23.700000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E26" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="20">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G26" s="21">
-        <v>7.9</v>
+        <v>2.76</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="1"/>
-        <v>23.700000000000003</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="20">
-        <v>15</v>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
       </c>
       <c r="G27" s="21">
-        <v>2.76</v>
+        <v>9.75</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" si="1"/>
-        <v>41.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0</v>
+      <c r="B28" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="20">
+        <v>25</v>
       </c>
       <c r="G28" s="21">
-        <v>9.75</v>
+        <v>2.6</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>175</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F29" s="20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G29" s="21">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="20">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="12">
         <v>0</v>
       </c>
-      <c r="G30" s="21">
-        <v>2.7</v>
+      <c r="G30" s="11">
+        <v>3.68</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="1"/>
@@ -3012,20 +3009,22 @@
       </c>
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E31" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="20">
         <v>0</v>
       </c>
-      <c r="G31" s="11">
-        <v>3.68</v>
+      <c r="G31" s="21">
+        <v>0.1</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="1"/>
@@ -3038,21 +3037,19 @@
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="D32" s="19"/>
       <c r="E32" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G32" s="21">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3066,14 +3063,14 @@
         <v>21</v>
       </c>
       <c r="F33" s="20">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G33" s="21">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3087,14 +3084,14 @@
         <v>21</v>
       </c>
       <c r="F34" s="20">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G34" s="21">
-        <v>0.25</v>
+        <v>85</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3111,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="21">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="1"/>
@@ -3132,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="21">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="1"/>
@@ -3150,14 +3147,14 @@
         <v>21</v>
       </c>
       <c r="F37" s="20">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G37" s="21">
-        <v>110</v>
+        <v>1.18</v>
       </c>
       <c r="H37" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3171,104 +3168,104 @@
         <v>21</v>
       </c>
       <c r="F38" s="20">
-        <v>100</v>
+        <v>575</v>
       </c>
       <c r="G38" s="21">
-        <v>1.18</v>
+        <v>0.35</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="28" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F39" s="20">
-        <v>575</v>
-      </c>
-      <c r="G39" s="21">
-        <v>0.35</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G39" s="21"/>
       <c r="H39" s="14">
         <f t="shared" si="1"/>
-        <v>201.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
+      <c r="C40" s="19" t="s">
+        <v>201</v>
+      </c>
       <c r="D40" s="19"/>
       <c r="E40" s="28" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F40" s="20">
-        <v>60</v>
-      </c>
-      <c r="G40" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="G40" s="21">
+        <v>1</v>
+      </c>
       <c r="H40" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="C41" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E41" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F41" s="20">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G41" s="21">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F42" s="20">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G42" s="21">
-        <v>1.75</v>
+        <v>0.72</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="1"/>
-        <v>24.5</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3277,42 +3274,42 @@
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="E43" s="28" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F43" s="20">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G43" s="21">
-        <v>0.72</v>
+        <v>3</v>
       </c>
       <c r="H43" s="14">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="28" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G44" s="21">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3326,14 +3323,14 @@
         <v>12</v>
       </c>
       <c r="F45" s="20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G45" s="21">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3342,37 +3339,39 @@
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
-        <v>12</v>
+      <c r="D46" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F46" s="20">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="G46" s="21">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A47" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="19"/>
+      <c r="A47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="11"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="D47" s="19"/>
       <c r="E47" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="20">
-        <v>1000</v>
-      </c>
-      <c r="G47" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="21">
+        <v>0.22</v>
+      </c>
       <c r="H47" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3383,8 +3382,8 @@
         <v>55</v>
       </c>
       <c r="B48" s="11"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
         <v>21</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="21">
-        <v>0.22</v>
+        <v>2.13</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" si="1"/>
@@ -3400,47 +3399,53 @@
       </c>
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E49" s="11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F49" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49" s="21">
-        <v>2.13</v>
+        <v>5.95</v>
       </c>
       <c r="H49" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A50" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="D50" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F50" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G50" s="21">
-        <v>5.95</v>
+        <v>0.7</v>
       </c>
       <c r="H50" s="14">
         <f t="shared" si="1"/>
-        <v>11.9</v>
+        <v>4.1999999999999993</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3448,53 +3453,47 @@
         <v>58</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G51" s="21">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A52" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F52" s="20">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G52" s="21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3508,14 +3507,14 @@
         <v>21</v>
       </c>
       <c r="F53" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H53" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3529,14 +3528,14 @@
         <v>21</v>
       </c>
       <c r="F54" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="21">
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
       <c r="H54" s="14">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3550,125 +3549,125 @@
         <v>21</v>
       </c>
       <c r="F55" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55" s="21">
-        <v>5.35</v>
+        <v>2</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="D56" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E56" s="11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F56" s="20">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G56" s="21">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="19"/>
       <c r="E57" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F57" s="20">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G57" s="21">
-        <v>1.98</v>
+        <v>0.44</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="1"/>
-        <v>43.56</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="19"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="20">
-        <v>7</v>
-      </c>
-      <c r="G58" s="21">
-        <v>0.44</v>
+        <v>12</v>
+      </c>
+      <c r="F58" s="24">
+        <v>12</v>
+      </c>
+      <c r="G58" s="25">
+        <v>4.8499999999999996</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="1"/>
-        <v>3.08</v>
+        <v>58.199999999999996</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A59" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="24">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G59" s="25">
-        <v>4.8499999999999996</v>
+        <v>5.04</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="1"/>
-        <v>58.199999999999996</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
       <c r="E60" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="24">
-        <v>30</v>
-      </c>
-      <c r="G60" s="25">
-        <v>5.04</v>
+      <c r="F60" s="20">
+        <v>25</v>
+      </c>
+      <c r="G60" s="21">
+        <v>8.3000000000000007</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="1"/>
-        <v>151.19999999999999</v>
+        <v>207.50000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3678,66 +3677,66 @@
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="20">
         <v>12</v>
       </c>
-      <c r="F61" s="20">
-        <v>25</v>
-      </c>
       <c r="G61" s="21">
-        <v>8.3000000000000007</v>
+        <v>0.75</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="1"/>
-        <v>207.50000000000003</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
+      <c r="B62" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="E62" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F62" s="20">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G62" s="21">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>158</v>
-      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F63" s="20">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G63" s="21">
         <v>3</v>
       </c>
       <c r="H63" s="14">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3746,42 +3745,42 @@
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
+      <c r="D64" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="E64" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="20">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G64" s="21">
         <v>3</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="19" t="s">
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="20">
-        <v>35</v>
-      </c>
-      <c r="G65" s="21">
+        <v>18</v>
+      </c>
+      <c r="G65" s="32">
         <v>3</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="33">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3795,35 +3794,35 @@
         <v>12</v>
       </c>
       <c r="F66" s="20">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G66" s="32">
         <v>3</v>
       </c>
       <c r="H66" s="33">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="20">
-        <v>7</v>
-      </c>
-      <c r="G67" s="32">
-        <v>3</v>
-      </c>
-      <c r="H67" s="33">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="G67" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H67" s="14">
+        <f t="shared" ref="H67:H146" si="2">F67*G67</f>
+        <v>210.70000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3834,17 +3833,17 @@
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F68" s="20">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G68" s="21">
-        <v>4.9000000000000004</v>
+        <v>33.5</v>
       </c>
       <c r="H68" s="14">
-        <f t="shared" ref="H68:H147" si="2">F68*G68</f>
-        <v>210.70000000000002</v>
+        <f t="shared" si="2"/>
+        <v>2043.5</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3858,14 +3857,14 @@
         <v>21</v>
       </c>
       <c r="F69" s="20">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G69" s="21">
-        <v>33.5</v>
+        <v>2</v>
       </c>
       <c r="H69" s="14">
         <f t="shared" si="2"/>
-        <v>2043.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3879,14 +3878,14 @@
         <v>21</v>
       </c>
       <c r="F70" s="20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G70" s="21">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H70" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3895,19 +3894,21 @@
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
+      <c r="D71" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="E71" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F71" s="20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G71" s="21">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="H71" s="14">
         <f t="shared" si="2"/>
-        <v>81.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3917,20 +3918,20 @@
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G72" s="21">
         <v>8.5</v>
       </c>
       <c r="H72" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3940,20 +3941,20 @@
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="20">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G73" s="21">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H73" s="14">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3962,21 +3963,19 @@
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
-      <c r="D74" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="D74" s="19"/>
       <c r="E74" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="20">
-        <v>1.5</v>
+        <v>20</v>
       </c>
       <c r="G74" s="21">
         <v>5</v>
       </c>
       <c r="H74" s="14">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3990,40 +3989,40 @@
         <v>12</v>
       </c>
       <c r="F75" s="20">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G75" s="21">
         <v>5</v>
       </c>
       <c r="H75" s="14">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="D76" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E76" s="19" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="F76" s="20">
-        <v>3</v>
-      </c>
-      <c r="G76" s="21">
-        <v>5</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G76" s="21"/>
       <c r="H76" s="14">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -4031,7 +4030,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F77" s="20">
         <v>150</v>
@@ -4044,71 +4043,71 @@
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="D78" s="19"/>
       <c r="E78" s="19" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="F78" s="20">
-        <v>150</v>
-      </c>
-      <c r="G78" s="21"/>
+        <v>9</v>
+      </c>
+      <c r="G78" s="21">
+        <v>0.8</v>
+      </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
+      <c r="B79" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E79" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F79" s="20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G79" s="21">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F80" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G80" s="21">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4122,14 +4121,14 @@
         <v>21</v>
       </c>
       <c r="F81" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G81" s="21">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H81" s="14">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4143,62 +4142,62 @@
         <v>21</v>
       </c>
       <c r="F82" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" s="21">
         <v>1.5</v>
       </c>
       <c r="H82" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
+      <c r="B83" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>189</v>
+      </c>
       <c r="E83" s="19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F83" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" s="21">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="H83" s="14">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A84" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>190</v>
-      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="19" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F84" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G84" s="21">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="H84" s="14">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4212,14 +4211,14 @@
         <v>21</v>
       </c>
       <c r="F85" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" s="21">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H85" s="14">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4247,21 +4246,25 @@
       <c r="A87" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
+      <c r="B87" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>181</v>
+      </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F87" s="20">
-        <v>0</v>
-      </c>
-      <c r="G87" s="21">
-        <v>1</v>
-      </c>
-      <c r="H87" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="G87" s="38">
+        <v>0.19</v>
+      </c>
+      <c r="H87" s="44">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4269,22 +4272,22 @@
         <v>92</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F88" s="20">
+      <c r="F88" s="37">
         <v>50</v>
       </c>
-      <c r="G88" s="38">
+      <c r="G88" s="40">
         <v>0.19</v>
       </c>
-      <c r="H88" s="44">
+      <c r="H88" s="46">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
@@ -4293,25 +4296,21 @@
       <c r="A89" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>182</v>
-      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="37">
-        <v>50</v>
-      </c>
-      <c r="G89" s="40">
-        <v>0.19</v>
-      </c>
-      <c r="H89" s="46">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
+      <c r="F89" s="20">
+        <v>3</v>
+      </c>
+      <c r="G89" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="H89" s="45">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4325,14 +4324,14 @@
         <v>21</v>
       </c>
       <c r="F90" s="20">
-        <v>3</v>
-      </c>
-      <c r="G90" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="H90" s="45">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="G90" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H90" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4346,175 +4345,182 @@
         <v>21</v>
       </c>
       <c r="F91" s="20">
-        <v>0</v>
-      </c>
-      <c r="G91" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="H91" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G91" s="43">
+        <v>1</v>
+      </c>
+      <c r="H91" s="46">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I91" s="41"/>
     </row>
     <row r="92" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
+        <v>191</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="E92" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F92" s="20">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G92" s="43">
-        <v>1</v>
+        <v>3.45</v>
       </c>
       <c r="H92" s="46">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I92" s="41"/>
+        <f>F92*G92</f>
+        <v>358.8</v>
+      </c>
+      <c r="I92" s="42"/>
     </row>
     <row r="93" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="B93" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>185</v>
-      </c>
       <c r="E93" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F93" s="20">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G93" s="43">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="H93" s="46">
-        <f>F93*G93</f>
-        <v>358.8</v>
+        <f t="shared" si="2"/>
+        <v>295.8</v>
       </c>
       <c r="I93" s="42"/>
     </row>
     <row r="94" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="B94" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C94" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>185</v>
-      </c>
       <c r="E94" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F94" s="20">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="G94" s="43">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H94" s="46">
         <f t="shared" si="2"/>
-        <v>295.8</v>
+        <v>230.39999999999998</v>
       </c>
       <c r="I94" s="42"/>
     </row>
     <row r="95" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F95" s="20">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G95" s="43">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="H95" s="46">
         <f t="shared" si="2"/>
-        <v>230.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="I95" s="42"/>
     </row>
     <row r="96" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="B96" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D96" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C96" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>185</v>
-      </c>
       <c r="E96" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F96" s="20">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G96" s="43">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H96" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>183.75</v>
       </c>
       <c r="I96" s="42"/>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F97" s="20">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G97" s="43">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H97" s="46">
         <f t="shared" si="2"/>
-        <v>183.75</v>
+        <v>48</v>
       </c>
       <c r="I97" s="42"/>
     </row>
@@ -4523,26 +4529,26 @@
         <v>99</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F98" s="20">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G98" s="43">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H98" s="46">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="I98" s="42"/>
     </row>
@@ -4551,77 +4557,76 @@
         <v>100</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F99" s="20">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G99" s="43">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="I99" s="42"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>199</v>
-      </c>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="19" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F100" s="20">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G100" s="43">
-        <v>11.7</v>
+        <v>2.4</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+      <c r="B101" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="D101" s="19" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F101" s="20">
-        <v>170</v>
-      </c>
-      <c r="G101" s="43">
-        <v>2.4</v>
-      </c>
-      <c r="H101" s="46">
-        <f t="shared" si="2"/>
-        <v>408</v>
+        <v>30</v>
+      </c>
+      <c r="G101" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="H101" s="45">
+        <f t="shared" si="2"/>
+        <v>24.9</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4629,26 +4634,24 @@
         <v>103</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>29</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D102" s="19"/>
       <c r="E102" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F102" s="20">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="G102" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="H102" s="45">
-        <f t="shared" si="2"/>
-        <v>24.9</v>
+        <v>4.7</v>
+      </c>
+      <c r="H102" s="14">
+        <f t="shared" si="2"/>
+        <v>653.30000000000007</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4656,51 +4659,47 @@
         <v>104</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D103" s="19"/>
+        <v>176</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="E103" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F103" s="20">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="G103" s="21">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H103" s="14">
         <f t="shared" si="2"/>
-        <v>653.30000000000007</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>158</v>
-      </c>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="34"/>
       <c r="E104" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F104" s="20">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="G104" s="21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H104" s="14">
         <f t="shared" si="2"/>
-        <v>262.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4709,121 +4708,127 @@
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
-      <c r="D105" s="34"/>
+      <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F105" s="20">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G105" s="21">
         <v>2</v>
       </c>
       <c r="H105" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
+        <v>206</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>174</v>
+      </c>
       <c r="E106" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F106" s="20">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G106" s="21">
-        <v>2</v>
+        <v>41.34</v>
       </c>
       <c r="H106" s="14">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>289.38</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F107" s="20">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G107" s="21">
-        <v>41.34</v>
+        <v>2.7</v>
       </c>
       <c r="H107" s="14">
         <f t="shared" si="2"/>
-        <v>289.38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F108" s="20">
-        <v>30</v>
-      </c>
-      <c r="G108" s="21">
-        <v>2.7</v>
+      <c r="B108" s="29">
+        <v>43140</v>
+      </c>
+      <c r="C108" s="11">
+        <v>36</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F108" s="24">
+        <v>15</v>
+      </c>
+      <c r="G108" s="14">
+        <v>6</v>
       </c>
       <c r="H108" s="14">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A109" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="29">
-        <v>43140</v>
-      </c>
-      <c r="C109" s="11">
-        <v>12</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E109" s="11" t="s">
+      <c r="A109" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F109" s="24">
-        <v>14</v>
-      </c>
-      <c r="G109" s="25">
-        <v>6</v>
+      <c r="B109" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="20">
+        <v>1116</v>
+      </c>
+      <c r="G109" s="21">
+        <v>0.66</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>736.56000000000006</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4831,26 +4836,26 @@
         <v>111</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F110" s="20">
-        <v>1116</v>
+        <v>5</v>
       </c>
       <c r="G110" s="21">
-        <v>0.66</v>
+        <v>2.85</v>
       </c>
       <c r="H110" s="14">
         <f t="shared" si="2"/>
-        <v>736.56000000000006</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4858,26 +4863,26 @@
         <v>112</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F111" s="20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G111" s="21">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>14.25</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4885,26 +4890,24 @@
         <v>113</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D112" s="19" t="s">
-        <v>29</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D112" s="19"/>
       <c r="E112" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F112" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G112" s="21">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>12.04</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4912,51 +4915,47 @@
         <v>114</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D113" s="19"/>
+        <v>180</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E113" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F113" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G113" s="21">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A114" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="35"/>
       <c r="E114" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F114" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G114" s="21">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="2"/>
-        <v>5.16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4965,40 +4964,46 @@
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
-      <c r="D115" s="35"/>
+      <c r="D115" s="19"/>
       <c r="E115" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F115" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G115" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A116" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+      <c r="B116" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E116" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F116" s="20">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="G116" s="21">
-        <v>1</v>
+        <v>2.69</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>454.61</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5006,10 +5011,10 @@
         <v>118</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>9</v>
@@ -5018,89 +5023,83 @@
         <v>12</v>
       </c>
       <c r="F117" s="20">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G117" s="21">
-        <v>2.69</v>
+        <v>3.3</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="2"/>
-        <v>454.61</v>
+        <v>372.9</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>9</v>
-      </c>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
       <c r="E118" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F118" s="20">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="G118" s="21">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>372.9</v>
+        <v>14.350000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
+      <c r="B119" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>121</v>
+      </c>
       <c r="E119" s="19" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="F119" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G119" s="21">
-        <v>2.87</v>
+        <v>7</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="2"/>
-        <v>14.350000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>122</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
       <c r="E120" s="19" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="F120" s="20">
-        <v>6</v>
+        <v>584</v>
       </c>
       <c r="G120" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
@@ -5114,85 +5113,91 @@
         <v>21</v>
       </c>
       <c r="F121" s="20">
-        <v>584</v>
+        <v>1</v>
       </c>
       <c r="G121" s="21">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="H121" s="14">
         <f t="shared" si="2"/>
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A122" s="18" t="s">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A122" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F122" s="20">
-        <v>1</v>
-      </c>
-      <c r="G122" s="21">
-        <v>1.96</v>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="24">
+        <v>7</v>
+      </c>
+      <c r="G122" s="25">
+        <v>1.97</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="2"/>
-        <v>1.96</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A123" s="23" t="s">
+      <c r="A123" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
       <c r="E123" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F123" s="24">
+      <c r="F123" s="20">
+        <v>95</v>
+      </c>
+      <c r="G123" s="21">
         <v>7</v>
       </c>
-      <c r="G123" s="25">
-        <v>1.97</v>
-      </c>
       <c r="H123" s="14">
         <f t="shared" si="2"/>
-        <v>13.79</v>
+        <v>665</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
+      <c r="B124" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E124" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F124" s="20">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="G124" s="21">
-        <v>7</v>
+        <v>2.69</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="2"/>
-        <v>665</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.35" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>223</v>
@@ -5204,62 +5209,56 @@
         <v>12</v>
       </c>
       <c r="F125" s="20">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G125" s="21">
-        <v>2.69</v>
+        <v>2.21</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="2"/>
-        <v>672.5</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A126" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="A126" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
       <c r="E126" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="20">
-        <v>200</v>
-      </c>
-      <c r="G126" s="21">
-        <v>2.21</v>
+      <c r="F126" s="24">
+        <v>100</v>
+      </c>
+      <c r="G126" s="25">
+        <v>1.43</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="2"/>
-        <v>442</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
       <c r="E127" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="24">
-        <v>100</v>
-      </c>
-      <c r="G127" s="25">
-        <v>1.43</v>
+      <c r="F127" s="20">
+        <v>4</v>
+      </c>
+      <c r="G127" s="21">
+        <v>8.5</v>
       </c>
       <c r="H127" s="14">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.35" customHeight="1">
@@ -5273,348 +5272,348 @@
         <v>12</v>
       </c>
       <c r="F128" s="20">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G128" s="21">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H128" s="14">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:255" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
+      <c r="D129" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="E129" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G129" s="21">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A130" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19" t="s">
-        <v>157</v>
-      </c>
+      <c r="A130" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
       <c r="E130" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="20">
+      <c r="F130" s="24">
+        <v>22</v>
+      </c>
+      <c r="G130" s="25">
+        <v>2.97</v>
+      </c>
+      <c r="H130" s="14">
+        <f t="shared" si="2"/>
+        <v>65.34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A131" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="20">
+        <v>140</v>
+      </c>
+      <c r="G131" s="21">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H131" s="14">
+        <f t="shared" si="2"/>
+        <v>158.19999999999999</v>
+      </c>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+      <c r="AA131"/>
+      <c r="AB131"/>
+      <c r="AC131"/>
+      <c r="AD131"/>
+      <c r="AE131"/>
+      <c r="AF131"/>
+      <c r="AG131"/>
+      <c r="AH131"/>
+      <c r="AI131"/>
+      <c r="AJ131"/>
+      <c r="AK131"/>
+      <c r="AL131"/>
+      <c r="AM131"/>
+      <c r="AN131"/>
+      <c r="AO131"/>
+      <c r="AP131"/>
+      <c r="AQ131"/>
+      <c r="AR131"/>
+      <c r="AS131"/>
+      <c r="AT131"/>
+      <c r="AU131"/>
+      <c r="AV131"/>
+      <c r="AW131"/>
+      <c r="AX131"/>
+      <c r="AY131"/>
+      <c r="AZ131"/>
+      <c r="BA131"/>
+      <c r="BB131"/>
+      <c r="BC131"/>
+      <c r="BD131"/>
+      <c r="BE131"/>
+      <c r="BF131"/>
+      <c r="BG131"/>
+      <c r="BH131"/>
+      <c r="BI131"/>
+      <c r="BJ131"/>
+      <c r="BK131"/>
+      <c r="BL131"/>
+      <c r="BM131"/>
+      <c r="BN131"/>
+      <c r="BO131"/>
+      <c r="BP131"/>
+      <c r="BQ131"/>
+      <c r="BR131"/>
+      <c r="BS131"/>
+      <c r="BT131"/>
+      <c r="BU131"/>
+      <c r="BV131"/>
+      <c r="BW131"/>
+      <c r="BX131"/>
+      <c r="BY131"/>
+      <c r="BZ131"/>
+      <c r="CA131"/>
+      <c r="CB131"/>
+      <c r="CC131"/>
+      <c r="CD131"/>
+      <c r="CE131"/>
+      <c r="CF131"/>
+      <c r="CG131"/>
+      <c r="CH131"/>
+      <c r="CI131"/>
+      <c r="CJ131"/>
+      <c r="CK131"/>
+      <c r="CL131"/>
+      <c r="CM131"/>
+      <c r="CN131"/>
+      <c r="CO131"/>
+      <c r="CP131"/>
+      <c r="CQ131"/>
+      <c r="CR131"/>
+      <c r="CS131"/>
+      <c r="CT131"/>
+      <c r="CU131"/>
+      <c r="CV131"/>
+      <c r="CW131"/>
+      <c r="CX131"/>
+      <c r="CY131"/>
+      <c r="CZ131"/>
+      <c r="DA131"/>
+      <c r="DB131"/>
+      <c r="DC131"/>
+      <c r="DD131"/>
+      <c r="DE131"/>
+      <c r="DF131"/>
+      <c r="DG131"/>
+      <c r="DH131"/>
+      <c r="DI131"/>
+      <c r="DJ131"/>
+      <c r="DK131"/>
+      <c r="DL131"/>
+      <c r="DM131"/>
+      <c r="DN131"/>
+      <c r="DO131"/>
+      <c r="DP131"/>
+      <c r="DQ131"/>
+      <c r="DR131"/>
+      <c r="DS131"/>
+      <c r="DT131"/>
+      <c r="DU131"/>
+      <c r="DV131"/>
+      <c r="DW131"/>
+      <c r="DX131"/>
+      <c r="DY131"/>
+      <c r="DZ131"/>
+      <c r="EA131"/>
+      <c r="EB131"/>
+      <c r="EC131"/>
+      <c r="ED131"/>
+      <c r="EE131"/>
+      <c r="EF131"/>
+      <c r="EG131"/>
+      <c r="EH131"/>
+      <c r="EI131"/>
+      <c r="EJ131"/>
+      <c r="EK131"/>
+      <c r="EL131"/>
+      <c r="EM131"/>
+      <c r="EN131"/>
+      <c r="EO131"/>
+      <c r="EP131"/>
+      <c r="EQ131"/>
+      <c r="ER131"/>
+      <c r="ES131"/>
+      <c r="ET131"/>
+      <c r="EU131"/>
+      <c r="EV131"/>
+      <c r="EW131"/>
+      <c r="EX131"/>
+      <c r="EY131"/>
+      <c r="EZ131"/>
+      <c r="FA131"/>
+      <c r="FB131"/>
+      <c r="FC131"/>
+      <c r="FD131"/>
+      <c r="FE131"/>
+      <c r="FF131"/>
+      <c r="FG131"/>
+      <c r="FH131"/>
+      <c r="FI131"/>
+      <c r="FJ131"/>
+      <c r="FK131"/>
+      <c r="FL131"/>
+      <c r="FM131"/>
+      <c r="FN131"/>
+      <c r="FO131"/>
+      <c r="FP131"/>
+      <c r="FQ131"/>
+      <c r="FR131"/>
+      <c r="FS131"/>
+      <c r="FT131"/>
+      <c r="FU131"/>
+      <c r="FV131"/>
+      <c r="FW131"/>
+      <c r="FX131"/>
+      <c r="FY131"/>
+      <c r="FZ131"/>
+      <c r="GA131"/>
+      <c r="GB131"/>
+      <c r="GC131"/>
+      <c r="GD131"/>
+      <c r="GE131"/>
+      <c r="GF131"/>
+      <c r="GG131"/>
+      <c r="GH131"/>
+      <c r="GI131"/>
+      <c r="GJ131"/>
+      <c r="GK131"/>
+      <c r="GL131"/>
+      <c r="GM131"/>
+      <c r="GN131"/>
+      <c r="GO131"/>
+      <c r="GP131"/>
+      <c r="GQ131"/>
+      <c r="GR131"/>
+      <c r="GS131"/>
+      <c r="GT131"/>
+      <c r="GU131"/>
+      <c r="GV131"/>
+      <c r="GW131"/>
+      <c r="GX131"/>
+      <c r="GY131"/>
+      <c r="GZ131"/>
+      <c r="HA131"/>
+      <c r="HB131"/>
+      <c r="HC131"/>
+      <c r="HD131"/>
+      <c r="HE131"/>
+      <c r="HF131"/>
+      <c r="HG131"/>
+      <c r="HH131"/>
+      <c r="HI131"/>
+      <c r="HJ131"/>
+      <c r="HK131"/>
+      <c r="HL131"/>
+      <c r="HM131"/>
+      <c r="HN131"/>
+      <c r="HO131"/>
+      <c r="HP131"/>
+      <c r="HQ131"/>
+      <c r="HR131"/>
+      <c r="HS131"/>
+      <c r="HT131"/>
+      <c r="HU131"/>
+      <c r="HV131"/>
+      <c r="HW131"/>
+      <c r="HX131"/>
+      <c r="HY131"/>
+      <c r="HZ131"/>
+      <c r="IA131"/>
+      <c r="IB131"/>
+      <c r="IC131"/>
+      <c r="ID131"/>
+      <c r="IE131"/>
+      <c r="IF131"/>
+      <c r="IG131"/>
+      <c r="IH131"/>
+      <c r="II131"/>
+      <c r="IJ131"/>
+      <c r="IK131"/>
+      <c r="IL131"/>
+      <c r="IM131"/>
+      <c r="IN131"/>
+      <c r="IO131"/>
+      <c r="IP131"/>
+      <c r="IQ131"/>
+      <c r="IR131"/>
+      <c r="IS131"/>
+      <c r="IT131"/>
+      <c r="IU131"/>
+    </row>
+    <row r="132" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A132" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G130" s="21">
-        <v>47</v>
-      </c>
-      <c r="H130" s="14">
-        <f t="shared" si="2"/>
-        <v>564</v>
-      </c>
-    </row>
-    <row r="131" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A131" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="24">
-        <v>22</v>
-      </c>
-      <c r="G131" s="25">
-        <v>2.97</v>
-      </c>
-      <c r="H131" s="14">
-        <f t="shared" si="2"/>
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="132" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A132" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F132" s="20">
-        <v>140</v>
-      </c>
-      <c r="G132" s="21">
-        <v>1.1299999999999999</v>
+      <c r="F132" s="24">
+        <v>25</v>
+      </c>
+      <c r="G132" s="25">
+        <v>5</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="2"/>
-        <v>158.19999999999999</v>
-      </c>
-      <c r="I132"/>
-      <c r="J132"/>
-      <c r="K132"/>
-      <c r="L132"/>
-      <c r="M132"/>
-      <c r="N132"/>
-      <c r="O132"/>
-      <c r="P132"/>
-      <c r="Q132"/>
-      <c r="R132"/>
-      <c r="S132"/>
-      <c r="T132"/>
-      <c r="U132"/>
-      <c r="V132"/>
-      <c r="W132"/>
-      <c r="X132"/>
-      <c r="Y132"/>
-      <c r="Z132"/>
-      <c r="AA132"/>
-      <c r="AB132"/>
-      <c r="AC132"/>
-      <c r="AD132"/>
-      <c r="AE132"/>
-      <c r="AF132"/>
-      <c r="AG132"/>
-      <c r="AH132"/>
-      <c r="AI132"/>
-      <c r="AJ132"/>
-      <c r="AK132"/>
-      <c r="AL132"/>
-      <c r="AM132"/>
-      <c r="AN132"/>
-      <c r="AO132"/>
-      <c r="AP132"/>
-      <c r="AQ132"/>
-      <c r="AR132"/>
-      <c r="AS132"/>
-      <c r="AT132"/>
-      <c r="AU132"/>
-      <c r="AV132"/>
-      <c r="AW132"/>
-      <c r="AX132"/>
-      <c r="AY132"/>
-      <c r="AZ132"/>
-      <c r="BA132"/>
-      <c r="BB132"/>
-      <c r="BC132"/>
-      <c r="BD132"/>
-      <c r="BE132"/>
-      <c r="BF132"/>
-      <c r="BG132"/>
-      <c r="BH132"/>
-      <c r="BI132"/>
-      <c r="BJ132"/>
-      <c r="BK132"/>
-      <c r="BL132"/>
-      <c r="BM132"/>
-      <c r="BN132"/>
-      <c r="BO132"/>
-      <c r="BP132"/>
-      <c r="BQ132"/>
-      <c r="BR132"/>
-      <c r="BS132"/>
-      <c r="BT132"/>
-      <c r="BU132"/>
-      <c r="BV132"/>
-      <c r="BW132"/>
-      <c r="BX132"/>
-      <c r="BY132"/>
-      <c r="BZ132"/>
-      <c r="CA132"/>
-      <c r="CB132"/>
-      <c r="CC132"/>
-      <c r="CD132"/>
-      <c r="CE132"/>
-      <c r="CF132"/>
-      <c r="CG132"/>
-      <c r="CH132"/>
-      <c r="CI132"/>
-      <c r="CJ132"/>
-      <c r="CK132"/>
-      <c r="CL132"/>
-      <c r="CM132"/>
-      <c r="CN132"/>
-      <c r="CO132"/>
-      <c r="CP132"/>
-      <c r="CQ132"/>
-      <c r="CR132"/>
-      <c r="CS132"/>
-      <c r="CT132"/>
-      <c r="CU132"/>
-      <c r="CV132"/>
-      <c r="CW132"/>
-      <c r="CX132"/>
-      <c r="CY132"/>
-      <c r="CZ132"/>
-      <c r="DA132"/>
-      <c r="DB132"/>
-      <c r="DC132"/>
-      <c r="DD132"/>
-      <c r="DE132"/>
-      <c r="DF132"/>
-      <c r="DG132"/>
-      <c r="DH132"/>
-      <c r="DI132"/>
-      <c r="DJ132"/>
-      <c r="DK132"/>
-      <c r="DL132"/>
-      <c r="DM132"/>
-      <c r="DN132"/>
-      <c r="DO132"/>
-      <c r="DP132"/>
-      <c r="DQ132"/>
-      <c r="DR132"/>
-      <c r="DS132"/>
-      <c r="DT132"/>
-      <c r="DU132"/>
-      <c r="DV132"/>
-      <c r="DW132"/>
-      <c r="DX132"/>
-      <c r="DY132"/>
-      <c r="DZ132"/>
-      <c r="EA132"/>
-      <c r="EB132"/>
-      <c r="EC132"/>
-      <c r="ED132"/>
-      <c r="EE132"/>
-      <c r="EF132"/>
-      <c r="EG132"/>
-      <c r="EH132"/>
-      <c r="EI132"/>
-      <c r="EJ132"/>
-      <c r="EK132"/>
-      <c r="EL132"/>
-      <c r="EM132"/>
-      <c r="EN132"/>
-      <c r="EO132"/>
-      <c r="EP132"/>
-      <c r="EQ132"/>
-      <c r="ER132"/>
-      <c r="ES132"/>
-      <c r="ET132"/>
-      <c r="EU132"/>
-      <c r="EV132"/>
-      <c r="EW132"/>
-      <c r="EX132"/>
-      <c r="EY132"/>
-      <c r="EZ132"/>
-      <c r="FA132"/>
-      <c r="FB132"/>
-      <c r="FC132"/>
-      <c r="FD132"/>
-      <c r="FE132"/>
-      <c r="FF132"/>
-      <c r="FG132"/>
-      <c r="FH132"/>
-      <c r="FI132"/>
-      <c r="FJ132"/>
-      <c r="FK132"/>
-      <c r="FL132"/>
-      <c r="FM132"/>
-      <c r="FN132"/>
-      <c r="FO132"/>
-      <c r="FP132"/>
-      <c r="FQ132"/>
-      <c r="FR132"/>
-      <c r="FS132"/>
-      <c r="FT132"/>
-      <c r="FU132"/>
-      <c r="FV132"/>
-      <c r="FW132"/>
-      <c r="FX132"/>
-      <c r="FY132"/>
-      <c r="FZ132"/>
-      <c r="GA132"/>
-      <c r="GB132"/>
-      <c r="GC132"/>
-      <c r="GD132"/>
-      <c r="GE132"/>
-      <c r="GF132"/>
-      <c r="GG132"/>
-      <c r="GH132"/>
-      <c r="GI132"/>
-      <c r="GJ132"/>
-      <c r="GK132"/>
-      <c r="GL132"/>
-      <c r="GM132"/>
-      <c r="GN132"/>
-      <c r="GO132"/>
-      <c r="GP132"/>
-      <c r="GQ132"/>
-      <c r="GR132"/>
-      <c r="GS132"/>
-      <c r="GT132"/>
-      <c r="GU132"/>
-      <c r="GV132"/>
-      <c r="GW132"/>
-      <c r="GX132"/>
-      <c r="GY132"/>
-      <c r="GZ132"/>
-      <c r="HA132"/>
-      <c r="HB132"/>
-      <c r="HC132"/>
-      <c r="HD132"/>
-      <c r="HE132"/>
-      <c r="HF132"/>
-      <c r="HG132"/>
-      <c r="HH132"/>
-      <c r="HI132"/>
-      <c r="HJ132"/>
-      <c r="HK132"/>
-      <c r="HL132"/>
-      <c r="HM132"/>
-      <c r="HN132"/>
-      <c r="HO132"/>
-      <c r="HP132"/>
-      <c r="HQ132"/>
-      <c r="HR132"/>
-      <c r="HS132"/>
-      <c r="HT132"/>
-      <c r="HU132"/>
-      <c r="HV132"/>
-      <c r="HW132"/>
-      <c r="HX132"/>
-      <c r="HY132"/>
-      <c r="HZ132"/>
-      <c r="IA132"/>
-      <c r="IB132"/>
-      <c r="IC132"/>
-      <c r="ID132"/>
-      <c r="IE132"/>
-      <c r="IF132"/>
-      <c r="IG132"/>
-      <c r="IH132"/>
-      <c r="II132"/>
-      <c r="IJ132"/>
-      <c r="IK132"/>
-      <c r="IL132"/>
-      <c r="IM132"/>
-      <c r="IN132"/>
-      <c r="IO132"/>
-      <c r="IP132"/>
-      <c r="IQ132"/>
-      <c r="IR132"/>
-      <c r="IS132"/>
-      <c r="IT132"/>
-      <c r="IU132"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="23" t="s">
@@ -5624,17 +5623,17 @@
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="24">
+        <v>1</v>
+      </c>
+      <c r="G133" s="25">
         <v>12</v>
       </c>
-      <c r="F133" s="24">
-        <v>25</v>
-      </c>
-      <c r="G133" s="25">
-        <v>5</v>
-      </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
@@ -5648,35 +5647,35 @@
         <v>21</v>
       </c>
       <c r="F134" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G134" s="25">
-        <v>12</v>
+        <v>1.36</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
       <c r="A135" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="11"/>
+      <c r="B135" s="29"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F135" s="24">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G135" s="25">
-        <v>1.36</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="2"/>
-        <v>10.88</v>
+        <v>55.000000000000007</v>
       </c>
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
@@ -5690,14 +5689,14 @@
         <v>21</v>
       </c>
       <c r="F136" s="24">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G136" s="25">
-        <v>2.2000000000000002</v>
+        <v>5.5</v>
       </c>
       <c r="H136" s="14">
         <f t="shared" si="2"/>
-        <v>55.000000000000007</v>
+        <v>203.5</v>
       </c>
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
@@ -5711,56 +5710,56 @@
         <v>21</v>
       </c>
       <c r="F137" s="24">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G137" s="25">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>203.5</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
       <c r="A138" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="29"/>
+      <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F138" s="24">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G138" s="25">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>8.8000000000000007</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="11"/>
+      <c r="B139" s="29"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F139" s="24">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G139" s="25">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
@@ -5774,14 +5773,14 @@
         <v>21</v>
       </c>
       <c r="F140" s="24">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G140" s="25">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
@@ -5795,14 +5794,14 @@
         <v>21</v>
       </c>
       <c r="F141" s="24">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G141" s="25">
-        <v>0.9</v>
+        <v>2.85</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
@@ -5816,252 +5815,231 @@
         <v>21</v>
       </c>
       <c r="F142" s="24">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G142" s="25">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>85.5</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="29"/>
+      <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F143" s="24">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G143" s="25">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>40.799999999999997</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="11"/>
+      <c r="B144" s="29"/>
       <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
+      <c r="D144" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="E144" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F144" s="24">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G144" s="25">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E145" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F145" s="24">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G145" s="25">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E146" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F146" s="24">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="G146" s="25">
         <v>10</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A147" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147" s="29"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F147" s="24">
-        <v>9</v>
-      </c>
-      <c r="G147" s="25">
-        <v>10</v>
-      </c>
-      <c r="H147" s="14">
-        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H148" s="47">
-        <f>SUM(H3:H147)</f>
-        <v>19202.601999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="29.1" customHeight="1"/>
-    <row r="150" spans="1:8" ht="30" customHeight="1"/>
+    <row r="147" spans="1:8" ht="48.75" customHeight="1">
+      <c r="H147" s="47">
+        <f>SUM(H3:H146)</f>
+        <v>19381.201999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="29.1" customHeight="1"/>
+    <row r="149" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F111:F113 F21:F25 F80 F18:F19">
+  <conditionalFormatting sqref="F110:F112 F79 F21:F24 F18:F19">
     <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27 F36:F37 F83:F85">
+  <conditionalFormatting sqref="F25:F26 F35:F36 F82:F84">
     <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
+  <conditionalFormatting sqref="F27:F28">
     <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F34">
+  <conditionalFormatting sqref="F32:F33">
     <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="F34">
     <cfRule type="cellIs" dxfId="17" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F40">
+  <conditionalFormatting sqref="F38:F39">
     <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
+  <conditionalFormatting sqref="F40">
     <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45 F81:F82 F101 F86:F87">
+  <conditionalFormatting sqref="F44 F80:F81 F100 F85:F86">
     <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="F48">
     <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54 F69:F79">
+  <conditionalFormatting sqref="F53 F68:F78">
     <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
+  <conditionalFormatting sqref="F57">
     <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
+  <conditionalFormatting sqref="F62">
     <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
+  <conditionalFormatting sqref="F63">
     <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97 F92:F93">
+  <conditionalFormatting sqref="F96 F91:F92">
     <cfRule type="cellIs" dxfId="8" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114 F102">
+  <conditionalFormatting sqref="F113 F101">
     <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104:F107">
+  <conditionalFormatting sqref="F103:F106">
     <cfRule type="cellIs" dxfId="6" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F99">
     <cfRule type="cellIs" dxfId="5" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" dxfId="4" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:F95">
+  <conditionalFormatting sqref="F93:F94">
     <cfRule type="cellIs" dxfId="3" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91">
+  <conditionalFormatting sqref="F90">
     <cfRule type="cellIs" dxfId="2" priority="36" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89:F90">
+  <conditionalFormatting sqref="F88:F89">
     <cfRule type="cellIs" dxfId="1" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
+  <conditionalFormatting sqref="F92">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="8" scale="70" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="8" scale="70" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J117" sqref="J117"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3237,14 +3237,14 @@
         <v>21</v>
       </c>
       <c r="F41" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G41" s="21">
         <v>1.75</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="1"/>
-        <v>24.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4052,14 +4052,14 @@
         <v>21</v>
       </c>
       <c r="F78" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78" s="21">
         <v>0.8</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4079,14 +4079,14 @@
         <v>21</v>
       </c>
       <c r="F79" s="20">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G79" s="21">
         <v>1.1000000000000001</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5668,14 +5668,14 @@
         <v>21</v>
       </c>
       <c r="F135" s="24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G135" s="25">
         <v>2.2000000000000002</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="2"/>
-        <v>55.000000000000007</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
@@ -5710,14 +5710,14 @@
         <v>21</v>
       </c>
       <c r="F137" s="24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G137" s="25">
         <v>0.4</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>8.8000000000000007</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
@@ -5731,14 +5731,14 @@
         <v>21</v>
       </c>
       <c r="F138" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G138" s="25">
         <v>0.5</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
@@ -5918,7 +5918,7 @@
     <row r="147" spans="1:8" ht="48.75" customHeight="1">
       <c r="H147" s="47">
         <f>SUM(H3:H146)</f>
-        <v>19381.201999999997</v>
+        <v>19386.301999999996</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="230">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -251,9 +251,6 @@
     <t>Kit scatole vuote</t>
   </si>
   <si>
-    <t>tessuto lana stock (10)</t>
-  </si>
-  <si>
     <t>tessuto lana stock (9)</t>
   </si>
   <si>
@@ -705,6 +702,12 @@
   </si>
   <si>
     <t>26/4/2018</t>
+  </si>
+  <si>
+    <t>tessuto lana quadretti</t>
+  </si>
+  <si>
+    <t>4/5/2018</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1878,7 +1881,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="60.75" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="5" spans="1:35" ht="24.95" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="6" spans="1:35" ht="24.2" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="7" spans="1:35" ht="25.35" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
@@ -2189,7 +2192,7 @@
     </row>
     <row r="8" spans="1:35" ht="23.25" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="10">
         <v>43174</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="9" spans="1:35" ht="23.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="16"/>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2347,15 +2350,15 @@
     </row>
     <row r="11" spans="1:35" ht="28.35" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" s="17">
         <v>72</v>
@@ -2397,15 +2400,15 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" s="17">
         <v>10</v>
@@ -2601,12 +2604,12 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>16</v>
@@ -2704,10 +2707,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>28</v>
@@ -2731,10 +2734,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
@@ -2753,7 +2756,7 @@
     </row>
     <row r="20" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -2796,10 +2799,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>28</v>
@@ -2823,10 +2826,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19" t="s">
@@ -2848,10 +2851,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>28</v>
@@ -2896,10 +2899,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>28</v>
@@ -2944,13 +2947,13 @@
         <v>33</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>214</v>
-      </c>
       <c r="D28" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>34</v>
@@ -3180,7 +3183,7 @@
     </row>
     <row r="39" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -3203,7 +3206,7 @@
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="28" t="s">
@@ -3225,10 +3228,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>28</v>
@@ -3426,10 +3429,10 @@
         <v>57</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>28</v>
@@ -3453,10 +3456,10 @@
         <v>58</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>28</v>
@@ -3561,7 +3564,7 @@
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -3587,10 +3590,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" s="19"/>
       <c r="E57" s="11" t="s">
@@ -3696,26 +3699,26 @@
         <v>68</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F62" s="20">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G62" s="21">
         <v>3</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3746,7 +3749,7 @@
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>12</v>
@@ -3890,9 +3893,11 @@
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A71" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="19"/>
+        <v>228</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
         <v>49</v>
@@ -3901,19 +3906,19 @@
         <v>12</v>
       </c>
       <c r="F71" s="20">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G71" s="21">
         <v>8.5</v>
       </c>
       <c r="H71" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A72" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -3936,7 +3941,7 @@
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -3959,7 +3964,7 @@
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -3980,7 +3985,7 @@
     </row>
     <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -4001,7 +4006,7 @@
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -4009,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F76" s="20">
         <v>150</v>
@@ -4022,7 +4027,7 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -4030,7 +4035,7 @@
         <v>13</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F77" s="20">
         <v>150</v>
@@ -4043,7 +4048,7 @@
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4064,13 +4069,13 @@
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>28</v>
@@ -4091,7 +4096,7 @@
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -4112,7 +4117,7 @@
     </row>
     <row r="81" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -4133,7 +4138,7 @@
     </row>
     <row r="82" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -4154,16 +4159,16 @@
     </row>
     <row r="83" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>10</v>
@@ -4181,7 +4186,7 @@
     </row>
     <row r="84" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -4202,7 +4207,7 @@
     </row>
     <row r="85" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -4223,7 +4228,7 @@
     </row>
     <row r="86" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -4244,13 +4249,13 @@
     </row>
     <row r="87" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
@@ -4269,13 +4274,13 @@
     </row>
     <row r="88" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D88" s="19"/>
       <c r="E88" s="19" t="s">
@@ -4294,7 +4299,7 @@
     </row>
     <row r="89" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -4315,7 +4320,7 @@
     </row>
     <row r="90" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -4336,7 +4341,7 @@
     </row>
     <row r="91" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -4358,16 +4363,16 @@
     </row>
     <row r="92" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B92" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>21</v>
@@ -4386,72 +4391,72 @@
     </row>
     <row r="93" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C93" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="19" t="s">
-        <v>184</v>
-      </c>
       <c r="E93" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F93" s="20">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G93" s="43">
         <v>2.9</v>
       </c>
       <c r="H93" s="46">
         <f t="shared" si="2"/>
-        <v>295.8</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="I93" s="42"/>
     </row>
     <row r="94" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A94" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B94" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="D94" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F94" s="20">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G94" s="43">
         <v>4.8</v>
       </c>
       <c r="H94" s="46">
         <f t="shared" si="2"/>
-        <v>230.39999999999998</v>
+        <v>220.79999999999998</v>
       </c>
       <c r="I94" s="42"/>
     </row>
     <row r="95" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D95" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>21</v>
@@ -4470,16 +4475,16 @@
     </row>
     <row r="96" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B96" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>21</v>
@@ -4498,16 +4503,16 @@
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>21</v>
@@ -4526,13 +4531,13 @@
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>28</v>
@@ -4554,16 +4559,16 @@
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>21</v>
@@ -4581,7 +4586,7 @@
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -4604,13 +4609,13 @@
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>28</v>
@@ -4631,13 +4636,13 @@
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D102" s="19"/>
       <c r="E102" s="19" t="s">
@@ -4656,16 +4661,16 @@
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>21</v>
@@ -4683,7 +4688,7 @@
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -4704,7 +4709,7 @@
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -4725,16 +4730,16 @@
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>21</v>
@@ -4752,16 +4757,16 @@
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C107" s="19" t="s">
-        <v>200</v>
-      </c>
       <c r="D107" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>34</v>
@@ -4779,7 +4784,7 @@
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A108" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="29">
         <v>43140</v>
@@ -4788,10 +4793,10 @@
         <v>36</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F108" s="24">
         <v>15</v>
@@ -4806,16 +4811,16 @@
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="D109" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>187</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>21</v>
@@ -4833,13 +4838,13 @@
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>28</v>
@@ -4860,13 +4865,13 @@
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>28</v>
@@ -4887,13 +4892,13 @@
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" s="19" t="s">
         <v>202</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>203</v>
       </c>
       <c r="D112" s="19"/>
       <c r="E112" s="19" t="s">
@@ -4912,13 +4917,13 @@
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A113" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>28</v>
@@ -4939,7 +4944,7 @@
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A114" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -4960,7 +4965,7 @@
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
@@ -4981,13 +4986,13 @@
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>9</v>
@@ -5008,13 +5013,13 @@
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A117" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>9</v>
@@ -5035,7 +5040,7 @@
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -5056,19 +5061,19 @@
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D119" s="19" t="s">
+      <c r="E119" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="F119" s="20">
         <v>6</v>
@@ -5083,7 +5088,7 @@
     </row>
     <row r="120" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -5092,19 +5097,19 @@
         <v>21</v>
       </c>
       <c r="F120" s="20">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G120" s="21">
         <v>3</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="2"/>
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -5125,7 +5130,7 @@
     </row>
     <row r="122" spans="1:8" ht="28.35" customHeight="1">
       <c r="A122" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -5146,7 +5151,7 @@
     </row>
     <row r="123" spans="1:8" ht="28.35" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -5167,13 +5172,13 @@
     </row>
     <row r="124" spans="1:8" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B124" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="D124" s="19" t="s">
         <v>13</v>
@@ -5194,13 +5199,13 @@
     </row>
     <row r="125" spans="1:8" ht="28.35" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D125" s="19" t="s">
         <v>13</v>
@@ -5221,7 +5226,7 @@
     </row>
     <row r="126" spans="1:8" ht="28.35" customHeight="1">
       <c r="A126" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -5242,7 +5247,7 @@
     </row>
     <row r="127" spans="1:8" ht="28.35" customHeight="1">
       <c r="A127" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -5263,7 +5268,7 @@
     </row>
     <row r="128" spans="1:8" ht="28.35" customHeight="1">
       <c r="A128" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -5284,12 +5289,12 @@
     </row>
     <row r="129" spans="1:255" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
       <c r="D129" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>12</v>
@@ -5307,7 +5312,7 @@
     </row>
     <row r="130" spans="1:255" ht="28.35" customHeight="1">
       <c r="A130" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -5328,7 +5333,7 @@
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
       <c r="A131" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -5596,7 +5601,7 @@
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
       <c r="A132" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -5617,7 +5622,7 @@
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -5638,7 +5643,7 @@
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
       <c r="A134" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -5659,7 +5664,7 @@
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
       <c r="A135" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="29"/>
       <c r="C135" s="11"/>
@@ -5668,19 +5673,19 @@
         <v>21</v>
       </c>
       <c r="F135" s="24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G135" s="25">
         <v>2.2000000000000002</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="2"/>
-        <v>50.6</v>
+        <v>48.400000000000006</v>
       </c>
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
       <c r="A136" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="29"/>
       <c r="C136" s="11"/>
@@ -5701,11 +5706,13 @@
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
       <c r="A137" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="29"/>
       <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
+      <c r="D137" s="11">
+        <v>47</v>
+      </c>
       <c r="E137" s="11" t="s">
         <v>21</v>
       </c>
@@ -5722,7 +5729,7 @@
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
       <c r="A138" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -5731,19 +5738,19 @@
         <v>21</v>
       </c>
       <c r="F138" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G138" s="25">
         <v>0.5</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="29"/>
       <c r="C139" s="11"/>
@@ -5752,19 +5759,19 @@
         <v>21</v>
       </c>
       <c r="F139" s="24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G139" s="25">
         <v>1.1000000000000001</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>31.900000000000002</v>
       </c>
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
       <c r="A140" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="29"/>
       <c r="C140" s="11"/>
@@ -5785,7 +5792,7 @@
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
       <c r="A141" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="29"/>
       <c r="C141" s="11"/>
@@ -5806,7 +5813,7 @@
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="29"/>
       <c r="C142" s="11"/>
@@ -5827,7 +5834,7 @@
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -5848,12 +5855,12 @@
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="29"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E144" s="11" t="s">
         <v>21</v>
@@ -5871,12 +5878,12 @@
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E145" s="11" t="s">
         <v>21</v>
@@ -5894,12 +5901,12 @@
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E146" s="11" t="s">
         <v>21</v>
@@ -5918,7 +5925,7 @@
     <row r="147" spans="1:8" ht="48.75" customHeight="1">
       <c r="H147" s="47">
         <f>SUM(H3:H146)</f>
-        <v>19386.301999999996</v>
+        <v>19563.002</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2257,14 +2257,14 @@
         <v>12</v>
       </c>
       <c r="F9" s="17">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -5694,14 +5694,14 @@
         <v>21</v>
       </c>
       <c r="F136" s="24">
-        <v>37</v>
+        <v>3625</v>
       </c>
       <c r="G136" s="25">
         <v>5.5</v>
       </c>
       <c r="H136" s="14">
         <f t="shared" si="2"/>
-        <v>203.5</v>
+        <v>19937.5</v>
       </c>
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
@@ -5843,14 +5843,14 @@
         <v>21</v>
       </c>
       <c r="F143" s="24">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="G143" s="25">
         <v>3</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>78</v>
+        <v>777</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
@@ -5925,7 +5925,7 @@
     <row r="147" spans="1:8" ht="48.75" customHeight="1">
       <c r="H147" s="47">
         <f>SUM(H3:H146)</f>
-        <v>19563.002</v>
+        <v>39990.002000000008</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="232">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -708,6 +708,12 @@
   </si>
   <si>
     <t>4/5/2018</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2361,14 +2367,14 @@
         <v>151</v>
       </c>
       <c r="F11" s="17">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G11" s="13">
         <v>0.5</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>31.5</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -3621,14 +3627,14 @@
         <v>12</v>
       </c>
       <c r="F58" s="24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" s="25">
         <v>4.8499999999999996</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="1"/>
-        <v>58.199999999999996</v>
+        <v>53.349999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4406,14 +4412,14 @@
         <v>21</v>
       </c>
       <c r="F93" s="20">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G93" s="43">
         <v>2.9</v>
       </c>
       <c r="H93" s="46">
         <f t="shared" si="2"/>
-        <v>292.89999999999998</v>
+        <v>287.09999999999997</v>
       </c>
       <c r="I93" s="42"/>
     </row>
@@ -4434,14 +4440,14 @@
         <v>21</v>
       </c>
       <c r="F94" s="20">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G94" s="43">
         <v>4.8</v>
       </c>
       <c r="H94" s="46">
         <f t="shared" si="2"/>
-        <v>220.79999999999998</v>
+        <v>192</v>
       </c>
       <c r="I94" s="42"/>
     </row>
@@ -4825,15 +4831,15 @@
       <c r="E109" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F109" s="20">
-        <v>1116</v>
+      <c r="F109" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="G109" s="21">
         <v>0.66</v>
       </c>
-      <c r="H109" s="14">
-        <f t="shared" si="2"/>
-        <v>736.56000000000006</v>
+      <c r="H109" s="14" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5214,14 +5220,14 @@
         <v>12</v>
       </c>
       <c r="F125" s="20">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G125" s="21">
         <v>2.21</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="2"/>
-        <v>442</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="28.35" customHeight="1">
@@ -5249,7 +5255,9 @@
       <c r="A127" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="19"/>
+      <c r="B127" s="19" t="s">
+        <v>230</v>
+      </c>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
       <c r="E127" s="11" t="s">
@@ -5694,14 +5702,14 @@
         <v>21</v>
       </c>
       <c r="F136" s="24">
-        <v>3625</v>
+        <v>17</v>
       </c>
       <c r="G136" s="25">
         <v>5.5</v>
       </c>
       <c r="H136" s="14">
         <f t="shared" si="2"/>
-        <v>19937.5</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
@@ -5710,21 +5718,19 @@
       </c>
       <c r="B137" s="29"/>
       <c r="C137" s="11"/>
-      <c r="D137" s="11">
-        <v>47</v>
-      </c>
+      <c r="D137" s="11"/>
       <c r="E137" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F137" s="24">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G137" s="25">
         <v>0.4</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>8.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
@@ -5822,14 +5828,14 @@
         <v>21</v>
       </c>
       <c r="F142" s="24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G142" s="25">
         <v>3.4</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>40.799999999999997</v>
+        <v>30.599999999999998</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
@@ -5843,14 +5849,14 @@
         <v>21</v>
       </c>
       <c r="F143" s="24">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="G143" s="25">
         <v>3</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>777</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
@@ -5923,9 +5929,9 @@
       </c>
     </row>
     <row r="147" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H147" s="47">
+      <c r="H147" s="47" t="e">
         <f>SUM(H3:H146)</f>
-        <v>39990.002000000008</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$146</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$130</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$151</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$135</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="237">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -713,7 +713,22 @@
     <t>35</t>
   </si>
   <si>
-    <t>,</t>
+    <t>Aghi a mano 3-9</t>
+  </si>
+  <si>
+    <t>Aghi a mano 9</t>
+  </si>
+  <si>
+    <t>Aghi a mano 6</t>
+  </si>
+  <si>
+    <t>Aghi a mano 7</t>
+  </si>
+  <si>
+    <t>Aghi a mano 10</t>
+  </si>
+  <si>
+    <t>ATI</t>
   </si>
 </sst>
 </file>
@@ -724,7 +739,7 @@
     <numFmt numFmtId="164" formatCode="\€0.00\ ;&quot;-€&quot;0.00"/>
     <numFmt numFmtId="165" formatCode="[$€-410]\ #,##0.00;[Red]\-[$€-410]\ #,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -852,8 +867,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,6 +946,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1205,10 +1233,10 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="13" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1867,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IU149"/>
+  <dimension ref="A1:IU154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1881,21 +1909,21 @@
     <col min="4" max="5" width="19.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="2" customWidth="1"/>
     <col min="9" max="16384" width="23.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:35" ht="29.1" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -1969,7 +1997,7 @@
         <v>16.5</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H17" si="0">F3*G3</f>
+        <f t="shared" ref="H3:H22" si="0">F3*G3</f>
         <v>346.5</v>
       </c>
       <c r="I3" s="8"/>
@@ -2263,14 +2291,14 @@
         <v>12</v>
       </c>
       <c r="F9" s="17">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2411,7 +2439,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>151</v>
@@ -2456,25 +2484,25 @@
     </row>
     <row r="13" spans="1:35" ht="28.35" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="17">
         <v>15</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="17">
-        <v>5</v>
-      </c>
       <c r="G13" s="13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -2506,25 +2534,25 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="16"/>
+        <v>233</v>
+      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="F14" s="17">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G14" s="13">
-        <v>8.3000000000000007</v>
+        <v>0.6</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="0"/>
-        <v>249.00000000000003</v>
+        <v>4.8</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -2556,29 +2584,25 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="10">
-        <v>43174</v>
-      </c>
-      <c r="C15" s="16">
-        <v>5</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F15" s="17">
         <v>4</v>
       </c>
       <c r="G15" s="13">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -2610,25 +2634,25 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="F16" s="17">
-        <v>699</v>
+        <v>5</v>
       </c>
       <c r="G16" s="13">
-        <v>1.8280000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="0"/>
-        <v>1277.7720000000002</v>
+        <v>3</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -2658,27 +2682,27 @@
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="1:35" ht="28.35" customHeight="1">
+    <row r="17" spans="1:35" ht="27.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F17" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17" s="13">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1.2</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -2708,395 +2732,542 @@
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
     </row>
-    <row r="18" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:35" ht="28.35" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="17">
+        <v>5</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+    </row>
+    <row r="19" spans="1:35" ht="28.35" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="17">
+        <v>30</v>
+      </c>
+      <c r="G19" s="13">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="0"/>
+        <v>249.00000000000003</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+    </row>
+    <row r="20" spans="1:35" ht="28.35" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>43174</v>
+      </c>
+      <c r="C20" s="16">
+        <v>5</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="17">
+        <v>4</v>
+      </c>
+      <c r="G20" s="13">
+        <v>2</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+    </row>
+    <row r="21" spans="1:35" ht="28.35" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="17">
+        <v>699</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="0"/>
+        <v>1277.7720000000002</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+    </row>
+    <row r="22" spans="1:35" ht="28.35" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="17">
+        <v>5</v>
+      </c>
+      <c r="G22" s="13">
+        <v>2</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+    </row>
+    <row r="23" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B23" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="20">
+      <c r="E23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="20">
         <v>2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G23" s="21">
         <v>3</v>
       </c>
-      <c r="H18" s="14">
-        <f t="shared" ref="H18:H66" si="1">F18*G18</f>
+      <c r="H23" s="14">
+        <f t="shared" ref="H23:H71" si="1">F23*G23</f>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A19" s="18" t="s">
+    <row r="24" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B24" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F24" s="20">
         <v>250</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G24" s="21">
         <v>0.19</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H24" s="14">
         <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A20" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21">
-        <v>6</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="24">
-        <v>25</v>
-      </c>
-      <c r="G21" s="25">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="1"/>
-        <v>28.499999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="20">
-        <v>4</v>
-      </c>
-      <c r="G22" s="21">
-        <v>8.5</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="20">
-        <v>10</v>
-      </c>
-      <c r="G23" s="21">
-        <v>25.13</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="1"/>
-        <v>251.29999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="20">
-        <v>6</v>
-      </c>
-      <c r="G24" s="21">
-        <v>17</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-    </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A25" s="18" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="20">
-        <v>3</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F25" s="20"/>
       <c r="G25" s="21">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="1"/>
-        <v>23.700000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A26" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="20">
-        <v>15</v>
-      </c>
-      <c r="G26" s="21">
-        <v>2.76</v>
+      <c r="A26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="24">
+        <v>25</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1.1399999999999999</v>
       </c>
       <c r="H26" s="14">
         <f t="shared" si="1"/>
-        <v>41.4</v>
+        <v>28.499999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A27" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
+      <c r="A27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="20">
+        <v>4</v>
       </c>
       <c r="G27" s="21">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="H27" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A28" s="18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F28" s="20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G28" s="21">
-        <v>2.6</v>
+        <v>25.13</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>251.29999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A29" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E29" s="19" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F29" s="20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G29" s="21">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A30" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="12">
-        <v>0</v>
-      </c>
-      <c r="G30" s="11">
-        <v>3.68</v>
+      <c r="A30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="20">
+        <v>3</v>
+      </c>
+      <c r="G30" s="21">
+        <v>7.9</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.700000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A31" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>216</v>
+      </c>
       <c r="D31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="28" t="s">
-        <v>21</v>
+      <c r="E31" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="F31" s="20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G31" s="21">
-        <v>0.1</v>
+        <v>2.76</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="1"/>
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A32" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A32" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="20">
-        <v>15</v>
-      </c>
       <c r="G32" s="21">
-        <v>3</v>
+        <v>9.75</v>
       </c>
       <c r="H32" s="14">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A33" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="28" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="F33" s="20">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G33" s="21">
-        <v>0.25</v>
+        <v>2.6</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A34" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="28" t="s">
-        <v>21</v>
+      <c r="E34" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="F34" s="20">
         <v>0</v>
       </c>
       <c r="G34" s="21">
-        <v>85</v>
+        <v>2.7</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" si="1"/>
@@ -3104,20 +3275,20 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A35" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="A35" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="12">
         <v>0</v>
       </c>
-      <c r="G35" s="21">
-        <v>177</v>
+      <c r="G35" s="11">
+        <v>3.68</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="1"/>
@@ -3126,11 +3297,13 @@
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A36" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="D36" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E36" s="28" t="s">
         <v>21</v>
       </c>
@@ -3138,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="21">
-        <v>110</v>
+        <v>0.1</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="1"/>
@@ -3147,7 +3320,7 @@
     </row>
     <row r="37" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A37" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -3156,19 +3329,19 @@
         <v>21</v>
       </c>
       <c r="F37" s="20">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="G37" s="21">
-        <v>1.18</v>
+        <v>3</v>
       </c>
       <c r="H37" s="14">
         <f t="shared" si="1"/>
-        <v>200.6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A38" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -3177,30 +3350,32 @@
         <v>21</v>
       </c>
       <c r="F38" s="20">
-        <v>575</v>
+        <v>50</v>
       </c>
       <c r="G38" s="21">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="1"/>
-        <v>201.25</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="28" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F39" s="20">
-        <v>60</v>
-      </c>
-      <c r="G39" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="21">
+        <v>85</v>
+      </c>
       <c r="H39" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3208,57 +3383,49 @@
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" s="19"/>
-      <c r="C40" s="19" t="s">
-        <v>200</v>
-      </c>
+      <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" s="21">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>28</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F41" s="20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G41" s="21">
-        <v>1.75</v>
+        <v>110</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -3267,228 +3434,220 @@
         <v>21</v>
       </c>
       <c r="F42" s="20">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="G42" s="21">
-        <v>0.72</v>
+        <v>1.18</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="D43" s="19"/>
       <c r="E43" s="28" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F43" s="20">
-        <v>25</v>
+        <v>575</v>
       </c>
       <c r="G43" s="21">
-        <v>3</v>
+        <v>0.35</v>
       </c>
       <c r="H43" s="14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="20">
-        <v>20</v>
-      </c>
-      <c r="G44" s="21">
-        <v>1.8</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G44" s="21"/>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="C45" s="19" t="s">
+        <v>200</v>
+      </c>
       <c r="D45" s="19"/>
-      <c r="E45" s="19" t="s">
-        <v>12</v>
+      <c r="E45" s="28" t="s">
+        <v>21</v>
       </c>
       <c r="F45" s="20">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G45" s="21">
         <v>1</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>202</v>
+      </c>
       <c r="D46" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="20">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="G46" s="21">
-        <v>0.15</v>
+        <v>1.75</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="11"/>
+      <c r="A47" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" s="21">
-        <v>0.22</v>
+        <v>0.72</v>
       </c>
       <c r="H47" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>21</v>
+      <c r="A48" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="F48" s="20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G48" s="21">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>34</v>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="F49" s="20">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G49" s="21">
-        <v>5.95</v>
+        <v>1.8</v>
       </c>
       <c r="H49" s="14">
         <f t="shared" si="1"/>
-        <v>11.9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>21</v>
+        <v>51</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="F50" s="20">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G50" s="21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H50" s="14">
         <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A51" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>171</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="19" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="20">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="G51" s="21">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A52" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="19"/>
+      <c r="A52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="11" t="s">
@@ -3498,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="21">
-        <v>3</v>
+        <v>0.22</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="1"/>
@@ -3506,637 +3665,645 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A53" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="A53" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F53" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="21">
-        <v>1.5</v>
+        <v>2.13</v>
       </c>
       <c r="H53" s="14">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A54" s="18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
+      <c r="D54" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E54" s="11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F54" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G54" s="21">
-        <v>5.35</v>
+        <v>5.95</v>
       </c>
       <c r="H54" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A55" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E55" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F55" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G55" s="21">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.1999999999999993</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="D56" s="19" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F56" s="20">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G56" s="21">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="1"/>
-        <v>43.56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>181</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G57" s="21">
-        <v>0.44</v>
+        <v>3</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="1"/>
-        <v>3.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A58" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="A58" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="24">
-        <v>11</v>
-      </c>
-      <c r="G58" s="25">
-        <v>4.8499999999999996</v>
+        <v>21</v>
+      </c>
+      <c r="F58" s="20">
+        <v>1</v>
+      </c>
+      <c r="G58" s="21">
+        <v>1.5</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="1"/>
-        <v>53.349999999999994</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A59" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="A59" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
       <c r="E59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="24">
-        <v>30</v>
-      </c>
-      <c r="G59" s="25">
-        <v>5.04</v>
+        <v>21</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0</v>
+      </c>
+      <c r="G59" s="21">
+        <v>5.35</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="1"/>
-        <v>151.19999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F60" s="20">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G60" s="21">
-        <v>8.3000000000000007</v>
+        <v>2</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="1"/>
-        <v>207.50000000000003</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A61" s="18" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19" t="s">
-        <v>21</v>
+      <c r="D61" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F61" s="20">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G61" s="21">
-        <v>0.75</v>
+        <v>1.98</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="E62" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F62" s="20">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="G62" s="21">
-        <v>3</v>
+        <v>0.44</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A63" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19" t="s">
+      <c r="A63" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="20">
-        <v>0</v>
-      </c>
-      <c r="G63" s="21">
-        <v>3</v>
+      <c r="F63" s="24">
+        <v>11</v>
+      </c>
+      <c r="G63" s="25">
+        <v>4.8499999999999996</v>
       </c>
       <c r="H63" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>53.349999999999994</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A64" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" s="19" t="s">
+      <c r="A64" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="29"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="20">
-        <v>35</v>
-      </c>
-      <c r="G64" s="21">
-        <v>3</v>
+      <c r="F64" s="24">
+        <v>30</v>
+      </c>
+      <c r="G64" s="25">
+        <v>5.04</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A65" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31" t="s">
+      <c r="A65" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="20">
-        <v>18</v>
-      </c>
-      <c r="G65" s="32">
-        <v>3</v>
-      </c>
-      <c r="H65" s="33">
+        <v>25</v>
+      </c>
+      <c r="G65" s="21">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H65" s="14">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>207.50000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A66" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31" t="s">
+      <c r="A66" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="20">
         <v>12</v>
       </c>
-      <c r="F66" s="20">
-        <v>7</v>
-      </c>
-      <c r="G66" s="32">
-        <v>3</v>
-      </c>
-      <c r="H66" s="33">
+      <c r="G66" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="H66" s="14">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A67" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="E67" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F67" s="20">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G67" s="21">
-        <v>4.9000000000000004</v>
+        <v>3</v>
       </c>
       <c r="H67" s="14">
-        <f t="shared" ref="H67:H146" si="2">F67*G67</f>
-        <v>210.70000000000002</v>
+        <f t="shared" si="1"/>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A68" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F68" s="20">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G68" s="21">
-        <v>33.5</v>
+        <v>3</v>
       </c>
       <c r="H68" s="14">
-        <f t="shared" si="2"/>
-        <v>2043.5</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="D69" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="E69" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F69" s="20">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G69" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A70" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19" t="s">
-        <v>21</v>
+      <c r="A70" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31" t="s">
+        <v>12</v>
       </c>
       <c r="F70" s="20">
-        <v>19</v>
-      </c>
-      <c r="G70" s="21">
-        <v>4.3</v>
-      </c>
-      <c r="H70" s="14">
-        <f t="shared" si="2"/>
-        <v>81.7</v>
+        <v>18</v>
+      </c>
+      <c r="G70" s="32">
+        <v>3</v>
+      </c>
+      <c r="H70" s="33">
+        <f t="shared" si="1"/>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A71" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" s="19" t="s">
+      <c r="A71" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="20">
-        <v>24</v>
-      </c>
-      <c r="G71" s="21">
-        <v>8.5</v>
-      </c>
-      <c r="H71" s="14">
-        <f t="shared" si="2"/>
-        <v>204</v>
+        <v>7</v>
+      </c>
+      <c r="G71" s="32">
+        <v>3</v>
+      </c>
+      <c r="H71" s="33">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A72" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="D72" s="19"/>
       <c r="E72" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="20">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G72" s="21">
-        <v>8.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H72" s="14">
-        <f t="shared" si="2"/>
-        <v>102</v>
+        <f t="shared" ref="H72:H151" si="2">F72*G72</f>
+        <v>210.70000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
-      <c r="D73" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="D73" s="19"/>
       <c r="E73" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F73" s="20">
-        <v>1.5</v>
+        <v>61</v>
       </c>
       <c r="G73" s="21">
-        <v>5</v>
+        <v>33.5</v>
       </c>
       <c r="H73" s="14">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>2043.5</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F74" s="20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G74" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H74" s="14">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F75" s="20">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G75" s="21">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H75" s="14">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B76" s="19"/>
+        <v>228</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="C76" s="19"/>
       <c r="D76" s="19" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F76" s="20">
-        <v>150</v>
-      </c>
-      <c r="G76" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="G76" s="21">
+        <v>8.5</v>
+      </c>
       <c r="H76" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F77" s="20">
-        <v>150</v>
-      </c>
-      <c r="G77" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="G77" s="21">
+        <v>8.5</v>
+      </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
+      <c r="D78" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="E78" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F78" s="20">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="G78" s="21">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>28</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F79" s="20">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G79" s="21">
-        <v>1.1000000000000001</v>
+        <v>5</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>13.200000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F80" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80" s="21">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
+      <c r="D81" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E81" s="19" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F81" s="20">
-        <v>0</v>
-      </c>
-      <c r="G81" s="21">
-        <v>1.5</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G81" s="21"/>
       <c r="H81" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4144,76 +4311,76 @@
     </row>
     <row r="82" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
+      <c r="D82" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E82" s="19" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F82" s="20">
-        <v>3</v>
-      </c>
-      <c r="G82" s="21">
-        <v>1.5</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G82" s="21"/>
       <c r="H82" s="14">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>188</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="19" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F83" s="20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G83" s="21">
-        <v>12.5</v>
+        <v>0.8</v>
       </c>
       <c r="H83" s="14">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E84" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F84" s="20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G84" s="21">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H84" s="14">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>13.200000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -4222,19 +4389,19 @@
         <v>21</v>
       </c>
       <c r="F85" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G85" s="21">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -4246,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="G86" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H86" s="14">
         <f t="shared" si="2"/>
@@ -4255,57 +4422,55 @@
     </row>
     <row r="87" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>180</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F87" s="20">
-        <v>50</v>
-      </c>
-      <c r="G87" s="38">
-        <v>0.19</v>
-      </c>
-      <c r="H87" s="44">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>3</v>
+      </c>
+      <c r="G87" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="H87" s="14">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>188</v>
+      </c>
       <c r="E88" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="37">
+        <v>10</v>
+      </c>
+      <c r="F88" s="20">
+        <v>4</v>
+      </c>
+      <c r="G88" s="21">
+        <v>12.5</v>
+      </c>
+      <c r="H88" s="14">
+        <f t="shared" si="2"/>
         <v>50</v>
-      </c>
-      <c r="G88" s="40">
-        <v>0.19</v>
-      </c>
-      <c r="H88" s="46">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -4314,19 +4479,19 @@
         <v>21</v>
       </c>
       <c r="F89" s="20">
-        <v>3</v>
-      </c>
-      <c r="G89" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="H89" s="45">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
+        <v>2</v>
+      </c>
+      <c r="G89" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="H89" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -4338,16 +4503,16 @@
         <v>0</v>
       </c>
       <c r="G90" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="H90" s="44">
+        <v>1</v>
+      </c>
+      <c r="H90" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -4356,531 +4521,509 @@
         <v>21</v>
       </c>
       <c r="F91" s="20">
-        <v>10</v>
-      </c>
-      <c r="G91" s="43">
+        <v>0</v>
+      </c>
+      <c r="G91" s="21">
         <v>1</v>
       </c>
-      <c r="H91" s="46">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I91" s="41"/>
+      <c r="H91" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>183</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="D92" s="19"/>
       <c r="E92" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F92" s="20">
-        <v>104</v>
-      </c>
-      <c r="G92" s="43">
-        <v>3.45</v>
-      </c>
-      <c r="H92" s="46">
-        <f>F92*G92</f>
-        <v>358.8</v>
-      </c>
-      <c r="I92" s="42"/>
+        <v>50</v>
+      </c>
+      <c r="G92" s="38">
+        <v>0.19</v>
+      </c>
+      <c r="H92" s="44">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="93" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D93" s="19" t="s">
-        <v>183</v>
-      </c>
+      <c r="D93" s="19"/>
       <c r="E93" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="20">
-        <v>99</v>
-      </c>
-      <c r="G93" s="43">
-        <v>2.9</v>
+      <c r="F93" s="37">
+        <v>50</v>
+      </c>
+      <c r="G93" s="40">
+        <v>0.19</v>
       </c>
       <c r="H93" s="46">
         <f t="shared" si="2"/>
-        <v>287.09999999999997</v>
-      </c>
-      <c r="I93" s="42"/>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="94" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>183</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
       <c r="E94" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F94" s="20">
-        <v>40</v>
-      </c>
-      <c r="G94" s="43">
-        <v>4.8</v>
-      </c>
-      <c r="H94" s="46">
-        <f t="shared" si="2"/>
-        <v>192</v>
-      </c>
-      <c r="I94" s="42"/>
+        <v>3</v>
+      </c>
+      <c r="G94" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="H94" s="45">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999996</v>
+      </c>
     </row>
     <row r="95" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>183</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
       <c r="E95" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F95" s="20">
         <v>0</v>
       </c>
-      <c r="G95" s="43">
-        <v>3.45</v>
-      </c>
-      <c r="H95" s="46">
+      <c r="G95" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H95" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I95" s="42"/>
     </row>
     <row r="96" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>183</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
       <c r="E96" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F96" s="20">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G96" s="43">
-        <v>3.75</v>
+        <v>1</v>
       </c>
       <c r="H96" s="46">
         <f t="shared" si="2"/>
-        <v>183.75</v>
-      </c>
-      <c r="I96" s="42"/>
+        <v>10</v>
+      </c>
+      <c r="I96" s="41"/>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F97" s="20">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="G97" s="43">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="H97" s="46">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f>F97*G97</f>
+        <v>358.8</v>
       </c>
       <c r="I97" s="42"/>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F98" s="20">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="G98" s="43">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H98" s="46">
         <f t="shared" si="2"/>
-        <v>38.400000000000006</v>
+        <v>287.09999999999997</v>
       </c>
       <c r="I98" s="42"/>
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F99" s="20">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G99" s="43">
-        <v>11.7</v>
+        <v>4.8</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="I99" s="42"/>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
+        <v>96</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="D100" s="19" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F100" s="20">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G100" s="43">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F101" s="20">
-        <v>30</v>
-      </c>
-      <c r="G101" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="H101" s="45">
-        <f t="shared" si="2"/>
-        <v>24.9</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G101" s="43">
+        <v>3.75</v>
+      </c>
+      <c r="H101" s="46">
+        <f t="shared" si="2"/>
+        <v>183.75</v>
+      </c>
+      <c r="I101" s="42"/>
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D102" s="19"/>
+        <v>170</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>200</v>
+      </c>
       <c r="E102" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F102" s="20">
-        <v>139</v>
-      </c>
-      <c r="G102" s="21">
-        <v>4.7</v>
-      </c>
-      <c r="H102" s="14">
-        <f t="shared" si="2"/>
-        <v>653.30000000000007</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G102" s="43">
+        <v>4</v>
+      </c>
+      <c r="H102" s="46">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="I102" s="42"/>
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F103" s="20">
-        <v>105</v>
-      </c>
-      <c r="G103" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="H103" s="14">
-        <f t="shared" si="2"/>
-        <v>262.5</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G103" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="H103" s="46">
+        <f t="shared" si="2"/>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="I103" s="42"/>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="34"/>
+        <v>99</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="E104" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F104" s="20">
-        <v>6</v>
-      </c>
-      <c r="G104" s="21">
-        <v>2</v>
-      </c>
-      <c r="H104" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="43">
+        <v>11.7</v>
+      </c>
+      <c r="H104" s="46">
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
+      <c r="D105" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="E105" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F105" s="20">
-        <v>20</v>
-      </c>
-      <c r="G105" s="21">
-        <v>2</v>
-      </c>
-      <c r="H105" s="14">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <v>170</v>
+      </c>
+      <c r="G105" s="43">
+        <v>2.4</v>
+      </c>
+      <c r="H105" s="46">
+        <f t="shared" si="2"/>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>173</v>
+        <v>28</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F106" s="20">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G106" s="21">
-        <v>41.34</v>
-      </c>
-      <c r="H106" s="14">
-        <f t="shared" si="2"/>
-        <v>289.38</v>
+        <v>0.83</v>
+      </c>
+      <c r="H106" s="45">
+        <f t="shared" si="2"/>
+        <v>24.9</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>157</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="D107" s="19"/>
       <c r="E107" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F107" s="20">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="G107" s="21">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H107" s="14">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>653.30000000000007</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A108" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="29">
-        <v>43140</v>
-      </c>
-      <c r="C108" s="11">
-        <v>36</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F108" s="24">
-        <v>15</v>
-      </c>
-      <c r="G108" s="14">
-        <v>6</v>
+      <c r="A108" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" s="20">
+        <v>105</v>
+      </c>
+      <c r="G108" s="21">
+        <v>2.5</v>
       </c>
       <c r="H108" s="14">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>186</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F109" s="20" t="s">
-        <v>231</v>
+      <c r="F109" s="20">
+        <v>6</v>
       </c>
       <c r="G109" s="21">
-        <v>0.66</v>
-      </c>
-      <c r="H109" s="14" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>2</v>
+      </c>
+      <c r="H109" s="14">
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>28</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
       <c r="E110" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F110" s="20">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G110" s="21">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="H110" s="14">
         <f t="shared" si="2"/>
-        <v>14.25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>21</v>
@@ -4889,212 +5032,224 @@
         <v>7</v>
       </c>
       <c r="G111" s="21">
-        <v>1.72</v>
+        <v>41.34</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>12.04</v>
+        <v>289.38</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D112" s="19"/>
+        <v>199</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="E112" s="19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F112" s="20">
+        <v>30</v>
+      </c>
+      <c r="G112" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="H112" s="14">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A113" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="29">
+        <v>43140</v>
+      </c>
+      <c r="C113" s="11">
+        <v>36</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F113" s="24">
+        <v>15</v>
+      </c>
+      <c r="G113" s="14">
         <v>6</v>
       </c>
-      <c r="G112" s="21">
-        <v>2.9</v>
-      </c>
-      <c r="H112" s="14">
-        <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A113" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F113" s="20">
-        <v>3</v>
-      </c>
-      <c r="G113" s="21">
-        <v>1.72</v>
-      </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>5.16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A114" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="35"/>
+        <v>109</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="E114" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F114" s="20">
-        <v>7</v>
+        <v>901</v>
       </c>
       <c r="G114" s="21">
-        <v>5</v>
+        <v>0.66</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>594.66000000000008</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E115" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F115" s="20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G115" s="21">
-        <v>1</v>
+        <v>2.85</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F116" s="20">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="G116" s="21">
-        <v>2.69</v>
+        <v>1.72</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>454.61</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A117" s="18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D117" s="19"/>
       <c r="E117" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F117" s="20">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="G117" s="21">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="2"/>
-        <v>372.9</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E118" s="19" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F118" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G118" s="21">
-        <v>2.87</v>
+        <v>1.72</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>14.350000000000001</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>120</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="35"/>
       <c r="E119" s="19" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F119" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G119" s="21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -5103,180 +5258,184 @@
         <v>21</v>
       </c>
       <c r="F120" s="20">
-        <v>582</v>
+        <v>9</v>
       </c>
       <c r="G120" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="2"/>
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
+        <v>116</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E121" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F121" s="20">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="G121" s="21">
-        <v>1.96</v>
+        <v>2.69</v>
       </c>
       <c r="H121" s="14">
         <f t="shared" si="2"/>
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A122" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
+        <v>454.61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A122" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F122" s="24">
-        <v>7</v>
-      </c>
-      <c r="G122" s="25">
-        <v>1.97</v>
+      <c r="F122" s="20">
+        <v>113</v>
+      </c>
+      <c r="G122" s="21">
+        <v>3.3</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="2"/>
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="28.35" customHeight="1">
+        <v>372.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
-      <c r="E123" s="11" t="s">
-        <v>12</v>
+      <c r="E123" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="F123" s="20">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="G123" s="21">
+        <v>2.87</v>
+      </c>
+      <c r="H123" s="14">
+        <f t="shared" si="2"/>
+        <v>14.350000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A124" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F124" s="20">
+        <v>6</v>
+      </c>
+      <c r="G124" s="21">
         <v>7</v>
       </c>
-      <c r="H123" s="14">
-        <f t="shared" si="2"/>
-        <v>665</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A124" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="20">
-        <v>250</v>
-      </c>
-      <c r="G124" s="21">
-        <v>2.69</v>
-      </c>
       <c r="H124" s="14">
         <f t="shared" si="2"/>
-        <v>672.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="28.35" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>12</v>
+        <v>122</v>
+      </c>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="F125" s="20">
-        <v>150</v>
+        <v>582</v>
       </c>
       <c r="G125" s="21">
-        <v>2.21</v>
+        <v>3</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="2"/>
-        <v>331.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A126" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="24">
-        <v>100</v>
-      </c>
-      <c r="G126" s="25">
-        <v>1.43</v>
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A126" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="20">
+        <v>1</v>
+      </c>
+      <c r="G126" s="21">
+        <v>1.96</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A127" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
+      <c r="A127" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
       <c r="E127" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="20">
-        <v>4</v>
-      </c>
-      <c r="G127" s="21">
-        <v>8.5</v>
+      <c r="F127" s="24">
+        <v>7</v>
+      </c>
+      <c r="G127" s="25">
+        <v>1.97</v>
       </c>
       <c r="H127" s="14">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.35" customHeight="1">
       <c r="A128" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -5285,457 +5444,471 @@
         <v>12</v>
       </c>
       <c r="F128" s="20">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G128" s="21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H128" s="14">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>665</v>
       </c>
     </row>
     <row r="129" spans="1:255" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
+        <v>126</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>221</v>
+      </c>
       <c r="D129" s="19" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="20">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="G129" s="21">
-        <v>47</v>
+        <v>2.69</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>564</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="130" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A130" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="A130" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E130" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F130" s="24">
-        <v>22</v>
-      </c>
-      <c r="G130" s="25">
-        <v>2.97</v>
+      <c r="F130" s="20">
+        <v>150</v>
+      </c>
+      <c r="G130" s="21">
+        <v>2.21</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>65.34</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A131" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F131" s="20">
-        <v>140</v>
-      </c>
-      <c r="G131" s="21">
-        <v>1.1299999999999999</v>
+      <c r="A131" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="24">
+        <v>100</v>
+      </c>
+      <c r="G131" s="25">
+        <v>1.43</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>158.19999999999999</v>
-      </c>
-      <c r="I131"/>
-      <c r="J131"/>
-      <c r="K131"/>
-      <c r="L131"/>
-      <c r="M131"/>
-      <c r="N131"/>
-      <c r="O131"/>
-      <c r="P131"/>
-      <c r="Q131"/>
-      <c r="R131"/>
-      <c r="S131"/>
-      <c r="T131"/>
-      <c r="U131"/>
-      <c r="V131"/>
-      <c r="W131"/>
-      <c r="X131"/>
-      <c r="Y131"/>
-      <c r="Z131"/>
-      <c r="AA131"/>
-      <c r="AB131"/>
-      <c r="AC131"/>
-      <c r="AD131"/>
-      <c r="AE131"/>
-      <c r="AF131"/>
-      <c r="AG131"/>
-      <c r="AH131"/>
-      <c r="AI131"/>
-      <c r="AJ131"/>
-      <c r="AK131"/>
-      <c r="AL131"/>
-      <c r="AM131"/>
-      <c r="AN131"/>
-      <c r="AO131"/>
-      <c r="AP131"/>
-      <c r="AQ131"/>
-      <c r="AR131"/>
-      <c r="AS131"/>
-      <c r="AT131"/>
-      <c r="AU131"/>
-      <c r="AV131"/>
-      <c r="AW131"/>
-      <c r="AX131"/>
-      <c r="AY131"/>
-      <c r="AZ131"/>
-      <c r="BA131"/>
-      <c r="BB131"/>
-      <c r="BC131"/>
-      <c r="BD131"/>
-      <c r="BE131"/>
-      <c r="BF131"/>
-      <c r="BG131"/>
-      <c r="BH131"/>
-      <c r="BI131"/>
-      <c r="BJ131"/>
-      <c r="BK131"/>
-      <c r="BL131"/>
-      <c r="BM131"/>
-      <c r="BN131"/>
-      <c r="BO131"/>
-      <c r="BP131"/>
-      <c r="BQ131"/>
-      <c r="BR131"/>
-      <c r="BS131"/>
-      <c r="BT131"/>
-      <c r="BU131"/>
-      <c r="BV131"/>
-      <c r="BW131"/>
-      <c r="BX131"/>
-      <c r="BY131"/>
-      <c r="BZ131"/>
-      <c r="CA131"/>
-      <c r="CB131"/>
-      <c r="CC131"/>
-      <c r="CD131"/>
-      <c r="CE131"/>
-      <c r="CF131"/>
-      <c r="CG131"/>
-      <c r="CH131"/>
-      <c r="CI131"/>
-      <c r="CJ131"/>
-      <c r="CK131"/>
-      <c r="CL131"/>
-      <c r="CM131"/>
-      <c r="CN131"/>
-      <c r="CO131"/>
-      <c r="CP131"/>
-      <c r="CQ131"/>
-      <c r="CR131"/>
-      <c r="CS131"/>
-      <c r="CT131"/>
-      <c r="CU131"/>
-      <c r="CV131"/>
-      <c r="CW131"/>
-      <c r="CX131"/>
-      <c r="CY131"/>
-      <c r="CZ131"/>
-      <c r="DA131"/>
-      <c r="DB131"/>
-      <c r="DC131"/>
-      <c r="DD131"/>
-      <c r="DE131"/>
-      <c r="DF131"/>
-      <c r="DG131"/>
-      <c r="DH131"/>
-      <c r="DI131"/>
-      <c r="DJ131"/>
-      <c r="DK131"/>
-      <c r="DL131"/>
-      <c r="DM131"/>
-      <c r="DN131"/>
-      <c r="DO131"/>
-      <c r="DP131"/>
-      <c r="DQ131"/>
-      <c r="DR131"/>
-      <c r="DS131"/>
-      <c r="DT131"/>
-      <c r="DU131"/>
-      <c r="DV131"/>
-      <c r="DW131"/>
-      <c r="DX131"/>
-      <c r="DY131"/>
-      <c r="DZ131"/>
-      <c r="EA131"/>
-      <c r="EB131"/>
-      <c r="EC131"/>
-      <c r="ED131"/>
-      <c r="EE131"/>
-      <c r="EF131"/>
-      <c r="EG131"/>
-      <c r="EH131"/>
-      <c r="EI131"/>
-      <c r="EJ131"/>
-      <c r="EK131"/>
-      <c r="EL131"/>
-      <c r="EM131"/>
-      <c r="EN131"/>
-      <c r="EO131"/>
-      <c r="EP131"/>
-      <c r="EQ131"/>
-      <c r="ER131"/>
-      <c r="ES131"/>
-      <c r="ET131"/>
-      <c r="EU131"/>
-      <c r="EV131"/>
-      <c r="EW131"/>
-      <c r="EX131"/>
-      <c r="EY131"/>
-      <c r="EZ131"/>
-      <c r="FA131"/>
-      <c r="FB131"/>
-      <c r="FC131"/>
-      <c r="FD131"/>
-      <c r="FE131"/>
-      <c r="FF131"/>
-      <c r="FG131"/>
-      <c r="FH131"/>
-      <c r="FI131"/>
-      <c r="FJ131"/>
-      <c r="FK131"/>
-      <c r="FL131"/>
-      <c r="FM131"/>
-      <c r="FN131"/>
-      <c r="FO131"/>
-      <c r="FP131"/>
-      <c r="FQ131"/>
-      <c r="FR131"/>
-      <c r="FS131"/>
-      <c r="FT131"/>
-      <c r="FU131"/>
-      <c r="FV131"/>
-      <c r="FW131"/>
-      <c r="FX131"/>
-      <c r="FY131"/>
-      <c r="FZ131"/>
-      <c r="GA131"/>
-      <c r="GB131"/>
-      <c r="GC131"/>
-      <c r="GD131"/>
-      <c r="GE131"/>
-      <c r="GF131"/>
-      <c r="GG131"/>
-      <c r="GH131"/>
-      <c r="GI131"/>
-      <c r="GJ131"/>
-      <c r="GK131"/>
-      <c r="GL131"/>
-      <c r="GM131"/>
-      <c r="GN131"/>
-      <c r="GO131"/>
-      <c r="GP131"/>
-      <c r="GQ131"/>
-      <c r="GR131"/>
-      <c r="GS131"/>
-      <c r="GT131"/>
-      <c r="GU131"/>
-      <c r="GV131"/>
-      <c r="GW131"/>
-      <c r="GX131"/>
-      <c r="GY131"/>
-      <c r="GZ131"/>
-      <c r="HA131"/>
-      <c r="HB131"/>
-      <c r="HC131"/>
-      <c r="HD131"/>
-      <c r="HE131"/>
-      <c r="HF131"/>
-      <c r="HG131"/>
-      <c r="HH131"/>
-      <c r="HI131"/>
-      <c r="HJ131"/>
-      <c r="HK131"/>
-      <c r="HL131"/>
-      <c r="HM131"/>
-      <c r="HN131"/>
-      <c r="HO131"/>
-      <c r="HP131"/>
-      <c r="HQ131"/>
-      <c r="HR131"/>
-      <c r="HS131"/>
-      <c r="HT131"/>
-      <c r="HU131"/>
-      <c r="HV131"/>
-      <c r="HW131"/>
-      <c r="HX131"/>
-      <c r="HY131"/>
-      <c r="HZ131"/>
-      <c r="IA131"/>
-      <c r="IB131"/>
-      <c r="IC131"/>
-      <c r="ID131"/>
-      <c r="IE131"/>
-      <c r="IF131"/>
-      <c r="IG131"/>
-      <c r="IH131"/>
-      <c r="II131"/>
-      <c r="IJ131"/>
-      <c r="IK131"/>
-      <c r="IL131"/>
-      <c r="IM131"/>
-      <c r="IN131"/>
-      <c r="IO131"/>
-      <c r="IP131"/>
-      <c r="IQ131"/>
-      <c r="IR131"/>
-      <c r="IS131"/>
-      <c r="IT131"/>
-      <c r="IU131"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A132" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
+      <c r="A132" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
       <c r="E132" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="24">
-        <v>25</v>
-      </c>
-      <c r="G132" s="25">
+      <c r="F132" s="20">
+        <v>4</v>
+      </c>
+      <c r="G132" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="H132" s="14">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A133" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="20">
+        <v>17</v>
+      </c>
+      <c r="G133" s="21">
         <v>5</v>
       </c>
-      <c r="H132" s="14">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="133" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A133" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F133" s="24">
-        <v>1</v>
-      </c>
-      <c r="G133" s="25">
+      <c r="H133" s="14">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A134" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H133" s="14">
-        <f t="shared" si="2"/>
+      <c r="F134" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A134" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F134" s="24">
-        <v>8</v>
-      </c>
-      <c r="G134" s="25">
-        <v>1.36</v>
+      <c r="G134" s="21">
+        <v>47</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>10.88</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
       <c r="A135" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" s="29"/>
+        <v>130</v>
+      </c>
+      <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F135" s="24">
         <v>22</v>
       </c>
       <c r="G135" s="25">
-        <v>2.2000000000000002</v>
+        <v>2.97</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="2"/>
-        <v>48.400000000000006</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A136" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" s="29"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F136" s="24">
-        <v>17</v>
-      </c>
-      <c r="G136" s="25">
-        <v>5.5</v>
+      <c r="A136" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="20">
+        <v>140</v>
+      </c>
+      <c r="G136" s="21">
+        <v>1.1299999999999999</v>
       </c>
       <c r="H136" s="14">
         <f t="shared" si="2"/>
-        <v>93.5</v>
-      </c>
+        <v>158.19999999999999</v>
+      </c>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136"/>
+      <c r="Y136"/>
+      <c r="Z136"/>
+      <c r="AA136"/>
+      <c r="AB136"/>
+      <c r="AC136"/>
+      <c r="AD136"/>
+      <c r="AE136"/>
+      <c r="AF136"/>
+      <c r="AG136"/>
+      <c r="AH136"/>
+      <c r="AI136"/>
+      <c r="AJ136"/>
+      <c r="AK136"/>
+      <c r="AL136"/>
+      <c r="AM136"/>
+      <c r="AN136"/>
+      <c r="AO136"/>
+      <c r="AP136"/>
+      <c r="AQ136"/>
+      <c r="AR136"/>
+      <c r="AS136"/>
+      <c r="AT136"/>
+      <c r="AU136"/>
+      <c r="AV136"/>
+      <c r="AW136"/>
+      <c r="AX136"/>
+      <c r="AY136"/>
+      <c r="AZ136"/>
+      <c r="BA136"/>
+      <c r="BB136"/>
+      <c r="BC136"/>
+      <c r="BD136"/>
+      <c r="BE136"/>
+      <c r="BF136"/>
+      <c r="BG136"/>
+      <c r="BH136"/>
+      <c r="BI136"/>
+      <c r="BJ136"/>
+      <c r="BK136"/>
+      <c r="BL136"/>
+      <c r="BM136"/>
+      <c r="BN136"/>
+      <c r="BO136"/>
+      <c r="BP136"/>
+      <c r="BQ136"/>
+      <c r="BR136"/>
+      <c r="BS136"/>
+      <c r="BT136"/>
+      <c r="BU136"/>
+      <c r="BV136"/>
+      <c r="BW136"/>
+      <c r="BX136"/>
+      <c r="BY136"/>
+      <c r="BZ136"/>
+      <c r="CA136"/>
+      <c r="CB136"/>
+      <c r="CC136"/>
+      <c r="CD136"/>
+      <c r="CE136"/>
+      <c r="CF136"/>
+      <c r="CG136"/>
+      <c r="CH136"/>
+      <c r="CI136"/>
+      <c r="CJ136"/>
+      <c r="CK136"/>
+      <c r="CL136"/>
+      <c r="CM136"/>
+      <c r="CN136"/>
+      <c r="CO136"/>
+      <c r="CP136"/>
+      <c r="CQ136"/>
+      <c r="CR136"/>
+      <c r="CS136"/>
+      <c r="CT136"/>
+      <c r="CU136"/>
+      <c r="CV136"/>
+      <c r="CW136"/>
+      <c r="CX136"/>
+      <c r="CY136"/>
+      <c r="CZ136"/>
+      <c r="DA136"/>
+      <c r="DB136"/>
+      <c r="DC136"/>
+      <c r="DD136"/>
+      <c r="DE136"/>
+      <c r="DF136"/>
+      <c r="DG136"/>
+      <c r="DH136"/>
+      <c r="DI136"/>
+      <c r="DJ136"/>
+      <c r="DK136"/>
+      <c r="DL136"/>
+      <c r="DM136"/>
+      <c r="DN136"/>
+      <c r="DO136"/>
+      <c r="DP136"/>
+      <c r="DQ136"/>
+      <c r="DR136"/>
+      <c r="DS136"/>
+      <c r="DT136"/>
+      <c r="DU136"/>
+      <c r="DV136"/>
+      <c r="DW136"/>
+      <c r="DX136"/>
+      <c r="DY136"/>
+      <c r="DZ136"/>
+      <c r="EA136"/>
+      <c r="EB136"/>
+      <c r="EC136"/>
+      <c r="ED136"/>
+      <c r="EE136"/>
+      <c r="EF136"/>
+      <c r="EG136"/>
+      <c r="EH136"/>
+      <c r="EI136"/>
+      <c r="EJ136"/>
+      <c r="EK136"/>
+      <c r="EL136"/>
+      <c r="EM136"/>
+      <c r="EN136"/>
+      <c r="EO136"/>
+      <c r="EP136"/>
+      <c r="EQ136"/>
+      <c r="ER136"/>
+      <c r="ES136"/>
+      <c r="ET136"/>
+      <c r="EU136"/>
+      <c r="EV136"/>
+      <c r="EW136"/>
+      <c r="EX136"/>
+      <c r="EY136"/>
+      <c r="EZ136"/>
+      <c r="FA136"/>
+      <c r="FB136"/>
+      <c r="FC136"/>
+      <c r="FD136"/>
+      <c r="FE136"/>
+      <c r="FF136"/>
+      <c r="FG136"/>
+      <c r="FH136"/>
+      <c r="FI136"/>
+      <c r="FJ136"/>
+      <c r="FK136"/>
+      <c r="FL136"/>
+      <c r="FM136"/>
+      <c r="FN136"/>
+      <c r="FO136"/>
+      <c r="FP136"/>
+      <c r="FQ136"/>
+      <c r="FR136"/>
+      <c r="FS136"/>
+      <c r="FT136"/>
+      <c r="FU136"/>
+      <c r="FV136"/>
+      <c r="FW136"/>
+      <c r="FX136"/>
+      <c r="FY136"/>
+      <c r="FZ136"/>
+      <c r="GA136"/>
+      <c r="GB136"/>
+      <c r="GC136"/>
+      <c r="GD136"/>
+      <c r="GE136"/>
+      <c r="GF136"/>
+      <c r="GG136"/>
+      <c r="GH136"/>
+      <c r="GI136"/>
+      <c r="GJ136"/>
+      <c r="GK136"/>
+      <c r="GL136"/>
+      <c r="GM136"/>
+      <c r="GN136"/>
+      <c r="GO136"/>
+      <c r="GP136"/>
+      <c r="GQ136"/>
+      <c r="GR136"/>
+      <c r="GS136"/>
+      <c r="GT136"/>
+      <c r="GU136"/>
+      <c r="GV136"/>
+      <c r="GW136"/>
+      <c r="GX136"/>
+      <c r="GY136"/>
+      <c r="GZ136"/>
+      <c r="HA136"/>
+      <c r="HB136"/>
+      <c r="HC136"/>
+      <c r="HD136"/>
+      <c r="HE136"/>
+      <c r="HF136"/>
+      <c r="HG136"/>
+      <c r="HH136"/>
+      <c r="HI136"/>
+      <c r="HJ136"/>
+      <c r="HK136"/>
+      <c r="HL136"/>
+      <c r="HM136"/>
+      <c r="HN136"/>
+      <c r="HO136"/>
+      <c r="HP136"/>
+      <c r="HQ136"/>
+      <c r="HR136"/>
+      <c r="HS136"/>
+      <c r="HT136"/>
+      <c r="HU136"/>
+      <c r="HV136"/>
+      <c r="HW136"/>
+      <c r="HX136"/>
+      <c r="HY136"/>
+      <c r="HZ136"/>
+      <c r="IA136"/>
+      <c r="IB136"/>
+      <c r="IC136"/>
+      <c r="ID136"/>
+      <c r="IE136"/>
+      <c r="IF136"/>
+      <c r="IG136"/>
+      <c r="IH136"/>
+      <c r="II136"/>
+      <c r="IJ136"/>
+      <c r="IK136"/>
+      <c r="IL136"/>
+      <c r="IM136"/>
+      <c r="IN136"/>
+      <c r="IO136"/>
+      <c r="IP136"/>
+      <c r="IQ136"/>
+      <c r="IR136"/>
+      <c r="IS136"/>
+      <c r="IT136"/>
+      <c r="IU136"/>
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
       <c r="A137" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" s="29"/>
+        <v>132</v>
+      </c>
+      <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F137" s="24">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G137" s="25">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
       <c r="A138" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -5744,40 +5917,40 @@
         <v>21</v>
       </c>
       <c r="F138" s="24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G138" s="25">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" s="29"/>
+        <v>134</v>
+      </c>
+      <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F139" s="24">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="G139" s="25">
-        <v>1.1000000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="2"/>
-        <v>31.900000000000002</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
       <c r="A140" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B140" s="29"/>
       <c r="C140" s="11"/>
@@ -5786,19 +5959,19 @@
         <v>21</v>
       </c>
       <c r="F140" s="24">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="G140" s="25">
-        <v>0.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>48.400000000000006</v>
       </c>
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
       <c r="A141" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B141" s="29"/>
       <c r="C141" s="11"/>
@@ -5807,19 +5980,19 @@
         <v>21</v>
       </c>
       <c r="F141" s="24">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G141" s="25">
-        <v>2.85</v>
+        <v>5.5</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>85.5</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B142" s="29"/>
       <c r="C142" s="11"/>
@@ -5828,19 +6001,19 @@
         <v>21</v>
       </c>
       <c r="F142" s="24">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G142" s="25">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>30.599999999999998</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -5849,204 +6022,309 @@
         <v>21</v>
       </c>
       <c r="F143" s="24">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G143" s="25">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B144" s="29"/>
       <c r="C144" s="11"/>
-      <c r="D144" s="11" t="s">
-        <v>145</v>
-      </c>
+      <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F144" s="24">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G144" s="25">
-        <v>17</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>31.900000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
-      <c r="D145" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F145" s="24">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G145" s="25">
-        <v>10</v>
+        <v>0.9</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="11"/>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="11"/>
+      <c r="E146" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" s="24">
+        <v>30</v>
+      </c>
+      <c r="G146" s="25">
+        <v>2.85</v>
+      </c>
+      <c r="H146" s="14">
+        <f t="shared" si="2"/>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A147" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B147" s="29"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="24">
+        <v>9</v>
+      </c>
+      <c r="G147" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="H147" s="14">
+        <f t="shared" si="2"/>
+        <v>30.599999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A148" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" s="24">
+        <v>23</v>
+      </c>
+      <c r="G148" s="25">
+        <v>3</v>
+      </c>
+      <c r="H148" s="14">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A149" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B149" s="29"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" s="24">
+        <v>21</v>
+      </c>
+      <c r="G149" s="25">
+        <v>17</v>
+      </c>
+      <c r="H149" s="14">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A150" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" s="29"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E146" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F146" s="24">
+      <c r="E150" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150" s="24">
+        <v>100</v>
+      </c>
+      <c r="G150" s="25">
+        <v>10</v>
+      </c>
+      <c r="H150" s="14">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A151" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" s="29"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" s="24">
         <v>9</v>
       </c>
-      <c r="G146" s="25">
+      <c r="G151" s="25">
         <v>10</v>
       </c>
-      <c r="H146" s="14">
+      <c r="H151" s="14">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H147" s="47" t="e">
-        <f>SUM(H3:H146)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="29.1" customHeight="1"/>
-    <row r="149" spans="1:8" ht="30" customHeight="1"/>
+    <row r="152" spans="1:8" ht="48.75" customHeight="1">
+      <c r="H152" s="48">
+        <f>SUM(H3:H151)</f>
+        <v>19153.452000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="29.1" customHeight="1"/>
+    <row r="154" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F110:F112 F79 F21:F24 F18:F19">
+  <conditionalFormatting sqref="F115:F117 F84 F26:F29 F23:F24">
     <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F26 F35:F36 F82:F84">
+  <conditionalFormatting sqref="F30:F31 F40:F41 F87:F89">
     <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F28">
+  <conditionalFormatting sqref="F32:F33">
     <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
+  <conditionalFormatting sqref="F37:F38">
     <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F39">
     <cfRule type="cellIs" dxfId="17" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F39">
+  <conditionalFormatting sqref="F43:F44">
     <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40">
+  <conditionalFormatting sqref="F45">
     <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44 F80:F81 F100 F85:F86">
+  <conditionalFormatting sqref="F49 F85:F86 F105 F90:F91">
     <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
+  <conditionalFormatting sqref="F53">
     <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53 F68:F78">
+  <conditionalFormatting sqref="F58 F73:F83">
     <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+  <conditionalFormatting sqref="F62">
     <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F67">
     <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
+  <conditionalFormatting sqref="F68">
     <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96 F91:F92">
+  <conditionalFormatting sqref="F101 F96:F97">
     <cfRule type="cellIs" dxfId="8" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113 F101">
+  <conditionalFormatting sqref="F118 F106">
     <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:F106">
+  <conditionalFormatting sqref="F108:F111">
     <cfRule type="cellIs" dxfId="6" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
+  <conditionalFormatting sqref="F104">
     <cfRule type="cellIs" dxfId="5" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F100">
     <cfRule type="cellIs" dxfId="4" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93:F94">
+  <conditionalFormatting sqref="F98:F99">
     <cfRule type="cellIs" dxfId="3" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" dxfId="2" priority="36" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:F89">
+  <conditionalFormatting sqref="F93:F94">
     <cfRule type="cellIs" dxfId="1" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1233,10 +1233,10 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="13" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="13" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1897,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1914,16 +1914,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:35" ht="29.1" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2187,14 +2187,14 @@
         <v>12</v>
       </c>
       <c r="F7" s="17">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="13">
         <v>3</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -2241,14 +2241,14 @@
         <v>12</v>
       </c>
       <c r="F8" s="17">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="13">
         <v>3</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2345,14 +2345,14 @@
         <v>12</v>
       </c>
       <c r="F10" s="17">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G10" s="13">
         <v>2.35</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>129.25</v>
+        <v>117.5</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -4123,14 +4123,14 @@
         <v>21</v>
       </c>
       <c r="F73" s="20">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G73" s="21">
         <v>33.5</v>
       </c>
       <c r="H73" s="14">
         <f t="shared" si="2"/>
-        <v>2043.5</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4690,14 +4690,14 @@
         <v>21</v>
       </c>
       <c r="F98" s="20">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G98" s="43">
         <v>2.9</v>
       </c>
       <c r="H98" s="46">
         <f t="shared" si="2"/>
-        <v>287.09999999999997</v>
+        <v>284.2</v>
       </c>
       <c r="I98" s="42"/>
     </row>
@@ -4718,14 +4718,14 @@
         <v>21</v>
       </c>
       <c r="F99" s="20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G99" s="43">
         <v>4.8</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>182.4</v>
       </c>
       <c r="I99" s="42"/>
     </row>
@@ -5980,14 +5980,14 @@
         <v>21</v>
       </c>
       <c r="F141" s="24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G141" s="25">
         <v>5.5</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>93.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
@@ -6207,9 +6207,9 @@
       </c>
     </row>
     <row r="152" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H152" s="48">
+      <c r="H152" s="47">
         <f>SUM(H3:H151)</f>
-        <v>19153.452000000001</v>
+        <v>19145.202000000001</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$151</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$135</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$152</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$136</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="240">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -668,9 +668,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
     <t>850</t>
   </si>
   <si>
@@ -729,6 +726,18 @@
   </si>
   <si>
     <t>ATI</t>
+  </si>
+  <si>
+    <t>Fogli per lavagna</t>
+  </si>
+  <si>
+    <t>11/5/2018</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>130</t>
   </si>
 </sst>
 </file>
@@ -1895,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IU154"/>
+  <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2439,7 +2448,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>151</v>
@@ -2484,12 +2493,12 @@
     </row>
     <row r="13" spans="1:35" ht="28.35" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>151</v>
@@ -2534,12 +2543,12 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>151</v>
@@ -2584,12 +2593,12 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>151</v>
@@ -2634,12 +2643,12 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>151</v>
@@ -2684,12 +2693,12 @@
     </row>
     <row r="17" spans="1:35" ht="27.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>151</v>
@@ -3009,7 +3018,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" ref="H23:H71" si="1">F23*G23</f>
+        <f t="shared" ref="H23:H72" si="1">F23*G23</f>
         <v>6</v>
       </c>
     </row>
@@ -3021,7 +3030,7 @@
         <v>214</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
@@ -3110,10 +3119,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
@@ -3183,10 +3192,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>28</v>
@@ -3195,14 +3204,14 @@
         <v>26</v>
       </c>
       <c r="F31" s="20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G31" s="21">
         <v>2.76</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="1"/>
-        <v>41.4</v>
+        <v>55.199999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3871,208 +3880,214 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D62" s="19"/>
+        <v>179</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E62" s="11" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F62" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G62" s="21">
-        <v>0.44</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="1"/>
-        <v>3.08</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A63" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="19"/>
       <c r="E63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="24">
-        <v>11</v>
-      </c>
-      <c r="G63" s="25">
-        <v>4.8499999999999996</v>
+        <v>21</v>
+      </c>
+      <c r="F63" s="20">
+        <v>7</v>
+      </c>
+      <c r="G63" s="21">
+        <v>0.44</v>
       </c>
       <c r="H63" s="14">
         <f t="shared" si="1"/>
-        <v>53.349999999999994</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A64" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="29"/>
+        <v>64</v>
+      </c>
+      <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="24">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G64" s="25">
-        <v>5.04</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="1"/>
-        <v>151.19999999999999</v>
+        <v>53.349999999999994</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A65" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="A65" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="20">
-        <v>25</v>
-      </c>
-      <c r="G65" s="21">
-        <v>8.3000000000000007</v>
+      <c r="F65" s="24">
+        <v>30</v>
+      </c>
+      <c r="G65" s="25">
+        <v>5.04</v>
       </c>
       <c r="H65" s="14">
         <f t="shared" si="1"/>
-        <v>207.50000000000003</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A66" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="19" t="s">
-        <v>21</v>
+      <c r="E66" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F66" s="20">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G66" s="21">
-        <v>0.75</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>207.50000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A67" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>156</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
       <c r="E67" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F67" s="20">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G67" s="21">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H67" s="14">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A68" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="E68" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F68" s="20">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G68" s="21">
         <v>3</v>
       </c>
       <c r="H68" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
-      <c r="D69" s="19" t="s">
-        <v>149</v>
-      </c>
+      <c r="D69" s="19"/>
       <c r="E69" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="20">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G69" s="21">
         <v>3</v>
       </c>
       <c r="H69" s="14">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A70" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="20">
+        <v>35</v>
+      </c>
+      <c r="G70" s="21">
+        <v>3</v>
+      </c>
+      <c r="H70" s="14">
+        <f t="shared" si="1"/>
         <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A70" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="20">
-        <v>18</v>
-      </c>
-      <c r="G70" s="32">
-        <v>3</v>
-      </c>
-      <c r="H70" s="33">
-        <f t="shared" si="1"/>
-        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A71" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -4081,61 +4096,61 @@
         <v>12</v>
       </c>
       <c r="F71" s="20">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G71" s="32">
         <v>3</v>
       </c>
       <c r="H71" s="33">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A72" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19" t="s">
+      <c r="A72" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="20">
-        <v>43</v>
-      </c>
-      <c r="G72" s="21">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H72" s="14">
-        <f t="shared" ref="H72:H151" si="2">F72*G72</f>
-        <v>210.70000000000002</v>
+        <v>7</v>
+      </c>
+      <c r="G72" s="32">
+        <v>3</v>
+      </c>
+      <c r="H72" s="33">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F73" s="20">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G73" s="21">
-        <v>33.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H73" s="14">
-        <f t="shared" si="2"/>
-        <v>2077</v>
+        <f t="shared" ref="H73:H152" si="2">F73*G73</f>
+        <v>210.70000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -4144,19 +4159,19 @@
         <v>21</v>
       </c>
       <c r="F74" s="20">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G74" s="21">
-        <v>2</v>
+        <v>33.5</v>
       </c>
       <c r="H74" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -4165,46 +4180,44 @@
         <v>21</v>
       </c>
       <c r="F75" s="20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G75" s="21">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H75" s="14">
         <f t="shared" si="2"/>
-        <v>81.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>229</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B76" s="19"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
-        <v>49</v>
-      </c>
+      <c r="D76" s="19"/>
       <c r="E76" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F76" s="20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G76" s="21">
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="H76" s="14">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="19"/>
+        <v>227</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>228</v>
+      </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
         <v>49</v>
@@ -4213,19 +4226,19 @@
         <v>12</v>
       </c>
       <c r="F77" s="20">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G77" s="21">
         <v>8.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4236,40 +4249,42 @@
         <v>12</v>
       </c>
       <c r="F78" s="20">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="G78" s="21">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
+      <c r="D79" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="E79" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="20">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="G79" s="21">
         <v>5</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -4278,40 +4293,40 @@
         <v>12</v>
       </c>
       <c r="F80" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G80" s="21">
         <v>5</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
-      <c r="D81" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="D81" s="19"/>
       <c r="E81" s="19" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="F81" s="20">
+        <v>3</v>
+      </c>
+      <c r="G81" s="21">
+        <v>5</v>
+      </c>
+      <c r="H81" s="14">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A82" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="G81" s="21"/>
-      <c r="H81" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A82" s="18" t="s">
-        <v>152</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -4330,78 +4345,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+    <row r="83" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
+      <c r="D83" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E83" s="19" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F83" s="20">
+        <v>150</v>
+      </c>
+      <c r="G83" s="21"/>
+      <c r="H83" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A84" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="20">
         <v>8</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G84" s="21">
         <v>0.8</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H84" s="14">
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A84" s="18" t="s">
+    <row r="85" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A85" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B85" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D85" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" s="20">
+      <c r="E85" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="20">
         <v>12</v>
       </c>
-      <c r="G84" s="21">
+      <c r="G85" s="21">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H85" s="14">
         <f t="shared" si="2"/>
         <v>13.200000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A85" s="18" t="s">
+    <row r="86" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A86" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F85" s="20">
-        <v>4</v>
-      </c>
-      <c r="G85" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="H85" s="14">
-        <f t="shared" si="2"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A86" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -4410,19 +4425,19 @@
         <v>21</v>
       </c>
       <c r="F86" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G86" s="21">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H86" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -4431,67 +4446,67 @@
         <v>21</v>
       </c>
       <c r="F87" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G87" s="21">
         <v>1.5</v>
       </c>
       <c r="H87" s="14">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A88" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="20">
+        <v>3</v>
+      </c>
+      <c r="G88" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="H88" s="14">
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A88" s="18" t="s">
+    <row r="89" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A89" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B89" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C89" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D89" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="E89" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="20">
+      <c r="F89" s="20">
         <v>4</v>
       </c>
-      <c r="G88" s="21">
+      <c r="G89" s="21">
         <v>12.5</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H89" s="14">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A89" s="18" t="s">
+    <row r="90" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A90" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" s="20">
-        <v>2</v>
-      </c>
-      <c r="G89" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="H89" s="14">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A90" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -4500,19 +4515,19 @@
         <v>21</v>
       </c>
       <c r="F90" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" s="21">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H90" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -4531,37 +4546,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+    <row r="92" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>180</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="19"/>
       <c r="E92" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F92" s="20">
-        <v>50</v>
-      </c>
-      <c r="G92" s="38">
-        <v>0.19</v>
-      </c>
-      <c r="H92" s="44">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="21">
+        <v>1</v>
+      </c>
+      <c r="H92" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>180</v>
@@ -4570,41 +4581,45 @@
       <c r="E93" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="37">
+      <c r="F93" s="20">
         <v>50</v>
       </c>
-      <c r="G93" s="40">
+      <c r="G93" s="38">
         <v>0.19</v>
       </c>
-      <c r="H93" s="46">
+      <c r="H93" s="44">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+    <row r="94" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="D94" s="19"/>
       <c r="E94" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="20">
-        <v>3</v>
-      </c>
-      <c r="G94" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="H94" s="45">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="F94" s="37">
+        <v>50</v>
+      </c>
+      <c r="G94" s="40">
+        <v>0.19</v>
+      </c>
+      <c r="H94" s="46">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -4613,19 +4628,19 @@
         <v>21</v>
       </c>
       <c r="F95" s="20">
-        <v>0</v>
-      </c>
-      <c r="G95" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="H95" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="G95" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="H95" s="45">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -4634,54 +4649,47 @@
         <v>21</v>
       </c>
       <c r="F96" s="20">
-        <v>10</v>
-      </c>
-      <c r="G96" s="43">
-        <v>1</v>
-      </c>
-      <c r="H96" s="46">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I96" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H96" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>183</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F97" s="20">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G97" s="43">
-        <v>3.45</v>
+        <v>1</v>
       </c>
       <c r="H97" s="46">
-        <f>F97*G97</f>
-        <v>358.8</v>
-      </c>
-      <c r="I97" s="42"/>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I97" s="41"/>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>182</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>183</v>
@@ -4690,26 +4698,26 @@
         <v>21</v>
       </c>
       <c r="F98" s="20">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G98" s="43">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="H98" s="46">
-        <f t="shared" si="2"/>
-        <v>284.2</v>
+        <f>F98*G98</f>
+        <v>358.8</v>
       </c>
       <c r="I98" s="42"/>
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="D99" s="19" t="s">
         <v>183</v>
@@ -4718,26 +4726,26 @@
         <v>21</v>
       </c>
       <c r="F99" s="20">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="G99" s="43">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>182.4</v>
+        <v>284.2</v>
       </c>
       <c r="I99" s="42"/>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>183</v>
@@ -4746,20 +4754,20 @@
         <v>21</v>
       </c>
       <c r="F100" s="20">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G100" s="43">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>182.4</v>
       </c>
       <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>182</v>
@@ -4774,388 +4782,389 @@
         <v>21</v>
       </c>
       <c r="F101" s="20">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G101" s="43">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H101" s="46">
         <f t="shared" si="2"/>
-        <v>183.75</v>
+        <v>0</v>
       </c>
       <c r="I101" s="42"/>
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F102" s="20">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G102" s="43">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H102" s="46">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>183.75</v>
       </c>
       <c r="I102" s="42"/>
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>170</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F103" s="20">
+        <v>12</v>
+      </c>
+      <c r="G103" s="43">
+        <v>4</v>
+      </c>
+      <c r="H103" s="46">
+        <f t="shared" si="2"/>
         <v>48</v>
-      </c>
-      <c r="G103" s="43">
-        <v>0.8</v>
-      </c>
-      <c r="H103" s="46">
-        <f t="shared" si="2"/>
-        <v>38.400000000000006</v>
       </c>
       <c r="I103" s="42"/>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F104" s="20">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G104" s="43">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="I104" s="42"/>
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="D105" s="19" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F105" s="20">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G105" s="43">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="H105" s="46">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>195</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F106" s="20">
-        <v>30</v>
-      </c>
-      <c r="G106" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="H106" s="45">
-        <f t="shared" si="2"/>
-        <v>24.9</v>
+        <v>170</v>
+      </c>
+      <c r="G106" s="43">
+        <v>2.4</v>
+      </c>
+      <c r="H106" s="46">
+        <f t="shared" si="2"/>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D107" s="19"/>
+        <v>195</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E107" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F107" s="20">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="G107" s="21">
-        <v>4.7</v>
-      </c>
-      <c r="H107" s="14">
-        <f t="shared" si="2"/>
-        <v>653.30000000000007</v>
+        <v>0.83</v>
+      </c>
+      <c r="H107" s="45">
+        <f t="shared" si="2"/>
+        <v>24.9</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A108" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D108" s="19" t="s">
-        <v>156</v>
-      </c>
+      <c r="D108" s="19"/>
       <c r="E108" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F108" s="20">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="G108" s="21">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H108" s="14">
         <f t="shared" si="2"/>
-        <v>262.5</v>
+        <v>653.30000000000007</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="34"/>
+        <v>103</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="E109" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F109" s="20">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="G109" s="21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
+      <c r="D110" s="34"/>
       <c r="E110" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F110" s="20">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G110" s="21">
         <v>2</v>
       </c>
       <c r="H110" s="14">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
       <c r="E111" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F111" s="20">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G111" s="21">
-        <v>41.34</v>
+        <v>2</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>289.38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="20">
+        <v>7</v>
+      </c>
+      <c r="G112" s="21">
+        <v>41.34</v>
+      </c>
+      <c r="H112" s="14">
+        <f t="shared" si="2"/>
+        <v>289.38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A113" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B113" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C113" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D112" s="19" t="s">
+      <c r="D113" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="E113" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F112" s="20">
+      <c r="F113" s="20">
         <v>30</v>
       </c>
-      <c r="G112" s="21">
+      <c r="G113" s="21">
         <v>2.7</v>
       </c>
-      <c r="H112" s="14">
+      <c r="H113" s="14">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A113" s="23" t="s">
+    <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A114" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B113" s="29">
+      <c r="B114" s="29">
         <v>43140</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C114" s="11">
         <v>36</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D114" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E114" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F113" s="24">
+      <c r="F114" s="24">
         <v>15</v>
       </c>
-      <c r="G113" s="14">
+      <c r="G114" s="14">
         <v>6</v>
       </c>
-      <c r="H113" s="14">
+      <c r="H114" s="14">
         <f t="shared" si="2"/>
         <v>90</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A114" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F114" s="20">
-        <v>901</v>
-      </c>
-      <c r="G114" s="21">
-        <v>0.66</v>
-      </c>
-      <c r="H114" s="14">
-        <f t="shared" si="2"/>
-        <v>594.66000000000008</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F115" s="20">
-        <v>5</v>
+        <v>901</v>
       </c>
       <c r="G115" s="21">
-        <v>2.85</v>
+        <v>0.66</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>14.25</v>
+        <v>594.66000000000008</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>28</v>
@@ -5164,50 +5173,52 @@
         <v>21</v>
       </c>
       <c r="F116" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G116" s="21">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>12.04</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A117" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D117" s="19"/>
+        <v>181</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E117" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F117" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G117" s="21">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>28</v>
@@ -5216,94 +5227,94 @@
         <v>21</v>
       </c>
       <c r="F118" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G118" s="21">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>5.16</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="35"/>
+        <v>113</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E119" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F119" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G119" s="21">
-        <v>5</v>
+        <v>1.72</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
+      <c r="D120" s="35"/>
       <c r="E120" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F120" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G120" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D121" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="20">
         <v>9</v>
       </c>
-      <c r="E121" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="20">
-        <v>169</v>
-      </c>
       <c r="G121" s="21">
-        <v>2.69</v>
+        <v>1</v>
       </c>
       <c r="H121" s="14">
         <f t="shared" si="2"/>
-        <v>454.61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A122" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>172</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D122" s="19" t="s">
         <v>9</v>
@@ -5312,88 +5323,94 @@
         <v>12</v>
       </c>
       <c r="F122" s="20">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="G122" s="21">
-        <v>3.3</v>
+        <v>2.69</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="2"/>
-        <v>372.9</v>
+        <v>454.61</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
+        <v>117</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E123" s="19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F123" s="20">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="G123" s="21">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="H123" s="14">
         <f t="shared" si="2"/>
-        <v>14.350000000000001</v>
+        <v>372.9</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="20">
+        <v>5</v>
+      </c>
+      <c r="G124" s="21">
+        <v>2.87</v>
+      </c>
+      <c r="H124" s="14">
+        <f t="shared" si="2"/>
+        <v>14.350000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A125" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B124" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C124" s="19" t="s">
+      <c r="B125" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D125" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E125" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F125" s="20">
         <v>6</v>
       </c>
-      <c r="G124" s="21">
+      <c r="G125" s="21">
         <v>7</v>
       </c>
-      <c r="H124" s="14">
+      <c r="H125" s="14">
         <f t="shared" si="2"/>
         <v>42</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A125" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F125" s="20">
-        <v>582</v>
-      </c>
-      <c r="G125" s="21">
-        <v>3</v>
-      </c>
-      <c r="H125" s="14">
-        <f t="shared" si="2"/>
-        <v>1746</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A126" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -5402,94 +5419,88 @@
         <v>21</v>
       </c>
       <c r="F126" s="20">
+        <v>582</v>
+      </c>
+      <c r="G126" s="21">
+        <v>3</v>
+      </c>
+      <c r="H126" s="14">
+        <f t="shared" si="2"/>
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A127" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="20">
         <v>1</v>
       </c>
-      <c r="G126" s="21">
+      <c r="G127" s="21">
         <v>1.96</v>
       </c>
-      <c r="H126" s="14">
+      <c r="H127" s="14">
         <f t="shared" si="2"/>
         <v>1.96</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A127" s="23" t="s">
+    <row r="128" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A128" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="24">
-        <v>7</v>
-      </c>
-      <c r="G127" s="25">
-        <v>1.97</v>
-      </c>
-      <c r="H127" s="14">
-        <f t="shared" si="2"/>
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A128" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="20">
-        <v>95</v>
-      </c>
-      <c r="G128" s="21">
+      <c r="F128" s="24">
         <v>7</v>
       </c>
+      <c r="G128" s="25">
+        <v>1.97</v>
+      </c>
       <c r="H128" s="14">
         <f t="shared" si="2"/>
-        <v>665</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="129" spans="1:255" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>13</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
       <c r="E129" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="20">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="G129" s="21">
-        <v>2.69</v>
+        <v>7</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>672.5</v>
+        <v>665</v>
       </c>
     </row>
     <row r="130" spans="1:255" ht="28.35" customHeight="1">
       <c r="A130" s="18" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="B130" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>13</v>
@@ -5498,438 +5509,444 @@
         <v>12</v>
       </c>
       <c r="F130" s="20">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G130" s="21">
-        <v>2.21</v>
+        <v>2.69</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>331.5</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A131" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
+      <c r="A131" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E131" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="24">
-        <v>100</v>
-      </c>
-      <c r="G131" s="25">
-        <v>1.43</v>
+      <c r="F131" s="20">
+        <v>150</v>
+      </c>
+      <c r="G131" s="21">
+        <v>2.21</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A132" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
+      <c r="A132" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="20">
-        <v>4</v>
-      </c>
-      <c r="G132" s="21">
-        <v>8.5</v>
+      <c r="F132" s="24">
+        <v>100</v>
+      </c>
+      <c r="G132" s="25">
+        <v>1.43</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B133" s="19"/>
+        <v>128</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
       <c r="E133" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="20">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G133" s="21">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
       <c r="A134" s="18" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
-      <c r="D134" s="19" t="s">
-        <v>155</v>
-      </c>
+      <c r="D134" s="19"/>
       <c r="E134" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G134" s="21">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>564</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A135" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+      <c r="A135" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="E135" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F135" s="24">
+      <c r="F135" s="20">
+        <v>12</v>
+      </c>
+      <c r="G135" s="21">
+        <v>47</v>
+      </c>
+      <c r="H135" s="14">
+        <f t="shared" si="2"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="136" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A136" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="24">
         <v>22</v>
       </c>
-      <c r="G135" s="25">
+      <c r="G136" s="25">
         <v>2.97</v>
       </c>
-      <c r="H135" s="14">
+      <c r="H136" s="14">
         <f t="shared" si="2"/>
         <v>65.34</v>
       </c>
     </row>
-    <row r="136" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A136" s="18" t="s">
+    <row r="137" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A137" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F136" s="20">
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="20">
         <v>140</v>
       </c>
-      <c r="G136" s="21">
+      <c r="G137" s="21">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H136" s="14">
+      <c r="H137" s="14">
         <f t="shared" si="2"/>
         <v>158.19999999999999</v>
       </c>
-      <c r="I136"/>
-      <c r="J136"/>
-      <c r="K136"/>
-      <c r="L136"/>
-      <c r="M136"/>
-      <c r="N136"/>
-      <c r="O136"/>
-      <c r="P136"/>
-      <c r="Q136"/>
-      <c r="R136"/>
-      <c r="S136"/>
-      <c r="T136"/>
-      <c r="U136"/>
-      <c r="V136"/>
-      <c r="W136"/>
-      <c r="X136"/>
-      <c r="Y136"/>
-      <c r="Z136"/>
-      <c r="AA136"/>
-      <c r="AB136"/>
-      <c r="AC136"/>
-      <c r="AD136"/>
-      <c r="AE136"/>
-      <c r="AF136"/>
-      <c r="AG136"/>
-      <c r="AH136"/>
-      <c r="AI136"/>
-      <c r="AJ136"/>
-      <c r="AK136"/>
-      <c r="AL136"/>
-      <c r="AM136"/>
-      <c r="AN136"/>
-      <c r="AO136"/>
-      <c r="AP136"/>
-      <c r="AQ136"/>
-      <c r="AR136"/>
-      <c r="AS136"/>
-      <c r="AT136"/>
-      <c r="AU136"/>
-      <c r="AV136"/>
-      <c r="AW136"/>
-      <c r="AX136"/>
-      <c r="AY136"/>
-      <c r="AZ136"/>
-      <c r="BA136"/>
-      <c r="BB136"/>
-      <c r="BC136"/>
-      <c r="BD136"/>
-      <c r="BE136"/>
-      <c r="BF136"/>
-      <c r="BG136"/>
-      <c r="BH136"/>
-      <c r="BI136"/>
-      <c r="BJ136"/>
-      <c r="BK136"/>
-      <c r="BL136"/>
-      <c r="BM136"/>
-      <c r="BN136"/>
-      <c r="BO136"/>
-      <c r="BP136"/>
-      <c r="BQ136"/>
-      <c r="BR136"/>
-      <c r="BS136"/>
-      <c r="BT136"/>
-      <c r="BU136"/>
-      <c r="BV136"/>
-      <c r="BW136"/>
-      <c r="BX136"/>
-      <c r="BY136"/>
-      <c r="BZ136"/>
-      <c r="CA136"/>
-      <c r="CB136"/>
-      <c r="CC136"/>
-      <c r="CD136"/>
-      <c r="CE136"/>
-      <c r="CF136"/>
-      <c r="CG136"/>
-      <c r="CH136"/>
-      <c r="CI136"/>
-      <c r="CJ136"/>
-      <c r="CK136"/>
-      <c r="CL136"/>
-      <c r="CM136"/>
-      <c r="CN136"/>
-      <c r="CO136"/>
-      <c r="CP136"/>
-      <c r="CQ136"/>
-      <c r="CR136"/>
-      <c r="CS136"/>
-      <c r="CT136"/>
-      <c r="CU136"/>
-      <c r="CV136"/>
-      <c r="CW136"/>
-      <c r="CX136"/>
-      <c r="CY136"/>
-      <c r="CZ136"/>
-      <c r="DA136"/>
-      <c r="DB136"/>
-      <c r="DC136"/>
-      <c r="DD136"/>
-      <c r="DE136"/>
-      <c r="DF136"/>
-      <c r="DG136"/>
-      <c r="DH136"/>
-      <c r="DI136"/>
-      <c r="DJ136"/>
-      <c r="DK136"/>
-      <c r="DL136"/>
-      <c r="DM136"/>
-      <c r="DN136"/>
-      <c r="DO136"/>
-      <c r="DP136"/>
-      <c r="DQ136"/>
-      <c r="DR136"/>
-      <c r="DS136"/>
-      <c r="DT136"/>
-      <c r="DU136"/>
-      <c r="DV136"/>
-      <c r="DW136"/>
-      <c r="DX136"/>
-      <c r="DY136"/>
-      <c r="DZ136"/>
-      <c r="EA136"/>
-      <c r="EB136"/>
-      <c r="EC136"/>
-      <c r="ED136"/>
-      <c r="EE136"/>
-      <c r="EF136"/>
-      <c r="EG136"/>
-      <c r="EH136"/>
-      <c r="EI136"/>
-      <c r="EJ136"/>
-      <c r="EK136"/>
-      <c r="EL136"/>
-      <c r="EM136"/>
-      <c r="EN136"/>
-      <c r="EO136"/>
-      <c r="EP136"/>
-      <c r="EQ136"/>
-      <c r="ER136"/>
-      <c r="ES136"/>
-      <c r="ET136"/>
-      <c r="EU136"/>
-      <c r="EV136"/>
-      <c r="EW136"/>
-      <c r="EX136"/>
-      <c r="EY136"/>
-      <c r="EZ136"/>
-      <c r="FA136"/>
-      <c r="FB136"/>
-      <c r="FC136"/>
-      <c r="FD136"/>
-      <c r="FE136"/>
-      <c r="FF136"/>
-      <c r="FG136"/>
-      <c r="FH136"/>
-      <c r="FI136"/>
-      <c r="FJ136"/>
-      <c r="FK136"/>
-      <c r="FL136"/>
-      <c r="FM136"/>
-      <c r="FN136"/>
-      <c r="FO136"/>
-      <c r="FP136"/>
-      <c r="FQ136"/>
-      <c r="FR136"/>
-      <c r="FS136"/>
-      <c r="FT136"/>
-      <c r="FU136"/>
-      <c r="FV136"/>
-      <c r="FW136"/>
-      <c r="FX136"/>
-      <c r="FY136"/>
-      <c r="FZ136"/>
-      <c r="GA136"/>
-      <c r="GB136"/>
-      <c r="GC136"/>
-      <c r="GD136"/>
-      <c r="GE136"/>
-      <c r="GF136"/>
-      <c r="GG136"/>
-      <c r="GH136"/>
-      <c r="GI136"/>
-      <c r="GJ136"/>
-      <c r="GK136"/>
-      <c r="GL136"/>
-      <c r="GM136"/>
-      <c r="GN136"/>
-      <c r="GO136"/>
-      <c r="GP136"/>
-      <c r="GQ136"/>
-      <c r="GR136"/>
-      <c r="GS136"/>
-      <c r="GT136"/>
-      <c r="GU136"/>
-      <c r="GV136"/>
-      <c r="GW136"/>
-      <c r="GX136"/>
-      <c r="GY136"/>
-      <c r="GZ136"/>
-      <c r="HA136"/>
-      <c r="HB136"/>
-      <c r="HC136"/>
-      <c r="HD136"/>
-      <c r="HE136"/>
-      <c r="HF136"/>
-      <c r="HG136"/>
-      <c r="HH136"/>
-      <c r="HI136"/>
-      <c r="HJ136"/>
-      <c r="HK136"/>
-      <c r="HL136"/>
-      <c r="HM136"/>
-      <c r="HN136"/>
-      <c r="HO136"/>
-      <c r="HP136"/>
-      <c r="HQ136"/>
-      <c r="HR136"/>
-      <c r="HS136"/>
-      <c r="HT136"/>
-      <c r="HU136"/>
-      <c r="HV136"/>
-      <c r="HW136"/>
-      <c r="HX136"/>
-      <c r="HY136"/>
-      <c r="HZ136"/>
-      <c r="IA136"/>
-      <c r="IB136"/>
-      <c r="IC136"/>
-      <c r="ID136"/>
-      <c r="IE136"/>
-      <c r="IF136"/>
-      <c r="IG136"/>
-      <c r="IH136"/>
-      <c r="II136"/>
-      <c r="IJ136"/>
-      <c r="IK136"/>
-      <c r="IL136"/>
-      <c r="IM136"/>
-      <c r="IN136"/>
-      <c r="IO136"/>
-      <c r="IP136"/>
-      <c r="IQ136"/>
-      <c r="IR136"/>
-      <c r="IS136"/>
-      <c r="IT136"/>
-      <c r="IU136"/>
-    </row>
-    <row r="137" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A137" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="24">
-        <v>25</v>
-      </c>
-      <c r="G137" s="25">
-        <v>5</v>
-      </c>
-      <c r="H137" s="14">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+      <c r="Y137"/>
+      <c r="Z137"/>
+      <c r="AA137"/>
+      <c r="AB137"/>
+      <c r="AC137"/>
+      <c r="AD137"/>
+      <c r="AE137"/>
+      <c r="AF137"/>
+      <c r="AG137"/>
+      <c r="AH137"/>
+      <c r="AI137"/>
+      <c r="AJ137"/>
+      <c r="AK137"/>
+      <c r="AL137"/>
+      <c r="AM137"/>
+      <c r="AN137"/>
+      <c r="AO137"/>
+      <c r="AP137"/>
+      <c r="AQ137"/>
+      <c r="AR137"/>
+      <c r="AS137"/>
+      <c r="AT137"/>
+      <c r="AU137"/>
+      <c r="AV137"/>
+      <c r="AW137"/>
+      <c r="AX137"/>
+      <c r="AY137"/>
+      <c r="AZ137"/>
+      <c r="BA137"/>
+      <c r="BB137"/>
+      <c r="BC137"/>
+      <c r="BD137"/>
+      <c r="BE137"/>
+      <c r="BF137"/>
+      <c r="BG137"/>
+      <c r="BH137"/>
+      <c r="BI137"/>
+      <c r="BJ137"/>
+      <c r="BK137"/>
+      <c r="BL137"/>
+      <c r="BM137"/>
+      <c r="BN137"/>
+      <c r="BO137"/>
+      <c r="BP137"/>
+      <c r="BQ137"/>
+      <c r="BR137"/>
+      <c r="BS137"/>
+      <c r="BT137"/>
+      <c r="BU137"/>
+      <c r="BV137"/>
+      <c r="BW137"/>
+      <c r="BX137"/>
+      <c r="BY137"/>
+      <c r="BZ137"/>
+      <c r="CA137"/>
+      <c r="CB137"/>
+      <c r="CC137"/>
+      <c r="CD137"/>
+      <c r="CE137"/>
+      <c r="CF137"/>
+      <c r="CG137"/>
+      <c r="CH137"/>
+      <c r="CI137"/>
+      <c r="CJ137"/>
+      <c r="CK137"/>
+      <c r="CL137"/>
+      <c r="CM137"/>
+      <c r="CN137"/>
+      <c r="CO137"/>
+      <c r="CP137"/>
+      <c r="CQ137"/>
+      <c r="CR137"/>
+      <c r="CS137"/>
+      <c r="CT137"/>
+      <c r="CU137"/>
+      <c r="CV137"/>
+      <c r="CW137"/>
+      <c r="CX137"/>
+      <c r="CY137"/>
+      <c r="CZ137"/>
+      <c r="DA137"/>
+      <c r="DB137"/>
+      <c r="DC137"/>
+      <c r="DD137"/>
+      <c r="DE137"/>
+      <c r="DF137"/>
+      <c r="DG137"/>
+      <c r="DH137"/>
+      <c r="DI137"/>
+      <c r="DJ137"/>
+      <c r="DK137"/>
+      <c r="DL137"/>
+      <c r="DM137"/>
+      <c r="DN137"/>
+      <c r="DO137"/>
+      <c r="DP137"/>
+      <c r="DQ137"/>
+      <c r="DR137"/>
+      <c r="DS137"/>
+      <c r="DT137"/>
+      <c r="DU137"/>
+      <c r="DV137"/>
+      <c r="DW137"/>
+      <c r="DX137"/>
+      <c r="DY137"/>
+      <c r="DZ137"/>
+      <c r="EA137"/>
+      <c r="EB137"/>
+      <c r="EC137"/>
+      <c r="ED137"/>
+      <c r="EE137"/>
+      <c r="EF137"/>
+      <c r="EG137"/>
+      <c r="EH137"/>
+      <c r="EI137"/>
+      <c r="EJ137"/>
+      <c r="EK137"/>
+      <c r="EL137"/>
+      <c r="EM137"/>
+      <c r="EN137"/>
+      <c r="EO137"/>
+      <c r="EP137"/>
+      <c r="EQ137"/>
+      <c r="ER137"/>
+      <c r="ES137"/>
+      <c r="ET137"/>
+      <c r="EU137"/>
+      <c r="EV137"/>
+      <c r="EW137"/>
+      <c r="EX137"/>
+      <c r="EY137"/>
+      <c r="EZ137"/>
+      <c r="FA137"/>
+      <c r="FB137"/>
+      <c r="FC137"/>
+      <c r="FD137"/>
+      <c r="FE137"/>
+      <c r="FF137"/>
+      <c r="FG137"/>
+      <c r="FH137"/>
+      <c r="FI137"/>
+      <c r="FJ137"/>
+      <c r="FK137"/>
+      <c r="FL137"/>
+      <c r="FM137"/>
+      <c r="FN137"/>
+      <c r="FO137"/>
+      <c r="FP137"/>
+      <c r="FQ137"/>
+      <c r="FR137"/>
+      <c r="FS137"/>
+      <c r="FT137"/>
+      <c r="FU137"/>
+      <c r="FV137"/>
+      <c r="FW137"/>
+      <c r="FX137"/>
+      <c r="FY137"/>
+      <c r="FZ137"/>
+      <c r="GA137"/>
+      <c r="GB137"/>
+      <c r="GC137"/>
+      <c r="GD137"/>
+      <c r="GE137"/>
+      <c r="GF137"/>
+      <c r="GG137"/>
+      <c r="GH137"/>
+      <c r="GI137"/>
+      <c r="GJ137"/>
+      <c r="GK137"/>
+      <c r="GL137"/>
+      <c r="GM137"/>
+      <c r="GN137"/>
+      <c r="GO137"/>
+      <c r="GP137"/>
+      <c r="GQ137"/>
+      <c r="GR137"/>
+      <c r="GS137"/>
+      <c r="GT137"/>
+      <c r="GU137"/>
+      <c r="GV137"/>
+      <c r="GW137"/>
+      <c r="GX137"/>
+      <c r="GY137"/>
+      <c r="GZ137"/>
+      <c r="HA137"/>
+      <c r="HB137"/>
+      <c r="HC137"/>
+      <c r="HD137"/>
+      <c r="HE137"/>
+      <c r="HF137"/>
+      <c r="HG137"/>
+      <c r="HH137"/>
+      <c r="HI137"/>
+      <c r="HJ137"/>
+      <c r="HK137"/>
+      <c r="HL137"/>
+      <c r="HM137"/>
+      <c r="HN137"/>
+      <c r="HO137"/>
+      <c r="HP137"/>
+      <c r="HQ137"/>
+      <c r="HR137"/>
+      <c r="HS137"/>
+      <c r="HT137"/>
+      <c r="HU137"/>
+      <c r="HV137"/>
+      <c r="HW137"/>
+      <c r="HX137"/>
+      <c r="HY137"/>
+      <c r="HZ137"/>
+      <c r="IA137"/>
+      <c r="IB137"/>
+      <c r="IC137"/>
+      <c r="ID137"/>
+      <c r="IE137"/>
+      <c r="IF137"/>
+      <c r="IG137"/>
+      <c r="IH137"/>
+      <c r="II137"/>
+      <c r="IJ137"/>
+      <c r="IK137"/>
+      <c r="IL137"/>
+      <c r="IM137"/>
+      <c r="IN137"/>
+      <c r="IO137"/>
+      <c r="IP137"/>
+      <c r="IQ137"/>
+      <c r="IR137"/>
+      <c r="IS137"/>
+      <c r="IT137"/>
+      <c r="IU137"/>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
       <c r="A138" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F138" s="24">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G138" s="25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -5938,40 +5955,40 @@
         <v>21</v>
       </c>
       <c r="F139" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G139" s="25">
-        <v>1.36</v>
+        <v>12</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="2"/>
-        <v>10.88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
       <c r="A140" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B140" s="29"/>
+        <v>134</v>
+      </c>
+      <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F140" s="24">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G140" s="25">
-        <v>2.2000000000000002</v>
+        <v>1.36</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="2"/>
-        <v>48.400000000000006</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
       <c r="A141" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B141" s="29"/>
       <c r="C141" s="11"/>
@@ -5980,19 +5997,19 @@
         <v>21</v>
       </c>
       <c r="F141" s="24">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G141" s="25">
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>48.400000000000006</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142" s="29"/>
       <c r="C142" s="11"/>
@@ -6001,61 +6018,61 @@
         <v>21</v>
       </c>
       <c r="F142" s="24">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G142" s="25">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B143" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="B143" s="29"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F143" s="24">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G143" s="25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B144" s="29"/>
+        <v>138</v>
+      </c>
+      <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F144" s="24">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G144" s="25">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="2"/>
-        <v>31.900000000000002</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
@@ -6064,19 +6081,19 @@
         <v>21</v>
       </c>
       <c r="F145" s="24">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G145" s="25">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>31.900000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="11"/>
@@ -6085,19 +6102,19 @@
         <v>21</v>
       </c>
       <c r="F146" s="24">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G146" s="25">
-        <v>2.85</v>
+        <v>0.9</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>85.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
       <c r="A147" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B147" s="29"/>
       <c r="C147" s="11"/>
@@ -6106,86 +6123,84 @@
         <v>21</v>
       </c>
       <c r="F147" s="24">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G147" s="25">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>30.599999999999998</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
       <c r="A148" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B148" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="B148" s="29"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F148" s="24">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G148" s="25">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>30.599999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
       <c r="A149" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B149" s="29"/>
+        <v>143</v>
+      </c>
+      <c r="B149" s="11"/>
       <c r="C149" s="11"/>
-      <c r="D149" s="11" t="s">
-        <v>145</v>
-      </c>
+      <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F149" s="24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G149" s="25">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
       <c r="A150" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B150" s="29"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E150" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F150" s="24">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G150" s="25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H150" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="28.35" customHeight="1">
       <c r="A151" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B151" s="29"/>
       <c r="C151" s="11"/>
@@ -6196,35 +6211,58 @@
         <v>21</v>
       </c>
       <c r="F151" s="24">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="G151" s="25">
         <v>10</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A152" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" s="29"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" s="24">
+        <v>9</v>
+      </c>
+      <c r="G152" s="25">
+        <v>10</v>
+      </c>
+      <c r="H152" s="14">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H152" s="47">
-        <f>SUM(H3:H151)</f>
-        <v>19145.202000000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="29.1" customHeight="1"/>
-    <row r="154" spans="1:8" ht="30" customHeight="1"/>
+    <row r="153" spans="1:8" ht="48.75" customHeight="1">
+      <c r="H153" s="47">
+        <f>SUM(H3:H152)</f>
+        <v>19178.602000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="29.1" customHeight="1"/>
+    <row r="155" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F115:F117 F84 F26:F29 F23:F24">
+  <conditionalFormatting sqref="F116:F118 F85 F26:F29 F23:F24">
     <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31 F40:F41 F87:F89">
+  <conditionalFormatting sqref="F30:F31 F40:F41 F88:F90">
     <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>25</formula>
     </cfRule>
@@ -6254,7 +6292,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49 F85:F86 F105 F90:F91">
+  <conditionalFormatting sqref="F49 F86:F87 F106 F91:F92">
     <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
@@ -6264,67 +6302,67 @@
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58 F73:F83">
+  <conditionalFormatting sqref="F58 F74:F84">
     <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F63">
     <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="F68">
     <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
+  <conditionalFormatting sqref="F69">
     <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101 F96:F97">
+  <conditionalFormatting sqref="F102 F97:F98">
     <cfRule type="cellIs" dxfId="8" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F118 F106">
+  <conditionalFormatting sqref="F119 F107">
     <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:F111">
+  <conditionalFormatting sqref="F109:F112">
     <cfRule type="cellIs" dxfId="6" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
+  <conditionalFormatting sqref="F105">
     <cfRule type="cellIs" dxfId="5" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F101">
     <cfRule type="cellIs" dxfId="4" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F99">
+  <conditionalFormatting sqref="F99:F100">
     <cfRule type="cellIs" dxfId="3" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F96">
     <cfRule type="cellIs" dxfId="2" priority="36" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93:F94">
+  <conditionalFormatting sqref="F94:F95">
     <cfRule type="cellIs" dxfId="1" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="238">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -614,12 +614,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>31/1/2018</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -656,12 +650,6 @@
     <t>12//3/2018</t>
   </si>
   <si>
-    <t>15/3/2018</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
     <t>27/3/2018</t>
   </si>
   <si>
@@ -738,6 +726,12 @@
   </si>
   <si>
     <t>130</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1108,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -1246,6 +1240,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1906,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="5" spans="1:35" ht="24.95" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="6" spans="1:35" ht="24.2" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="7" spans="1:35" ht="25.35" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
@@ -2300,14 +2300,14 @@
         <v>12</v>
       </c>
       <c r="F9" s="17">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2354,14 +2354,14 @@
         <v>12</v>
       </c>
       <c r="F10" s="17">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="13">
         <v>2.35</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>117.5</v>
+        <v>115.15</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -2448,7 +2448,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>151</v>
@@ -2493,12 +2493,12 @@
     </row>
     <row r="13" spans="1:35" ht="28.35" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>151</v>
@@ -2543,12 +2543,12 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>151</v>
@@ -2593,12 +2593,12 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>151</v>
@@ -2643,12 +2643,12 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>151</v>
@@ -2693,12 +2693,12 @@
     </row>
     <row r="17" spans="1:35" ht="27.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>151</v>
@@ -2945,55 +2945,55 @@
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
     </row>
-    <row r="22" spans="1:35" ht="28.35" customHeight="1">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:35" s="50" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="12">
         <v>5</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="21">
         <v>2</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
     </row>
     <row r="23" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A23" s="18" t="s">
@@ -3027,10 +3027,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
@@ -3092,10 +3092,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>28</v>
@@ -3119,10 +3119,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
@@ -3144,7 +3144,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>171</v>
@@ -3192,10 +3192,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>28</v>
@@ -3240,10 +3240,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>173</v>
@@ -3252,14 +3252,14 @@
         <v>34</v>
       </c>
       <c r="F33" s="20">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G33" s="21">
         <v>2.6</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="28" t="s">
@@ -3521,10 +3521,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>28</v>
@@ -3880,10 +3880,10 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>179</v>
@@ -3910,7 +3910,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>181</v>
@@ -4213,10 +4213,10 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
@@ -4392,7 +4392,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>195</v>
@@ -4572,7 +4572,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>180</v>
@@ -4597,7 +4597,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>180</v>
@@ -4739,13 +4739,13 @@
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>183</v>
@@ -4832,7 +4832,7 @@
         <v>170</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>21</v>
@@ -4959,7 +4959,7 @@
         <v>102</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>175</v>
@@ -4996,14 +4996,14 @@
         <v>21</v>
       </c>
       <c r="F109" s="20">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G109" s="21">
         <v>2.5</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>262.5</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5050,10 +5050,10 @@
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>169</v>
@@ -5080,10 +5080,10 @@
         <v>106</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>157</v>
@@ -5092,14 +5092,14 @@
         <v>34</v>
       </c>
       <c r="F113" s="20">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G113" s="21">
         <v>2.7</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5118,7 +5118,7 @@
       <c r="E114" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F114" s="24">
+      <c r="F114" s="12">
         <v>15</v>
       </c>
       <c r="G114" s="14">
@@ -5146,14 +5146,14 @@
         <v>21</v>
       </c>
       <c r="F115" s="20">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G115" s="21">
         <v>0.66</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>594.66000000000008</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5188,7 +5188,7 @@
         <v>111</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>181</v>
@@ -5215,10 +5215,10 @@
         <v>112</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>28</v>
@@ -5386,7 +5386,7 @@
         <v>119</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>170</v>
@@ -5497,10 +5497,10 @@
         <v>126</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>13</v>
@@ -5524,10 +5524,10 @@
         <v>177</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D131" s="19" t="s">
         <v>13</v>
@@ -5572,7 +5572,7 @@
         <v>128</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
@@ -6247,7 +6247,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>19178.602000000003</v>
+        <v>19265.092000000001</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$152</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$136</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$151</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$135</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="236">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -140,15 +140,9 @@
     <t>Cartellette leggere con alette</t>
   </si>
   <si>
-    <t>Cartuccia toner  per E260</t>
-  </si>
-  <si>
     <t>Cartuccia toner per sig Tiziana</t>
   </si>
   <si>
-    <t>Cartuccia toner segret. M310</t>
-  </si>
-  <si>
     <t>CD  700 MB  con logo</t>
   </si>
   <si>
@@ -584,9 +578,6 @@
     <t>5/2/2018</t>
   </si>
   <si>
-    <t>Lyreco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Porta abiti sposa </t>
   </si>
   <si>
@@ -732,6 +723,9 @@
   </si>
   <si>
     <t>150</t>
+  </si>
+  <si>
+    <t>Cartuccia toner segret. M312</t>
   </si>
 </sst>
 </file>
@@ -1239,13 +1233,13 @@
     <xf numFmtId="165" fontId="21" fillId="13" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,15 +1300,7 @@
     <cellStyle name="Text" xfId="53"/>
     <cellStyle name="Warning" xfId="54"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1904,10 +1890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IU155"/>
+  <dimension ref="A1:IU154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1923,16 +1909,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="A1" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:35" ht="29.1" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2089,11 +2075,13 @@
     </row>
     <row r="5" spans="1:35" ht="24.95" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
@@ -2137,11 +2125,13 @@
     </row>
     <row r="6" spans="1:35" ht="24.2" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
@@ -2185,12 +2175,12 @@
     </row>
     <row r="7" spans="1:35" ht="25.35" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
-        <v>13</v>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>12</v>
@@ -2235,7 +2225,7 @@
     </row>
     <row r="8" spans="1:35" ht="23.25" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="10">
         <v>43174</v>
@@ -2243,8 +2233,8 @@
       <c r="C8" s="16">
         <v>50</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>13</v>
+      <c r="D8" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>12</v>
@@ -2289,25 +2279,25 @@
     </row>
     <row r="9" spans="1:35" ht="23.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
-        <v>13</v>
+      <c r="D9" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="17">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2339,7 +2329,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2347,8 +2337,8 @@
       <c r="C10" s="16">
         <v>50</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>13</v>
+      <c r="D10" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>12</v>
@@ -2393,15 +2383,15 @@
     </row>
     <row r="11" spans="1:35" ht="28.35" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F11" s="17">
         <v>63</v>
@@ -2443,15 +2433,15 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F12" s="17">
         <v>10</v>
@@ -2493,15 +2483,15 @@
     </row>
     <row r="13" spans="1:35" ht="28.35" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F13" s="17">
         <v>15</v>
@@ -2543,15 +2533,15 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F14" s="17">
         <v>8</v>
@@ -2593,15 +2583,15 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F15" s="17">
         <v>4</v>
@@ -2643,15 +2633,15 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F16" s="17">
         <v>5</v>
@@ -2693,15 +2683,15 @@
     </row>
     <row r="17" spans="1:35" ht="27.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F17" s="17">
         <v>2</v>
@@ -2852,7 +2842,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>10</v>
@@ -2897,12 +2887,12 @@
     </row>
     <row r="21" spans="1:35" ht="28.35" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -2945,14 +2935,14 @@
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
     </row>
-    <row r="22" spans="1:35" s="50" customFormat="1" ht="28.35" customHeight="1">
+    <row r="22" spans="1:35" s="49" customFormat="1" ht="28.35" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>10</v>
@@ -2967,43 +2957,43 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
     </row>
     <row r="23" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>28</v>
@@ -3018,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" ref="H23:H72" si="1">F23*G23</f>
+        <f t="shared" ref="H23:H71" si="1">F23*G23</f>
         <v>6</v>
       </c>
     </row>
@@ -3027,10 +3017,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
@@ -3049,7 +3039,7 @@
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A25" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -3092,10 +3082,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>28</v>
@@ -3119,10 +3109,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19" t="s">
@@ -3144,10 +3134,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>28</v>
@@ -3192,10 +3182,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>28</v>
@@ -3240,13 +3230,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>236</v>
-      </c>
       <c r="D33" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>34</v>
@@ -3268,7 +3258,9 @@
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="E34" s="19" t="s">
         <v>10</v>
       </c>
@@ -3289,7 +3281,9 @@
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="D35" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E35" s="28" t="s">
         <v>21</v>
       </c>
@@ -3333,7 +3327,9 @@
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E37" s="28" t="s">
         <v>21</v>
       </c>
@@ -3354,7 +3350,9 @@
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="D38" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E38" s="28" t="s">
         <v>21</v>
       </c>
@@ -3375,7 +3373,9 @@
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="D39" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E39" s="28" t="s">
         <v>21</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="21">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="1"/>
@@ -3392,11 +3392,13 @@
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
+      <c r="D40" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E40" s="28" t="s">
         <v>21</v>
       </c>
@@ -3404,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="21">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" si="1"/>
@@ -3413,7 +3415,7 @@
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -3422,19 +3424,19 @@
         <v>21</v>
       </c>
       <c r="F41" s="20">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G41" s="21">
-        <v>110</v>
+        <v>1.18</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -3443,89 +3445,93 @@
         <v>21</v>
       </c>
       <c r="F42" s="20">
-        <v>170</v>
+        <v>575</v>
       </c>
       <c r="G42" s="21">
-        <v>1.18</v>
+        <v>0.35</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="1"/>
-        <v>200.6</v>
+        <v>201.25</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="28" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F43" s="20">
-        <v>575</v>
-      </c>
-      <c r="G43" s="21">
-        <v>0.35</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G43" s="21"/>
       <c r="H43" s="14">
         <f t="shared" si="1"/>
-        <v>201.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="C44" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E44" s="28" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F44" s="20">
-        <v>60</v>
-      </c>
-      <c r="G44" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="G44" s="21">
+        <v>1</v>
+      </c>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="C45" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="19"/>
+        <v>197</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E45" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F45" s="20">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G45" s="21">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>200</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="19" t="s">
         <v>28</v>
       </c>
@@ -3533,35 +3539,37 @@
         <v>21</v>
       </c>
       <c r="F46" s="20">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G46" s="21">
-        <v>1.75</v>
+        <v>0.72</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
+      <c r="D47" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="E47" s="28" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F47" s="20">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G47" s="21">
-        <v>0.72</v>
+        <v>3</v>
       </c>
       <c r="H47" s="14">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3570,26 +3578,24 @@
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E48" s="28" t="s">
+      <c r="D48" s="19"/>
+      <c r="E48" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G48" s="21">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -3598,67 +3604,71 @@
         <v>12</v>
       </c>
       <c r="F49" s="20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G49" s="21">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H49" s="14">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19" t="s">
-        <v>12</v>
+      <c r="D50" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F50" s="20">
-        <v>14</v>
+        <v>600</v>
       </c>
       <c r="G50" s="21">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="H50" s="14">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="19"/>
+      <c r="B51" s="11"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="20">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G51" s="21">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E52" s="11" t="s">
         <v>21</v>
       </c>
@@ -3666,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="21">
-        <v>0.22</v>
+        <v>2.13</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="1"/>
@@ -3674,55 +3684,61 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E53" s="11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F53" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="21">
-        <v>2.13</v>
+        <v>5.95</v>
       </c>
       <c r="H53" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A54" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="D54" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F54" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G54" s="21">
-        <v>5.95</v>
+        <v>0.7</v>
       </c>
       <c r="H54" s="14">
         <f t="shared" si="1"/>
-        <v>11.9</v>
+        <v>4.1999999999999993</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A55" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>169</v>
@@ -3734,26 +3750,22 @@
         <v>21</v>
       </c>
       <c r="F55" s="20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G55" s="21">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>171</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="19" t="s">
         <v>28</v>
       </c>
@@ -3761,129 +3773,141 @@
         <v>21</v>
       </c>
       <c r="F56" s="20">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G56" s="21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
+      <c r="D57" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E57" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F57" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="D58" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E58" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="21">
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
+      <c r="D59" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E59" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F59" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" s="21">
-        <v>5.35</v>
+        <v>2</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="D60" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E60" s="11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F60" s="20">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G60" s="21">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A61" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
+        <v>229</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="D61" s="19" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="F61" s="20">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G61" s="21">
-        <v>1.98</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="1"/>
-        <v>43.56</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>232</v>
+        <v>61</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>179</v>
@@ -3892,202 +3916,198 @@
         <v>28</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F62" s="20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G62" s="21">
-        <v>4.9000000000000004</v>
+        <v>0.44</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A63" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="19"/>
+      <c r="A63" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="20">
-        <v>7</v>
-      </c>
-      <c r="G63" s="21">
-        <v>0.44</v>
+        <v>12</v>
+      </c>
+      <c r="F63" s="24">
+        <v>11</v>
+      </c>
+      <c r="G63" s="25">
+        <v>4.8499999999999996</v>
       </c>
       <c r="H63" s="14">
         <f t="shared" si="1"/>
-        <v>3.08</v>
+        <v>53.349999999999994</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A64" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="29"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="24">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G64" s="25">
-        <v>4.8499999999999996</v>
+        <v>5.04</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="1"/>
-        <v>53.349999999999994</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A65" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
+      <c r="A65" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="24">
-        <v>30</v>
-      </c>
-      <c r="G65" s="25">
-        <v>5.04</v>
+      <c r="F65" s="20">
+        <v>25</v>
+      </c>
+      <c r="G65" s="21">
+        <v>8.3000000000000007</v>
       </c>
       <c r="H65" s="14">
         <f t="shared" si="1"/>
-        <v>151.19999999999999</v>
+        <v>207.50000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A66" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="20">
         <v>12</v>
       </c>
-      <c r="F66" s="20">
-        <v>25</v>
-      </c>
       <c r="G66" s="21">
-        <v>8.3000000000000007</v>
+        <v>0.75</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="1"/>
-        <v>207.50000000000003</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A67" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E67" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F67" s="20">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G67" s="21">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="H67" s="14">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A68" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>156</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F68" s="20">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G68" s="21">
         <v>3</v>
       </c>
       <c r="H68" s="14">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+      <c r="D69" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="E69" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="20">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G69" s="21">
         <v>3</v>
       </c>
       <c r="H69" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A70" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" s="19" t="s">
+      <c r="A70" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="20">
-        <v>35</v>
-      </c>
-      <c r="G70" s="21">
+        <v>18</v>
+      </c>
+      <c r="G70" s="32">
         <v>3</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="33">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A71" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -4096,61 +4116,61 @@
         <v>12</v>
       </c>
       <c r="F71" s="20">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G71" s="32">
         <v>3</v>
       </c>
       <c r="H71" s="33">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A72" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31" t="s">
+      <c r="A72" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="20">
-        <v>7</v>
-      </c>
-      <c r="G72" s="32">
-        <v>3</v>
-      </c>
-      <c r="H72" s="33">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="G72" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H72" s="14">
+        <f t="shared" ref="H72:H151" si="2">F72*G72</f>
+        <v>210.70000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F73" s="20">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G73" s="21">
-        <v>4.9000000000000004</v>
+        <v>33.5</v>
       </c>
       <c r="H73" s="14">
-        <f t="shared" ref="H73:H152" si="2">F73*G73</f>
-        <v>210.70000000000002</v>
+        <f t="shared" si="2"/>
+        <v>2077</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -4159,19 +4179,19 @@
         <v>21</v>
       </c>
       <c r="F74" s="20">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="G74" s="21">
-        <v>33.5</v>
+        <v>2</v>
       </c>
       <c r="H74" s="14">
         <f t="shared" si="2"/>
-        <v>2077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -4180,161 +4200,165 @@
         <v>21</v>
       </c>
       <c r="F75" s="20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G75" s="21">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H75" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="19"/>
+        <v>220</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>221</v>
+      </c>
       <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="D76" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="E76" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F76" s="20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G76" s="21">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="H76" s="14">
         <f t="shared" si="2"/>
-        <v>81.7</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>224</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="20">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G77" s="21">
         <v>8.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F78" s="20">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G78" s="21">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="20">
-        <v>1.5</v>
+        <v>20</v>
       </c>
       <c r="G79" s="21">
         <v>5</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
+      <c r="D80" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="E80" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="20">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G80" s="21">
         <v>5</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
+      <c r="D81" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E81" s="19" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="F81" s="20">
-        <v>3</v>
-      </c>
-      <c r="G81" s="21">
-        <v>5</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G81" s="21"/>
       <c r="H81" s="14">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A82" s="18" t="s">
         <v>150</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F82" s="20">
         <v>150</v>
@@ -4345,58 +4369,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+    <row r="83" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F83" s="20">
-        <v>150</v>
-      </c>
-      <c r="G83" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="G83" s="21">
+        <v>0.8</v>
+      </c>
       <c r="H83" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A84" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="20">
+        <v>12</v>
+      </c>
+      <c r="G84" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H84" s="14">
+        <f t="shared" si="2"/>
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A85" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F84" s="20">
-        <v>8</v>
-      </c>
-      <c r="G84" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="H84" s="14">
-        <f t="shared" si="2"/>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A85" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>195</v>
-      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="19" t="s">
         <v>28</v>
       </c>
@@ -4404,134 +4432,144 @@
         <v>21</v>
       </c>
       <c r="F85" s="20">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G85" s="21">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H85" s="14">
         <f t="shared" si="2"/>
-        <v>13.200000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
+      <c r="D86" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E86" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F86" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G86" s="21">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H86" s="14">
         <f t="shared" si="2"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
+      <c r="D87" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E87" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F87" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G87" s="21">
         <v>1.5</v>
       </c>
       <c r="H87" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A88" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="20">
+        <v>4</v>
+      </c>
+      <c r="G88" s="21">
+        <v>12.5</v>
+      </c>
+      <c r="H88" s="14">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A89" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="20">
-        <v>3</v>
-      </c>
-      <c r="G88" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="H88" s="14">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A89" s="18" t="s">
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="20">
+        <v>2</v>
+      </c>
+      <c r="G89" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="H89" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A90" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="20">
-        <v>4</v>
-      </c>
-      <c r="G89" s="21">
-        <v>12.5</v>
-      </c>
-      <c r="H89" s="14">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A90" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
+      <c r="D90" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E90" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F90" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G90" s="21">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H90" s="14">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
+      <c r="D91" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E91" s="19" t="s">
         <v>21</v>
       </c>
@@ -4546,101 +4584,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+    <row r="92" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="20">
+        <v>50</v>
+      </c>
+      <c r="G92" s="38">
+        <v>0.19</v>
+      </c>
+      <c r="H92" s="44">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A93" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F92" s="20">
-        <v>0</v>
-      </c>
-      <c r="G92" s="21">
-        <v>1</v>
-      </c>
-      <c r="H92" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A93" s="18" t="s">
+      <c r="B93" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" s="37">
+        <v>50</v>
+      </c>
+      <c r="G93" s="40">
+        <v>0.19</v>
+      </c>
+      <c r="H93" s="46">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A94" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="20">
-        <v>50</v>
-      </c>
-      <c r="G93" s="38">
-        <v>0.19</v>
-      </c>
-      <c r="H93" s="44">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A94" s="18" t="s">
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" s="20">
+        <v>3</v>
+      </c>
+      <c r="G94" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="H94" s="45">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A95" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F94" s="37">
-        <v>50</v>
-      </c>
-      <c r="G94" s="40">
-        <v>0.19</v>
-      </c>
-      <c r="H94" s="46">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A95" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
+      <c r="D95" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E95" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F95" s="20">
-        <v>3</v>
-      </c>
-      <c r="G95" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="H95" s="45">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H95" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -4649,522 +4695,528 @@
         <v>21</v>
       </c>
       <c r="F96" s="20">
-        <v>0</v>
-      </c>
-      <c r="G96" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="H96" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G96" s="43">
+        <v>1</v>
+      </c>
+      <c r="H96" s="46">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I96" s="41"/>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+        <v>187</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>181</v>
+      </c>
       <c r="E97" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F97" s="20">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G97" s="43">
-        <v>1</v>
+        <v>3.45</v>
       </c>
       <c r="H97" s="46">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I97" s="41"/>
+        <f>F97*G97</f>
+        <v>358.8</v>
+      </c>
+      <c r="I97" s="42"/>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F98" s="20">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G98" s="43">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="H98" s="46">
-        <f>F98*G98</f>
-        <v>358.8</v>
+        <f t="shared" si="2"/>
+        <v>284.2</v>
       </c>
       <c r="I98" s="42"/>
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F99" s="20">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="G99" s="43">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>284.2</v>
+        <v>182.4</v>
       </c>
       <c r="I99" s="42"/>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F100" s="20">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G100" s="43">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>182.4</v>
+        <v>0</v>
       </c>
       <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F101" s="20">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G101" s="43">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H101" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>183.75</v>
       </c>
       <c r="I101" s="42"/>
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F102" s="20">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G102" s="43">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H102" s="46">
         <f t="shared" si="2"/>
-        <v>183.75</v>
+        <v>48</v>
       </c>
       <c r="I102" s="42"/>
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>191</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F103" s="20">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G103" s="43">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="I103" s="42"/>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C104" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C104" s="19" t="s">
-        <v>170</v>
-      </c>
       <c r="D104" s="19" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F104" s="20">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G104" s="43">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>38.400000000000006</v>
-      </c>
-      <c r="I104" s="42"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>197</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="19" t="s">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F105" s="20">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G105" s="43">
-        <v>11.7</v>
+        <v>2.4</v>
       </c>
       <c r="H105" s="46">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
+        <v>99</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="D106" s="19" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F106" s="20">
-        <v>170</v>
-      </c>
-      <c r="G106" s="43">
-        <v>2.4</v>
-      </c>
-      <c r="H106" s="46">
-        <f t="shared" si="2"/>
-        <v>408</v>
+        <v>30</v>
+      </c>
+      <c r="G106" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="H106" s="45">
+        <f t="shared" si="2"/>
+        <v>24.9</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>28</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D107" s="19"/>
       <c r="E107" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F107" s="20">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="G107" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="H107" s="45">
-        <f t="shared" si="2"/>
-        <v>24.9</v>
+        <v>4.7</v>
+      </c>
+      <c r="H107" s="14">
+        <f t="shared" si="2"/>
+        <v>653.30000000000007</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A108" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D108" s="19"/>
+        <v>173</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E108" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F108" s="20">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="G108" s="21">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H108" s="14">
         <f t="shared" si="2"/>
-        <v>653.30000000000007</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C109" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>156</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="34"/>
       <c r="E109" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F109" s="20">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G109" s="21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
-      <c r="D110" s="34"/>
+      <c r="D110" s="19"/>
       <c r="E110" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F110" s="20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G110" s="21">
         <v>2</v>
       </c>
       <c r="H110" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
+        <v>200</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="E111" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F111" s="20">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G111" s="21">
-        <v>2</v>
+        <v>41.34</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>289.38</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F112" s="20">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="G112" s="21">
-        <v>41.34</v>
+        <v>2.7</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>289.38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="29">
+        <v>43140</v>
+      </c>
+      <c r="C113" s="11">
+        <v>36</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E113" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113" s="20">
-        <v>60</v>
-      </c>
-      <c r="G113" s="21">
-        <v>2.7</v>
+      <c r="F113" s="12">
+        <v>15</v>
+      </c>
+      <c r="G113" s="14">
+        <v>6</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="29">
-        <v>43140</v>
-      </c>
-      <c r="C114" s="11">
-        <v>36</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F114" s="12">
-        <v>15</v>
-      </c>
-      <c r="G114" s="14">
-        <v>6</v>
+      <c r="B114" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="20">
+        <v>900</v>
+      </c>
+      <c r="G114" s="21">
+        <v>0.66</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>594</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F115" s="20">
-        <v>900</v>
+        <v>5</v>
       </c>
       <c r="G115" s="21">
-        <v>0.66</v>
+        <v>2.85</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>594</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>28</v>
@@ -5173,25 +5225,25 @@
         <v>21</v>
       </c>
       <c r="F116" s="20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G116" s="21">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>14.25</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A117" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>28</v>
@@ -5200,25 +5252,25 @@
         <v>21</v>
       </c>
       <c r="F117" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G117" s="21">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="2"/>
-        <v>12.04</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>28</v>
@@ -5227,94 +5279,94 @@
         <v>21</v>
       </c>
       <c r="F118" s="20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G118" s="21">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>28</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="35"/>
       <c r="E119" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F119" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G119" s="21">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="2"/>
-        <v>5.16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
-      <c r="D120" s="35"/>
+      <c r="D120" s="19"/>
       <c r="E120" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F120" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G120" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E121" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F121" s="20">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="G121" s="21">
-        <v>1</v>
+        <v>2.69</v>
       </c>
       <c r="H121" s="14">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>454.61</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A122" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C122" s="19" t="s">
         <v>172</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="D122" s="19" t="s">
         <v>9</v>
@@ -5323,94 +5375,88 @@
         <v>12</v>
       </c>
       <c r="F122" s="20">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G122" s="21">
-        <v>2.69</v>
+        <v>3.3</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="2"/>
-        <v>454.61</v>
+        <v>372.9</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>9</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
       <c r="E123" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F123" s="20">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="G123" s="21">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="H123" s="14">
         <f t="shared" si="2"/>
-        <v>372.9</v>
+        <v>14.350000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D124" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
       <c r="E124" s="19" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="F124" s="20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G124" s="21">
-        <v>2.87</v>
+        <v>7</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="2"/>
-        <v>14.350000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D125" s="19" t="s">
         <v>120</v>
       </c>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
       <c r="E125" s="19" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F125" s="20">
-        <v>6</v>
+        <v>582</v>
       </c>
       <c r="G125" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A126" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -5419,88 +5465,94 @@
         <v>21</v>
       </c>
       <c r="F126" s="20">
-        <v>582</v>
+        <v>1</v>
       </c>
       <c r="G126" s="21">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="2"/>
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A127" s="18" t="s">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A127" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="24">
+        <v>7</v>
+      </c>
+      <c r="G127" s="25">
+        <v>1.97</v>
+      </c>
+      <c r="H127" s="14">
+        <f t="shared" si="2"/>
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A128" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F127" s="20">
-        <v>1</v>
-      </c>
-      <c r="G127" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="H127" s="14">
-        <f t="shared" si="2"/>
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A128" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
       <c r="E128" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="24">
+      <c r="F128" s="20">
+        <v>95</v>
+      </c>
+      <c r="G128" s="21">
         <v>7</v>
       </c>
-      <c r="G128" s="25">
-        <v>1.97</v>
-      </c>
       <c r="H128" s="14">
         <f t="shared" si="2"/>
-        <v>13.79</v>
+        <v>665</v>
       </c>
     </row>
     <row r="129" spans="1:255" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
+        <v>124</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E129" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="20">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="G129" s="21">
-        <v>7</v>
+        <v>2.69</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>665</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="130" spans="1:255" ht="28.35" customHeight="1">
       <c r="A130" s="18" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>13</v>
@@ -5509,444 +5561,438 @@
         <v>12</v>
       </c>
       <c r="F130" s="20">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G130" s="21">
-        <v>2.69</v>
+        <v>2.21</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>672.5</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A131" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="A131" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="20">
-        <v>150</v>
-      </c>
-      <c r="G131" s="21">
-        <v>2.21</v>
+      <c r="F131" s="24">
+        <v>100</v>
+      </c>
+      <c r="G131" s="25">
+        <v>1.43</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>331.5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A132" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
+      <c r="A132" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
       <c r="E132" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="24">
-        <v>100</v>
-      </c>
-      <c r="G132" s="25">
-        <v>1.43</v>
+      <c r="F132" s="20">
+        <v>4</v>
+      </c>
+      <c r="G132" s="21">
+        <v>8.5</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>225</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B133" s="19"/>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
       <c r="E133" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="20">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G133" s="21">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
       <c r="A134" s="18" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
+      <c r="D134" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="E134" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G134" s="21">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A135" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19" t="s">
-        <v>155</v>
-      </c>
+      <c r="A135" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
       <c r="E135" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F135" s="20">
+      <c r="F135" s="24">
+        <v>22</v>
+      </c>
+      <c r="G135" s="25">
+        <v>2.97</v>
+      </c>
+      <c r="H135" s="14">
+        <f t="shared" si="2"/>
+        <v>65.34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A136" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="20">
+        <v>140</v>
+      </c>
+      <c r="G136" s="21">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H136" s="14">
+        <f t="shared" si="2"/>
+        <v>158.19999999999999</v>
+      </c>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136"/>
+      <c r="Y136"/>
+      <c r="Z136"/>
+      <c r="AA136"/>
+      <c r="AB136"/>
+      <c r="AC136"/>
+      <c r="AD136"/>
+      <c r="AE136"/>
+      <c r="AF136"/>
+      <c r="AG136"/>
+      <c r="AH136"/>
+      <c r="AI136"/>
+      <c r="AJ136"/>
+      <c r="AK136"/>
+      <c r="AL136"/>
+      <c r="AM136"/>
+      <c r="AN136"/>
+      <c r="AO136"/>
+      <c r="AP136"/>
+      <c r="AQ136"/>
+      <c r="AR136"/>
+      <c r="AS136"/>
+      <c r="AT136"/>
+      <c r="AU136"/>
+      <c r="AV136"/>
+      <c r="AW136"/>
+      <c r="AX136"/>
+      <c r="AY136"/>
+      <c r="AZ136"/>
+      <c r="BA136"/>
+      <c r="BB136"/>
+      <c r="BC136"/>
+      <c r="BD136"/>
+      <c r="BE136"/>
+      <c r="BF136"/>
+      <c r="BG136"/>
+      <c r="BH136"/>
+      <c r="BI136"/>
+      <c r="BJ136"/>
+      <c r="BK136"/>
+      <c r="BL136"/>
+      <c r="BM136"/>
+      <c r="BN136"/>
+      <c r="BO136"/>
+      <c r="BP136"/>
+      <c r="BQ136"/>
+      <c r="BR136"/>
+      <c r="BS136"/>
+      <c r="BT136"/>
+      <c r="BU136"/>
+      <c r="BV136"/>
+      <c r="BW136"/>
+      <c r="BX136"/>
+      <c r="BY136"/>
+      <c r="BZ136"/>
+      <c r="CA136"/>
+      <c r="CB136"/>
+      <c r="CC136"/>
+      <c r="CD136"/>
+      <c r="CE136"/>
+      <c r="CF136"/>
+      <c r="CG136"/>
+      <c r="CH136"/>
+      <c r="CI136"/>
+      <c r="CJ136"/>
+      <c r="CK136"/>
+      <c r="CL136"/>
+      <c r="CM136"/>
+      <c r="CN136"/>
+      <c r="CO136"/>
+      <c r="CP136"/>
+      <c r="CQ136"/>
+      <c r="CR136"/>
+      <c r="CS136"/>
+      <c r="CT136"/>
+      <c r="CU136"/>
+      <c r="CV136"/>
+      <c r="CW136"/>
+      <c r="CX136"/>
+      <c r="CY136"/>
+      <c r="CZ136"/>
+      <c r="DA136"/>
+      <c r="DB136"/>
+      <c r="DC136"/>
+      <c r="DD136"/>
+      <c r="DE136"/>
+      <c r="DF136"/>
+      <c r="DG136"/>
+      <c r="DH136"/>
+      <c r="DI136"/>
+      <c r="DJ136"/>
+      <c r="DK136"/>
+      <c r="DL136"/>
+      <c r="DM136"/>
+      <c r="DN136"/>
+      <c r="DO136"/>
+      <c r="DP136"/>
+      <c r="DQ136"/>
+      <c r="DR136"/>
+      <c r="DS136"/>
+      <c r="DT136"/>
+      <c r="DU136"/>
+      <c r="DV136"/>
+      <c r="DW136"/>
+      <c r="DX136"/>
+      <c r="DY136"/>
+      <c r="DZ136"/>
+      <c r="EA136"/>
+      <c r="EB136"/>
+      <c r="EC136"/>
+      <c r="ED136"/>
+      <c r="EE136"/>
+      <c r="EF136"/>
+      <c r="EG136"/>
+      <c r="EH136"/>
+      <c r="EI136"/>
+      <c r="EJ136"/>
+      <c r="EK136"/>
+      <c r="EL136"/>
+      <c r="EM136"/>
+      <c r="EN136"/>
+      <c r="EO136"/>
+      <c r="EP136"/>
+      <c r="EQ136"/>
+      <c r="ER136"/>
+      <c r="ES136"/>
+      <c r="ET136"/>
+      <c r="EU136"/>
+      <c r="EV136"/>
+      <c r="EW136"/>
+      <c r="EX136"/>
+      <c r="EY136"/>
+      <c r="EZ136"/>
+      <c r="FA136"/>
+      <c r="FB136"/>
+      <c r="FC136"/>
+      <c r="FD136"/>
+      <c r="FE136"/>
+      <c r="FF136"/>
+      <c r="FG136"/>
+      <c r="FH136"/>
+      <c r="FI136"/>
+      <c r="FJ136"/>
+      <c r="FK136"/>
+      <c r="FL136"/>
+      <c r="FM136"/>
+      <c r="FN136"/>
+      <c r="FO136"/>
+      <c r="FP136"/>
+      <c r="FQ136"/>
+      <c r="FR136"/>
+      <c r="FS136"/>
+      <c r="FT136"/>
+      <c r="FU136"/>
+      <c r="FV136"/>
+      <c r="FW136"/>
+      <c r="FX136"/>
+      <c r="FY136"/>
+      <c r="FZ136"/>
+      <c r="GA136"/>
+      <c r="GB136"/>
+      <c r="GC136"/>
+      <c r="GD136"/>
+      <c r="GE136"/>
+      <c r="GF136"/>
+      <c r="GG136"/>
+      <c r="GH136"/>
+      <c r="GI136"/>
+      <c r="GJ136"/>
+      <c r="GK136"/>
+      <c r="GL136"/>
+      <c r="GM136"/>
+      <c r="GN136"/>
+      <c r="GO136"/>
+      <c r="GP136"/>
+      <c r="GQ136"/>
+      <c r="GR136"/>
+      <c r="GS136"/>
+      <c r="GT136"/>
+      <c r="GU136"/>
+      <c r="GV136"/>
+      <c r="GW136"/>
+      <c r="GX136"/>
+      <c r="GY136"/>
+      <c r="GZ136"/>
+      <c r="HA136"/>
+      <c r="HB136"/>
+      <c r="HC136"/>
+      <c r="HD136"/>
+      <c r="HE136"/>
+      <c r="HF136"/>
+      <c r="HG136"/>
+      <c r="HH136"/>
+      <c r="HI136"/>
+      <c r="HJ136"/>
+      <c r="HK136"/>
+      <c r="HL136"/>
+      <c r="HM136"/>
+      <c r="HN136"/>
+      <c r="HO136"/>
+      <c r="HP136"/>
+      <c r="HQ136"/>
+      <c r="HR136"/>
+      <c r="HS136"/>
+      <c r="HT136"/>
+      <c r="HU136"/>
+      <c r="HV136"/>
+      <c r="HW136"/>
+      <c r="HX136"/>
+      <c r="HY136"/>
+      <c r="HZ136"/>
+      <c r="IA136"/>
+      <c r="IB136"/>
+      <c r="IC136"/>
+      <c r="ID136"/>
+      <c r="IE136"/>
+      <c r="IF136"/>
+      <c r="IG136"/>
+      <c r="IH136"/>
+      <c r="II136"/>
+      <c r="IJ136"/>
+      <c r="IK136"/>
+      <c r="IL136"/>
+      <c r="IM136"/>
+      <c r="IN136"/>
+      <c r="IO136"/>
+      <c r="IP136"/>
+      <c r="IQ136"/>
+      <c r="IR136"/>
+      <c r="IS136"/>
+      <c r="IT136"/>
+      <c r="IU136"/>
+    </row>
+    <row r="137" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A137" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G135" s="21">
-        <v>47</v>
-      </c>
-      <c r="H135" s="14">
-        <f t="shared" si="2"/>
-        <v>564</v>
-      </c>
-    </row>
-    <row r="136" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A136" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="24">
-        <v>22</v>
-      </c>
-      <c r="G136" s="25">
-        <v>2.97</v>
-      </c>
-      <c r="H136" s="14">
-        <f t="shared" si="2"/>
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A137" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F137" s="20">
-        <v>140</v>
-      </c>
-      <c r="G137" s="21">
-        <v>1.1299999999999999</v>
+      <c r="F137" s="24">
+        <v>25</v>
+      </c>
+      <c r="G137" s="25">
+        <v>5</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>158.19999999999999</v>
-      </c>
-      <c r="I137"/>
-      <c r="J137"/>
-      <c r="K137"/>
-      <c r="L137"/>
-      <c r="M137"/>
-      <c r="N137"/>
-      <c r="O137"/>
-      <c r="P137"/>
-      <c r="Q137"/>
-      <c r="R137"/>
-      <c r="S137"/>
-      <c r="T137"/>
-      <c r="U137"/>
-      <c r="V137"/>
-      <c r="W137"/>
-      <c r="X137"/>
-      <c r="Y137"/>
-      <c r="Z137"/>
-      <c r="AA137"/>
-      <c r="AB137"/>
-      <c r="AC137"/>
-      <c r="AD137"/>
-      <c r="AE137"/>
-      <c r="AF137"/>
-      <c r="AG137"/>
-      <c r="AH137"/>
-      <c r="AI137"/>
-      <c r="AJ137"/>
-      <c r="AK137"/>
-      <c r="AL137"/>
-      <c r="AM137"/>
-      <c r="AN137"/>
-      <c r="AO137"/>
-      <c r="AP137"/>
-      <c r="AQ137"/>
-      <c r="AR137"/>
-      <c r="AS137"/>
-      <c r="AT137"/>
-      <c r="AU137"/>
-      <c r="AV137"/>
-      <c r="AW137"/>
-      <c r="AX137"/>
-      <c r="AY137"/>
-      <c r="AZ137"/>
-      <c r="BA137"/>
-      <c r="BB137"/>
-      <c r="BC137"/>
-      <c r="BD137"/>
-      <c r="BE137"/>
-      <c r="BF137"/>
-      <c r="BG137"/>
-      <c r="BH137"/>
-      <c r="BI137"/>
-      <c r="BJ137"/>
-      <c r="BK137"/>
-      <c r="BL137"/>
-      <c r="BM137"/>
-      <c r="BN137"/>
-      <c r="BO137"/>
-      <c r="BP137"/>
-      <c r="BQ137"/>
-      <c r="BR137"/>
-      <c r="BS137"/>
-      <c r="BT137"/>
-      <c r="BU137"/>
-      <c r="BV137"/>
-      <c r="BW137"/>
-      <c r="BX137"/>
-      <c r="BY137"/>
-      <c r="BZ137"/>
-      <c r="CA137"/>
-      <c r="CB137"/>
-      <c r="CC137"/>
-      <c r="CD137"/>
-      <c r="CE137"/>
-      <c r="CF137"/>
-      <c r="CG137"/>
-      <c r="CH137"/>
-      <c r="CI137"/>
-      <c r="CJ137"/>
-      <c r="CK137"/>
-      <c r="CL137"/>
-      <c r="CM137"/>
-      <c r="CN137"/>
-      <c r="CO137"/>
-      <c r="CP137"/>
-      <c r="CQ137"/>
-      <c r="CR137"/>
-      <c r="CS137"/>
-      <c r="CT137"/>
-      <c r="CU137"/>
-      <c r="CV137"/>
-      <c r="CW137"/>
-      <c r="CX137"/>
-      <c r="CY137"/>
-      <c r="CZ137"/>
-      <c r="DA137"/>
-      <c r="DB137"/>
-      <c r="DC137"/>
-      <c r="DD137"/>
-      <c r="DE137"/>
-      <c r="DF137"/>
-      <c r="DG137"/>
-      <c r="DH137"/>
-      <c r="DI137"/>
-      <c r="DJ137"/>
-      <c r="DK137"/>
-      <c r="DL137"/>
-      <c r="DM137"/>
-      <c r="DN137"/>
-      <c r="DO137"/>
-      <c r="DP137"/>
-      <c r="DQ137"/>
-      <c r="DR137"/>
-      <c r="DS137"/>
-      <c r="DT137"/>
-      <c r="DU137"/>
-      <c r="DV137"/>
-      <c r="DW137"/>
-      <c r="DX137"/>
-      <c r="DY137"/>
-      <c r="DZ137"/>
-      <c r="EA137"/>
-      <c r="EB137"/>
-      <c r="EC137"/>
-      <c r="ED137"/>
-      <c r="EE137"/>
-      <c r="EF137"/>
-      <c r="EG137"/>
-      <c r="EH137"/>
-      <c r="EI137"/>
-      <c r="EJ137"/>
-      <c r="EK137"/>
-      <c r="EL137"/>
-      <c r="EM137"/>
-      <c r="EN137"/>
-      <c r="EO137"/>
-      <c r="EP137"/>
-      <c r="EQ137"/>
-      <c r="ER137"/>
-      <c r="ES137"/>
-      <c r="ET137"/>
-      <c r="EU137"/>
-      <c r="EV137"/>
-      <c r="EW137"/>
-      <c r="EX137"/>
-      <c r="EY137"/>
-      <c r="EZ137"/>
-      <c r="FA137"/>
-      <c r="FB137"/>
-      <c r="FC137"/>
-      <c r="FD137"/>
-      <c r="FE137"/>
-      <c r="FF137"/>
-      <c r="FG137"/>
-      <c r="FH137"/>
-      <c r="FI137"/>
-      <c r="FJ137"/>
-      <c r="FK137"/>
-      <c r="FL137"/>
-      <c r="FM137"/>
-      <c r="FN137"/>
-      <c r="FO137"/>
-      <c r="FP137"/>
-      <c r="FQ137"/>
-      <c r="FR137"/>
-      <c r="FS137"/>
-      <c r="FT137"/>
-      <c r="FU137"/>
-      <c r="FV137"/>
-      <c r="FW137"/>
-      <c r="FX137"/>
-      <c r="FY137"/>
-      <c r="FZ137"/>
-      <c r="GA137"/>
-      <c r="GB137"/>
-      <c r="GC137"/>
-      <c r="GD137"/>
-      <c r="GE137"/>
-      <c r="GF137"/>
-      <c r="GG137"/>
-      <c r="GH137"/>
-      <c r="GI137"/>
-      <c r="GJ137"/>
-      <c r="GK137"/>
-      <c r="GL137"/>
-      <c r="GM137"/>
-      <c r="GN137"/>
-      <c r="GO137"/>
-      <c r="GP137"/>
-      <c r="GQ137"/>
-      <c r="GR137"/>
-      <c r="GS137"/>
-      <c r="GT137"/>
-      <c r="GU137"/>
-      <c r="GV137"/>
-      <c r="GW137"/>
-      <c r="GX137"/>
-      <c r="GY137"/>
-      <c r="GZ137"/>
-      <c r="HA137"/>
-      <c r="HB137"/>
-      <c r="HC137"/>
-      <c r="HD137"/>
-      <c r="HE137"/>
-      <c r="HF137"/>
-      <c r="HG137"/>
-      <c r="HH137"/>
-      <c r="HI137"/>
-      <c r="HJ137"/>
-      <c r="HK137"/>
-      <c r="HL137"/>
-      <c r="HM137"/>
-      <c r="HN137"/>
-      <c r="HO137"/>
-      <c r="HP137"/>
-      <c r="HQ137"/>
-      <c r="HR137"/>
-      <c r="HS137"/>
-      <c r="HT137"/>
-      <c r="HU137"/>
-      <c r="HV137"/>
-      <c r="HW137"/>
-      <c r="HX137"/>
-      <c r="HY137"/>
-      <c r="HZ137"/>
-      <c r="IA137"/>
-      <c r="IB137"/>
-      <c r="IC137"/>
-      <c r="ID137"/>
-      <c r="IE137"/>
-      <c r="IF137"/>
-      <c r="IG137"/>
-      <c r="IH137"/>
-      <c r="II137"/>
-      <c r="IJ137"/>
-      <c r="IK137"/>
-      <c r="IL137"/>
-      <c r="IM137"/>
-      <c r="IN137"/>
-      <c r="IO137"/>
-      <c r="IP137"/>
-      <c r="IQ137"/>
-      <c r="IR137"/>
-      <c r="IS137"/>
-      <c r="IT137"/>
-      <c r="IU137"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
       <c r="A138" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="24">
+        <v>1</v>
+      </c>
+      <c r="G138" s="25">
         <v>12</v>
       </c>
-      <c r="F138" s="24">
-        <v>25</v>
-      </c>
-      <c r="G138" s="25">
-        <v>5</v>
-      </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -5955,40 +6001,40 @@
         <v>21</v>
       </c>
       <c r="F139" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G139" s="25">
-        <v>12</v>
+        <v>1.36</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
       <c r="A140" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B140" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="B140" s="29"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F140" s="24">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G140" s="25">
-        <v>1.36</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="2"/>
-        <v>10.88</v>
+        <v>48.400000000000006</v>
       </c>
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
       <c r="A141" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B141" s="29"/>
       <c r="C141" s="11"/>
@@ -5997,19 +6043,19 @@
         <v>21</v>
       </c>
       <c r="F141" s="24">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G141" s="25">
-        <v>2.2000000000000002</v>
+        <v>5.5</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>48.400000000000006</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B142" s="29"/>
       <c r="C142" s="11"/>
@@ -6018,61 +6064,61 @@
         <v>21</v>
       </c>
       <c r="F142" s="24">
+        <v>40</v>
+      </c>
+      <c r="G142" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="H142" s="14">
+        <f t="shared" si="2"/>
         <v>16</v>
-      </c>
-      <c r="G142" s="25">
-        <v>5.5</v>
-      </c>
-      <c r="H142" s="14">
-        <f t="shared" si="2"/>
-        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B143" s="29"/>
+        <v>136</v>
+      </c>
+      <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F143" s="24">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G143" s="25">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B144" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="B144" s="29"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F144" s="24">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G144" s="25">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>31.900000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
@@ -6081,19 +6127,19 @@
         <v>21</v>
       </c>
       <c r="F145" s="24">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G145" s="25">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>31.900000000000002</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="11"/>
@@ -6102,19 +6148,19 @@
         <v>21</v>
       </c>
       <c r="F146" s="24">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G146" s="25">
-        <v>0.9</v>
+        <v>2.85</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
       <c r="A147" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B147" s="29"/>
       <c r="C147" s="11"/>
@@ -6123,56 +6169,58 @@
         <v>21</v>
       </c>
       <c r="F147" s="24">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G147" s="25">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>85.5</v>
+        <v>30.599999999999998</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
       <c r="A148" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B148" s="29"/>
+        <v>141</v>
+      </c>
+      <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F148" s="24">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G148" s="25">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" si="2"/>
-        <v>30.599999999999998</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
       <c r="A149" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="29"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F149" s="24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G149" s="25">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>357</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
@@ -6188,14 +6236,14 @@
         <v>21</v>
       </c>
       <c r="F150" s="24">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G150" s="25">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H150" s="14">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="28.35" customHeight="1">
@@ -6205,164 +6253,136 @@
       <c r="B151" s="29"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E151" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F151" s="24">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="G151" s="25">
         <v>10</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A152" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B152" s="29"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F152" s="24">
-        <v>9</v>
-      </c>
-      <c r="G152" s="25">
-        <v>10</v>
-      </c>
-      <c r="H152" s="14">
-        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H153" s="47">
-        <f>SUM(H3:H152)</f>
-        <v>19265.092000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="29.1" customHeight="1"/>
-    <row r="155" spans="1:8" ht="30" customHeight="1"/>
+    <row r="152" spans="1:8" ht="48.75" customHeight="1">
+      <c r="H152" s="47">
+        <f>SUM(H3:H151)</f>
+        <v>19342.092000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="29.1" customHeight="1"/>
+    <row r="154" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F116:F118 F85 F26:F29 F23:F24">
-    <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F115:F117 F84 F26:F29 F23:F24">
+    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F31 F40:F41 F88:F90">
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F39:F40 F87:F89 F30:F31">
+    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F33">
-    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F38">
-    <cfRule type="cellIs" dxfId="18" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="17" priority="8" stopIfTrue="1" operator="lessThan">
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F44">
+  <conditionalFormatting sqref="F42:F43">
     <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F44">
     <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49 F86:F87 F106 F91:F92">
+  <conditionalFormatting sqref="F48 F85:F86 F105 F90:F91">
     <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+  <conditionalFormatting sqref="F52">
     <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58 F74:F84">
+  <conditionalFormatting sqref="F57 F73:F83">
     <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
+  <conditionalFormatting sqref="F62">
     <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
+  <conditionalFormatting sqref="F67">
     <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+  <conditionalFormatting sqref="F68">
     <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102 F97:F98">
+  <conditionalFormatting sqref="F101 F96:F97">
     <cfRule type="cellIs" dxfId="8" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119 F107">
+  <conditionalFormatting sqref="F118 F106">
     <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:F112">
+  <conditionalFormatting sqref="F108:F111">
     <cfRule type="cellIs" dxfId="6" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105">
+  <conditionalFormatting sqref="F104">
     <cfRule type="cellIs" dxfId="5" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101">
+  <conditionalFormatting sqref="F100">
     <cfRule type="cellIs" dxfId="4" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99:F100">
+  <conditionalFormatting sqref="F98:F99">
     <cfRule type="cellIs" dxfId="3" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
+  <conditionalFormatting sqref="F95">
     <cfRule type="cellIs" dxfId="2" priority="36" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:F95">
+  <conditionalFormatting sqref="F93:F94">
     <cfRule type="cellIs" dxfId="1" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2290,14 +2290,14 @@
         <v>12</v>
       </c>
       <c r="F9" s="17">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2344,14 +2344,14 @@
         <v>12</v>
       </c>
       <c r="F10" s="17">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G10" s="13">
         <v>2.35</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>115.15</v>
+        <v>108.10000000000001</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -3027,14 +3027,14 @@
         <v>28</v>
       </c>
       <c r="F24" s="20">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G24" s="21">
         <v>0.19</v>
       </c>
       <c r="H24" s="14">
         <f t="shared" si="1"/>
-        <v>47.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3604,14 +3604,14 @@
         <v>12</v>
       </c>
       <c r="F49" s="20">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G49" s="21">
         <v>1</v>
       </c>
       <c r="H49" s="14">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4030,14 +4030,14 @@
         <v>21</v>
       </c>
       <c r="F67" s="20">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G67" s="21">
         <v>3</v>
       </c>
       <c r="H67" s="14">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4751,14 +4751,14 @@
         <v>21</v>
       </c>
       <c r="F98" s="20">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G98" s="43">
         <v>2.9</v>
       </c>
       <c r="H98" s="46">
         <f t="shared" si="2"/>
-        <v>284.2</v>
+        <v>281.3</v>
       </c>
       <c r="I98" s="42"/>
     </row>
@@ -4779,14 +4779,14 @@
         <v>21</v>
       </c>
       <c r="F99" s="20">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G99" s="43">
         <v>4.8</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>182.4</v>
+        <v>129.6</v>
       </c>
       <c r="I99" s="42"/>
     </row>
@@ -4891,14 +4891,14 @@
         <v>21</v>
       </c>
       <c r="F103" s="20">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G103" s="43">
         <v>0.8</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>38.400000000000006</v>
+        <v>28.8</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -6022,14 +6022,14 @@
         <v>21</v>
       </c>
       <c r="F140" s="24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G140" s="25">
         <v>2.2000000000000002</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="2"/>
-        <v>48.400000000000006</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
@@ -6064,14 +6064,14 @@
         <v>21</v>
       </c>
       <c r="F142" s="24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G142" s="25">
         <v>0.4</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15.600000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
@@ -6272,7 +6272,7 @@
     <row r="152" spans="1:8" ht="48.75" customHeight="1">
       <c r="H152" s="47">
         <f>SUM(H3:H151)</f>
-        <v>19342.092000000001</v>
+        <v>19226.142</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2494,14 +2494,14 @@
         <v>149</v>
       </c>
       <c r="F13" s="17">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G13" s="13">
         <v>0.6</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -6272,7 +6272,7 @@
     <row r="152" spans="1:8" ht="48.75" customHeight="1">
       <c r="H152" s="47">
         <f>SUM(H3:H151)</f>
-        <v>19226.142</v>
+        <v>19223.741999999998</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1892,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3242,14 +3242,14 @@
         <v>34</v>
       </c>
       <c r="F33" s="20">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G33" s="21">
         <v>2.6</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3445,14 +3445,14 @@
         <v>21</v>
       </c>
       <c r="F42" s="20">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G42" s="21">
         <v>0.35</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="1"/>
-        <v>201.25</v>
+        <v>200.54999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4779,14 +4779,14 @@
         <v>21</v>
       </c>
       <c r="F99" s="20">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G99" s="43">
         <v>4.8</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>129.6</v>
+        <v>100.8</v>
       </c>
       <c r="I99" s="42"/>
     </row>
@@ -5423,14 +5423,14 @@
         <v>119</v>
       </c>
       <c r="F124" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G124" s="21">
         <v>7</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
@@ -6272,7 +6272,7 @@
     <row r="152" spans="1:8" ht="48.75" customHeight="1">
       <c r="H152" s="47">
         <f>SUM(H3:H151)</f>
-        <v>19223.741999999998</v>
+        <v>19115.241999999998</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$151</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$135</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$152</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$136</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="237">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -665,12 +665,6 @@
     <t>500</t>
   </si>
   <si>
-    <t>22/4/2018</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>Porta abiti lunghi soffietto</t>
   </si>
   <si>
@@ -726,6 +720,15 @@
   </si>
   <si>
     <t>Cartuccia toner segret. M312</t>
+  </si>
+  <si>
+    <t>22/5/2018</t>
+  </si>
+  <si>
+    <t>Appendini plastica</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
@@ -1890,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IU154"/>
+  <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C130" sqref="C129:C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1992,7 +1995,7 @@
         <v>16.5</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H22" si="0">F3*G3</f>
+        <f t="shared" ref="H3:H23" si="0">F3*G3</f>
         <v>346.5</v>
       </c>
       <c r="I3" s="8"/>
@@ -2397,11 +2400,11 @@
         <v>63</v>
       </c>
       <c r="G11" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>63</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2433,25 +2436,29 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="16"/>
+        <v>235</v>
+      </c>
+      <c r="B12" s="10">
+        <v>43242</v>
+      </c>
+      <c r="C12" s="16">
+        <v>50</v>
+      </c>
       <c r="D12" s="16" t="s">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F12" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G12" s="13">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2483,25 +2490,25 @@
     </row>
     <row r="13" spans="1:35" ht="28.35" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F13" s="17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="13">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="0"/>
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -2533,25 +2540,25 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F14" s="17">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G14" s="13">
         <v>0.6</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -2583,25 +2590,25 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F15" s="17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="13">
         <v>0.6</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -2633,25 +2640,25 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F16" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" s="13">
         <v>0.6</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -2681,27 +2688,27 @@
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="1:35" ht="27.75" customHeight="1">
+    <row r="17" spans="1:35" ht="28.35" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>149</v>
       </c>
       <c r="F17" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" s="13">
         <v>0.6</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -2731,27 +2738,27 @@
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
     </row>
-    <row r="18" spans="1:35" ht="28.35" customHeight="1">
+    <row r="18" spans="1:35" ht="27.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="F18" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18" s="13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -2783,25 +2790,25 @@
     </row>
     <row r="19" spans="1:35" ht="28.35" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F19" s="17">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G19" s="13">
-        <v>8.3000000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="0"/>
-        <v>249.00000000000003</v>
+        <v>2.5</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -2833,29 +2840,25 @@
     </row>
     <row r="20" spans="1:35" ht="28.35" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10">
-        <v>43174</v>
-      </c>
-      <c r="C20" s="16">
-        <v>5</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F20" s="17">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G20" s="13">
-        <v>2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>249.00000000000003</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -2887,25 +2890,29 @@
     </row>
     <row r="21" spans="1:35" ht="28.35" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>43174</v>
+      </c>
+      <c r="C21" s="16">
+        <v>5</v>
+      </c>
       <c r="D21" s="16" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F21" s="17">
-        <v>699</v>
+        <v>4</v>
       </c>
       <c r="G21" s="13">
-        <v>1.8280000000000001</v>
+        <v>2</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="0"/>
-        <v>1277.7720000000002</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -2935,363 +2942,390 @@
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
     </row>
-    <row r="22" spans="1:35" s="49" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="12">
-        <v>5</v>
-      </c>
-      <c r="G22" s="21">
-        <v>2</v>
+    <row r="22" spans="1:35" ht="28.35" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="17">
+        <v>699</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1.8280000000000001</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="0"/>
+        <v>1277.7720000000002</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+    </row>
+    <row r="23" spans="1:35" s="49" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-    </row>
-    <row r="23" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="20">
+      <c r="F23" s="12">
+        <v>5</v>
+      </c>
+      <c r="G23" s="21">
         <v>2</v>
       </c>
-      <c r="G23" s="21">
-        <v>3</v>
-      </c>
       <c r="H23" s="14">
-        <f t="shared" ref="H23:H71" si="1">F23*G23</f>
-        <v>6</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
     </row>
     <row r="24" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="20">
+        <v>2</v>
+      </c>
+      <c r="G24" s="21">
+        <v>3</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" ref="H24:H72" si="1">F24*G24</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B25" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F25" s="20">
         <v>150</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G25" s="21">
         <v>0.19</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A25" s="18" t="s">
+    <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A26" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21">
         <v>6</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H26" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A26" s="23" t="s">
+    <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A27" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F27" s="24">
         <v>25</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G27" s="25">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H27" s="14">
         <f t="shared" si="1"/>
         <v>28.499999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A27" s="18" t="s">
+    <row r="28" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B28" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C28" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F28" s="20">
         <v>4</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G28" s="21">
         <v>8.5</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="14">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A28" s="18" t="s">
+    <row r="29" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19" t="s">
+      <c r="B29" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F29" s="20">
         <v>10</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G29" s="21">
         <v>25.13</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <f t="shared" si="1"/>
         <v>251.29999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A29" s="18" t="s">
+    <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B30" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F30" s="20">
         <v>6</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G30" s="21">
         <v>17</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="14">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A30" s="18" t="s">
+    <row r="31" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F31" s="20">
         <v>3</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G31" s="21">
         <v>7.9</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H31" s="14">
         <f t="shared" si="1"/>
         <v>23.700000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A31" s="18" t="s">
+    <row r="32" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B32" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="D32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F32" s="20">
         <v>20</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G32" s="21">
         <v>2.76</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H32" s="14">
         <f t="shared" si="1"/>
         <v>55.199999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A32" s="26" t="s">
+    <row r="33" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F33" s="12">
         <v>0</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G33" s="21">
         <v>9.75</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A33" s="18" t="s">
+    <row r="34" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="B34" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E34" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F34" s="20">
         <v>25</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G34" s="21">
         <v>2.6</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="14">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A34" s="18" t="s">
+    <row r="35" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F35" s="20">
         <v>0</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G35" s="21">
         <v>2.7</v>
-      </c>
-      <c r="H34" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A35" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="12">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>3.68</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="1"/>
@@ -3299,22 +3333,22 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A36" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="12">
         <v>0</v>
       </c>
-      <c r="G36" s="21">
-        <v>0.1</v>
+      <c r="G36" s="11">
+        <v>3.68</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="1"/>
@@ -3323,7 +3357,7 @@
     </row>
     <row r="37" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A37" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -3334,19 +3368,19 @@
         <v>21</v>
       </c>
       <c r="F37" s="20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G37" s="21">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H37" s="14">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A38" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -3357,19 +3391,19 @@
         <v>21</v>
       </c>
       <c r="F38" s="20">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G38" s="21">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -3380,19 +3414,19 @@
         <v>21</v>
       </c>
       <c r="F39" s="20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G39" s="21">
-        <v>177</v>
+        <v>0.25</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -3406,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="21">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" si="1"/>
@@ -3415,28 +3449,30 @@
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
+      <c r="D41" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E41" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F41" s="20">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G41" s="21">
-        <v>1.18</v>
+        <v>110</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="1"/>
-        <v>200.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -3445,69 +3481,63 @@
         <v>21</v>
       </c>
       <c r="F42" s="20">
-        <v>573</v>
+        <v>170</v>
       </c>
       <c r="G42" s="21">
-        <v>0.35</v>
+        <v>1.18</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="1"/>
-        <v>200.54999999999998</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="28" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F43" s="20">
-        <v>60</v>
-      </c>
-      <c r="G43" s="21"/>
+        <v>573</v>
+      </c>
+      <c r="G43" s="21">
+        <v>0.35</v>
+      </c>
       <c r="H43" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200.54999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="B44" s="19"/>
-      <c r="C44" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="28" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F44" s="20">
-        <v>3</v>
-      </c>
-      <c r="G44" s="21">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G44" s="21"/>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>198</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B45" s="19"/>
       <c r="C45" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>28</v>
@@ -3516,22 +3546,26 @@
         <v>21</v>
       </c>
       <c r="F45" s="20">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G45" s="21">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="D46" s="19" t="s">
         <v>28</v>
       </c>
@@ -3539,63 +3573,65 @@
         <v>21</v>
       </c>
       <c r="F46" s="20">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G46" s="21">
-        <v>0.72</v>
+        <v>1.75</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F47" s="20">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G47" s="21">
-        <v>3</v>
+        <v>0.72</v>
       </c>
       <c r="H47" s="14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A48" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F48" s="20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G48" s="21">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -3604,68 +3640,66 @@
         <v>12</v>
       </c>
       <c r="F49" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G49" s="21">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H49" s="14">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>21</v>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="F50" s="20">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="G50" s="21">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="H50" s="14">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="11"/>
+      <c r="A51" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="20">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G51" s="21">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
         <v>28</v>
       </c>
@@ -3676,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="21">
-        <v>2.13</v>
+        <v>0.22</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="1"/>
@@ -3684,64 +3718,60 @@
       </c>
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A53" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="A53" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
       <c r="D53" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F53" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G53" s="21">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="H53" s="14">
         <f t="shared" si="1"/>
-        <v>11.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>167</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F54" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G54" s="21">
-        <v>0.7</v>
+        <v>5.95</v>
       </c>
       <c r="H54" s="14">
         <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A55" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>28</v>
@@ -3750,22 +3780,26 @@
         <v>21</v>
       </c>
       <c r="F55" s="20">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G55" s="21">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>4.1999999999999993</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="D56" s="19" t="s">
         <v>28</v>
       </c>
@@ -3773,19 +3807,19 @@
         <v>21</v>
       </c>
       <c r="F56" s="20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G56" s="21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -3796,19 +3830,19 @@
         <v>21</v>
       </c>
       <c r="F57" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -3819,19 +3853,19 @@
         <v>21</v>
       </c>
       <c r="F58" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="21">
-        <v>5.35</v>
+        <v>1.5</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -3842,272 +3876,274 @@
         <v>21</v>
       </c>
       <c r="F59" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G59" s="21">
-        <v>2</v>
+        <v>5.35</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F60" s="20">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G60" s="21">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="1"/>
-        <v>43.56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A61" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>177</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="19" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="F61" s="20">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G61" s="21">
-        <v>4.9000000000000004</v>
+        <v>1.98</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="F62" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G62" s="21">
-        <v>0.44</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="1"/>
-        <v>3.08</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A63" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
+      <c r="A63" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="24">
-        <v>11</v>
-      </c>
-      <c r="G63" s="25">
-        <v>4.8499999999999996</v>
+        <v>21</v>
+      </c>
+      <c r="F63" s="20">
+        <v>7</v>
+      </c>
+      <c r="G63" s="21">
+        <v>0.44</v>
       </c>
       <c r="H63" s="14">
         <f t="shared" si="1"/>
-        <v>53.349999999999994</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A64" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="24">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G64" s="25">
-        <v>5.04</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="1"/>
-        <v>151.19999999999999</v>
+        <v>53.349999999999994</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A65" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
+      <c r="A65" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="20">
-        <v>25</v>
-      </c>
-      <c r="G65" s="21">
-        <v>8.3000000000000007</v>
+      <c r="F65" s="24">
+        <v>30</v>
+      </c>
+      <c r="G65" s="25">
+        <v>5.04</v>
       </c>
       <c r="H65" s="14">
         <f t="shared" si="1"/>
-        <v>207.50000000000003</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A66" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="19" t="s">
-        <v>21</v>
+      <c r="E66" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F66" s="20">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G66" s="21">
-        <v>0.75</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>207.50000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A67" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>154</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
       <c r="E67" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F67" s="20">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G67" s="21">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H67" s="14">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A68" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E68" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F68" s="20">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G68" s="21">
         <v>3</v>
       </c>
       <c r="H68" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
-      <c r="D69" s="19" t="s">
-        <v>147</v>
-      </c>
+      <c r="D69" s="19"/>
       <c r="E69" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F69" s="20">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G69" s="21">
         <v>3</v>
       </c>
       <c r="H69" s="14">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A70" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="20">
+        <v>35</v>
+      </c>
+      <c r="G70" s="21">
+        <v>3</v>
+      </c>
+      <c r="H70" s="14">
+        <f t="shared" si="1"/>
         <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A70" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="20">
-        <v>18</v>
-      </c>
-      <c r="G70" s="32">
-        <v>3</v>
-      </c>
-      <c r="H70" s="33">
-        <f t="shared" si="1"/>
-        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A71" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
@@ -4116,61 +4152,61 @@
         <v>12</v>
       </c>
       <c r="F71" s="20">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G71" s="32">
         <v>3</v>
       </c>
       <c r="H71" s="33">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A72" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19" t="s">
+      <c r="A72" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="20">
-        <v>43</v>
-      </c>
-      <c r="G72" s="21">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H72" s="14">
-        <f t="shared" ref="H72:H151" si="2">F72*G72</f>
-        <v>210.70000000000002</v>
+        <v>7</v>
+      </c>
+      <c r="G72" s="32">
+        <v>3</v>
+      </c>
+      <c r="H72" s="33">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F73" s="20">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G73" s="21">
-        <v>33.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H73" s="14">
-        <f t="shared" si="2"/>
-        <v>2077</v>
+        <f t="shared" ref="H73:H152" si="2">F73*G73</f>
+        <v>210.70000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -4179,19 +4215,19 @@
         <v>21</v>
       </c>
       <c r="F74" s="20">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G74" s="21">
-        <v>2</v>
+        <v>33.5</v>
       </c>
       <c r="H74" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -4200,46 +4236,44 @@
         <v>21</v>
       </c>
       <c r="F75" s="20">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G75" s="21">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H75" s="14">
         <f t="shared" si="2"/>
-        <v>81.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>221</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B76" s="19"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="19" t="s">
-        <v>47</v>
-      </c>
+      <c r="D76" s="19"/>
       <c r="E76" s="19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F76" s="20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G76" s="21">
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="H76" s="14">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>219</v>
+      </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
         <v>47</v>
@@ -4248,19 +4282,19 @@
         <v>12</v>
       </c>
       <c r="F77" s="20">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G77" s="21">
         <v>8.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4271,19 +4305,19 @@
         <v>12</v>
       </c>
       <c r="F78" s="20">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="G78" s="21">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -4294,19 +4328,19 @@
         <v>12</v>
       </c>
       <c r="F79" s="20">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="G79" s="21">
         <v>5</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -4317,40 +4351,42 @@
         <v>12</v>
       </c>
       <c r="F80" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G80" s="21">
         <v>5</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="F81" s="20">
-        <v>150</v>
-      </c>
-      <c r="G81" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="G81" s="21">
+        <v>5</v>
+      </c>
       <c r="H81" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -4369,39 +4405,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+    <row r="83" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="F83" s="20">
-        <v>8</v>
-      </c>
-      <c r="G83" s="21">
-        <v>0.8</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G83" s="21"/>
       <c r="H83" s="14">
         <f t="shared" si="2"/>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>192</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
         <v>28</v>
       </c>
@@ -4409,22 +4439,26 @@
         <v>21</v>
       </c>
       <c r="F84" s="20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G84" s="21">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H84" s="14">
         <f t="shared" si="2"/>
-        <v>13.200000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>192</v>
+      </c>
       <c r="D85" s="19" t="s">
         <v>28</v>
       </c>
@@ -4432,19 +4466,19 @@
         <v>21</v>
       </c>
       <c r="F85" s="20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G85" s="21">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H85" s="14">
         <f t="shared" si="2"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>13.200000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -4455,19 +4489,19 @@
         <v>21</v>
       </c>
       <c r="F86" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G86" s="21">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H86" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -4478,69 +4512,69 @@
         <v>21</v>
       </c>
       <c r="F87" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G87" s="21">
         <v>1.5</v>
       </c>
       <c r="H87" s="14">
         <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>177</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F88" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G88" s="21">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="H88" s="14">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
+        <v>84</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="D89" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F89" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G89" s="21">
-        <v>2.5</v>
+        <v>12.5</v>
       </c>
       <c r="H89" s="14">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -4551,19 +4585,19 @@
         <v>21</v>
       </c>
       <c r="F90" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" s="21">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H90" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -4584,16 +4618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+    <row r="92" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>178</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
         <v>28</v>
       </c>
@@ -4601,22 +4631,22 @@
         <v>21</v>
       </c>
       <c r="F92" s="20">
-        <v>50</v>
-      </c>
-      <c r="G92" s="38">
-        <v>0.19</v>
-      </c>
-      <c r="H92" s="44">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="G92" s="21">
+        <v>1</v>
+      </c>
+      <c r="H92" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>178</v>
@@ -4627,43 +4657,47 @@
       <c r="E93" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F93" s="37">
+      <c r="F93" s="20">
         <v>50</v>
       </c>
-      <c r="G93" s="40">
+      <c r="G93" s="38">
         <v>0.19</v>
       </c>
-      <c r="H93" s="46">
+      <c r="H93" s="44">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+    <row r="94" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
+        <v>89</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>178</v>
+      </c>
       <c r="D94" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F94" s="20">
-        <v>3</v>
-      </c>
-      <c r="G94" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="H94" s="45">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="F94" s="37">
+        <v>50</v>
+      </c>
+      <c r="G94" s="40">
+        <v>0.19</v>
+      </c>
+      <c r="H94" s="46">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
@@ -4674,75 +4708,70 @@
         <v>21</v>
       </c>
       <c r="F95" s="20">
-        <v>0</v>
-      </c>
-      <c r="G95" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="H95" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="G95" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="H95" s="45">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
+      <c r="D96" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E96" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F96" s="20">
-        <v>10</v>
-      </c>
-      <c r="G96" s="43">
-        <v>1</v>
-      </c>
-      <c r="H96" s="46">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I96" s="41"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H96" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>181</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
       <c r="E97" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F97" s="20">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G97" s="43">
-        <v>3.45</v>
+        <v>1</v>
       </c>
       <c r="H97" s="46">
-        <f>F97*G97</f>
-        <v>358.8</v>
-      </c>
-      <c r="I97" s="42"/>
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I97" s="41"/>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>180</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>181</v>
@@ -4751,26 +4780,26 @@
         <v>21</v>
       </c>
       <c r="F98" s="20">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G98" s="43">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="H98" s="46">
-        <f t="shared" si="2"/>
-        <v>281.3</v>
+        <f>F98*G98</f>
+        <v>358.8</v>
       </c>
       <c r="I98" s="42"/>
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="D99" s="19" t="s">
         <v>181</v>
@@ -4779,26 +4808,26 @@
         <v>21</v>
       </c>
       <c r="F99" s="20">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="G99" s="43">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>100.8</v>
+        <v>281.3</v>
       </c>
       <c r="I99" s="42"/>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>181</v>
@@ -4807,20 +4836,20 @@
         <v>21</v>
       </c>
       <c r="F100" s="20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G100" s="43">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>180</v>
@@ -4835,388 +4864,397 @@
         <v>21</v>
       </c>
       <c r="F101" s="20">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G101" s="43">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H101" s="46">
         <f t="shared" si="2"/>
-        <v>183.75</v>
+        <v>0</v>
       </c>
       <c r="I101" s="42"/>
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F102" s="20">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G102" s="43">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H102" s="46">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>183.75</v>
       </c>
       <c r="I102" s="42"/>
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>168</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F103" s="20">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G103" s="43">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>28.8</v>
+        <v>48</v>
       </c>
       <c r="I103" s="42"/>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F104" s="20">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G104" s="43">
-        <v>11.7</v>
+        <v>0.8</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
+        <v>28.8</v>
+      </c>
+      <c r="I104" s="42"/>
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
+        <v>97</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>194</v>
+      </c>
       <c r="D105" s="19" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F105" s="20">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G105" s="43">
-        <v>2.4</v>
+        <v>11.7</v>
       </c>
       <c r="H105" s="46">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>192</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F106" s="20">
-        <v>30</v>
-      </c>
-      <c r="G106" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="H106" s="45">
-        <f t="shared" si="2"/>
-        <v>24.9</v>
+        <v>170</v>
+      </c>
+      <c r="G106" s="43">
+        <v>2.4</v>
+      </c>
+      <c r="H106" s="46">
+        <f t="shared" si="2"/>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D107" s="19"/>
+        <v>192</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E107" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F107" s="20">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="G107" s="21">
-        <v>4.7</v>
-      </c>
-      <c r="H107" s="14">
-        <f t="shared" si="2"/>
-        <v>653.30000000000007</v>
+        <v>0.83</v>
+      </c>
+      <c r="H107" s="45">
+        <f t="shared" si="2"/>
+        <v>24.9</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A108" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="D108" s="19" t="s">
-        <v>154</v>
-      </c>
+      <c r="D108" s="19"/>
       <c r="E108" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F108" s="20">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="G108" s="21">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="H108" s="14">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>653.30000000000007</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="34"/>
+        <v>101</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E109" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F109" s="20">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G109" s="21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
+        <v>102</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D110" s="34"/>
       <c r="E110" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F110" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G110" s="21">
         <v>2</v>
       </c>
       <c r="H110" s="14">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>171</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="D111" s="19"/>
       <c r="E111" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F111" s="20">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G111" s="21">
-        <v>41.34</v>
+        <v>2</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>289.38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="20">
+        <v>7</v>
+      </c>
+      <c r="G112" s="21">
+        <v>41.34</v>
+      </c>
+      <c r="H112" s="14">
+        <f t="shared" si="2"/>
+        <v>289.38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A113" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B112" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D112" s="19" t="s">
+      <c r="B113" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="E113" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F112" s="20">
+      <c r="F113" s="20">
         <v>60</v>
       </c>
-      <c r="G112" s="21">
+      <c r="G113" s="21">
         <v>2.7</v>
       </c>
-      <c r="H112" s="14">
+      <c r="H113" s="14">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A113" s="23" t="s">
+    <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A114" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="29">
+      <c r="B114" s="29">
         <v>43140</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C114" s="11">
         <v>36</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D114" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E114" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F114" s="12">
         <v>15</v>
       </c>
-      <c r="G113" s="14">
+      <c r="G114" s="14">
         <v>6</v>
       </c>
-      <c r="H113" s="14">
+      <c r="H114" s="14">
         <f t="shared" si="2"/>
         <v>90</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A114" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E114" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F114" s="20">
-        <v>900</v>
-      </c>
-      <c r="G114" s="21">
-        <v>0.66</v>
-      </c>
-      <c r="H114" s="14">
-        <f t="shared" si="2"/>
-        <v>594</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F115" s="20">
-        <v>5</v>
+        <v>900</v>
       </c>
       <c r="G115" s="21">
-        <v>2.85</v>
+        <v>0.66</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>14.25</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>28</v>
@@ -5225,25 +5263,25 @@
         <v>21</v>
       </c>
       <c r="F116" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G116" s="21">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>12.04</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A117" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>28</v>
@@ -5252,25 +5290,25 @@
         <v>21</v>
       </c>
       <c r="F117" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G117" s="21">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>28</v>
@@ -5279,94 +5317,94 @@
         <v>21</v>
       </c>
       <c r="F118" s="20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G118" s="21">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>5.16</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="35"/>
+        <v>111</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="E119" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F119" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G119" s="21">
-        <v>5</v>
+        <v>1.72</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
+      <c r="D120" s="35"/>
       <c r="E120" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F120" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G120" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D121" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="20">
         <v>9</v>
       </c>
-      <c r="E121" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="20">
-        <v>169</v>
-      </c>
       <c r="G121" s="21">
-        <v>2.69</v>
+        <v>1</v>
       </c>
       <c r="H121" s="14">
         <f t="shared" si="2"/>
-        <v>454.61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A122" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>170</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D122" s="19" t="s">
         <v>9</v>
@@ -5375,88 +5413,94 @@
         <v>12</v>
       </c>
       <c r="F122" s="20">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="G122" s="21">
-        <v>3.3</v>
+        <v>2.69</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="2"/>
-        <v>372.9</v>
+        <v>454.61</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>9</v>
+      </c>
       <c r="E123" s="19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F123" s="20">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G123" s="21">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="H123" s="14">
         <f t="shared" si="2"/>
-        <v>14.350000000000001</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="20">
+        <v>5</v>
+      </c>
+      <c r="G124" s="21">
+        <v>2.87</v>
+      </c>
+      <c r="H124" s="14">
+        <f t="shared" si="2"/>
+        <v>14.350000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A125" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B125" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C125" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D125" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E124" s="19" t="s">
+      <c r="E125" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F125" s="20">
         <v>4</v>
       </c>
-      <c r="G124" s="21">
+      <c r="G125" s="21">
         <v>7</v>
       </c>
-      <c r="H124" s="14">
+      <c r="H125" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A125" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F125" s="20">
-        <v>582</v>
-      </c>
-      <c r="G125" s="21">
-        <v>3</v>
-      </c>
-      <c r="H125" s="14">
-        <f t="shared" si="2"/>
-        <v>1746</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A126" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -5465,94 +5509,88 @@
         <v>21</v>
       </c>
       <c r="F126" s="20">
+        <v>582</v>
+      </c>
+      <c r="G126" s="21">
+        <v>3</v>
+      </c>
+      <c r="H126" s="14">
+        <f t="shared" si="2"/>
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A127" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="20">
         <v>1</v>
       </c>
-      <c r="G126" s="21">
+      <c r="G127" s="21">
         <v>1.96</v>
       </c>
-      <c r="H126" s="14">
+      <c r="H127" s="14">
         <f t="shared" si="2"/>
         <v>1.96</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A127" s="23" t="s">
+    <row r="128" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A128" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="24">
-        <v>7</v>
-      </c>
-      <c r="G127" s="25">
-        <v>1.97</v>
-      </c>
-      <c r="H127" s="14">
-        <f t="shared" si="2"/>
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A128" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="20">
-        <v>95</v>
-      </c>
-      <c r="G128" s="21">
+      <c r="F128" s="24">
         <v>7</v>
       </c>
+      <c r="G128" s="25">
+        <v>1.97</v>
+      </c>
       <c r="H128" s="14">
         <f t="shared" si="2"/>
-        <v>665</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="129" spans="1:255" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>13</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
       <c r="E129" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F129" s="20">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="G129" s="21">
-        <v>2.69</v>
+        <v>7</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>672.5</v>
+        <v>665</v>
       </c>
     </row>
     <row r="130" spans="1:255" ht="28.35" customHeight="1">
       <c r="A130" s="18" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>212</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>13</v>
@@ -5561,438 +5599,444 @@
         <v>12</v>
       </c>
       <c r="F130" s="20">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G130" s="21">
-        <v>2.21</v>
+        <v>2.69</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>331.5</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A131" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
+      <c r="A131" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E131" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="24">
-        <v>100</v>
-      </c>
-      <c r="G131" s="25">
-        <v>1.43</v>
+      <c r="F131" s="20">
+        <v>150</v>
+      </c>
+      <c r="G131" s="21">
+        <v>2.21</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A132" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
+      <c r="A132" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="20">
-        <v>4</v>
-      </c>
-      <c r="G132" s="21">
-        <v>8.5</v>
+      <c r="F132" s="24">
+        <v>100</v>
+      </c>
+      <c r="G132" s="25">
+        <v>1.43</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B133" s="19"/>
+        <v>126</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>220</v>
+      </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
       <c r="E133" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F133" s="20">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G133" s="21">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
       <c r="A134" s="18" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
-      <c r="D134" s="19" t="s">
-        <v>153</v>
-      </c>
+      <c r="D134" s="19"/>
       <c r="E134" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F134" s="20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G134" s="21">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>564</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A135" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+      <c r="A135" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="E135" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F135" s="24">
+      <c r="F135" s="20">
+        <v>12</v>
+      </c>
+      <c r="G135" s="21">
+        <v>47</v>
+      </c>
+      <c r="H135" s="14">
+        <f t="shared" si="2"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="136" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A136" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="24">
         <v>22</v>
       </c>
-      <c r="G135" s="25">
+      <c r="G136" s="25">
         <v>2.97</v>
       </c>
-      <c r="H135" s="14">
+      <c r="H136" s="14">
         <f t="shared" si="2"/>
         <v>65.34</v>
       </c>
     </row>
-    <row r="136" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A136" s="18" t="s">
+    <row r="137" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A137" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F136" s="20">
-        <v>140</v>
-      </c>
-      <c r="G136" s="21">
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="20">
+        <v>0</v>
+      </c>
+      <c r="G137" s="21">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H136" s="14">
-        <f t="shared" si="2"/>
-        <v>158.19999999999999</v>
-      </c>
-      <c r="I136"/>
-      <c r="J136"/>
-      <c r="K136"/>
-      <c r="L136"/>
-      <c r="M136"/>
-      <c r="N136"/>
-      <c r="O136"/>
-      <c r="P136"/>
-      <c r="Q136"/>
-      <c r="R136"/>
-      <c r="S136"/>
-      <c r="T136"/>
-      <c r="U136"/>
-      <c r="V136"/>
-      <c r="W136"/>
-      <c r="X136"/>
-      <c r="Y136"/>
-      <c r="Z136"/>
-      <c r="AA136"/>
-      <c r="AB136"/>
-      <c r="AC136"/>
-      <c r="AD136"/>
-      <c r="AE136"/>
-      <c r="AF136"/>
-      <c r="AG136"/>
-      <c r="AH136"/>
-      <c r="AI136"/>
-      <c r="AJ136"/>
-      <c r="AK136"/>
-      <c r="AL136"/>
-      <c r="AM136"/>
-      <c r="AN136"/>
-      <c r="AO136"/>
-      <c r="AP136"/>
-      <c r="AQ136"/>
-      <c r="AR136"/>
-      <c r="AS136"/>
-      <c r="AT136"/>
-      <c r="AU136"/>
-      <c r="AV136"/>
-      <c r="AW136"/>
-      <c r="AX136"/>
-      <c r="AY136"/>
-      <c r="AZ136"/>
-      <c r="BA136"/>
-      <c r="BB136"/>
-      <c r="BC136"/>
-      <c r="BD136"/>
-      <c r="BE136"/>
-      <c r="BF136"/>
-      <c r="BG136"/>
-      <c r="BH136"/>
-      <c r="BI136"/>
-      <c r="BJ136"/>
-      <c r="BK136"/>
-      <c r="BL136"/>
-      <c r="BM136"/>
-      <c r="BN136"/>
-      <c r="BO136"/>
-      <c r="BP136"/>
-      <c r="BQ136"/>
-      <c r="BR136"/>
-      <c r="BS136"/>
-      <c r="BT136"/>
-      <c r="BU136"/>
-      <c r="BV136"/>
-      <c r="BW136"/>
-      <c r="BX136"/>
-      <c r="BY136"/>
-      <c r="BZ136"/>
-      <c r="CA136"/>
-      <c r="CB136"/>
-      <c r="CC136"/>
-      <c r="CD136"/>
-      <c r="CE136"/>
-      <c r="CF136"/>
-      <c r="CG136"/>
-      <c r="CH136"/>
-      <c r="CI136"/>
-      <c r="CJ136"/>
-      <c r="CK136"/>
-      <c r="CL136"/>
-      <c r="CM136"/>
-      <c r="CN136"/>
-      <c r="CO136"/>
-      <c r="CP136"/>
-      <c r="CQ136"/>
-      <c r="CR136"/>
-      <c r="CS136"/>
-      <c r="CT136"/>
-      <c r="CU136"/>
-      <c r="CV136"/>
-      <c r="CW136"/>
-      <c r="CX136"/>
-      <c r="CY136"/>
-      <c r="CZ136"/>
-      <c r="DA136"/>
-      <c r="DB136"/>
-      <c r="DC136"/>
-      <c r="DD136"/>
-      <c r="DE136"/>
-      <c r="DF136"/>
-      <c r="DG136"/>
-      <c r="DH136"/>
-      <c r="DI136"/>
-      <c r="DJ136"/>
-      <c r="DK136"/>
-      <c r="DL136"/>
-      <c r="DM136"/>
-      <c r="DN136"/>
-      <c r="DO136"/>
-      <c r="DP136"/>
-      <c r="DQ136"/>
-      <c r="DR136"/>
-      <c r="DS136"/>
-      <c r="DT136"/>
-      <c r="DU136"/>
-      <c r="DV136"/>
-      <c r="DW136"/>
-      <c r="DX136"/>
-      <c r="DY136"/>
-      <c r="DZ136"/>
-      <c r="EA136"/>
-      <c r="EB136"/>
-      <c r="EC136"/>
-      <c r="ED136"/>
-      <c r="EE136"/>
-      <c r="EF136"/>
-      <c r="EG136"/>
-      <c r="EH136"/>
-      <c r="EI136"/>
-      <c r="EJ136"/>
-      <c r="EK136"/>
-      <c r="EL136"/>
-      <c r="EM136"/>
-      <c r="EN136"/>
-      <c r="EO136"/>
-      <c r="EP136"/>
-      <c r="EQ136"/>
-      <c r="ER136"/>
-      <c r="ES136"/>
-      <c r="ET136"/>
-      <c r="EU136"/>
-      <c r="EV136"/>
-      <c r="EW136"/>
-      <c r="EX136"/>
-      <c r="EY136"/>
-      <c r="EZ136"/>
-      <c r="FA136"/>
-      <c r="FB136"/>
-      <c r="FC136"/>
-      <c r="FD136"/>
-      <c r="FE136"/>
-      <c r="FF136"/>
-      <c r="FG136"/>
-      <c r="FH136"/>
-      <c r="FI136"/>
-      <c r="FJ136"/>
-      <c r="FK136"/>
-      <c r="FL136"/>
-      <c r="FM136"/>
-      <c r="FN136"/>
-      <c r="FO136"/>
-      <c r="FP136"/>
-      <c r="FQ136"/>
-      <c r="FR136"/>
-      <c r="FS136"/>
-      <c r="FT136"/>
-      <c r="FU136"/>
-      <c r="FV136"/>
-      <c r="FW136"/>
-      <c r="FX136"/>
-      <c r="FY136"/>
-      <c r="FZ136"/>
-      <c r="GA136"/>
-      <c r="GB136"/>
-      <c r="GC136"/>
-      <c r="GD136"/>
-      <c r="GE136"/>
-      <c r="GF136"/>
-      <c r="GG136"/>
-      <c r="GH136"/>
-      <c r="GI136"/>
-      <c r="GJ136"/>
-      <c r="GK136"/>
-      <c r="GL136"/>
-      <c r="GM136"/>
-      <c r="GN136"/>
-      <c r="GO136"/>
-      <c r="GP136"/>
-      <c r="GQ136"/>
-      <c r="GR136"/>
-      <c r="GS136"/>
-      <c r="GT136"/>
-      <c r="GU136"/>
-      <c r="GV136"/>
-      <c r="GW136"/>
-      <c r="GX136"/>
-      <c r="GY136"/>
-      <c r="GZ136"/>
-      <c r="HA136"/>
-      <c r="HB136"/>
-      <c r="HC136"/>
-      <c r="HD136"/>
-      <c r="HE136"/>
-      <c r="HF136"/>
-      <c r="HG136"/>
-      <c r="HH136"/>
-      <c r="HI136"/>
-      <c r="HJ136"/>
-      <c r="HK136"/>
-      <c r="HL136"/>
-      <c r="HM136"/>
-      <c r="HN136"/>
-      <c r="HO136"/>
-      <c r="HP136"/>
-      <c r="HQ136"/>
-      <c r="HR136"/>
-      <c r="HS136"/>
-      <c r="HT136"/>
-      <c r="HU136"/>
-      <c r="HV136"/>
-      <c r="HW136"/>
-      <c r="HX136"/>
-      <c r="HY136"/>
-      <c r="HZ136"/>
-      <c r="IA136"/>
-      <c r="IB136"/>
-      <c r="IC136"/>
-      <c r="ID136"/>
-      <c r="IE136"/>
-      <c r="IF136"/>
-      <c r="IG136"/>
-      <c r="IH136"/>
-      <c r="II136"/>
-      <c r="IJ136"/>
-      <c r="IK136"/>
-      <c r="IL136"/>
-      <c r="IM136"/>
-      <c r="IN136"/>
-      <c r="IO136"/>
-      <c r="IP136"/>
-      <c r="IQ136"/>
-      <c r="IR136"/>
-      <c r="IS136"/>
-      <c r="IT136"/>
-      <c r="IU136"/>
-    </row>
-    <row r="137" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A137" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F137" s="24">
-        <v>25</v>
-      </c>
-      <c r="G137" s="25">
-        <v>5</v>
-      </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+      <c r="Y137"/>
+      <c r="Z137"/>
+      <c r="AA137"/>
+      <c r="AB137"/>
+      <c r="AC137"/>
+      <c r="AD137"/>
+      <c r="AE137"/>
+      <c r="AF137"/>
+      <c r="AG137"/>
+      <c r="AH137"/>
+      <c r="AI137"/>
+      <c r="AJ137"/>
+      <c r="AK137"/>
+      <c r="AL137"/>
+      <c r="AM137"/>
+      <c r="AN137"/>
+      <c r="AO137"/>
+      <c r="AP137"/>
+      <c r="AQ137"/>
+      <c r="AR137"/>
+      <c r="AS137"/>
+      <c r="AT137"/>
+      <c r="AU137"/>
+      <c r="AV137"/>
+      <c r="AW137"/>
+      <c r="AX137"/>
+      <c r="AY137"/>
+      <c r="AZ137"/>
+      <c r="BA137"/>
+      <c r="BB137"/>
+      <c r="BC137"/>
+      <c r="BD137"/>
+      <c r="BE137"/>
+      <c r="BF137"/>
+      <c r="BG137"/>
+      <c r="BH137"/>
+      <c r="BI137"/>
+      <c r="BJ137"/>
+      <c r="BK137"/>
+      <c r="BL137"/>
+      <c r="BM137"/>
+      <c r="BN137"/>
+      <c r="BO137"/>
+      <c r="BP137"/>
+      <c r="BQ137"/>
+      <c r="BR137"/>
+      <c r="BS137"/>
+      <c r="BT137"/>
+      <c r="BU137"/>
+      <c r="BV137"/>
+      <c r="BW137"/>
+      <c r="BX137"/>
+      <c r="BY137"/>
+      <c r="BZ137"/>
+      <c r="CA137"/>
+      <c r="CB137"/>
+      <c r="CC137"/>
+      <c r="CD137"/>
+      <c r="CE137"/>
+      <c r="CF137"/>
+      <c r="CG137"/>
+      <c r="CH137"/>
+      <c r="CI137"/>
+      <c r="CJ137"/>
+      <c r="CK137"/>
+      <c r="CL137"/>
+      <c r="CM137"/>
+      <c r="CN137"/>
+      <c r="CO137"/>
+      <c r="CP137"/>
+      <c r="CQ137"/>
+      <c r="CR137"/>
+      <c r="CS137"/>
+      <c r="CT137"/>
+      <c r="CU137"/>
+      <c r="CV137"/>
+      <c r="CW137"/>
+      <c r="CX137"/>
+      <c r="CY137"/>
+      <c r="CZ137"/>
+      <c r="DA137"/>
+      <c r="DB137"/>
+      <c r="DC137"/>
+      <c r="DD137"/>
+      <c r="DE137"/>
+      <c r="DF137"/>
+      <c r="DG137"/>
+      <c r="DH137"/>
+      <c r="DI137"/>
+      <c r="DJ137"/>
+      <c r="DK137"/>
+      <c r="DL137"/>
+      <c r="DM137"/>
+      <c r="DN137"/>
+      <c r="DO137"/>
+      <c r="DP137"/>
+      <c r="DQ137"/>
+      <c r="DR137"/>
+      <c r="DS137"/>
+      <c r="DT137"/>
+      <c r="DU137"/>
+      <c r="DV137"/>
+      <c r="DW137"/>
+      <c r="DX137"/>
+      <c r="DY137"/>
+      <c r="DZ137"/>
+      <c r="EA137"/>
+      <c r="EB137"/>
+      <c r="EC137"/>
+      <c r="ED137"/>
+      <c r="EE137"/>
+      <c r="EF137"/>
+      <c r="EG137"/>
+      <c r="EH137"/>
+      <c r="EI137"/>
+      <c r="EJ137"/>
+      <c r="EK137"/>
+      <c r="EL137"/>
+      <c r="EM137"/>
+      <c r="EN137"/>
+      <c r="EO137"/>
+      <c r="EP137"/>
+      <c r="EQ137"/>
+      <c r="ER137"/>
+      <c r="ES137"/>
+      <c r="ET137"/>
+      <c r="EU137"/>
+      <c r="EV137"/>
+      <c r="EW137"/>
+      <c r="EX137"/>
+      <c r="EY137"/>
+      <c r="EZ137"/>
+      <c r="FA137"/>
+      <c r="FB137"/>
+      <c r="FC137"/>
+      <c r="FD137"/>
+      <c r="FE137"/>
+      <c r="FF137"/>
+      <c r="FG137"/>
+      <c r="FH137"/>
+      <c r="FI137"/>
+      <c r="FJ137"/>
+      <c r="FK137"/>
+      <c r="FL137"/>
+      <c r="FM137"/>
+      <c r="FN137"/>
+      <c r="FO137"/>
+      <c r="FP137"/>
+      <c r="FQ137"/>
+      <c r="FR137"/>
+      <c r="FS137"/>
+      <c r="FT137"/>
+      <c r="FU137"/>
+      <c r="FV137"/>
+      <c r="FW137"/>
+      <c r="FX137"/>
+      <c r="FY137"/>
+      <c r="FZ137"/>
+      <c r="GA137"/>
+      <c r="GB137"/>
+      <c r="GC137"/>
+      <c r="GD137"/>
+      <c r="GE137"/>
+      <c r="GF137"/>
+      <c r="GG137"/>
+      <c r="GH137"/>
+      <c r="GI137"/>
+      <c r="GJ137"/>
+      <c r="GK137"/>
+      <c r="GL137"/>
+      <c r="GM137"/>
+      <c r="GN137"/>
+      <c r="GO137"/>
+      <c r="GP137"/>
+      <c r="GQ137"/>
+      <c r="GR137"/>
+      <c r="GS137"/>
+      <c r="GT137"/>
+      <c r="GU137"/>
+      <c r="GV137"/>
+      <c r="GW137"/>
+      <c r="GX137"/>
+      <c r="GY137"/>
+      <c r="GZ137"/>
+      <c r="HA137"/>
+      <c r="HB137"/>
+      <c r="HC137"/>
+      <c r="HD137"/>
+      <c r="HE137"/>
+      <c r="HF137"/>
+      <c r="HG137"/>
+      <c r="HH137"/>
+      <c r="HI137"/>
+      <c r="HJ137"/>
+      <c r="HK137"/>
+      <c r="HL137"/>
+      <c r="HM137"/>
+      <c r="HN137"/>
+      <c r="HO137"/>
+      <c r="HP137"/>
+      <c r="HQ137"/>
+      <c r="HR137"/>
+      <c r="HS137"/>
+      <c r="HT137"/>
+      <c r="HU137"/>
+      <c r="HV137"/>
+      <c r="HW137"/>
+      <c r="HX137"/>
+      <c r="HY137"/>
+      <c r="HZ137"/>
+      <c r="IA137"/>
+      <c r="IB137"/>
+      <c r="IC137"/>
+      <c r="ID137"/>
+      <c r="IE137"/>
+      <c r="IF137"/>
+      <c r="IG137"/>
+      <c r="IH137"/>
+      <c r="II137"/>
+      <c r="IJ137"/>
+      <c r="IK137"/>
+      <c r="IL137"/>
+      <c r="IM137"/>
+      <c r="IN137"/>
+      <c r="IO137"/>
+      <c r="IP137"/>
+      <c r="IQ137"/>
+      <c r="IR137"/>
+      <c r="IS137"/>
+      <c r="IT137"/>
+      <c r="IU137"/>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
       <c r="A138" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F138" s="24">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G138" s="25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -6001,40 +6045,40 @@
         <v>21</v>
       </c>
       <c r="F139" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G139" s="25">
-        <v>1.36</v>
+        <v>12</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="2"/>
-        <v>10.88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
       <c r="A140" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B140" s="29"/>
+        <v>132</v>
+      </c>
+      <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F140" s="24">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G140" s="25">
-        <v>2.2000000000000002</v>
+        <v>1.36</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="2"/>
-        <v>46.2</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
       <c r="A141" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B141" s="29"/>
       <c r="C141" s="11"/>
@@ -6043,19 +6087,19 @@
         <v>21</v>
       </c>
       <c r="F141" s="24">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G141" s="25">
-        <v>5.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B142" s="29"/>
       <c r="C142" s="11"/>
@@ -6064,61 +6108,61 @@
         <v>21</v>
       </c>
       <c r="F142" s="24">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G142" s="25">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>15.600000000000001</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B143" s="11"/>
+        <v>135</v>
+      </c>
+      <c r="B143" s="29"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F143" s="24">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G143" s="25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>15.600000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B144" s="29"/>
+        <v>136</v>
+      </c>
+      <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F144" s="24">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G144" s="25">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="2"/>
-        <v>31.900000000000002</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
@@ -6127,19 +6171,19 @@
         <v>21</v>
       </c>
       <c r="F145" s="24">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G145" s="25">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>31.900000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="11"/>
@@ -6148,19 +6192,19 @@
         <v>21</v>
       </c>
       <c r="F146" s="24">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G146" s="25">
-        <v>2.85</v>
+        <v>0.9</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>85.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
       <c r="A147" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B147" s="29"/>
       <c r="C147" s="11"/>
@@ -6169,86 +6213,84 @@
         <v>21</v>
       </c>
       <c r="F147" s="24">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G147" s="25">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>30.599999999999998</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
       <c r="A148" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="B148" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="B148" s="29"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F148" s="24">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G148" s="25">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>30.599999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
       <c r="A149" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B149" s="29"/>
+        <v>141</v>
+      </c>
+      <c r="B149" s="11"/>
       <c r="C149" s="11"/>
-      <c r="D149" s="11" t="s">
-        <v>143</v>
-      </c>
+      <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F149" s="24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G149" s="25">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
       <c r="A150" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B150" s="29"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E150" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F150" s="24">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G150" s="25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H150" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="28.35" customHeight="1">
       <c r="A151" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B151" s="29"/>
       <c r="C151" s="11"/>
@@ -6259,130 +6301,153 @@
         <v>21</v>
       </c>
       <c r="F151" s="24">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="G151" s="25">
         <v>10</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A152" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B152" s="29"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F152" s="24">
+        <v>9</v>
+      </c>
+      <c r="G152" s="25">
+        <v>10</v>
+      </c>
+      <c r="H152" s="14">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H152" s="47">
-        <f>SUM(H3:H151)</f>
-        <v>19115.241999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="29.1" customHeight="1"/>
-    <row r="154" spans="1:8" ht="30" customHeight="1"/>
+    <row r="153" spans="1:8" ht="48.75" customHeight="1">
+      <c r="H153" s="47">
+        <f>SUM(H3:H152)</f>
+        <v>19016.241999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="29.1" customHeight="1"/>
+    <row r="155" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F115:F117 F84 F26:F29 F23:F24">
+  <conditionalFormatting sqref="F116:F118 F85 F27:F30 F24:F25">
     <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F40 F87:F89 F30:F31">
+  <conditionalFormatting sqref="F40:F41 F88:F90 F31:F32">
     <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F33">
+  <conditionalFormatting sqref="F33:F34">
     <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F38">
+  <conditionalFormatting sqref="F38:F39">
     <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F43">
+  <conditionalFormatting sqref="F43:F44">
     <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F45">
     <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48 F85:F86 F105 F90:F91">
+  <conditionalFormatting sqref="F49 F86:F87 F106 F91:F92">
     <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
+  <conditionalFormatting sqref="F53">
     <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57 F73:F83">
+  <conditionalFormatting sqref="F58 F74:F84">
     <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F63">
     <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="F68">
     <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
+  <conditionalFormatting sqref="F69">
     <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101 F96:F97">
+  <conditionalFormatting sqref="F102 F97:F98">
     <cfRule type="cellIs" dxfId="8" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F118 F106">
+  <conditionalFormatting sqref="F119 F107">
     <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:F111">
+  <conditionalFormatting sqref="F109:F112">
     <cfRule type="cellIs" dxfId="6" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
+  <conditionalFormatting sqref="F105">
     <cfRule type="cellIs" dxfId="5" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100">
+  <conditionalFormatting sqref="F101">
     <cfRule type="cellIs" dxfId="4" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F99">
+  <conditionalFormatting sqref="F99:F100">
     <cfRule type="cellIs" dxfId="3" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95">
+  <conditionalFormatting sqref="F96">
     <cfRule type="cellIs" dxfId="2" priority="36" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93:F94">
+  <conditionalFormatting sqref="F94:F95">
     <cfRule type="cellIs" dxfId="1" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C130" sqref="C129:C130"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5103,14 +5103,14 @@
         <v>21</v>
       </c>
       <c r="F110" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G110" s="21">
         <v>2</v>
       </c>
       <c r="H110" s="14">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5440,14 +5440,14 @@
         <v>12</v>
       </c>
       <c r="F123" s="20">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G123" s="21">
         <v>3.3</v>
       </c>
       <c r="H123" s="14">
         <f t="shared" si="2"/>
-        <v>330</v>
+        <v>326.7</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6337,7 +6337,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>19016.241999999998</v>
+        <v>19002.941999999999</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="238">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -710,9 +710,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -729,6 +726,12 @@
   </si>
   <si>
     <t>90</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>23/5/2018</t>
   </si>
 </sst>
 </file>
@@ -1895,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -3166,10 +3169,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
@@ -3191,10 +3194,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>28</v>
@@ -3239,10 +3242,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>28</v>
@@ -3290,7 +3293,7 @@
         <v>228</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>171</v>
@@ -3449,7 +3452,7 @@
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -4780,14 +4783,14 @@
         <v>21</v>
       </c>
       <c r="F98" s="20">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G98" s="43">
         <v>3.45</v>
       </c>
       <c r="H98" s="46">
         <f>F98*G98</f>
-        <v>358.8</v>
+        <v>355.35</v>
       </c>
       <c r="I98" s="42"/>
     </row>
@@ -4836,14 +4839,14 @@
         <v>21</v>
       </c>
       <c r="F100" s="20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G100" s="43">
         <v>4.8</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>86.399999999999991</v>
+        <v>76.8</v>
       </c>
       <c r="I100" s="42"/>
     </row>
@@ -5078,14 +5081,14 @@
         <v>21</v>
       </c>
       <c r="F109" s="20">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G109" s="21">
         <v>2.5</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>257.5</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5093,7 +5096,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>167</v>
@@ -5118,7 +5121,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>192</v>
@@ -5173,7 +5176,7 @@
         <v>228</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>155</v>
@@ -5599,14 +5602,14 @@
         <v>12</v>
       </c>
       <c r="F130" s="20">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G130" s="21">
         <v>2.69</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>672.5</v>
+        <v>403.5</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
@@ -6324,20 +6327,20 @@
         <v>21</v>
       </c>
       <c r="F152" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G152" s="25">
         <v>10</v>
       </c>
       <c r="H152" s="14">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>19002.941999999999</v>
+        <v>18708.391999999996</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="239">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -710,9 +710,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -732,6 +729,12 @@
   </si>
   <si>
     <t>23/5/2018</t>
+  </si>
+  <si>
+    <t>25/5/2018</t>
+  </si>
+  <si>
+    <t>250</t>
   </si>
 </sst>
 </file>
@@ -1898,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2439,7 +2442,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -3169,10 +3172,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
@@ -3194,10 +3197,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>28</v>
@@ -3242,10 +3245,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>28</v>
@@ -3290,10 +3293,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>171</v>
@@ -3302,14 +3305,14 @@
         <v>34</v>
       </c>
       <c r="F34" s="20">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G34" s="21">
         <v>2.6</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3452,7 +3455,7 @@
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -4811,14 +4814,14 @@
         <v>21</v>
       </c>
       <c r="F99" s="20">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G99" s="43">
         <v>2.9</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>281.3</v>
+        <v>275.5</v>
       </c>
       <c r="I99" s="42"/>
     </row>
@@ -5096,7 +5099,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>167</v>
@@ -5121,7 +5124,7 @@
         <v>103</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>192</v>
@@ -5176,7 +5179,7 @@
         <v>228</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>155</v>
@@ -5629,14 +5632,14 @@
         <v>12</v>
       </c>
       <c r="F131" s="20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G131" s="21">
         <v>2.21</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>331.5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
@@ -6340,7 +6343,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>18708.391999999996</v>
+        <v>18722.092000000001</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3185,11 +3185,11 @@
         <v>10</v>
       </c>
       <c r="G29" s="21">
-        <v>25.13</v>
+        <v>27.44</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="1"/>
-        <v>251.29999999999998</v>
+        <v>274.40000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5188,14 +5188,14 @@
         <v>34</v>
       </c>
       <c r="F113" s="20">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G113" s="21">
         <v>2.7</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6343,7 +6343,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>18722.092000000001</v>
+        <v>18664.191999999999</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1901,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3090,14 +3090,14 @@
         <v>28</v>
       </c>
       <c r="F25" s="20">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G25" s="21">
         <v>0.19</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="1"/>
-        <v>28.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4926,14 +4926,14 @@
         <v>21</v>
       </c>
       <c r="F103" s="20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G103" s="43">
         <v>4</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -4954,14 +4954,14 @@
         <v>21</v>
       </c>
       <c r="F104" s="20">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G104" s="43">
         <v>0.8</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>28.8</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="I104" s="42"/>
     </row>
@@ -5323,14 +5323,14 @@
         <v>21</v>
       </c>
       <c r="F118" s="20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G118" s="21">
         <v>2.9</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5467,14 +5467,14 @@
         <v>10</v>
       </c>
       <c r="F124" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G124" s="21">
         <v>2.87</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="2"/>
-        <v>14.350000000000001</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6343,7 +6343,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>18664.191999999999</v>
+        <v>18560.721999999998</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="240">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -587,9 +587,6 @@
     <t>9/2/2018</t>
   </si>
   <si>
-    <t>8/2/2018</t>
-  </si>
-  <si>
     <t>9/2//2018</t>
   </si>
   <si>
@@ -608,9 +605,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>21/2/2018</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -647,9 +641,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>850</t>
-  </si>
-  <si>
     <t>9/4/2018</t>
   </si>
   <si>
@@ -707,9 +698,6 @@
     <t>11/5/2018</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -735,6 +723,21 @@
   </si>
   <si>
     <t>250</t>
+  </si>
+  <si>
+    <t>5/6/2018</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1100</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1905,7 @@
   <dimension ref="A1:IU155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2084,7 +2087,7 @@
     </row>
     <row r="5" spans="1:35" ht="24.95" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2134,7 +2137,7 @@
     </row>
     <row r="6" spans="1:35" ht="24.2" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -2145,14 +2148,14 @@
         <v>12</v>
       </c>
       <c r="F6" s="17">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G6" s="13">
         <v>1.65</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="0"/>
-        <v>61.05</v>
+        <v>44.55</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -2184,7 +2187,7 @@
     </row>
     <row r="7" spans="1:35" ht="25.35" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
@@ -2195,14 +2198,14 @@
         <v>12</v>
       </c>
       <c r="F7" s="17">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G7" s="13">
         <v>3</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -2338,7 +2341,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2353,14 +2356,14 @@
         <v>12</v>
       </c>
       <c r="F10" s="17">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" s="13">
         <v>2.35</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>108.10000000000001</v>
+        <v>103.4</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -2442,7 +2445,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -2501,7 +2504,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>149</v>
@@ -2546,12 +2549,12 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>149</v>
@@ -2596,12 +2599,12 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>149</v>
@@ -2646,12 +2649,12 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>149</v>
@@ -2696,12 +2699,12 @@
     </row>
     <row r="17" spans="1:35" ht="28.35" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>149</v>
@@ -2746,12 +2749,12 @@
     </row>
     <row r="18" spans="1:35" ht="27.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>149</v>
@@ -3080,24 +3083,24 @@
         <v>23</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G25" s="21">
         <v>0.19</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3145,10 +3148,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>28</v>
@@ -3172,10 +3175,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19" t="s">
@@ -3197,10 +3200,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>28</v>
@@ -3245,10 +3248,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>28</v>
@@ -3271,8 +3274,12 @@
       <c r="A33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="27">
+        <v>43256</v>
+      </c>
+      <c r="C33" s="28">
+        <v>4</v>
+      </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28" t="s">
         <v>10</v>
@@ -3293,10 +3300,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>171</v>
@@ -3455,7 +3462,7 @@
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -3541,9 +3548,11 @@
       <c r="A45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="19"/>
+      <c r="B45" s="19" t="s">
+        <v>235</v>
+      </c>
       <c r="C45" s="19" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>28</v>
@@ -3552,14 +3561,14 @@
         <v>21</v>
       </c>
       <c r="F45" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G45" s="21">
         <v>1</v>
       </c>
       <c r="H45" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3567,10 +3576,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>28</v>
@@ -3786,14 +3795,14 @@
         <v>21</v>
       </c>
       <c r="F55" s="20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G55" s="21">
         <v>0.7</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="1"/>
-        <v>4.1999999999999993</v>
+        <v>7.6999999999999993</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3940,10 +3949,10 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>177</v>
@@ -3970,7 +3979,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>179</v>
@@ -4275,10 +4284,10 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
@@ -4460,10 +4469,10 @@
         <v>80</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>28</v>
@@ -4472,14 +4481,14 @@
         <v>21</v>
       </c>
       <c r="F85" s="20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G85" s="21">
         <v>1.1000000000000001</v>
       </c>
       <c r="H85" s="14">
         <f t="shared" si="2"/>
-        <v>13.200000000000001</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4652,7 +4661,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>178</v>
@@ -4679,7 +4688,7 @@
         <v>89</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>178</v>
@@ -4827,13 +4836,13 @@
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>181</v>
@@ -4842,14 +4851,14 @@
         <v>21</v>
       </c>
       <c r="F100" s="20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G100" s="43">
         <v>4.8</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>76.8</v>
+        <v>62.4</v>
       </c>
       <c r="I100" s="42"/>
     </row>
@@ -4914,26 +4923,26 @@
         <v>95</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F103" s="20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G103" s="43">
         <v>4</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -4942,7 +4951,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>168</v>
@@ -4973,10 +4982,10 @@
         <v>188</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>21</v>
@@ -5005,14 +5014,14 @@
         <v>21</v>
       </c>
       <c r="F106" s="20">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G106" s="43">
         <v>2.4</v>
       </c>
       <c r="H106" s="46">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>403.2</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5020,10 +5029,10 @@
         <v>99</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>28</v>
@@ -5047,7 +5056,7 @@
         <v>100</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>173</v>
@@ -5084,14 +5093,14 @@
         <v>21</v>
       </c>
       <c r="F109" s="20">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G109" s="21">
         <v>2.5</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>257.5</v>
+        <v>252.5</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5099,7 +5108,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>167</v>
@@ -5124,10 +5133,10 @@
         <v>103</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19" t="s">
@@ -5146,10 +5155,10 @@
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>167</v>
@@ -5176,10 +5185,10 @@
         <v>104</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>155</v>
@@ -5209,7 +5218,7 @@
         <v>36</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>106</v>
@@ -5284,7 +5293,7 @@
         <v>109</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>179</v>
@@ -5311,10 +5320,10 @@
         <v>110</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>28</v>
@@ -5323,14 +5332,14 @@
         <v>21</v>
       </c>
       <c r="F118" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G118" s="21">
         <v>2.9</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>2.9</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5338,10 +5347,10 @@
         <v>111</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="D119" s="19" t="s">
         <v>28</v>
@@ -5350,14 +5359,14 @@
         <v>21</v>
       </c>
       <c r="F119" s="20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G119" s="21">
         <v>1.72</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="2"/>
-        <v>5.16</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5419,14 +5428,14 @@
         <v>12</v>
       </c>
       <c r="F122" s="20">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="G122" s="21">
         <v>2.69</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="2"/>
-        <v>454.61</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5467,14 +5476,14 @@
         <v>10</v>
       </c>
       <c r="F124" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G124" s="21">
         <v>2.87</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="2"/>
-        <v>11.48</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5482,7 +5491,7 @@
         <v>117</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>168</v>
@@ -5593,10 +5602,10 @@
         <v>124</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>13</v>
@@ -5620,10 +5629,10 @@
         <v>175</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D131" s="19" t="s">
         <v>13</v>
@@ -5632,14 +5641,14 @@
         <v>12</v>
       </c>
       <c r="F131" s="20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G131" s="21">
         <v>2.21</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
@@ -5668,7 +5677,7 @@
         <v>126</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
@@ -6093,14 +6102,14 @@
         <v>21</v>
       </c>
       <c r="F141" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G141" s="25">
         <v>2.2000000000000002</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>46.2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
@@ -6114,14 +6123,14 @@
         <v>21</v>
       </c>
       <c r="F142" s="24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G142" s="25">
         <v>5.5</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
@@ -6156,14 +6165,14 @@
         <v>21</v>
       </c>
       <c r="F144" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G144" s="25">
         <v>0.5</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
@@ -6219,14 +6228,14 @@
         <v>21</v>
       </c>
       <c r="F147" s="24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G147" s="25">
         <v>2.85</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>85.5</v>
+        <v>82.65</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
@@ -6240,14 +6249,14 @@
         <v>21</v>
       </c>
       <c r="F148" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G148" s="25">
         <v>3.4</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" si="2"/>
-        <v>30.599999999999998</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
@@ -6343,7 +6352,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>18560.721999999998</v>
+        <v>18286.012000000006</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="242">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">Adesivo  rotoli 7 cm. Nero </t>
   </si>
   <si>
-    <t>rota</t>
-  </si>
-  <si>
     <t>rotoli</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>Cotone quadretti stock</t>
   </si>
   <si>
-    <t>comerima</t>
-  </si>
-  <si>
     <t>Cotone camicia(6)</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>Custodie libretti certificazione</t>
   </si>
   <si>
-    <t>NEGRISOLO</t>
-  </si>
-  <si>
     <t>Dorsini rileg 8mm</t>
   </si>
   <si>
@@ -374,9 +365,6 @@
     <t>spilli 250gr</t>
   </si>
   <si>
-    <t>ati</t>
-  </si>
-  <si>
     <t>scatole</t>
   </si>
   <si>
@@ -533,9 +521,6 @@
     <t>19/1/2018</t>
   </si>
   <si>
-    <t>bossotti</t>
-  </si>
-  <si>
     <t>115</t>
   </si>
   <si>
@@ -599,12 +584,6 @@
     <t>cartemani</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -738,6 +717,33 @@
   </si>
   <si>
     <t>1100</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>11/6/2018</t>
+  </si>
+  <si>
+    <t>Ratioform</t>
+  </si>
+  <si>
+    <t>Lyreco</t>
+  </si>
+  <si>
+    <t>Negrisolo</t>
+  </si>
+  <si>
+    <t>Comerina</t>
+  </si>
+  <si>
+    <t>Fedrigoni</t>
+  </si>
+  <si>
+    <t>Bossotti</t>
+  </si>
+  <si>
+    <t>Comerima</t>
   </si>
 </sst>
 </file>
@@ -1312,15 +1318,7 @@
     <cellStyle name="Text" xfId="53"/>
     <cellStyle name="Warning" xfId="54"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="13"/>
-          <bgColor indexed="34"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1904,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1922,7 +1920,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="60.75" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -1991,11 +1989,11 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="12">
         <v>21</v>
@@ -2037,15 +2035,15 @@
     </row>
     <row r="4" spans="1:35" ht="30" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="F4" s="12">
         <v>21</v>
@@ -2087,15 +2085,15 @@
     </row>
     <row r="5" spans="1:35" ht="24.95" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
+      <c r="D5" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="17">
         <v>33</v>
@@ -2137,15 +2135,15 @@
     </row>
     <row r="6" spans="1:35" ht="24.2" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
+      <c r="D6" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="17">
         <v>27</v>
@@ -2187,15 +2185,15 @@
     </row>
     <row r="7" spans="1:35" ht="25.35" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
+      <c r="D7" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="17">
         <v>45</v>
@@ -2237,7 +2235,7 @@
     </row>
     <row r="8" spans="1:35" ht="23.25" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B8" s="10">
         <v>43174</v>
@@ -2245,11 +2243,11 @@
       <c r="C8" s="16">
         <v>50</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>9</v>
+      <c r="D8" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="17">
         <v>50</v>
@@ -2291,15 +2289,15 @@
     </row>
     <row r="9" spans="1:35" ht="23.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="11" t="s">
-        <v>9</v>
+      <c r="D9" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="17">
         <v>42</v>
@@ -2341,7 +2339,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2349,11 +2347,11 @@
       <c r="C10" s="16">
         <v>50</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>9</v>
+      <c r="D10" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="17">
         <v>44</v>
@@ -2395,15 +2393,15 @@
     </row>
     <row r="11" spans="1:35" ht="28.35" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F11" s="17">
         <v>63</v>
@@ -2445,7 +2443,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -2454,10 +2452,10 @@
         <v>50</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F12" s="17">
         <v>50</v>
@@ -2499,15 +2497,15 @@
     </row>
     <row r="13" spans="1:35" ht="28.35" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F13" s="17">
         <v>10</v>
@@ -2549,15 +2547,15 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F14" s="17">
         <v>11</v>
@@ -2599,15 +2597,15 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F15" s="17">
         <v>8</v>
@@ -2649,15 +2647,15 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F16" s="17">
         <v>4</v>
@@ -2699,15 +2697,15 @@
     </row>
     <row r="17" spans="1:35" ht="28.35" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F17" s="17">
         <v>5</v>
@@ -2749,15 +2747,15 @@
     </row>
     <row r="18" spans="1:35" ht="27.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F18" s="17">
         <v>2</v>
@@ -2799,15 +2797,15 @@
     </row>
     <row r="19" spans="1:35" ht="28.35" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F19" s="17">
         <v>5</v>
@@ -2849,15 +2847,15 @@
     </row>
     <row r="20" spans="1:35" ht="28.35" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="17">
         <v>30</v>
@@ -2899,7 +2897,7 @@
     </row>
     <row r="21" spans="1:35" ht="28.35" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="10">
         <v>43174</v>
@@ -2908,10 +2906,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>9</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="F21" s="17">
         <v>4</v>
@@ -2953,15 +2951,15 @@
     </row>
     <row r="22" spans="1:35" ht="28.35" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="17">
         <v>699</v>
@@ -3003,15 +3001,15 @@
     </row>
     <row r="23" spans="1:35" s="49" customFormat="1" ht="28.35" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="F23" s="12">
         <v>5</v>
@@ -3053,19 +3051,19 @@
     </row>
     <row r="24" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A24" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="20">
         <v>2</v>
@@ -3080,17 +3078,19 @@
     </row>
     <row r="25" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A25" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="19"/>
+        <v>232</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="E25" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="20">
         <v>50</v>
@@ -3105,13 +3105,15 @@
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A26" s="18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="E26" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="21">
@@ -3124,13 +3126,13 @@
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="24">
         <v>25</v>
@@ -3145,19 +3147,19 @@
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A28" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="F28" s="20">
         <v>4</v>
@@ -3172,17 +3174,19 @@
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A29" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="19"/>
+        <v>223</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>239</v>
+      </c>
       <c r="E29" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="20">
         <v>10</v>
@@ -3197,19 +3201,19 @@
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A30" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="20">
         <v>6</v>
@@ -3224,13 +3228,15 @@
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A31" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="E31" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="20">
         <v>3</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="32" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A32" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C32" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="E32" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="20">
         <v>20</v>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A33" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="27">
         <v>43256</v>
@@ -3280,9 +3286,11 @@
       <c r="C33" s="28">
         <v>4</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="E33" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="12">
         <v>0</v>
@@ -3297,19 +3305,19 @@
     </row>
     <row r="34" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="F34" s="20">
         <v>75</v>
@@ -3324,15 +3332,15 @@
     </row>
     <row r="35" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A35" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="20">
         <v>0</v>
@@ -3347,15 +3355,15 @@
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A36" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="12">
         <v>0</v>
@@ -3370,15 +3378,15 @@
     </row>
     <row r="37" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A37" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" s="20">
         <v>0</v>
@@ -3393,15 +3401,15 @@
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A38" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" s="20">
         <v>15</v>
@@ -3416,15 +3424,15 @@
     </row>
     <row r="39" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39" s="20">
         <v>50</v>
@@ -3439,15 +3447,15 @@
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" s="20">
         <v>0</v>
@@ -3462,15 +3470,15 @@
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F41" s="20">
         <v>0</v>
@@ -3485,13 +3493,13 @@
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="20">
         <v>170</v>
@@ -3506,13 +3514,13 @@
     </row>
     <row r="43" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" s="20">
         <v>573</v>
@@ -3527,13 +3535,13 @@
     </row>
     <row r="44" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="20">
         <v>60</v>
@@ -3546,19 +3554,19 @@
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="20">
         <v>7</v>
@@ -3573,19 +3581,19 @@
     </row>
     <row r="46" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46" s="20">
         <v>16</v>
@@ -3600,15 +3608,15 @@
     </row>
     <row r="47" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47" s="20">
         <v>1</v>
@@ -3623,15 +3631,15 @@
     </row>
     <row r="48" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A48" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="20">
         <v>25</v>
@@ -3646,13 +3654,13 @@
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="20">
         <v>20</v>
@@ -3667,13 +3675,13 @@
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" s="20">
         <v>10</v>
@@ -3688,15 +3696,15 @@
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A51" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51" s="20">
         <v>600</v>
@@ -3711,15 +3719,15 @@
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F52" s="20">
         <v>0</v>
@@ -3734,15 +3742,15 @@
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="20">
         <v>0</v>
@@ -3757,15 +3765,15 @@
     </row>
     <row r="54" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A54" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F54" s="20">
         <v>2</v>
@@ -3780,19 +3788,19 @@
     </row>
     <row r="55" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A55" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F55" s="20">
         <v>11</v>
@@ -3807,19 +3815,19 @@
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F56" s="20">
         <v>18</v>
@@ -3834,15 +3842,15 @@
     </row>
     <row r="57" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F57" s="20">
         <v>0</v>
@@ -3857,15 +3865,15 @@
     </row>
     <row r="58" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F58" s="20">
         <v>1</v>
@@ -3880,15 +3888,15 @@
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F59" s="20">
         <v>0</v>
@@ -3903,15 +3911,15 @@
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F60" s="20">
         <v>2</v>
@@ -3926,15 +3934,15 @@
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A61" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" s="20">
         <v>22</v>
@@ -3949,19 +3957,19 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F62" s="20">
         <v>4</v>
@@ -3976,19 +3984,19 @@
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F63" s="20">
         <v>7</v>
@@ -4003,13 +4011,13 @@
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A64" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" s="24">
         <v>11</v>
@@ -4024,13 +4032,13 @@
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A65" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B65" s="29"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65" s="24">
         <v>30</v>
@@ -4045,13 +4053,13 @@
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A66" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66" s="20">
         <v>25</v>
@@ -4066,13 +4074,13 @@
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A67" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F67" s="20">
         <v>12</v>
@@ -4087,19 +4095,19 @@
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A68" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F68" s="20">
         <v>55</v>
@@ -4114,13 +4122,13 @@
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69" s="20">
         <v>0</v>
@@ -4135,15 +4143,15 @@
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A70" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70" s="20">
         <v>35</v>
@@ -4158,13 +4166,13 @@
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A71" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
       <c r="D71" s="31"/>
       <c r="E71" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" s="20">
         <v>18</v>
@@ -4179,13 +4187,13 @@
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A72" s="30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72" s="20">
         <v>7</v>
@@ -4200,13 +4208,13 @@
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" s="20">
         <v>43</v>
@@ -4221,13 +4229,13 @@
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F74" s="20">
         <v>62</v>
@@ -4242,13 +4250,13 @@
     </row>
     <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F75" s="20">
         <v>0</v>
@@ -4263,13 +4271,13 @@
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F76" s="20">
         <v>19</v>
@@ -4284,17 +4292,17 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77" s="20">
         <v>24</v>
@@ -4309,15 +4317,15 @@
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78" s="20">
         <v>12</v>
@@ -4332,15 +4340,15 @@
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79" s="20">
         <v>1.5</v>
@@ -4355,15 +4363,15 @@
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80" s="20">
         <v>20</v>
@@ -4378,15 +4386,15 @@
     </row>
     <row r="81" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81" s="20">
         <v>3</v>
@@ -4401,15 +4409,15 @@
     </row>
     <row r="82" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F82" s="20">
         <v>150</v>
@@ -4422,15 +4430,15 @@
     </row>
     <row r="83" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F83" s="20">
         <v>150</v>
@@ -4443,15 +4451,15 @@
     </row>
     <row r="84" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F84" s="20">
         <v>8</v>
@@ -4466,19 +4474,19 @@
     </row>
     <row r="85" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F85" s="20">
         <v>15</v>
@@ -4493,15 +4501,15 @@
     </row>
     <row r="86" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F86" s="20">
         <v>4</v>
@@ -4516,15 +4524,15 @@
     </row>
     <row r="87" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F87" s="20">
         <v>0</v>
@@ -4539,15 +4547,15 @@
     </row>
     <row r="88" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F88" s="20">
         <v>3</v>
@@ -4562,19 +4570,19 @@
     </row>
     <row r="89" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" s="20">
         <v>4</v>
@@ -4589,15 +4597,15 @@
     </row>
     <row r="90" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F90" s="20">
         <v>2</v>
@@ -4612,15 +4620,15 @@
     </row>
     <row r="91" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F91" s="20">
         <v>0</v>
@@ -4635,15 +4643,15 @@
     </row>
     <row r="92" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F92" s="20">
         <v>0</v>
@@ -4658,19 +4666,19 @@
     </row>
     <row r="93" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F93" s="20">
         <v>50</v>
@@ -4685,19 +4693,19 @@
     </row>
     <row r="94" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F94" s="37">
         <v>50</v>
@@ -4712,15 +4720,15 @@
     </row>
     <row r="95" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F95" s="20">
         <v>3</v>
@@ -4735,15 +4743,15 @@
     </row>
     <row r="96" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F96" s="20">
         <v>0</v>
@@ -4758,41 +4766,43 @@
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
+      <c r="D97" s="19" t="s">
+        <v>236</v>
+      </c>
       <c r="E97" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F97" s="20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G97" s="43">
         <v>1</v>
       </c>
       <c r="H97" s="46">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I97" s="41"/>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F98" s="20">
         <v>103</v>
@@ -4808,19 +4818,19 @@
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F99" s="20">
         <v>95</v>
@@ -4836,19 +4846,19 @@
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F100" s="20">
         <v>13</v>
@@ -4864,19 +4874,19 @@
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F101" s="20">
         <v>0</v>
@@ -4892,19 +4902,19 @@
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F102" s="20">
         <v>49</v>
@@ -4920,19 +4930,19 @@
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F103" s="20">
         <v>12</v>
@@ -4948,19 +4958,19 @@
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F104" s="20">
         <v>24</v>
@@ -4976,19 +4986,19 @@
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F105" s="20">
         <v>10</v>
@@ -5003,15 +5013,19 @@
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
+        <v>95</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="D106" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F106" s="20">
         <v>168</v>
@@ -5026,19 +5040,19 @@
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F107" s="20">
         <v>30</v>
@@ -5053,17 +5067,19 @@
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A108" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D108" s="19"/>
+        <v>168</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>237</v>
+      </c>
       <c r="E108" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F108" s="20">
         <v>139</v>
@@ -5078,19 +5094,19 @@
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F109" s="20">
         <v>101</v>
@@ -5105,17 +5121,17 @@
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D110" s="34"/>
       <c r="E110" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F110" s="20">
         <v>5</v>
@@ -5130,17 +5146,17 @@
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F111" s="20">
         <v>29</v>
@@ -5155,19 +5171,19 @@
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F112" s="20">
         <v>7</v>
@@ -5182,19 +5198,19 @@
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A113" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F113" s="20">
         <v>30</v>
@@ -5209,46 +5225,46 @@
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A114" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B114" s="29">
         <v>43140</v>
       </c>
       <c r="C114" s="11">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F114" s="12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G114" s="14">
         <v>6</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F115" s="20">
         <v>900</v>
@@ -5263,19 +5279,19 @@
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F116" s="20">
         <v>5</v>
@@ -5290,19 +5306,19 @@
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A117" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F117" s="20">
         <v>7</v>
@@ -5317,19 +5333,19 @@
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F118" s="20">
         <v>6</v>
@@ -5344,19 +5360,19 @@
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F119" s="20">
         <v>9</v>
@@ -5371,13 +5387,13 @@
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
       <c r="D120" s="35"/>
       <c r="E120" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F120" s="20">
         <v>7</v>
@@ -5392,13 +5408,13 @@
     </row>
     <row r="121" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
       <c r="E121" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F121" s="20">
         <v>9</v>
@@ -5413,19 +5429,19 @@
     </row>
     <row r="122" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A122" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F122" s="20">
         <v>100</v>
@@ -5440,19 +5456,19 @@
     </row>
     <row r="123" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F123" s="20">
         <v>99</v>
@@ -5467,13 +5483,13 @@
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F124" s="20">
         <v>3</v>
@@ -5488,19 +5504,19 @@
     </row>
     <row r="125" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F125" s="20">
         <v>4</v>
@@ -5515,13 +5531,13 @@
     </row>
     <row r="126" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A126" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
       <c r="E126" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F126" s="20">
         <v>582</v>
@@ -5536,13 +5552,13 @@
     </row>
     <row r="127" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A127" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
       <c r="E127" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F127" s="20">
         <v>1</v>
@@ -5557,13 +5573,13 @@
     </row>
     <row r="128" spans="1:8" ht="28.35" customHeight="1">
       <c r="A128" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F128" s="24">
         <v>7</v>
@@ -5578,13 +5594,13 @@
     </row>
     <row r="129" spans="1:255" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
       <c r="E129" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F129" s="20">
         <v>95</v>
@@ -5599,19 +5615,19 @@
     </row>
     <row r="130" spans="1:255" ht="28.35" customHeight="1">
       <c r="A130" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D130" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F130" s="20">
         <v>150</v>
@@ -5626,19 +5642,19 @@
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
       <c r="A131" s="18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D131" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F131" s="20">
         <v>50</v>
@@ -5653,13 +5669,13 @@
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
       <c r="A132" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F132" s="24">
         <v>100</v>
@@ -5674,15 +5690,15 @@
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
       <c r="E133" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F133" s="20">
         <v>4</v>
@@ -5697,13 +5713,13 @@
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
       <c r="A134" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
       <c r="E134" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F134" s="20">
         <v>17</v>
@@ -5718,15 +5734,15 @@
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
       <c r="A135" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F135" s="20">
         <v>12</v>
@@ -5741,13 +5757,13 @@
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
       <c r="A136" s="23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F136" s="24">
         <v>22</v>
@@ -5762,23 +5778,29 @@
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
       <c r="A137" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
+        <v>125</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>235</v>
+      </c>
       <c r="E137" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F137" s="20">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G137" s="21">
-        <v>1.1299999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="I137"/>
       <c r="J137"/>
@@ -6030,13 +6052,13 @@
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
       <c r="A138" s="23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F138" s="24">
         <v>25</v>
@@ -6051,13 +6073,13 @@
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F139" s="24">
         <v>1</v>
@@ -6072,13 +6094,13 @@
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
       <c r="A140" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F140" s="24">
         <v>8</v>
@@ -6093,13 +6115,13 @@
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
       <c r="A141" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B141" s="29"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F141" s="24">
         <v>20</v>
@@ -6114,13 +6136,13 @@
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B142" s="29"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F142" s="24">
         <v>15</v>
@@ -6135,13 +6157,13 @@
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B143" s="29"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F143" s="24">
         <v>39</v>
@@ -6156,13 +6178,13 @@
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F144" s="24">
         <v>6</v>
@@ -6177,13 +6199,13 @@
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F145" s="24">
         <v>29</v>
@@ -6198,13 +6220,13 @@
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F146" s="24">
         <v>60</v>
@@ -6219,13 +6241,13 @@
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
       <c r="A147" s="23" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B147" s="29"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F147" s="24">
         <v>29</v>
@@ -6240,13 +6262,13 @@
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
       <c r="A148" s="23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B148" s="29"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F148" s="24">
         <v>8</v>
@@ -6261,36 +6283,36 @@
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
       <c r="A149" s="23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F149" s="24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G149" s="25">
         <v>3</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
       <c r="A150" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B150" s="29"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F150" s="24">
         <v>21</v>
@@ -6305,15 +6327,15 @@
     </row>
     <row r="151" spans="1:8" ht="28.35" customHeight="1">
       <c r="A151" s="23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B151" s="29"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F151" s="24">
         <v>100</v>
@@ -6328,15 +6350,15 @@
     </row>
     <row r="152" spans="1:8" ht="28.35" customHeight="1">
       <c r="A152" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B152" s="29"/>
       <c r="C152" s="11"/>
       <c r="D152" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F152" s="24">
         <v>8</v>
@@ -6352,7 +6374,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>18286.012000000006</v>
+        <v>18439.012000000006</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>
@@ -6363,108 +6385,103 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="F116:F118 F85 F27:F30 F24:F25">
-    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F41 F88:F90 F31:F32">
-    <cfRule type="cellIs" dxfId="19" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F34">
-    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38:F39">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49 F86:F87 F106 F91:F92">
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58 F74:F84">
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="11" priority="15" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" dxfId="10" priority="16" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" dxfId="9" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102 F97:F98">
-    <cfRule type="cellIs" dxfId="8" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119 F107">
-    <cfRule type="cellIs" dxfId="7" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109:F112">
-    <cfRule type="cellIs" dxfId="6" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105">
-    <cfRule type="cellIs" dxfId="5" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="cellIs" dxfId="4" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99:F100">
-    <cfRule type="cellIs" dxfId="3" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F98:F100">
+    <cfRule type="cellIs" dxfId="2" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="cellIs" dxfId="2" priority="36" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="36" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94:F95">
-    <cfRule type="cellIs" dxfId="1" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -626,15 +626,6 @@
     <t>17/4/2018</t>
   </si>
   <si>
-    <t>18/4/2018</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>Porta abiti lunghi soffietto</t>
   </si>
   <si>
@@ -744,6 +735,15 @@
   </si>
   <si>
     <t>Comerima</t>
+  </si>
+  <si>
+    <t>13/6/2018</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>700</t>
   </si>
 </sst>
 </file>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -2502,7 +2502,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>145</v>
@@ -2547,12 +2547,12 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>145</v>
@@ -2597,12 +2597,12 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>145</v>
@@ -2647,12 +2647,12 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>145</v>
@@ -2697,12 +2697,12 @@
     </row>
     <row r="17" spans="1:35" ht="28.35" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>145</v>
@@ -2747,12 +2747,12 @@
     </row>
     <row r="18" spans="1:35" ht="27.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>145</v>
@@ -3060,7 +3060,7 @@
         <v>174</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
@@ -3081,13 +3081,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>27</v>
@@ -3110,7 +3110,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>20</v>
@@ -3156,7 +3156,7 @@
         <v>199</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>25</v>
@@ -3177,13 +3177,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>25</v>
@@ -3204,13 +3204,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>25</v>
@@ -3233,7 +3233,7 @@
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>25</v>
@@ -3254,13 +3254,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>25</v>
@@ -3287,7 +3287,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>9</v>
@@ -3308,13 +3308,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>33</v>
@@ -3337,7 +3337,7 @@
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>9</v>
@@ -3360,7 +3360,7 @@
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>20</v>
@@ -3383,7 +3383,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>20</v>
@@ -3406,7 +3406,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>20</v>
@@ -3429,7 +3429,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
@@ -3452,7 +3452,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>20</v>
@@ -3470,12 +3470,12 @@
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>20</v>
@@ -3557,13 +3557,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>231</v>
-      </c>
       <c r="D45" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>20</v>
@@ -3590,7 +3590,7 @@
         <v>188</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>20</v>
@@ -3613,7 +3613,7 @@
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>20</v>
@@ -3636,7 +3636,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>11</v>
@@ -3701,7 +3701,7 @@
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>20</v>
@@ -3724,7 +3724,7 @@
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
@@ -3747,7 +3747,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
@@ -3770,7 +3770,7 @@
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>33</v>
@@ -3797,7 +3797,7 @@
         <v>163</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>20</v>
@@ -3824,7 +3824,7 @@
         <v>165</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -3847,7 +3847,7 @@
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -3870,7 +3870,7 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
@@ -3893,7 +3893,7 @@
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
@@ -3916,7 +3916,7 @@
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
@@ -3957,16 +3957,16 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>145</v>
@@ -3993,7 +3993,7 @@
         <v>174</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>20</v>
@@ -4104,7 +4104,7 @@
         <v>173</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>20</v>
@@ -4292,14 +4292,14 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>11</v>
@@ -4322,7 +4322,7 @@
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>11</v>
@@ -4345,7 +4345,7 @@
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>11</v>
@@ -4368,7 +4368,7 @@
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>11</v>
@@ -4391,7 +4391,7 @@
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
@@ -4456,7 +4456,7 @@
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>20</v>
@@ -4477,26 +4477,26 @@
         <v>77</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>188</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F85" s="20">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G85" s="21">
         <v>1.1000000000000001</v>
       </c>
       <c r="H85" s="14">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4506,7 +4506,7 @@
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>20</v>
@@ -4529,7 +4529,7 @@
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
@@ -4552,7 +4552,7 @@
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
@@ -4579,7 +4579,7 @@
         <v>172</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>9</v>
@@ -4602,7 +4602,7 @@
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>20</v>
@@ -4625,7 +4625,7 @@
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>20</v>
@@ -4648,7 +4648,7 @@
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>20</v>
@@ -4675,7 +4675,7 @@
         <v>173</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>20</v>
@@ -4702,7 +4702,7 @@
         <v>173</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>20</v>
@@ -4725,7 +4725,7 @@
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>20</v>
@@ -4748,7 +4748,7 @@
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
@@ -4771,7 +4771,7 @@
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
@@ -4846,13 +4846,13 @@
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>176</v>
@@ -4933,13 +4933,13 @@
         <v>92</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>20</v>
@@ -4967,7 +4967,7 @@
         <v>164</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>20</v>
@@ -5019,7 +5019,7 @@
         <v>185</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>14</v>
@@ -5049,7 +5049,7 @@
         <v>186</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
@@ -5076,7 +5076,7 @@
         <v>168</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>20</v>
@@ -5124,7 +5124,7 @@
         <v>99</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>163</v>
@@ -5149,7 +5149,7 @@
         <v>100</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>186</v>
@@ -5180,7 +5180,7 @@
         <v>163</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>20</v>
@@ -5201,10 +5201,10 @@
         <v>101</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>151</v>
@@ -5288,7 +5288,7 @@
         <v>164</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>20</v>
@@ -5315,7 +5315,7 @@
         <v>174</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>20</v>
@@ -5336,13 +5336,13 @@
         <v>107</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>20</v>
@@ -5363,13 +5363,13 @@
         <v>108</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
@@ -5513,7 +5513,7 @@
         <v>164</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E125" s="19" t="s">
         <v>115</v>
@@ -5618,10 +5618,10 @@
         <v>120</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>12</v>
@@ -5630,14 +5630,14 @@
         <v>11</v>
       </c>
       <c r="F130" s="20">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="G130" s="21">
         <v>2.69</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>403.5</v>
+        <v>941.5</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
@@ -5645,10 +5645,10 @@
         <v>170</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="D131" s="19" t="s">
         <v>12</v>
@@ -5657,14 +5657,14 @@
         <v>11</v>
       </c>
       <c r="F131" s="20">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G131" s="21">
         <v>2.21</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>110.5</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
@@ -5693,7 +5693,7 @@
         <v>122</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
@@ -5781,13 +5781,13 @@
         <v>125</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E137" s="19" t="s">
         <v>20</v>
@@ -6208,14 +6208,14 @@
         <v>20</v>
       </c>
       <c r="F145" s="24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G145" s="25">
         <v>1.1000000000000001</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>31.900000000000002</v>
+        <v>30.800000000000004</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
@@ -6374,7 +6374,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>18439.012000000006</v>
+        <v>19185.912000000004</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2300,14 +2300,14 @@
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -4062,14 +4062,14 @@
         <v>11</v>
       </c>
       <c r="F66" s="20">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G66" s="21">
         <v>8.3000000000000007</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="1"/>
-        <v>207.50000000000003</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4708,14 +4708,14 @@
         <v>20</v>
       </c>
       <c r="F94" s="37">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G94" s="40">
         <v>0.19</v>
       </c>
       <c r="H94" s="46">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4861,14 +4861,14 @@
         <v>20</v>
       </c>
       <c r="F100" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G100" s="43">
         <v>4.8</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>62.4</v>
+        <v>52.8</v>
       </c>
       <c r="I100" s="42"/>
     </row>
@@ -6374,7 +6374,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>19185.912000000004</v>
+        <v>19027.962</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="244">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -698,18 +698,12 @@
     <t>5/6/2018</t>
   </si>
   <si>
-    <t>165</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>1100</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -744,6 +738,18 @@
   </si>
   <si>
     <t>700</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>18/6/2018</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>180</t>
   </si>
 </sst>
 </file>
@@ -1902,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3060,7 +3066,7 @@
         <v>174</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
@@ -3081,26 +3087,26 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="20">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G25" s="21">
         <v>0.19</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3110,7 +3116,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>20</v>
@@ -3156,7 +3162,7 @@
         <v>199</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>25</v>
@@ -3183,7 +3189,7 @@
         <v>220</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>25</v>
@@ -3210,7 +3216,7 @@
         <v>221</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>25</v>
@@ -3233,7 +3239,7 @@
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>25</v>
@@ -3254,13 +3260,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>25</v>
@@ -3287,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>9</v>
@@ -3314,7 +3320,7 @@
         <v>224</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>33</v>
@@ -3337,7 +3343,7 @@
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>9</v>
@@ -3360,7 +3366,7 @@
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>20</v>
@@ -3383,7 +3389,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>20</v>
@@ -3406,7 +3412,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>20</v>
@@ -3429,7 +3435,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
@@ -3452,7 +3458,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>20</v>
@@ -3475,7 +3481,7 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>20</v>
@@ -3560,10 +3566,10 @@
         <v>225</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>20</v>
@@ -3590,7 +3596,7 @@
         <v>188</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>20</v>
@@ -3613,7 +3619,7 @@
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>20</v>
@@ -3636,7 +3642,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>11</v>
@@ -3701,7 +3707,7 @@
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>20</v>
@@ -3724,7 +3730,7 @@
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
@@ -3747,7 +3753,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
@@ -3770,7 +3776,7 @@
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>33</v>
@@ -3797,7 +3803,7 @@
         <v>163</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>20</v>
@@ -3824,7 +3830,7 @@
         <v>165</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -3847,7 +3853,7 @@
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -3870,7 +3876,7 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
@@ -3893,7 +3899,7 @@
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
@@ -3916,7 +3922,7 @@
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
@@ -3966,7 +3972,7 @@
         <v>172</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>145</v>
@@ -3993,7 +3999,7 @@
         <v>174</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>20</v>
@@ -4299,7 +4305,7 @@
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>11</v>
@@ -4322,7 +4328,7 @@
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>11</v>
@@ -4345,7 +4351,7 @@
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>11</v>
@@ -4368,7 +4374,7 @@
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>11</v>
@@ -4391,7 +4397,7 @@
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
@@ -4456,7 +4462,7 @@
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>20</v>
@@ -4483,7 +4489,7 @@
         <v>188</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>20</v>
@@ -4506,7 +4512,7 @@
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>20</v>
@@ -4529,7 +4535,7 @@
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
@@ -4552,7 +4558,7 @@
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
@@ -4579,7 +4585,7 @@
         <v>172</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>9</v>
@@ -4602,7 +4608,7 @@
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>20</v>
@@ -4625,7 +4631,7 @@
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>20</v>
@@ -4648,7 +4654,7 @@
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>20</v>
@@ -4675,7 +4681,7 @@
         <v>173</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>20</v>
@@ -4702,7 +4708,7 @@
         <v>173</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>20</v>
@@ -4725,7 +4731,7 @@
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>20</v>
@@ -4748,7 +4754,7 @@
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
@@ -4771,7 +4777,7 @@
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
@@ -4939,7 +4945,7 @@
         <v>165</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>20</v>
@@ -4967,7 +4973,7 @@
         <v>164</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>20</v>
@@ -5019,7 +5025,7 @@
         <v>185</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>14</v>
@@ -5049,7 +5055,7 @@
         <v>186</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
@@ -5076,7 +5082,7 @@
         <v>168</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>20</v>
@@ -5180,7 +5186,7 @@
         <v>163</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>20</v>
@@ -5282,26 +5288,26 @@
         <v>105</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F116" s="20">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G116" s="21">
         <v>2.85</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>14.25</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5315,7 +5321,7 @@
         <v>174</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>20</v>
@@ -5336,26 +5342,26 @@
         <v>107</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F118" s="20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G118" s="21">
         <v>2.9</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5366,10 +5372,10 @@
         <v>225</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
@@ -5618,10 +5624,10 @@
         <v>120</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>12</v>
@@ -5645,10 +5651,10 @@
         <v>170</v>
       </c>
       <c r="B131" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>241</v>
       </c>
       <c r="D131" s="19" t="s">
         <v>12</v>
@@ -5781,13 +5787,13 @@
         <v>125</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C137" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="E137" s="19" t="s">
         <v>20</v>
@@ -6374,7 +6380,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>19027.962</v>
+        <v>19109.912000000004</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5546,14 +5546,14 @@
         <v>20</v>
       </c>
       <c r="F126" s="20">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G126" s="21">
         <v>3</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="2"/>
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
@@ -5636,14 +5636,14 @@
         <v>11</v>
       </c>
       <c r="F130" s="20">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="G130" s="21">
         <v>2.69</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>941.5</v>
+        <v>807</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
@@ -5799,14 +5799,14 @@
         <v>20</v>
       </c>
       <c r="F137" s="20">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="G137" s="21">
         <v>1.07</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>214</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="I137"/>
       <c r="J137"/>
@@ -6380,7 +6380,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>19109.912000000004</v>
+        <v>18908.212000000003</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2918,14 +2918,14 @@
         <v>9</v>
       </c>
       <c r="F21" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" s="13">
         <v>2</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3018,14 +3018,14 @@
         <v>9</v>
       </c>
       <c r="F23" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="21">
         <v>2</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
@@ -6380,7 +6380,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>18908.212000000003</v>
+        <v>18900.212000000003</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2918,14 +2918,14 @@
         <v>9</v>
       </c>
       <c r="F21" s="17">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="G21" s="13">
         <v>2</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -5061,14 +5061,14 @@
         <v>20</v>
       </c>
       <c r="F107" s="20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G107" s="21">
         <v>0.83</v>
       </c>
       <c r="H107" s="45">
         <f t="shared" si="2"/>
-        <v>24.9</v>
+        <v>16.599999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5477,14 +5477,14 @@
         <v>11</v>
       </c>
       <c r="F123" s="20">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G123" s="21">
         <v>3.3</v>
       </c>
       <c r="H123" s="14">
         <f t="shared" si="2"/>
-        <v>326.7</v>
+        <v>323.39999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5636,14 +5636,14 @@
         <v>11</v>
       </c>
       <c r="F130" s="20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G130" s="21">
         <v>2.69</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>807</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
@@ -6380,7 +6380,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>18900.212000000003</v>
+        <v>19250.112000000005</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1908,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2152,14 +2152,14 @@
         <v>11</v>
       </c>
       <c r="F6" s="17">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G6" s="13">
         <v>1.65</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="0"/>
-        <v>44.55</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -2202,14 +2202,14 @@
         <v>11</v>
       </c>
       <c r="F7" s="17">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G7" s="13">
         <v>3</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -2306,14 +2306,14 @@
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2360,14 +2360,14 @@
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G10" s="13">
         <v>2.35</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>103.4</v>
+        <v>94</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -5115,14 +5115,14 @@
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G109" s="21">
         <v>2.5</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>252.5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5192,14 +5192,14 @@
         <v>20</v>
       </c>
       <c r="F112" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G112" s="21">
         <v>41.34</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>289.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5219,14 +5219,14 @@
         <v>33</v>
       </c>
       <c r="F113" s="20">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G113" s="21">
         <v>2.7</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6380,7 +6380,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>19250.112000000005</v>
+        <v>18799.282000000003</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="245">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -680,21 +680,12 @@
     <t>Appendini plastica</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
     <t>23/5/2018</t>
   </si>
   <si>
-    <t>25/5/2018</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>5/6/2018</t>
   </si>
   <si>
@@ -737,9 +728,6 @@
     <t>550</t>
   </si>
   <si>
-    <t>700</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
@@ -750,6 +738,21 @@
   </si>
   <si>
     <t>180</t>
+  </si>
+  <si>
+    <t>26/6/2018</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>27/6/2018</t>
+  </si>
+  <si>
+    <t>10/7/2018</t>
+  </si>
+  <si>
+    <t>812</t>
   </si>
 </sst>
 </file>
@@ -1908,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2143,8 +2146,12 @@
       <c r="A6" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="10">
+        <v>43291</v>
+      </c>
+      <c r="C6" s="16">
+        <v>100</v>
+      </c>
       <c r="D6" s="16" t="s">
         <v>12</v>
       </c>
@@ -2152,14 +2159,14 @@
         <v>11</v>
       </c>
       <c r="F6" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="13">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -2906,10 +2913,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="10">
-        <v>43174</v>
+        <v>43291</v>
       </c>
       <c r="C21" s="16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>12</v>
@@ -2918,14 +2925,14 @@
         <v>9</v>
       </c>
       <c r="F21" s="17">
-        <v>250</v>
+        <v>7</v>
       </c>
       <c r="G21" s="13">
         <v>2</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3009,8 +3016,12 @@
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="29">
+        <v>43291</v>
+      </c>
+      <c r="C23" s="11">
+        <v>6</v>
+      </c>
       <c r="D23" s="11" t="s">
         <v>12</v>
       </c>
@@ -3018,14 +3029,14 @@
         <v>9</v>
       </c>
       <c r="F23" s="12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G23" s="21">
         <v>2</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
@@ -3066,7 +3077,7 @@
         <v>174</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
@@ -3087,13 +3098,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>27</v>
@@ -3116,7 +3127,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>20</v>
@@ -3162,7 +3173,7 @@
         <v>199</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>25</v>
@@ -3183,13 +3194,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>25</v>
@@ -3210,13 +3221,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>25</v>
@@ -3239,7 +3250,7 @@
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>25</v>
@@ -3260,13 +3271,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>25</v>
@@ -3293,7 +3304,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>9</v>
@@ -3314,26 +3325,26 @@
         <v>32</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F34" s="20">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G34" s="21">
         <v>2.6</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3343,7 +3354,7 @@
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>9</v>
@@ -3366,7 +3377,7 @@
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>20</v>
@@ -3389,7 +3400,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>20</v>
@@ -3412,7 +3423,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>20</v>
@@ -3435,7 +3446,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
@@ -3458,7 +3469,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>20</v>
@@ -3481,7 +3492,7 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>20</v>
@@ -3529,14 +3540,14 @@
         <v>20</v>
       </c>
       <c r="F43" s="20">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="G43" s="21">
         <v>0.35</v>
       </c>
       <c r="H43" s="14">
         <f t="shared" si="1"/>
-        <v>200.54999999999998</v>
+        <v>194.25</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3563,13 +3574,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>20</v>
@@ -3596,7 +3607,7 @@
         <v>188</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>20</v>
@@ -3619,7 +3630,7 @@
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>20</v>
@@ -3642,7 +3653,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>11</v>
@@ -3707,7 +3718,7 @@
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>20</v>
@@ -3730,7 +3741,7 @@
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
@@ -3753,7 +3764,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
@@ -3776,7 +3787,7 @@
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>33</v>
@@ -3803,7 +3814,7 @@
         <v>163</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>20</v>
@@ -3830,7 +3841,7 @@
         <v>165</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -3853,7 +3864,7 @@
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -3876,7 +3887,7 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
@@ -3899,7 +3910,7 @@
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
@@ -3922,7 +3933,7 @@
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
@@ -3972,7 +3983,7 @@
         <v>172</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>145</v>
@@ -3999,7 +4010,7 @@
         <v>174</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>20</v>
@@ -4305,7 +4316,7 @@
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>11</v>
@@ -4328,7 +4339,7 @@
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>11</v>
@@ -4351,7 +4362,7 @@
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>11</v>
@@ -4374,7 +4385,7 @@
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>11</v>
@@ -4397,7 +4408,7 @@
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
@@ -4462,7 +4473,7 @@
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>20</v>
@@ -4483,13 +4494,13 @@
         <v>77</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C85" s="19" t="s">
         <v>188</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>20</v>
@@ -4512,7 +4523,7 @@
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>20</v>
@@ -4535,7 +4546,7 @@
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
@@ -4558,7 +4569,7 @@
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
@@ -4585,7 +4596,7 @@
         <v>172</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>9</v>
@@ -4608,7 +4619,7 @@
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>20</v>
@@ -4631,7 +4642,7 @@
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>20</v>
@@ -4654,7 +4665,7 @@
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>20</v>
@@ -4681,7 +4692,7 @@
         <v>173</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>20</v>
@@ -4708,7 +4719,7 @@
         <v>173</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>20</v>
@@ -4731,7 +4742,7 @@
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>20</v>
@@ -4754,7 +4765,7 @@
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
@@ -4777,7 +4788,7 @@
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
@@ -4839,14 +4850,14 @@
         <v>20</v>
       </c>
       <c r="F99" s="20">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G99" s="43">
         <v>2.9</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>275.5</v>
+        <v>272.59999999999997</v>
       </c>
       <c r="I99" s="42"/>
     </row>
@@ -4867,14 +4878,14 @@
         <v>20</v>
       </c>
       <c r="F100" s="20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G100" s="43">
         <v>4.8</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>52.8</v>
+        <v>38.4</v>
       </c>
       <c r="I100" s="42"/>
     </row>
@@ -4923,14 +4934,14 @@
         <v>20</v>
       </c>
       <c r="F102" s="20">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G102" s="43">
         <v>3.75</v>
       </c>
       <c r="H102" s="46">
         <f t="shared" si="2"/>
-        <v>183.75</v>
+        <v>180</v>
       </c>
       <c r="I102" s="42"/>
     </row>
@@ -4939,13 +4950,13 @@
         <v>92</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>20</v>
@@ -4973,7 +4984,7 @@
         <v>164</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>20</v>
@@ -5025,7 +5036,7 @@
         <v>185</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>14</v>
@@ -5034,14 +5045,14 @@
         <v>20</v>
       </c>
       <c r="F106" s="20">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="G106" s="43">
         <v>2.4</v>
       </c>
       <c r="H106" s="46">
         <f t="shared" si="2"/>
-        <v>403.2</v>
+        <v>367.2</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5055,7 +5066,7 @@
         <v>186</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
@@ -5082,7 +5093,7 @@
         <v>168</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>20</v>
@@ -5115,14 +5126,14 @@
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G109" s="21">
         <v>2.5</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5186,7 +5197,7 @@
         <v>163</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>20</v>
@@ -5273,14 +5284,14 @@
         <v>20</v>
       </c>
       <c r="F115" s="20">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="G115" s="21">
         <v>0.66</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>594</v>
+        <v>585.42000000000007</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5288,13 +5299,13 @@
         <v>105</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>20</v>
@@ -5321,7 +5332,7 @@
         <v>174</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>20</v>
@@ -5342,13 +5353,13 @@
         <v>107</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>20</v>
@@ -5369,13 +5380,13 @@
         <v>108</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
@@ -5546,14 +5557,14 @@
         <v>20</v>
       </c>
       <c r="F126" s="20">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="G126" s="21">
         <v>3</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="2"/>
-        <v>1743</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
@@ -5624,10 +5635,10 @@
         <v>120</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>12</v>
@@ -5636,14 +5647,14 @@
         <v>11</v>
       </c>
       <c r="F130" s="20">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G130" s="21">
         <v>2.69</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>672.5</v>
+        <v>403.5</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
@@ -5651,10 +5662,10 @@
         <v>170</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D131" s="19" t="s">
         <v>12</v>
@@ -5663,14 +5674,14 @@
         <v>11</v>
       </c>
       <c r="F131" s="20">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G131" s="21">
         <v>2.21</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>331.5</v>
+        <v>247.51999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
@@ -5787,13 +5798,13 @@
         <v>125</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D137" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E137" s="19" t="s">
         <v>20</v>
@@ -6130,14 +6141,14 @@
         <v>20</v>
       </c>
       <c r="F141" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G141" s="25">
         <v>2.2000000000000002</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
@@ -6151,14 +6162,14 @@
         <v>20</v>
       </c>
       <c r="F142" s="24">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G142" s="25">
         <v>5.5</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>82.5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
@@ -6214,14 +6225,14 @@
         <v>20</v>
       </c>
       <c r="F145" s="24">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G145" s="25">
         <v>1.1000000000000001</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>30.800000000000004</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
@@ -6235,14 +6246,14 @@
         <v>20</v>
       </c>
       <c r="F146" s="24">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G146" s="25">
         <v>0.9</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
@@ -6256,14 +6267,14 @@
         <v>20</v>
       </c>
       <c r="F147" s="24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G147" s="25">
         <v>2.85</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>82.65</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
@@ -6298,14 +6309,14 @@
         <v>20</v>
       </c>
       <c r="F149" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G149" s="25">
         <v>3</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
@@ -6380,7 +6391,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>18799.282000000003</v>
+        <v>18003.122000000003</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1911,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4850,14 +4850,14 @@
         <v>20</v>
       </c>
       <c r="F99" s="20">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G99" s="43">
         <v>2.9</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>272.59999999999997</v>
+        <v>269.7</v>
       </c>
       <c r="I99" s="42"/>
     </row>
@@ -4878,14 +4878,14 @@
         <v>20</v>
       </c>
       <c r="F100" s="20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G100" s="43">
         <v>4.8</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>38.4</v>
+        <v>19.2</v>
       </c>
       <c r="I100" s="42"/>
     </row>
@@ -6391,7 +6391,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>18003.122000000003</v>
+        <v>17981.022000000004</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="246">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -572,9 +572,6 @@
     <t>9/2/2018</t>
   </si>
   <si>
-    <t>9/2//2018</t>
-  </si>
-  <si>
     <t>9/2/2019</t>
   </si>
   <si>
@@ -683,9 +680,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>23/5/2018</t>
-  </si>
-  <si>
     <t>5/6/2018</t>
   </si>
   <si>
@@ -737,9 +731,6 @@
     <t>1600</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>26/6/2018</t>
   </si>
   <si>
@@ -753,6 +744,18 @@
   </si>
   <si>
     <t>812</t>
+  </si>
+  <si>
+    <t>13/7/2018</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1911,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="J103" sqref="J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2094,7 +2097,7 @@
     </row>
     <row r="5" spans="1:35" ht="24.95" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2144,7 +2147,7 @@
     </row>
     <row r="6" spans="1:35" ht="24.2" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="10">
         <v>43291</v>
@@ -2198,7 +2201,7 @@
     </row>
     <row r="7" spans="1:35" ht="25.35" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
@@ -2352,7 +2355,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2456,7 +2459,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -2515,7 +2518,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>145</v>
@@ -2560,12 +2563,12 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>145</v>
@@ -2610,12 +2613,12 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>145</v>
@@ -2660,12 +2663,12 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>145</v>
@@ -2710,12 +2713,12 @@
     </row>
     <row r="17" spans="1:35" ht="28.35" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>145</v>
@@ -2760,12 +2763,12 @@
     </row>
     <row r="18" spans="1:35" ht="27.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>145</v>
@@ -2975,14 +2978,14 @@
         <v>15</v>
       </c>
       <c r="F22" s="17">
-        <v>699</v>
+        <v>650</v>
       </c>
       <c r="G22" s="13">
         <v>1.8280000000000001</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="0"/>
-        <v>1277.7720000000002</v>
+        <v>1188.2</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -3077,7 +3080,7 @@
         <v>174</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
@@ -3098,13 +3101,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>27</v>
@@ -3127,7 +3130,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>20</v>
@@ -3167,13 +3170,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="19" t="s">
-        <v>199</v>
-      </c>
       <c r="D28" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>25</v>
@@ -3194,13 +3197,13 @@
         <v>26</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>168</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>25</v>
@@ -3221,13 +3224,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>25</v>
@@ -3250,7 +3253,7 @@
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>25</v>
@@ -3271,13 +3274,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>25</v>
@@ -3304,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>9</v>
@@ -3325,13 +3328,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>33</v>
@@ -3354,7 +3357,7 @@
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>9</v>
@@ -3377,7 +3380,7 @@
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>20</v>
@@ -3400,7 +3403,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>20</v>
@@ -3423,7 +3426,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>20</v>
@@ -3446,7 +3449,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
@@ -3469,7 +3472,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>20</v>
@@ -3487,12 +3490,12 @@
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>20</v>
@@ -3574,13 +3577,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>224</v>
-      </c>
       <c r="D45" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>20</v>
@@ -3601,13 +3604,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>20</v>
@@ -3630,7 +3633,7 @@
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>20</v>
@@ -3653,7 +3656,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>11</v>
@@ -3718,7 +3721,7 @@
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>20</v>
@@ -3741,7 +3744,7 @@
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
@@ -3764,7 +3767,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
@@ -3787,7 +3790,7 @@
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>33</v>
@@ -3814,7 +3817,7 @@
         <v>163</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>20</v>
@@ -3841,7 +3844,7 @@
         <v>165</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -3864,7 +3867,7 @@
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -3887,7 +3890,7 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
@@ -3907,46 +3910,54 @@
       <c r="A59" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="D59" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F59" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="21">
         <v>5.35</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A60" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>245</v>
+      </c>
       <c r="D60" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F60" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" s="21">
         <v>2</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3974,16 +3985,16 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>215</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>145</v>
@@ -4004,13 +4015,13 @@
         <v>58</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>174</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>20</v>
@@ -4121,7 +4132,7 @@
         <v>173</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>20</v>
@@ -4309,14 +4320,14 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>206</v>
       </c>
       <c r="C77" s="19"/>
       <c r="D77" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>11</v>
@@ -4339,7 +4350,7 @@
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>11</v>
@@ -4362,7 +4373,7 @@
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>11</v>
@@ -4385,7 +4396,7 @@
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>11</v>
@@ -4408,7 +4419,7 @@
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
@@ -4473,7 +4484,7 @@
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>20</v>
@@ -4494,13 +4505,13 @@
         <v>77</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>20</v>
@@ -4523,7 +4534,7 @@
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>20</v>
@@ -4546,7 +4557,7 @@
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
@@ -4569,7 +4580,7 @@
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
@@ -4596,7 +4607,7 @@
         <v>172</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>9</v>
@@ -4619,7 +4630,7 @@
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>20</v>
@@ -4642,7 +4653,7 @@
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>20</v>
@@ -4665,7 +4676,7 @@
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>20</v>
@@ -4686,13 +4697,13 @@
         <v>85</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>20</v>
@@ -4713,13 +4724,13 @@
         <v>86</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>20</v>
@@ -4742,7 +4753,7 @@
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>20</v>
@@ -4762,23 +4773,27 @@
       <c r="A96" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
+      <c r="B96" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="D96" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F96" s="20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G96" s="21">
         <v>0.2</v>
       </c>
       <c r="H96" s="44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4788,7 +4803,7 @@
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
@@ -4850,26 +4865,26 @@
         <v>20</v>
       </c>
       <c r="F99" s="20">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G99" s="43">
         <v>2.9</v>
       </c>
       <c r="H99" s="46">
         <f t="shared" si="2"/>
-        <v>269.7</v>
+        <v>266.8</v>
       </c>
       <c r="I99" s="42"/>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="19" t="s">
         <v>202</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C100" s="19" t="s">
-        <v>203</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>176</v>
@@ -4878,14 +4893,14 @@
         <v>20</v>
       </c>
       <c r="F100" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G100" s="43">
         <v>4.8</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>19.2</v>
+        <v>9.6</v>
       </c>
       <c r="I100" s="42"/>
     </row>
@@ -4950,13 +4965,13 @@
         <v>92</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>20</v>
@@ -4978,13 +4993,13 @@
         <v>93</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C104" s="19" t="s">
         <v>164</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>20</v>
@@ -5012,7 +5027,7 @@
         <v>165</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>20</v>
@@ -5033,10 +5048,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>14</v>
@@ -5060,26 +5075,26 @@
         <v>96</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F107" s="20">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G107" s="21">
         <v>0.83</v>
       </c>
       <c r="H107" s="45">
         <f t="shared" si="2"/>
-        <v>16.599999999999998</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5087,13 +5102,13 @@
         <v>97</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>168</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>20</v>
@@ -5126,14 +5141,14 @@
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G109" s="21">
         <v>2.5</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5141,7 +5156,7 @@
         <v>99</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>163</v>
@@ -5166,10 +5181,10 @@
         <v>100</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19" t="s">
@@ -5188,16 +5203,16 @@
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>163</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>20</v>
@@ -5218,10 +5233,10 @@
         <v>101</v>
       </c>
       <c r="B113" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>216</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>151</v>
@@ -5251,7 +5266,7 @@
         <v>48</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>103</v>
@@ -5299,13 +5314,13 @@
         <v>105</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>20</v>
@@ -5326,13 +5341,13 @@
         <v>106</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>174</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>20</v>
@@ -5353,26 +5368,26 @@
         <v>107</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F118" s="20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G118" s="21">
         <v>2.9</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>31.9</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5380,13 +5395,13 @@
         <v>108</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
@@ -5524,13 +5539,13 @@
         <v>114</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>164</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E125" s="19" t="s">
         <v>115</v>
@@ -5635,10 +5650,10 @@
         <v>120</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>12</v>
@@ -5662,10 +5677,10 @@
         <v>170</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D131" s="19" t="s">
         <v>12</v>
@@ -5710,7 +5725,7 @@
         <v>122</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
@@ -5798,13 +5813,13 @@
         <v>125</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C137" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D137" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="E137" s="19" t="s">
         <v>20</v>
@@ -6391,7 +6406,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>17981.022000000004</v>
+        <v>17870.599999999999</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -740,12 +740,6 @@
     <t>27/6/2018</t>
   </si>
   <si>
-    <t>10/7/2018</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
     <t>13/7/2018</t>
   </si>
   <si>
@@ -756,6 +750,12 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>19/7/2018</t>
+  </si>
+  <si>
+    <t>912</t>
   </si>
 </sst>
 </file>
@@ -1914,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J103" sqref="J103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2266,14 +2266,14 @@
         <v>11</v>
       </c>
       <c r="F8" s="17">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="13">
         <v>3</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -2316,14 +2316,14 @@
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -3224,10 +3224,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>226</v>
@@ -3274,10 +3274,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>244</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>226</v>
@@ -3911,10 +3911,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>226</v>
@@ -3938,10 +3938,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>226</v>
@@ -4425,14 +4425,14 @@
         <v>11</v>
       </c>
       <c r="F81" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G81" s="21">
         <v>5</v>
       </c>
       <c r="H81" s="14">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4774,7 +4774,7 @@
         <v>88</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>163</v>
@@ -5060,14 +5060,14 @@
         <v>20</v>
       </c>
       <c r="F106" s="20">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G106" s="43">
         <v>2.4</v>
       </c>
       <c r="H106" s="46">
         <f t="shared" si="2"/>
-        <v>367.2</v>
+        <v>364.8</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5075,7 +5075,7 @@
         <v>96</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>219</v>
@@ -5141,14 +5141,14 @@
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G109" s="21">
         <v>2.5</v>
       </c>
       <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>232.5</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5677,10 +5677,10 @@
         <v>170</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D131" s="19" t="s">
         <v>12</v>
@@ -5689,14 +5689,14 @@
         <v>11</v>
       </c>
       <c r="F131" s="20">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="G131" s="21">
         <v>2.21</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>247.51999999999998</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
@@ -6406,7 +6406,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>17870.599999999999</v>
+        <v>17915.179999999997</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1914,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2928,14 +2928,14 @@
         <v>9</v>
       </c>
       <c r="F21" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" s="13">
         <v>2</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3032,14 +3032,14 @@
         <v>9</v>
       </c>
       <c r="F23" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G23" s="21">
         <v>2</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
@@ -6406,7 +6406,7 @@
     <row r="153" spans="1:8" ht="48.75" customHeight="1">
       <c r="H153" s="47">
         <f>SUM(H3:H152)</f>
-        <v>17915.179999999997</v>
+        <v>17911.179999999997</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$152</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$136</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$155</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$139</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="251">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -677,9 +677,6 @@
     <t>Appendini plastica</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>5/6/2018</t>
   </si>
   <si>
@@ -722,15 +719,9 @@
     <t>550</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>18/6/2018</t>
   </si>
   <si>
-    <t>1600</t>
-  </si>
-  <si>
     <t>26/6/2018</t>
   </si>
   <si>
@@ -746,9 +737,6 @@
     <t>44</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -756,6 +744,49 @@
   </si>
   <si>
     <t>912</t>
+  </si>
+  <si>
+    <t>28/8/2018</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>locco lavagna</t>
+    </r>
+  </si>
+  <si>
+    <t>Fermagli n° 58 mm</t>
+  </si>
+  <si>
+    <t>28/8/2019</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -766,7 +797,7 @@
     <numFmt numFmtId="164" formatCode="\€0.00\ ;&quot;-€&quot;0.00"/>
     <numFmt numFmtId="165" formatCode="[$€-410]\ #,##0.00;[Red]\-[$€-410]\ #,##0.00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -898,6 +929,12 @@
       <b/>
       <sz val="20"/>
       <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1912,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IU155"/>
+  <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2266,14 +2303,14 @@
         <v>11</v>
       </c>
       <c r="F8" s="17">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" s="13">
         <v>3</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -3080,7 +3117,7 @@
         <v>174</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
@@ -3092,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" ref="H24:H72" si="1">F24*G24</f>
+        <f t="shared" ref="H24:H75" si="1">F24*G24</f>
         <v>6</v>
       </c>
     </row>
@@ -3101,26 +3138,26 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="20">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="G25" s="21">
         <v>0.19</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3130,7 +3167,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>20</v>
@@ -3145,251 +3182,250 @@
       </c>
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="20">
+        <v>4</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A28" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F28" s="24">
         <v>25</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G28" s="25">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H28" s="14">
         <f t="shared" si="1"/>
         <v>28.499999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A28" s="18" t="s">
+    <row r="29" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B29" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="19" t="s">
+      <c r="D29" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F29" s="20">
         <v>4</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G29" s="21">
         <v>8.5</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H29" s="14">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A29" s="18" t="s">
+    <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="B30" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="D30" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F30" s="20">
         <v>10</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G30" s="21">
         <v>27.44</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H30" s="14">
         <f t="shared" si="1"/>
         <v>274.40000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A30" s="18" t="s">
+    <row r="31" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E30" s="19" t="s">
+      <c r="B31" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F31" s="20">
         <v>6</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G31" s="21">
         <v>17</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H31" s="14">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A31" s="18" t="s">
+    <row r="32" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E31" s="19" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F32" s="20">
         <v>3</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G32" s="21">
         <v>7.9</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H32" s="14">
         <f t="shared" si="1"/>
         <v>23.700000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A32" s="18" t="s">
+    <row r="33" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="19" t="s">
+      <c r="B33" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E32" s="19" t="s">
+      <c r="C33" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="20">
-        <v>20</v>
-      </c>
-      <c r="G32" s="21">
+      <c r="F33" s="20">
+        <v>20</v>
+      </c>
+      <c r="G33" s="21">
         <v>2.76</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H33" s="14">
         <f t="shared" si="1"/>
         <v>55.199999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A33" s="26" t="s">
+    <row r="34" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A34" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B34" s="27">
         <v>43256</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C34" s="28">
         <v>4</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" s="28" t="s">
+      <c r="D34" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F34" s="12">
         <v>0</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G34" s="21">
         <v>9.75</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H34" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A34" s="18" t="s">
+    <row r="35" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="B35" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F35" s="20">
         <v>50</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G35" s="21">
         <v>2.6</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H35" s="14">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A35" s="18" t="s">
+    <row r="36" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F36" s="20">
         <v>0</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G36" s="21">
         <v>2.7</v>
-      </c>
-      <c r="H35" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A36" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="12">
-        <v>0</v>
-      </c>
-      <c r="G36" s="11">
-        <v>3.68</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="1"/>
@@ -3397,22 +3433,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A37" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="12">
         <v>0</v>
       </c>
-      <c r="G37" s="21">
-        <v>0.1</v>
+      <c r="G37" s="11">
+        <v>3.68</v>
       </c>
       <c r="H37" s="14">
         <f t="shared" si="1"/>
@@ -3421,81 +3457,81 @@
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A38" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G38" s="21">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="20">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G39" s="21">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G40" s="21">
-        <v>177</v>
+        <v>0.25</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>20</v>
@@ -3504,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="21">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="1"/>
@@ -3513,28 +3549,30 @@
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>225</v>
+      </c>
       <c r="E42" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="20">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G42" s="21">
-        <v>1.18</v>
+        <v>110</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="1"/>
-        <v>200.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -3543,159 +3581,159 @@
         <v>20</v>
       </c>
       <c r="F43" s="20">
-        <v>555</v>
+        <v>170</v>
       </c>
       <c r="G43" s="21">
-        <v>0.35</v>
+        <v>1.18</v>
       </c>
       <c r="H43" s="14">
         <f t="shared" si="1"/>
-        <v>194.25</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="28" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F44" s="20">
-        <v>60</v>
-      </c>
-      <c r="G44" s="21"/>
+        <v>555</v>
+      </c>
+      <c r="G44" s="21">
+        <v>0.35</v>
+      </c>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>194.25</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>226</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="28" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F45" s="20">
-        <v>7</v>
-      </c>
-      <c r="G45" s="21">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G45" s="21"/>
       <c r="H45" s="14">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="20">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G46" s="21">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>187</v>
+      </c>
       <c r="D47" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="20">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G47" s="21">
-        <v>0.72</v>
+        <v>1.75</v>
       </c>
       <c r="H47" s="14">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A48" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F48" s="20">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G48" s="21">
-        <v>3</v>
+        <v>0.72</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G49" s="21">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H49" s="14">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -3704,44 +3742,42 @@
         <v>11</v>
       </c>
       <c r="F50" s="20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G50" s="21">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H50" s="14">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A51" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>20</v>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="F51" s="20">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="G51" s="21">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="11"/>
+      <c r="A52" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
         <v>226</v>
@@ -3750,24 +3786,24 @@
         <v>20</v>
       </c>
       <c r="F52" s="20">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G52" s="21">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
@@ -3776,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="21">
-        <v>2.13</v>
+        <v>0.22</v>
       </c>
       <c r="H53" s="14">
         <f t="shared" si="1"/>
@@ -3784,140 +3820,136 @@
       </c>
     </row>
     <row r="54" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A54" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+      <c r="A54" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F54" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G54" s="21">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="H54" s="14">
         <f t="shared" si="1"/>
-        <v>11.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A55" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>163</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F55" s="20">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G55" s="21">
-        <v>0.7</v>
+        <v>5.95</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="1"/>
-        <v>7.6999999999999993</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A56" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F56" s="20">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G56" s="21">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>7.6999999999999993</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="D57" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F57" s="20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G57" s="21">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F58" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>243</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
@@ -3926,25 +3958,25 @@
         <v>1</v>
       </c>
       <c r="G59" s="21">
-        <v>5.35</v>
+        <v>1.5</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="1"/>
-        <v>5.35</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
@@ -3953,966 +3985,967 @@
         <v>1</v>
       </c>
       <c r="G60" s="21">
-        <v>2</v>
+        <v>5.35</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A61" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="D61" s="19" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F61" s="20">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G61" s="21">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="1"/>
-        <v>43.56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="20">
+        <v>2</v>
+      </c>
+      <c r="G62" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="H62" s="14">
+        <f>F63*G62</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A63" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="20">
+        <v>2</v>
+      </c>
+      <c r="G63" s="21">
+        <v>2</v>
+      </c>
+      <c r="H63" s="14">
+        <f>F63*G63</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A64" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="20">
+        <v>22</v>
+      </c>
+      <c r="G64" s="21">
+        <v>1.98</v>
+      </c>
+      <c r="H64" s="14">
+        <f t="shared" si="1"/>
+        <v>43.56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A65" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B65" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C65" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E62" s="11" t="s">
+      <c r="D65" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F65" s="20">
         <v>4</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G65" s="21">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H65" s="14">
         <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A63" s="18" t="s">
+    <row r="66" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A66" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B66" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="20">
+      <c r="D66" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="20">
         <v>7</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G66" s="21">
         <v>0.44</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H66" s="14">
         <f t="shared" si="1"/>
         <v>3.08</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A64" s="23" t="s">
+    <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A67" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="24">
+      <c r="F67" s="24">
         <v>11</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G67" s="25">
         <v>4.8499999999999996</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H67" s="14">
         <f t="shared" si="1"/>
         <v>53.349999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A65" s="23" t="s">
+    <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A68" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
+      <c r="B68" s="29"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F68" s="24">
         <v>30</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G68" s="25">
         <v>5.04</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H68" s="14">
         <f t="shared" si="1"/>
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A66" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="20">
-        <v>10</v>
-      </c>
-      <c r="G66" s="21">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="H66" s="14">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A67" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="20">
-        <v>12</v>
-      </c>
-      <c r="G67" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H67" s="14">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A68" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="20">
-        <v>55</v>
-      </c>
-      <c r="G68" s="21">
-        <v>3</v>
-      </c>
-      <c r="H68" s="14">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-    </row>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G69" s="21">
-        <v>3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H69" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A70" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
-        <v>143</v>
-      </c>
+      <c r="D70" s="19"/>
       <c r="E70" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F70" s="20">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G70" s="21">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H70" s="14">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A71" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="20">
+        <v>55</v>
+      </c>
+      <c r="G71" s="21">
+        <v>3</v>
+      </c>
+      <c r="H71" s="14">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A72" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="20">
+        <v>0</v>
+      </c>
+      <c r="G72" s="21">
+        <v>3</v>
+      </c>
+      <c r="H72" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A73" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="20">
+        <v>35</v>
+      </c>
+      <c r="G73" s="21">
+        <v>3</v>
+      </c>
+      <c r="H73" s="14">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A71" s="30" t="s">
+    <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A74" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31" t="s">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F74" s="20">
         <v>18</v>
       </c>
-      <c r="G71" s="32">
+      <c r="G74" s="32">
         <v>3</v>
       </c>
-      <c r="H71" s="33">
+      <c r="H74" s="33">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A72" s="30" t="s">
+    <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A75" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F75" s="20">
         <v>7</v>
       </c>
-      <c r="G72" s="32">
+      <c r="G75" s="32">
         <v>3</v>
       </c>
-      <c r="H72" s="33">
+      <c r="H75" s="33">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A73" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="20">
-        <v>43</v>
-      </c>
-      <c r="G73" s="21">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H73" s="14">
-        <f t="shared" ref="H73:H152" si="2">F73*G73</f>
-        <v>210.70000000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A74" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F74" s="20">
-        <v>62</v>
-      </c>
-      <c r="G74" s="21">
-        <v>33.5</v>
-      </c>
-      <c r="H74" s="14">
-        <f t="shared" si="2"/>
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A75" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F75" s="20">
-        <v>0</v>
-      </c>
-      <c r="G75" s="21">
-        <v>2</v>
-      </c>
-      <c r="H75" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F76" s="20">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G76" s="21">
-        <v>4.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H76" s="14">
-        <f t="shared" si="2"/>
-        <v>81.7</v>
+        <f t="shared" ref="H76:H155" si="2">F76*G76</f>
+        <v>210.70000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>205</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B77" s="19"/>
       <c r="C77" s="19"/>
-      <c r="D77" s="19" t="s">
-        <v>231</v>
-      </c>
+      <c r="D77" s="19"/>
       <c r="E77" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F77" s="20">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="G77" s="21">
-        <v>8.5</v>
+        <v>33.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="19" t="s">
-        <v>231</v>
-      </c>
+      <c r="D78" s="19"/>
       <c r="E78" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G78" s="21">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
-        <v>231</v>
-      </c>
+      <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F79" s="20">
-        <v>1.5</v>
+        <v>19</v>
       </c>
       <c r="G79" s="21">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B80" s="19"/>
+        <v>204</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>205</v>
+      </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G80" s="21">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G81" s="21">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H81" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="F82" s="20">
-        <v>150</v>
-      </c>
-      <c r="G82" s="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="G82" s="21">
+        <v>5</v>
+      </c>
       <c r="H82" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="F83" s="20">
-        <v>150</v>
-      </c>
-      <c r="G83" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="G83" s="21">
+        <v>5</v>
+      </c>
       <c r="H83" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F84" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G84" s="21">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H84" s="14">
         <f t="shared" si="2"/>
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>187</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="19" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="F85" s="20">
-        <v>5</v>
-      </c>
-      <c r="G85" s="21">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G85" s="21"/>
       <c r="H85" s="14">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="F86" s="20">
-        <v>4</v>
-      </c>
-      <c r="G86" s="21">
-        <v>0.9</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G86" s="21"/>
       <c r="H86" s="14">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F87" s="20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G87" s="21">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H87" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
+        <v>77</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>206</v>
+      </c>
       <c r="D88" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F88" s="20">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G88" s="21">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H88" s="14">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="19" t="s">
-        <v>172</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F89" s="20">
         <v>4</v>
       </c>
       <c r="G89" s="21">
-        <v>12.5</v>
+        <v>0.9</v>
       </c>
       <c r="H89" s="14">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F90" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G90" s="21">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H90" s="14">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F91" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G91" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H91" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="D92" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F92" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G92" s="21">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="H92" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F93" s="20">
-        <v>50</v>
-      </c>
-      <c r="G93" s="38">
-        <v>0.19</v>
-      </c>
-      <c r="H93" s="44">
-        <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>2</v>
+      </c>
+      <c r="G93" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="H93" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F94" s="37">
-        <v>35</v>
-      </c>
-      <c r="G94" s="40">
-        <v>0.19</v>
-      </c>
-      <c r="H94" s="46">
-        <f t="shared" si="2"/>
-        <v>6.65</v>
+      <c r="F94" s="20">
+        <v>0</v>
+      </c>
+      <c r="G94" s="21">
+        <v>1</v>
+      </c>
+      <c r="H94" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F95" s="20">
-        <v>3</v>
-      </c>
-      <c r="G95" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="H95" s="45">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="G95" s="21">
+        <v>1</v>
+      </c>
+      <c r="H95" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F96" s="20">
-        <v>10</v>
-      </c>
-      <c r="G96" s="21">
-        <v>0.2</v>
+        <v>50</v>
+      </c>
+      <c r="G96" s="38">
+        <v>0.19</v>
       </c>
       <c r="H96" s="44">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="D97" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F97" s="20">
-        <v>0</v>
-      </c>
-      <c r="G97" s="43">
-        <v>1</v>
+      <c r="F97" s="37">
+        <v>35</v>
+      </c>
+      <c r="G97" s="40">
+        <v>0.19</v>
       </c>
       <c r="H97" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="41"/>
+        <v>6.65</v>
+      </c>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>168</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="19" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F98" s="20">
-        <v>103</v>
-      </c>
-      <c r="G98" s="43">
-        <v>3.45</v>
-      </c>
-      <c r="H98" s="46">
-        <f>F98*G98</f>
-        <v>355.35</v>
-      </c>
-      <c r="I98" s="42"/>
+        <v>3</v>
+      </c>
+      <c r="G98" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="H98" s="45">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999996</v>
+      </c>
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F99" s="20">
-        <v>92</v>
-      </c>
-      <c r="G99" s="43">
-        <v>2.9</v>
-      </c>
-      <c r="H99" s="46">
-        <f t="shared" si="2"/>
-        <v>266.8</v>
-      </c>
-      <c r="I99" s="42"/>
+        <v>10</v>
+      </c>
+      <c r="G99" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H99" s="44">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>201</v>
+        <v>89</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F100" s="20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G100" s="43">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H100" s="46">
         <f t="shared" si="2"/>
-        <v>9.6</v>
-      </c>
-      <c r="I100" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="I100" s="41"/>
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>175</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>176</v>
@@ -4921,20 +4954,20 @@
         <v>20</v>
       </c>
       <c r="F101" s="20">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G101" s="43">
         <v>3.45</v>
       </c>
       <c r="H101" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F101*G101</f>
+        <v>355.35</v>
       </c>
       <c r="I101" s="42"/>
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="B102" s="19" t="s">
         <v>175</v>
@@ -4949,481 +4982,490 @@
         <v>20</v>
       </c>
       <c r="F102" s="20">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G102" s="43">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="H102" s="46">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>266.8</v>
       </c>
       <c r="I102" s="42"/>
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G103" s="43">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>9.6</v>
       </c>
       <c r="I103" s="42"/>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F104" s="20">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G104" s="43">
-        <v>0.8</v>
+        <v>3.45</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>19.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="I104" s="42"/>
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F105" s="20">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G105" s="43">
-        <v>11.7</v>
+        <v>3.75</v>
       </c>
       <c r="H105" s="46">
         <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="I105" s="42"/>
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F106" s="20">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="G106" s="43">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H106" s="46">
         <f t="shared" si="2"/>
-        <v>364.8</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I106" s="42"/>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F107" s="20">
-        <v>30</v>
-      </c>
-      <c r="G107" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="H107" s="45">
-        <f t="shared" si="2"/>
-        <v>24.9</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G107" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="H107" s="46">
+        <f t="shared" si="2"/>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="I107" s="42"/>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A108" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F108" s="20">
-        <v>139</v>
-      </c>
-      <c r="G108" s="21">
-        <v>4.7</v>
-      </c>
-      <c r="H108" s="14">
-        <f t="shared" si="2"/>
-        <v>653.30000000000007</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="43">
+        <v>11.7</v>
+      </c>
+      <c r="H108" s="46">
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>89</v>
-      </c>
-      <c r="G109" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="H109" s="14">
-        <f t="shared" si="2"/>
-        <v>222.5</v>
+        <v>152</v>
+      </c>
+      <c r="G109" s="43">
+        <v>2.4</v>
+      </c>
+      <c r="H109" s="46">
+        <f t="shared" si="2"/>
+        <v>364.8</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D110" s="34"/>
+        <v>246</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>225</v>
+      </c>
       <c r="E110" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F110" s="20">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G110" s="21">
-        <v>2</v>
-      </c>
-      <c r="H110" s="14">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0.83</v>
+      </c>
+      <c r="H110" s="45">
+        <f t="shared" si="2"/>
+        <v>41.5</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D111" s="19"/>
+        <v>168</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>226</v>
+      </c>
       <c r="E111" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="G111" s="21">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>653.30000000000007</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F112" s="20">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G112" s="21">
-        <v>41.34</v>
+        <v>2.5</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>222.5</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A113" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>151</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D113" s="34"/>
       <c r="E113" s="19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F113" s="20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G113" s="21">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A114" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B114" s="29">
-        <v>43140</v>
-      </c>
-      <c r="C114" s="11">
-        <v>48</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F114" s="12">
-        <v>7</v>
-      </c>
-      <c r="G114" s="14">
-        <v>6</v>
+      <c r="A114" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="20">
+        <v>29</v>
+      </c>
+      <c r="G114" s="21">
+        <v>2</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F115" s="20">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="G115" s="21">
-        <v>0.66</v>
+        <v>41.34</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>585.42000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F116" s="20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G116" s="21">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>34.200000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A117" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="E117" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="20">
+      <c r="A117" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B117" s="29">
+        <v>43140</v>
+      </c>
+      <c r="C117" s="11">
+        <v>48</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F117" s="12">
         <v>7</v>
       </c>
-      <c r="G117" s="21">
-        <v>1.72</v>
+      <c r="G117" s="14">
+        <v>6</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="2"/>
-        <v>12.04</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F118" s="20">
-        <v>6</v>
+        <v>887</v>
       </c>
       <c r="G118" s="21">
-        <v>2.9</v>
+        <v>0.66</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>17.399999999999999</v>
+        <v>585.42000000000007</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G119" s="21">
-        <v>1.72</v>
+        <v>2.85</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="2"/>
-        <v>15.48</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="35"/>
+        <v>106</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>225</v>
+      </c>
       <c r="E120" s="19" t="s">
         <v>20</v>
       </c>
@@ -5431,807 +5473,819 @@
         <v>7</v>
       </c>
       <c r="G120" s="21">
-        <v>5</v>
+        <v>1.72</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>225</v>
+      </c>
       <c r="E121" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F121" s="20">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G121" s="21">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H121" s="14">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>75.399999999999991</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A122" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F122" s="20">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="G122" s="21">
-        <v>2.69</v>
+        <v>1.72</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="2"/>
-        <v>269</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>12</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="35"/>
       <c r="E123" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F123" s="20">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="G123" s="21">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H123" s="14">
         <f t="shared" si="2"/>
-        <v>323.39999999999998</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
       <c r="E124" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" s="20">
         <v>9</v>
       </c>
-      <c r="F124" s="20">
-        <v>3</v>
-      </c>
       <c r="G124" s="21">
-        <v>2.87</v>
+        <v>1</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="2"/>
-        <v>8.61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F125" s="20">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G125" s="21">
-        <v>7</v>
+        <v>2.69</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A126" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="E126" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F126" s="20">
-        <v>567</v>
+        <v>98</v>
       </c>
       <c r="G126" s="21">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="2"/>
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
+        <v>323.39999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A127" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
       <c r="E127" s="19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F127" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G127" s="21">
-        <v>1.96</v>
+        <v>2.87</v>
       </c>
       <c r="H127" s="14">
         <f t="shared" si="2"/>
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A128" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="24">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A128" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F128" s="20">
+        <v>4</v>
+      </c>
+      <c r="G128" s="21">
         <v>7</v>
       </c>
-      <c r="G128" s="25">
-        <v>1.97</v>
-      </c>
       <c r="H128" s="14">
         <f t="shared" si="2"/>
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="129" spans="1:255" ht="28.35" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
-      <c r="E129" s="11" t="s">
-        <v>11</v>
+      <c r="E129" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F129" s="20">
-        <v>95</v>
+        <v>567</v>
       </c>
       <c r="G129" s="21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>665</v>
-      </c>
-    </row>
-    <row r="130" spans="1:255" ht="28.35" customHeight="1">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="130" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A130" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B130" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="D130" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>11</v>
+        <v>117</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F130" s="20">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G130" s="21">
-        <v>2.69</v>
+        <v>1.96</v>
       </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>403.5</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A131" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>12</v>
-      </c>
+      <c r="A131" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
       <c r="E131" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="20">
-        <v>150</v>
-      </c>
-      <c r="G131" s="21">
-        <v>2.21</v>
+      <c r="F131" s="24">
+        <v>7</v>
+      </c>
+      <c r="G131" s="25">
+        <v>1.97</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>331.5</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A132" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
+      <c r="A132" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
       <c r="E132" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F132" s="24">
-        <v>100</v>
-      </c>
-      <c r="G132" s="25">
-        <v>1.43</v>
+      <c r="F132" s="20">
+        <v>95</v>
+      </c>
+      <c r="G132" s="21">
+        <v>7</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>665</v>
       </c>
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
+        <v>231</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="E133" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="20">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="G133" s="21">
-        <v>8.5</v>
+        <v>2.69</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>403.5</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
       <c r="A134" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
+        <v>170</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="E134" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="20">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="G134" s="21">
-        <v>5</v>
+        <v>2.21</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A135" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19" t="s">
-        <v>149</v>
-      </c>
+      <c r="A135" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
       <c r="E135" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="20">
-        <v>12</v>
-      </c>
-      <c r="G135" s="21">
-        <v>47</v>
+      <c r="F135" s="24">
+        <v>100</v>
+      </c>
+      <c r="G135" s="25">
+        <v>1.43</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="2"/>
-        <v>564</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A136" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
+      <c r="A136" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
       <c r="E136" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F136" s="24">
-        <v>22</v>
-      </c>
-      <c r="G136" s="25">
-        <v>2.97</v>
+      <c r="F136" s="20">
+        <v>4</v>
+      </c>
+      <c r="G136" s="21">
+        <v>8.5</v>
       </c>
       <c r="H136" s="14">
         <f t="shared" si="2"/>
-        <v>65.34</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
       <c r="A137" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E137" s="19" t="s">
-        <v>20</v>
+        <v>123</v>
+      </c>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F137" s="20">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="G137" s="21">
-        <v>1.07</v>
+        <v>5</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>149.80000000000001</v>
-      </c>
-      <c r="I137"/>
-      <c r="J137"/>
-      <c r="K137"/>
-      <c r="L137"/>
-      <c r="M137"/>
-      <c r="N137"/>
-      <c r="O137"/>
-      <c r="P137"/>
-      <c r="Q137"/>
-      <c r="R137"/>
-      <c r="S137"/>
-      <c r="T137"/>
-      <c r="U137"/>
-      <c r="V137"/>
-      <c r="W137"/>
-      <c r="X137"/>
-      <c r="Y137"/>
-      <c r="Z137"/>
-      <c r="AA137"/>
-      <c r="AB137"/>
-      <c r="AC137"/>
-      <c r="AD137"/>
-      <c r="AE137"/>
-      <c r="AF137"/>
-      <c r="AG137"/>
-      <c r="AH137"/>
-      <c r="AI137"/>
-      <c r="AJ137"/>
-      <c r="AK137"/>
-      <c r="AL137"/>
-      <c r="AM137"/>
-      <c r="AN137"/>
-      <c r="AO137"/>
-      <c r="AP137"/>
-      <c r="AQ137"/>
-      <c r="AR137"/>
-      <c r="AS137"/>
-      <c r="AT137"/>
-      <c r="AU137"/>
-      <c r="AV137"/>
-      <c r="AW137"/>
-      <c r="AX137"/>
-      <c r="AY137"/>
-      <c r="AZ137"/>
-      <c r="BA137"/>
-      <c r="BB137"/>
-      <c r="BC137"/>
-      <c r="BD137"/>
-      <c r="BE137"/>
-      <c r="BF137"/>
-      <c r="BG137"/>
-      <c r="BH137"/>
-      <c r="BI137"/>
-      <c r="BJ137"/>
-      <c r="BK137"/>
-      <c r="BL137"/>
-      <c r="BM137"/>
-      <c r="BN137"/>
-      <c r="BO137"/>
-      <c r="BP137"/>
-      <c r="BQ137"/>
-      <c r="BR137"/>
-      <c r="BS137"/>
-      <c r="BT137"/>
-      <c r="BU137"/>
-      <c r="BV137"/>
-      <c r="BW137"/>
-      <c r="BX137"/>
-      <c r="BY137"/>
-      <c r="BZ137"/>
-      <c r="CA137"/>
-      <c r="CB137"/>
-      <c r="CC137"/>
-      <c r="CD137"/>
-      <c r="CE137"/>
-      <c r="CF137"/>
-      <c r="CG137"/>
-      <c r="CH137"/>
-      <c r="CI137"/>
-      <c r="CJ137"/>
-      <c r="CK137"/>
-      <c r="CL137"/>
-      <c r="CM137"/>
-      <c r="CN137"/>
-      <c r="CO137"/>
-      <c r="CP137"/>
-      <c r="CQ137"/>
-      <c r="CR137"/>
-      <c r="CS137"/>
-      <c r="CT137"/>
-      <c r="CU137"/>
-      <c r="CV137"/>
-      <c r="CW137"/>
-      <c r="CX137"/>
-      <c r="CY137"/>
-      <c r="CZ137"/>
-      <c r="DA137"/>
-      <c r="DB137"/>
-      <c r="DC137"/>
-      <c r="DD137"/>
-      <c r="DE137"/>
-      <c r="DF137"/>
-      <c r="DG137"/>
-      <c r="DH137"/>
-      <c r="DI137"/>
-      <c r="DJ137"/>
-      <c r="DK137"/>
-      <c r="DL137"/>
-      <c r="DM137"/>
-      <c r="DN137"/>
-      <c r="DO137"/>
-      <c r="DP137"/>
-      <c r="DQ137"/>
-      <c r="DR137"/>
-      <c r="DS137"/>
-      <c r="DT137"/>
-      <c r="DU137"/>
-      <c r="DV137"/>
-      <c r="DW137"/>
-      <c r="DX137"/>
-      <c r="DY137"/>
-      <c r="DZ137"/>
-      <c r="EA137"/>
-      <c r="EB137"/>
-      <c r="EC137"/>
-      <c r="ED137"/>
-      <c r="EE137"/>
-      <c r="EF137"/>
-      <c r="EG137"/>
-      <c r="EH137"/>
-      <c r="EI137"/>
-      <c r="EJ137"/>
-      <c r="EK137"/>
-      <c r="EL137"/>
-      <c r="EM137"/>
-      <c r="EN137"/>
-      <c r="EO137"/>
-      <c r="EP137"/>
-      <c r="EQ137"/>
-      <c r="ER137"/>
-      <c r="ES137"/>
-      <c r="ET137"/>
-      <c r="EU137"/>
-      <c r="EV137"/>
-      <c r="EW137"/>
-      <c r="EX137"/>
-      <c r="EY137"/>
-      <c r="EZ137"/>
-      <c r="FA137"/>
-      <c r="FB137"/>
-      <c r="FC137"/>
-      <c r="FD137"/>
-      <c r="FE137"/>
-      <c r="FF137"/>
-      <c r="FG137"/>
-      <c r="FH137"/>
-      <c r="FI137"/>
-      <c r="FJ137"/>
-      <c r="FK137"/>
-      <c r="FL137"/>
-      <c r="FM137"/>
-      <c r="FN137"/>
-      <c r="FO137"/>
-      <c r="FP137"/>
-      <c r="FQ137"/>
-      <c r="FR137"/>
-      <c r="FS137"/>
-      <c r="FT137"/>
-      <c r="FU137"/>
-      <c r="FV137"/>
-      <c r="FW137"/>
-      <c r="FX137"/>
-      <c r="FY137"/>
-      <c r="FZ137"/>
-      <c r="GA137"/>
-      <c r="GB137"/>
-      <c r="GC137"/>
-      <c r="GD137"/>
-      <c r="GE137"/>
-      <c r="GF137"/>
-      <c r="GG137"/>
-      <c r="GH137"/>
-      <c r="GI137"/>
-      <c r="GJ137"/>
-      <c r="GK137"/>
-      <c r="GL137"/>
-      <c r="GM137"/>
-      <c r="GN137"/>
-      <c r="GO137"/>
-      <c r="GP137"/>
-      <c r="GQ137"/>
-      <c r="GR137"/>
-      <c r="GS137"/>
-      <c r="GT137"/>
-      <c r="GU137"/>
-      <c r="GV137"/>
-      <c r="GW137"/>
-      <c r="GX137"/>
-      <c r="GY137"/>
-      <c r="GZ137"/>
-      <c r="HA137"/>
-      <c r="HB137"/>
-      <c r="HC137"/>
-      <c r="HD137"/>
-      <c r="HE137"/>
-      <c r="HF137"/>
-      <c r="HG137"/>
-      <c r="HH137"/>
-      <c r="HI137"/>
-      <c r="HJ137"/>
-      <c r="HK137"/>
-      <c r="HL137"/>
-      <c r="HM137"/>
-      <c r="HN137"/>
-      <c r="HO137"/>
-      <c r="HP137"/>
-      <c r="HQ137"/>
-      <c r="HR137"/>
-      <c r="HS137"/>
-      <c r="HT137"/>
-      <c r="HU137"/>
-      <c r="HV137"/>
-      <c r="HW137"/>
-      <c r="HX137"/>
-      <c r="HY137"/>
-      <c r="HZ137"/>
-      <c r="IA137"/>
-      <c r="IB137"/>
-      <c r="IC137"/>
-      <c r="ID137"/>
-      <c r="IE137"/>
-      <c r="IF137"/>
-      <c r="IG137"/>
-      <c r="IH137"/>
-      <c r="II137"/>
-      <c r="IJ137"/>
-      <c r="IK137"/>
-      <c r="IL137"/>
-      <c r="IM137"/>
-      <c r="IN137"/>
-      <c r="IO137"/>
-      <c r="IP137"/>
-      <c r="IQ137"/>
-      <c r="IR137"/>
-      <c r="IS137"/>
-      <c r="IT137"/>
-      <c r="IU137"/>
+        <v>85</v>
+      </c>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A138" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
+      <c r="A138" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="E138" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="24">
-        <v>25</v>
-      </c>
-      <c r="G138" s="25">
-        <v>5</v>
+      <c r="F138" s="20">
+        <v>12</v>
+      </c>
+      <c r="G138" s="21">
+        <v>47</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F139" s="24">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G139" s="25">
-        <v>12</v>
+        <v>2.97</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A140" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" s="24">
-        <v>8</v>
-      </c>
-      <c r="G140" s="25">
-        <v>1.36</v>
+      <c r="A140" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E140" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" s="20">
+        <v>140</v>
+      </c>
+      <c r="G140" s="21">
+        <v>1.07</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="2"/>
-        <v>10.88</v>
-      </c>
+        <v>149.80000000000001</v>
+      </c>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140"/>
+      <c r="X140"/>
+      <c r="Y140"/>
+      <c r="Z140"/>
+      <c r="AA140"/>
+      <c r="AB140"/>
+      <c r="AC140"/>
+      <c r="AD140"/>
+      <c r="AE140"/>
+      <c r="AF140"/>
+      <c r="AG140"/>
+      <c r="AH140"/>
+      <c r="AI140"/>
+      <c r="AJ140"/>
+      <c r="AK140"/>
+      <c r="AL140"/>
+      <c r="AM140"/>
+      <c r="AN140"/>
+      <c r="AO140"/>
+      <c r="AP140"/>
+      <c r="AQ140"/>
+      <c r="AR140"/>
+      <c r="AS140"/>
+      <c r="AT140"/>
+      <c r="AU140"/>
+      <c r="AV140"/>
+      <c r="AW140"/>
+      <c r="AX140"/>
+      <c r="AY140"/>
+      <c r="AZ140"/>
+      <c r="BA140"/>
+      <c r="BB140"/>
+      <c r="BC140"/>
+      <c r="BD140"/>
+      <c r="BE140"/>
+      <c r="BF140"/>
+      <c r="BG140"/>
+      <c r="BH140"/>
+      <c r="BI140"/>
+      <c r="BJ140"/>
+      <c r="BK140"/>
+      <c r="BL140"/>
+      <c r="BM140"/>
+      <c r="BN140"/>
+      <c r="BO140"/>
+      <c r="BP140"/>
+      <c r="BQ140"/>
+      <c r="BR140"/>
+      <c r="BS140"/>
+      <c r="BT140"/>
+      <c r="BU140"/>
+      <c r="BV140"/>
+      <c r="BW140"/>
+      <c r="BX140"/>
+      <c r="BY140"/>
+      <c r="BZ140"/>
+      <c r="CA140"/>
+      <c r="CB140"/>
+      <c r="CC140"/>
+      <c r="CD140"/>
+      <c r="CE140"/>
+      <c r="CF140"/>
+      <c r="CG140"/>
+      <c r="CH140"/>
+      <c r="CI140"/>
+      <c r="CJ140"/>
+      <c r="CK140"/>
+      <c r="CL140"/>
+      <c r="CM140"/>
+      <c r="CN140"/>
+      <c r="CO140"/>
+      <c r="CP140"/>
+      <c r="CQ140"/>
+      <c r="CR140"/>
+      <c r="CS140"/>
+      <c r="CT140"/>
+      <c r="CU140"/>
+      <c r="CV140"/>
+      <c r="CW140"/>
+      <c r="CX140"/>
+      <c r="CY140"/>
+      <c r="CZ140"/>
+      <c r="DA140"/>
+      <c r="DB140"/>
+      <c r="DC140"/>
+      <c r="DD140"/>
+      <c r="DE140"/>
+      <c r="DF140"/>
+      <c r="DG140"/>
+      <c r="DH140"/>
+      <c r="DI140"/>
+      <c r="DJ140"/>
+      <c r="DK140"/>
+      <c r="DL140"/>
+      <c r="DM140"/>
+      <c r="DN140"/>
+      <c r="DO140"/>
+      <c r="DP140"/>
+      <c r="DQ140"/>
+      <c r="DR140"/>
+      <c r="DS140"/>
+      <c r="DT140"/>
+      <c r="DU140"/>
+      <c r="DV140"/>
+      <c r="DW140"/>
+      <c r="DX140"/>
+      <c r="DY140"/>
+      <c r="DZ140"/>
+      <c r="EA140"/>
+      <c r="EB140"/>
+      <c r="EC140"/>
+      <c r="ED140"/>
+      <c r="EE140"/>
+      <c r="EF140"/>
+      <c r="EG140"/>
+      <c r="EH140"/>
+      <c r="EI140"/>
+      <c r="EJ140"/>
+      <c r="EK140"/>
+      <c r="EL140"/>
+      <c r="EM140"/>
+      <c r="EN140"/>
+      <c r="EO140"/>
+      <c r="EP140"/>
+      <c r="EQ140"/>
+      <c r="ER140"/>
+      <c r="ES140"/>
+      <c r="ET140"/>
+      <c r="EU140"/>
+      <c r="EV140"/>
+      <c r="EW140"/>
+      <c r="EX140"/>
+      <c r="EY140"/>
+      <c r="EZ140"/>
+      <c r="FA140"/>
+      <c r="FB140"/>
+      <c r="FC140"/>
+      <c r="FD140"/>
+      <c r="FE140"/>
+      <c r="FF140"/>
+      <c r="FG140"/>
+      <c r="FH140"/>
+      <c r="FI140"/>
+      <c r="FJ140"/>
+      <c r="FK140"/>
+      <c r="FL140"/>
+      <c r="FM140"/>
+      <c r="FN140"/>
+      <c r="FO140"/>
+      <c r="FP140"/>
+      <c r="FQ140"/>
+      <c r="FR140"/>
+      <c r="FS140"/>
+      <c r="FT140"/>
+      <c r="FU140"/>
+      <c r="FV140"/>
+      <c r="FW140"/>
+      <c r="FX140"/>
+      <c r="FY140"/>
+      <c r="FZ140"/>
+      <c r="GA140"/>
+      <c r="GB140"/>
+      <c r="GC140"/>
+      <c r="GD140"/>
+      <c r="GE140"/>
+      <c r="GF140"/>
+      <c r="GG140"/>
+      <c r="GH140"/>
+      <c r="GI140"/>
+      <c r="GJ140"/>
+      <c r="GK140"/>
+      <c r="GL140"/>
+      <c r="GM140"/>
+      <c r="GN140"/>
+      <c r="GO140"/>
+      <c r="GP140"/>
+      <c r="GQ140"/>
+      <c r="GR140"/>
+      <c r="GS140"/>
+      <c r="GT140"/>
+      <c r="GU140"/>
+      <c r="GV140"/>
+      <c r="GW140"/>
+      <c r="GX140"/>
+      <c r="GY140"/>
+      <c r="GZ140"/>
+      <c r="HA140"/>
+      <c r="HB140"/>
+      <c r="HC140"/>
+      <c r="HD140"/>
+      <c r="HE140"/>
+      <c r="HF140"/>
+      <c r="HG140"/>
+      <c r="HH140"/>
+      <c r="HI140"/>
+      <c r="HJ140"/>
+      <c r="HK140"/>
+      <c r="HL140"/>
+      <c r="HM140"/>
+      <c r="HN140"/>
+      <c r="HO140"/>
+      <c r="HP140"/>
+      <c r="HQ140"/>
+      <c r="HR140"/>
+      <c r="HS140"/>
+      <c r="HT140"/>
+      <c r="HU140"/>
+      <c r="HV140"/>
+      <c r="HW140"/>
+      <c r="HX140"/>
+      <c r="HY140"/>
+      <c r="HZ140"/>
+      <c r="IA140"/>
+      <c r="IB140"/>
+      <c r="IC140"/>
+      <c r="ID140"/>
+      <c r="IE140"/>
+      <c r="IF140"/>
+      <c r="IG140"/>
+      <c r="IH140"/>
+      <c r="II140"/>
+      <c r="IJ140"/>
+      <c r="IK140"/>
+      <c r="IL140"/>
+      <c r="IM140"/>
+      <c r="IN140"/>
+      <c r="IO140"/>
+      <c r="IP140"/>
+      <c r="IQ140"/>
+      <c r="IR140"/>
+      <c r="IS140"/>
+      <c r="IT140"/>
+      <c r="IU140"/>
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
       <c r="A141" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B141" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F141" s="24">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G141" s="25">
-        <v>2.2000000000000002</v>
+        <v>5</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>35.200000000000003</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B142" s="29"/>
+        <v>127</v>
+      </c>
+      <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F142" s="24">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G142" s="25">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B143" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F143" s="24">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="G143" s="25">
-        <v>0.4</v>
+        <v>1.36</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>15.600000000000001</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B144" s="11"/>
+        <v>129</v>
+      </c>
+      <c r="B144" s="29"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F144" s="24">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G144" s="25">
-        <v>0.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
@@ -6240,19 +6294,19 @@
         <v>20</v>
       </c>
       <c r="F145" s="24">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G145" s="25">
-        <v>1.1000000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>19.8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="11"/>
@@ -6261,40 +6315,40 @@
         <v>20</v>
       </c>
       <c r="F146" s="24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="G146" s="25">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>54.9</v>
+        <v>15.600000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
       <c r="A147" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B147" s="29"/>
+        <v>132</v>
+      </c>
+      <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F147" s="24">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G147" s="25">
-        <v>2.85</v>
+        <v>0.5</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>79.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
       <c r="A148" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B148" s="29"/>
       <c r="C148" s="11"/>
@@ -6303,215 +6357,278 @@
         <v>20</v>
       </c>
       <c r="F148" s="24">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G148" s="25">
-        <v>3.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" si="2"/>
-        <v>27.2</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
       <c r="A149" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B149" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="B149" s="29"/>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F149" s="24">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G149" s="25">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
       <c r="A150" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B150" s="29"/>
       <c r="C150" s="11"/>
-      <c r="D150" s="11" t="s">
-        <v>139</v>
-      </c>
+      <c r="D150" s="11"/>
       <c r="E150" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F150" s="24">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G150" s="25">
-        <v>17</v>
+        <v>2.85</v>
       </c>
       <c r="H150" s="14">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="28.35" customHeight="1">
       <c r="A151" s="23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B151" s="29"/>
       <c r="C151" s="11"/>
-      <c r="D151" s="11" t="s">
-        <v>141</v>
-      </c>
+      <c r="D151" s="11"/>
       <c r="E151" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F151" s="24">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G151" s="25">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.35" customHeight="1">
       <c r="A152" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" s="24">
+        <v>23</v>
+      </c>
+      <c r="G152" s="25">
+        <v>3</v>
+      </c>
+      <c r="H152" s="14">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A153" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" s="29"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F153" s="24">
+        <v>21</v>
+      </c>
+      <c r="G153" s="25">
+        <v>17</v>
+      </c>
+      <c r="H153" s="14">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A154" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B154" s="29"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="24">
+        <v>100</v>
+      </c>
+      <c r="G154" s="25">
+        <v>10</v>
+      </c>
+      <c r="H154" s="14">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A155" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B152" s="29"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11" t="s">
+      <c r="B155" s="29"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E152" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F152" s="24">
+      <c r="E155" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" s="24">
         <v>8</v>
       </c>
-      <c r="G152" s="25">
+      <c r="G155" s="25">
         <v>10</v>
       </c>
-      <c r="H152" s="14">
+      <c r="H155" s="14">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H153" s="47">
-        <f>SUM(H3:H152)</f>
-        <v>17911.179999999997</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="29.1" customHeight="1"/>
-    <row r="155" spans="1:8" ht="30" customHeight="1"/>
+    <row r="156" spans="1:8" ht="48.75" customHeight="1">
+      <c r="H156" s="47">
+        <f>SUM(H3:H155)</f>
+        <v>18049.53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="29.1" customHeight="1"/>
+    <row r="158" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F116:F118 F85 F27:F30 F24:F25">
+  <conditionalFormatting sqref="F119:F121 F88 F28:F31 F24:F25">
     <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:F41 F88:F90 F31:F32">
+  <conditionalFormatting sqref="F41:F42 F91:F93 F32:F33">
     <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F34">
+  <conditionalFormatting sqref="F34:F35">
     <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F39">
+  <conditionalFormatting sqref="F39:F40">
     <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F44">
+  <conditionalFormatting sqref="F44:F45">
     <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
+  <conditionalFormatting sqref="F46">
     <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49 F86:F87 F106 F91:F92">
+  <conditionalFormatting sqref="F50 F89:F90 F109 F94:F95">
     <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
+  <conditionalFormatting sqref="F54">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58 F74:F84">
+  <conditionalFormatting sqref="F59 F77:F87">
     <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
+  <conditionalFormatting sqref="F66">
     <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
+  <conditionalFormatting sqref="F71">
     <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+  <conditionalFormatting sqref="F72">
     <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102 F97:F98">
+  <conditionalFormatting sqref="F105 F100:F101">
     <cfRule type="cellIs" dxfId="7" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119 F107">
+  <conditionalFormatting sqref="F122 F110">
     <cfRule type="cellIs" dxfId="6" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:F112">
+  <conditionalFormatting sqref="F112:F115">
     <cfRule type="cellIs" dxfId="5" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105">
+  <conditionalFormatting sqref="F108">
     <cfRule type="cellIs" dxfId="4" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101">
+  <conditionalFormatting sqref="F104">
     <cfRule type="cellIs" dxfId="3" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98:F100">
+  <conditionalFormatting sqref="F101:F103">
     <cfRule type="cellIs" dxfId="2" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
+  <conditionalFormatting sqref="F99">
     <cfRule type="cellIs" dxfId="1" priority="36" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:F95">
+  <conditionalFormatting sqref="F97:F98">
     <cfRule type="cellIs" dxfId="0" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>12</formula>
     </cfRule>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3399,14 +3399,14 @@
         <v>33</v>
       </c>
       <c r="F35" s="20">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G35" s="21">
         <v>2.6</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4954,14 +4954,14 @@
         <v>20</v>
       </c>
       <c r="F101" s="20">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G101" s="43">
         <v>3.45</v>
       </c>
       <c r="H101" s="46">
         <f>F101*G101</f>
-        <v>355.35</v>
+        <v>348.45000000000005</v>
       </c>
       <c r="I101" s="42"/>
     </row>
@@ -4982,14 +4982,14 @@
         <v>20</v>
       </c>
       <c r="F102" s="20">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G102" s="43">
         <v>2.9</v>
       </c>
       <c r="H102" s="46">
         <f t="shared" si="2"/>
-        <v>266.8</v>
+        <v>261</v>
       </c>
       <c r="I102" s="42"/>
     </row>
@@ -5010,14 +5010,14 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G103" s="43">
         <v>4.8</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -6294,14 +6294,14 @@
         <v>20</v>
       </c>
       <c r="F145" s="24">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G145" s="25">
         <v>5.5</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
@@ -6336,14 +6336,14 @@
         <v>20</v>
       </c>
       <c r="F147" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G147" s="25">
         <v>0.5</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
@@ -6420,14 +6420,14 @@
         <v>20</v>
       </c>
       <c r="F151" s="24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G151" s="25">
         <v>3.4</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="2"/>
-        <v>27.2</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.35" customHeight="1">
@@ -6523,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>18049.53</v>
+        <v>17914.329999999998</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="250">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -624,12 +624,6 @@
   </si>
   <si>
     <t>Porta abiti lunghi soffietto</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>26/4/2018</t>
   </si>
   <si>
     <t>tessuto lana quadretti</t>
@@ -787,6 +781,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>5/9/2018</t>
   </si>
 </sst>
 </file>
@@ -1951,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2496,7 +2493,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -2555,7 +2552,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>145</v>
@@ -2600,12 +2597,12 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>145</v>
@@ -2650,12 +2647,12 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>145</v>
@@ -2700,12 +2697,12 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>145</v>
@@ -2750,12 +2747,12 @@
     </row>
     <row r="17" spans="1:35" ht="28.35" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>145</v>
@@ -2800,12 +2797,12 @@
     </row>
     <row r="18" spans="1:35" ht="27.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>145</v>
@@ -3117,7 +3114,7 @@
         <v>174</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
@@ -3138,13 +3135,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>27</v>
@@ -3167,7 +3164,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>20</v>
@@ -3183,16 +3180,16 @@
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>20</v>
@@ -3235,7 +3232,7 @@
         <v>198</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>25</v>
@@ -3256,13 +3253,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>168</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>25</v>
@@ -3283,13 +3280,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>25</v>
@@ -3312,7 +3309,7 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>25</v>
@@ -3333,13 +3330,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>25</v>
@@ -3366,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>9</v>
@@ -3387,13 +3384,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>33</v>
@@ -3416,7 +3413,7 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>9</v>
@@ -3439,7 +3436,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>20</v>
@@ -3462,7 +3459,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>20</v>
@@ -3485,7 +3482,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
@@ -3508,7 +3505,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>20</v>
@@ -3531,7 +3528,7 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>20</v>
@@ -3549,12 +3546,12 @@
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>20</v>
@@ -3636,13 +3633,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>221</v>
-      </c>
       <c r="D46" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>20</v>
@@ -3669,7 +3666,7 @@
         <v>187</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>20</v>
@@ -3692,7 +3689,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>20</v>
@@ -3715,7 +3712,7 @@
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>11</v>
@@ -3780,7 +3777,7 @@
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
@@ -3803,7 +3800,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
@@ -3826,7 +3823,7 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>20</v>
@@ -3849,7 +3846,7 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>33</v>
@@ -3876,7 +3873,7 @@
         <v>163</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -3903,7 +3900,7 @@
         <v>165</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -3926,7 +3923,7 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
@@ -3949,7 +3946,7 @@
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
@@ -3970,13 +3967,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>239</v>
-      </c>
       <c r="D60" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
@@ -3997,13 +3994,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>198</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>20</v>
@@ -4021,16 +4018,16 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>20</v>
@@ -4048,16 +4045,16 @@
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>250</v>
-      </c>
       <c r="D63" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>20</v>
@@ -4098,16 +4095,16 @@
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>145</v>
@@ -4134,7 +4131,7 @@
         <v>174</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>20</v>
@@ -4245,7 +4242,7 @@
         <v>173</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>20</v>
@@ -4433,14 +4430,14 @@
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>11</v>
@@ -4463,7 +4460,7 @@
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
@@ -4486,7 +4483,7 @@
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>11</v>
@@ -4509,7 +4506,7 @@
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>11</v>
@@ -4532,7 +4529,7 @@
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>11</v>
@@ -4597,7 +4594,7 @@
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
@@ -4618,13 +4615,13 @@
         <v>77</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
@@ -4647,7 +4644,7 @@
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>20</v>
@@ -4670,7 +4667,7 @@
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>20</v>
@@ -4693,7 +4690,7 @@
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>20</v>
@@ -4720,7 +4717,7 @@
         <v>172</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>9</v>
@@ -4743,7 +4740,7 @@
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>20</v>
@@ -4766,7 +4763,7 @@
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>20</v>
@@ -4789,7 +4786,7 @@
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>20</v>
@@ -4816,7 +4813,7 @@
         <v>173</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
@@ -4843,7 +4840,7 @@
         <v>173</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
@@ -4866,7 +4863,7 @@
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>20</v>
@@ -4887,13 +4884,13 @@
         <v>88</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>163</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>20</v>
@@ -4914,13 +4911,13 @@
         <v>89</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>164</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>20</v>
@@ -4998,10 +4995,10 @@
         <v>201</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>176</v>
@@ -5010,14 +5007,14 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G103" s="43">
         <v>4.8</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -5082,13 +5079,13 @@
         <v>92</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>20</v>
@@ -5116,7 +5113,7 @@
         <v>164</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
@@ -5168,7 +5165,7 @@
         <v>184</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>14</v>
@@ -5192,13 +5189,13 @@
         <v>96</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>20</v>
@@ -5225,7 +5222,7 @@
         <v>168</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>20</v>
@@ -5273,7 +5270,7 @@
         <v>99</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>163</v>
@@ -5298,7 +5295,7 @@
         <v>100</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>185</v>
@@ -5329,7 +5326,7 @@
         <v>163</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>20</v>
@@ -5350,10 +5347,10 @@
         <v>101</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>151</v>
@@ -5431,13 +5428,13 @@
         <v>105</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
@@ -5464,7 +5461,7 @@
         <v>174</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>20</v>
@@ -5485,13 +5482,13 @@
         <v>107</v>
       </c>
       <c r="B121" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="C121" s="19" t="s">
-        <v>244</v>
-      </c>
       <c r="D121" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>20</v>
@@ -5512,13 +5509,13 @@
         <v>108</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>20</v>
@@ -5662,7 +5659,7 @@
         <v>164</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E128" s="19" t="s">
         <v>115</v>
@@ -5767,10 +5764,10 @@
         <v>120</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>12</v>
@@ -5794,10 +5791,10 @@
         <v>170</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>12</v>
@@ -5842,7 +5839,7 @@
         <v>122</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
@@ -5930,13 +5927,13 @@
         <v>125</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C140" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D140" s="19" t="s">
         <v>222</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>224</v>
       </c>
       <c r="E140" s="19" t="s">
         <v>20</v>
@@ -6523,7 +6520,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>17914.329999999998</v>
+        <v>18394.330000000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5035,14 +5035,14 @@
         <v>20</v>
       </c>
       <c r="F104" s="20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G104" s="43">
         <v>3.45</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>86.25</v>
       </c>
       <c r="I104" s="42"/>
     </row>
@@ -6520,7 +6520,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>18394.330000000002</v>
+        <v>18480.580000000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1949,7 +1949,7 @@
   <dimension ref="A1:IU158"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4979,14 +4979,14 @@
         <v>20</v>
       </c>
       <c r="F102" s="20">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G102" s="43">
         <v>2.9</v>
       </c>
       <c r="H102" s="46">
         <f t="shared" si="2"/>
-        <v>261</v>
+        <v>258.09999999999997</v>
       </c>
       <c r="I102" s="42"/>
     </row>
@@ -5007,14 +5007,14 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G103" s="43">
         <v>4.8</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -6520,7 +6520,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>18480.580000000002</v>
+        <v>18453.68</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4376,14 +4376,14 @@
         <v>20</v>
       </c>
       <c r="F77" s="20">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="G77" s="21">
         <v>33.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>2077</v>
+        <v>3182.5</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6520,7 +6520,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>18453.68</v>
+        <v>19559.18</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -227,12 +227,6 @@
     <t>Jersey grigio (5)</t>
   </si>
   <si>
-    <t>Kit  Macchina cucire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kit buste </t>
-  </si>
-  <si>
     <t>Kit scatole vuote</t>
   </si>
   <si>
@@ -506,9 +500,6 @@
     <t>Buste Plastica forate f.to 23x33x 100 pz</t>
   </si>
   <si>
-    <t>16/1/2018</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -593,9 +584,6 @@
     <t>Rotoli Cartone plotter rotoli da 10,6 kg</t>
   </si>
   <si>
-    <t>Adesivo bianco  leggero</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adesivo Strech rotolo bianco </t>
   </si>
   <si>
@@ -716,9 +704,6 @@
     <t>18/6/2018</t>
   </si>
   <si>
-    <t>26/6/2018</t>
-  </si>
-  <si>
     <t>300</t>
   </si>
   <si>
@@ -728,9 +713,6 @@
     <t>13/7/2018</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -741,9 +723,6 @@
   </si>
   <si>
     <t>28/8/2018</t>
-  </si>
-  <si>
-    <t>210</t>
   </si>
   <si>
     <t>65</t>
@@ -784,6 +763,27 @@
   </si>
   <si>
     <t>5/9/2018</t>
+  </si>
+  <si>
+    <t>kit Macchina cucito NEW</t>
+  </si>
+  <si>
+    <t>Kit  Macchina cucire USATI</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>10/9/2018</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Adesivo Bianco  Leggero</t>
   </si>
 </sst>
 </file>
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1966,7 +1966,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="60.75" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="5" spans="1:35" ht="24.95" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="6" spans="1:35" ht="24.2" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B6" s="10">
         <v>43291</v>
@@ -2235,7 +2235,7 @@
     </row>
     <row r="7" spans="1:35" ht="25.35" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="8" spans="1:35" ht="23.25" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="10">
         <v>43174</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="9" spans="1:35" ht="23.25" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="16"/>
@@ -2350,14 +2350,14 @@
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2443,15 +2443,15 @@
     </row>
     <row r="11" spans="1:35" ht="28.35" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F11" s="17">
         <v>63</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -2505,7 +2505,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F12" s="17">
         <v>50</v>
@@ -2547,15 +2547,15 @@
     </row>
     <row r="13" spans="1:35" ht="28.35" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F13" s="17">
         <v>10</v>
@@ -2597,15 +2597,15 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F14" s="17">
         <v>11</v>
@@ -2647,15 +2647,15 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F15" s="17">
         <v>8</v>
@@ -2697,15 +2697,15 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F16" s="17">
         <v>4</v>
@@ -2747,15 +2747,15 @@
     </row>
     <row r="17" spans="1:35" ht="28.35" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F17" s="17">
         <v>5</v>
@@ -2797,15 +2797,15 @@
     </row>
     <row r="18" spans="1:35" ht="27.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F18" s="17">
         <v>2</v>
@@ -3001,25 +3001,25 @@
     </row>
     <row r="22" spans="1:35" ht="28.35" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="17">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="G22" s="13">
         <v>1.8280000000000001</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="0"/>
-        <v>1188.2</v>
+        <v>1115.0800000000002</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -3108,13 +3108,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
@@ -3135,13 +3135,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>27</v>
@@ -3159,12 +3159,12 @@
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A26" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>20</v>
@@ -3180,16 +3180,16 @@
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C27" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>223</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>20</v>
@@ -3226,13 +3226,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>25</v>
@@ -3253,13 +3253,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>25</v>
@@ -3280,13 +3280,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>25</v>
@@ -3309,7 +3309,7 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>25</v>
@@ -3330,13 +3330,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>25</v>
@@ -3363,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>9</v>
@@ -3384,13 +3384,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>33</v>
@@ -3413,7 +3413,7 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>9</v>
@@ -3436,7 +3436,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>20</v>
@@ -3459,7 +3459,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>20</v>
@@ -3482,7 +3482,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
@@ -3505,7 +3505,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>20</v>
@@ -3528,7 +3528,7 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>20</v>
@@ -3546,12 +3546,12 @@
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>20</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -3633,13 +3633,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C46" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>223</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>20</v>
@@ -3660,13 +3660,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>20</v>
@@ -3689,7 +3689,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>20</v>
@@ -3712,7 +3712,7 @@
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>11</v>
@@ -3777,7 +3777,7 @@
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
@@ -3800,7 +3800,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
@@ -3823,7 +3823,7 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>20</v>
@@ -3846,7 +3846,7 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>33</v>
@@ -3867,13 +3867,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -3894,26 +3894,26 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F57" s="20">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G57" s="21">
         <v>1.5</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3923,7 +3923,7 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
@@ -3946,7 +3946,7 @@
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
@@ -3967,13 +3967,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
@@ -3994,13 +3994,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>20</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>20</v>
@@ -4045,16 +4045,16 @@
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>20</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A64" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -4095,19 +4095,19 @@
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F65" s="20">
         <v>4</v>
@@ -4125,13 +4125,13 @@
         <v>58</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>20</v>
@@ -4236,13 +4236,13 @@
         <v>63</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>20</v>
@@ -4286,7 +4286,7 @@
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>11</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -4376,19 +4376,19 @@
         <v>20</v>
       </c>
       <c r="F77" s="20">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="G77" s="21">
         <v>33.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>3182.5</v>
+        <v>1373.5</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4397,19 +4397,19 @@
         <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G78" s="21">
-        <v>2</v>
+        <v>33.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -4418,26 +4418,26 @@
         <v>20</v>
       </c>
       <c r="F79" s="20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G79" s="21">
         <v>4.3</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>81.7</v>
+        <v>77.399999999999991</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>11</v>
@@ -4455,12 +4455,12 @@
     </row>
     <row r="81" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
@@ -4478,12 +4478,12 @@
     </row>
     <row r="82" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>11</v>
@@ -4501,12 +4501,12 @@
     </row>
     <row r="83" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>11</v>
@@ -4524,12 +4524,12 @@
     </row>
     <row r="84" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>11</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="85" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -4555,7 +4555,7 @@
         <v>12</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F85" s="20">
         <v>150</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="86" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -4576,7 +4576,7 @@
         <v>12</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F86" s="20">
         <v>150</v>
@@ -4589,12 +4589,12 @@
     </row>
     <row r="87" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
@@ -4612,16 +4612,16 @@
     </row>
     <row r="88" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
@@ -4639,12 +4639,12 @@
     </row>
     <row r="89" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>20</v>
@@ -4662,12 +4662,12 @@
     </row>
     <row r="90" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>20</v>
@@ -4685,12 +4685,12 @@
     </row>
     <row r="91" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>20</v>
@@ -4708,16 +4708,16 @@
     </row>
     <row r="92" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>9</v>
@@ -4735,12 +4735,12 @@
     </row>
     <row r="93" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>20</v>
@@ -4758,12 +4758,12 @@
     </row>
     <row r="94" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>20</v>
@@ -4781,12 +4781,12 @@
     </row>
     <row r="95" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>20</v>
@@ -4804,16 +4804,16 @@
     </row>
     <row r="96" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
@@ -4831,16 +4831,16 @@
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
@@ -4858,12 +4858,12 @@
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>20</v>
@@ -4881,16 +4881,16 @@
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>20</v>
@@ -4908,16 +4908,16 @@
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>20</v>
@@ -4936,16 +4936,16 @@
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>20</v>
@@ -4964,16 +4964,16 @@
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C102" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>20</v>
@@ -4992,44 +4992,44 @@
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E103" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G103" s="43">
         <v>4.8</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="I103" s="42"/>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C104" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="E104" s="19" t="s">
         <v>20</v>
@@ -5048,16 +5048,16 @@
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C105" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>20</v>
@@ -5076,16 +5076,16 @@
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>20</v>
@@ -5104,16 +5104,16 @@
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
@@ -5132,16 +5132,16 @@
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A108" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B108" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D108" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>186</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>20</v>
@@ -5159,13 +5159,13 @@
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>14</v>
@@ -5186,16 +5186,16 @@
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>20</v>
@@ -5213,16 +5213,16 @@
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>20</v>
@@ -5240,16 +5240,16 @@
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>20</v>
@@ -5267,13 +5267,13 @@
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A113" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D113" s="34"/>
       <c r="E113" s="19" t="s">
@@ -5292,13 +5292,13 @@
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A114" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="19" t="s">
@@ -5317,16 +5317,16 @@
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>20</v>
@@ -5344,16 +5344,16 @@
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A116" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>33</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A117" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B117" s="29">
         <v>43140</v>
@@ -5380,10 +5380,10 @@
         <v>48</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F117" s="12">
         <v>7</v>
@@ -5398,16 +5398,16 @@
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>20</v>
@@ -5425,16 +5425,16 @@
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
@@ -5452,16 +5452,16 @@
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>20</v>
@@ -5479,16 +5479,16 @@
     </row>
     <row r="121" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>20</v>
@@ -5506,16 +5506,16 @@
     </row>
     <row r="122" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A122" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>20</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="123" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -5575,13 +5575,13 @@
     </row>
     <row r="125" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B125" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="D125" s="19" t="s">
         <v>12</v>
@@ -5602,13 +5602,13 @@
     </row>
     <row r="126" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A126" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D126" s="19" t="s">
         <v>12</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="127" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A127" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -5650,19 +5650,19 @@
     </row>
     <row r="128" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A128" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F128" s="20">
         <v>4</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="129" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -5686,19 +5686,19 @@
         <v>20</v>
       </c>
       <c r="F129" s="20">
-        <v>567</v>
+        <v>290</v>
       </c>
       <c r="G129" s="21">
         <v>3</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>1701</v>
+        <v>870</v>
       </c>
     </row>
     <row r="130" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A130" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
@@ -5719,7 +5719,7 @@
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
       <c r="A131" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
       <c r="A132" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -5761,13 +5761,13 @@
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>12</v>
@@ -5776,25 +5776,25 @@
         <v>11</v>
       </c>
       <c r="F133" s="20">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G133" s="21">
         <v>2.69</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>403.5</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
       <c r="A134" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>12</v>
@@ -5803,19 +5803,19 @@
         <v>11</v>
       </c>
       <c r="F134" s="20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G134" s="21">
         <v>2.21</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>331.5</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
       <c r="A135" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -5836,10 +5836,10 @@
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
       <c r="A136" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
       <c r="A137" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -5880,12 +5880,12 @@
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
       <c r="A138" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
       <c r="D138" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>11</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -5924,16 +5924,16 @@
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
       <c r="A140" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E140" s="19" t="s">
         <v>20</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
       <c r="A141" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -6219,7 +6219,7 @@
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -6240,7 +6240,7 @@
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B144" s="29"/>
       <c r="C144" s="11"/>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B146" s="29"/>
       <c r="C146" s="11"/>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
       <c r="A147" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -6333,19 +6333,19 @@
         <v>20</v>
       </c>
       <c r="F147" s="24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G147" s="25">
         <v>0.5</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
       <c r="A148" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B148" s="29"/>
       <c r="C148" s="11"/>
@@ -6366,7 +6366,7 @@
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
       <c r="A149" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B149" s="29"/>
       <c r="C149" s="11"/>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
       <c r="A150" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B150" s="29"/>
       <c r="C150" s="11"/>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="151" spans="1:8" ht="28.35" customHeight="1">
       <c r="A151" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B151" s="29"/>
       <c r="C151" s="11"/>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="152" spans="1:8" ht="28.35" customHeight="1">
       <c r="A152" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -6450,12 +6450,12 @@
     </row>
     <row r="153" spans="1:8" ht="28.35" customHeight="1">
       <c r="A153" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B153" s="29"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>20</v>
@@ -6473,12 +6473,12 @@
     </row>
     <row r="154" spans="1:8" ht="28.35" customHeight="1">
       <c r="A154" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B154" s="29"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E154" s="11" t="s">
         <v>20</v>
@@ -6496,12 +6496,12 @@
     </row>
     <row r="155" spans="1:8" ht="28.35" customHeight="1">
       <c r="A155" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B155" s="29"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>20</v>
@@ -6520,7 +6520,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>19559.18</v>
+        <v>18151.759999999998</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="251">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -726,9 +726,6 @@
   </si>
   <si>
     <t>65</t>
-  </si>
-  <si>
-    <t>1850</t>
   </si>
   <si>
     <t>60</t>
@@ -784,6 +781,12 @@
   </si>
   <si>
     <t>Adesivo Bianco  Leggero</t>
+  </si>
+  <si>
+    <t>2350</t>
+  </si>
+  <si>
+    <t>12/9/2018</t>
   </si>
 </sst>
 </file>
@@ -1948,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2389,7 +2392,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2962,14 +2965,14 @@
         <v>9</v>
       </c>
       <c r="F21" s="17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G21" s="13">
         <v>2</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3066,14 +3069,14 @@
         <v>9</v>
       </c>
       <c r="F23" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G23" s="21">
         <v>2</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
@@ -3135,10 +3138,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>219</v>
@@ -3147,14 +3150,14 @@
         <v>27</v>
       </c>
       <c r="F25" s="20">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="G25" s="21">
-        <v>0.19</v>
+        <v>0.98</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="1"/>
-        <v>104.5</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3180,7 +3183,7 @@
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>234</v>
@@ -3253,10 +3256,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>222</v>
@@ -3280,10 +3283,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>247</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>219</v>
@@ -3330,10 +3333,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>219</v>
@@ -3894,10 +3897,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>219</v>
@@ -4018,7 +4021,7 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>234</v>
@@ -4045,13 +4048,13 @@
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="C63" s="19" t="s">
         <v>240</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>241</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>219</v>
@@ -4367,7 +4370,7 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -4388,7 +4391,7 @@
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4397,14 +4400,14 @@
         <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G78" s="21">
         <v>33.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>1809</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4995,7 +4998,7 @@
         <v>197</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>165</v>
@@ -5192,7 +5195,7 @@
         <v>234</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>219</v>
@@ -6520,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>18151.759999999998</v>
+        <v>20155.259999999998</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -647,9 +647,6 @@
     <t>11/5/2018</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t>Cartuccia toner segret. M312</t>
   </si>
   <si>
@@ -702,12 +699,6 @@
   </si>
   <si>
     <t>18/6/2018</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>27/6/2018</t>
   </si>
   <si>
     <t>13/7/2018</t>
@@ -787,6 +778,15 @@
   </si>
   <si>
     <t>12/9/2018</t>
+  </si>
+  <si>
+    <t>21/9/2018</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>250</t>
   </si>
 </sst>
 </file>
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -3117,7 +3117,7 @@
         <v>171</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
@@ -3138,13 +3138,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>27</v>
@@ -3167,7 +3167,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>20</v>
@@ -3183,16 +3183,16 @@
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>20</v>
@@ -3235,7 +3235,7 @@
         <v>194</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>25</v>
@@ -3256,13 +3256,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>244</v>
-      </c>
       <c r="D30" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>25</v>
@@ -3283,13 +3283,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>25</v>
@@ -3312,7 +3312,7 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>25</v>
@@ -3333,13 +3333,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>25</v>
@@ -3366,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>9</v>
@@ -3387,26 +3387,26 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F35" s="20">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G35" s="21">
         <v>2.6</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3416,7 +3416,7 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>9</v>
@@ -3439,7 +3439,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>20</v>
@@ -3462,7 +3462,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>20</v>
@@ -3485,7 +3485,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
@@ -3508,7 +3508,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>20</v>
@@ -3531,7 +3531,7 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>20</v>
@@ -3549,12 +3549,12 @@
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>20</v>
@@ -3636,13 +3636,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>20</v>
@@ -3669,7 +3669,7 @@
         <v>184</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>20</v>
@@ -3692,7 +3692,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>20</v>
@@ -3715,7 +3715,7 @@
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>11</v>
@@ -3780,7 +3780,7 @@
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
@@ -3803,7 +3803,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
@@ -3826,7 +3826,7 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>20</v>
@@ -3849,7 +3849,7 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>33</v>
@@ -3876,7 +3876,7 @@
         <v>160</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -3897,13 +3897,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -3926,7 +3926,7 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
@@ -3949,7 +3949,7 @@
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
@@ -3970,13 +3970,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
@@ -3997,13 +3997,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>20</v>
@@ -4021,16 +4021,16 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>20</v>
@@ -4048,16 +4048,16 @@
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>20</v>
@@ -4107,7 +4107,7 @@
         <v>169</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>143</v>
@@ -4134,7 +4134,7 @@
         <v>171</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>20</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>11</v>
@@ -4463,7 +4463,7 @@
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
@@ -4486,7 +4486,7 @@
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>11</v>
@@ -4509,7 +4509,7 @@
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>11</v>
@@ -4532,7 +4532,7 @@
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>11</v>
@@ -4597,7 +4597,7 @@
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
@@ -4618,13 +4618,13 @@
         <v>75</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>200</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
@@ -4647,7 +4647,7 @@
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>20</v>
@@ -4670,7 +4670,7 @@
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>20</v>
@@ -4693,7 +4693,7 @@
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>20</v>
@@ -4720,7 +4720,7 @@
         <v>169</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>9</v>
@@ -4743,7 +4743,7 @@
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>20</v>
@@ -4766,7 +4766,7 @@
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>20</v>
@@ -4789,7 +4789,7 @@
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>20</v>
@@ -4816,7 +4816,7 @@
         <v>170</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
@@ -4843,7 +4843,7 @@
         <v>170</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
@@ -4866,7 +4866,7 @@
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>20</v>
@@ -4887,13 +4887,13 @@
         <v>86</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>20</v>
@@ -4914,13 +4914,13 @@
         <v>87</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>20</v>
@@ -4998,7 +4998,7 @@
         <v>197</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>165</v>
@@ -5082,13 +5082,13 @@
         <v>90</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>162</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>20</v>
@@ -5116,7 +5116,7 @@
         <v>161</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
@@ -5168,7 +5168,7 @@
         <v>181</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>14</v>
@@ -5192,13 +5192,13 @@
         <v>94</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>20</v>
@@ -5225,7 +5225,7 @@
         <v>165</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>20</v>
@@ -5273,7 +5273,7 @@
         <v>97</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>160</v>
@@ -5298,7 +5298,7 @@
         <v>98</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>182</v>
@@ -5329,7 +5329,7 @@
         <v>160</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>20</v>
@@ -5350,10 +5350,10 @@
         <v>99</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>149</v>
@@ -5362,14 +5362,14 @@
         <v>33</v>
       </c>
       <c r="F116" s="20">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G116" s="21">
         <v>2.7</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>243.00000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5431,13 +5431,13 @@
         <v>103</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>162</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
@@ -5464,7 +5464,7 @@
         <v>171</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>20</v>
@@ -5485,13 +5485,13 @@
         <v>105</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>20</v>
@@ -5512,13 +5512,13 @@
         <v>106</v>
       </c>
       <c r="B122" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C122" s="19" t="s">
-        <v>214</v>
-      </c>
       <c r="D122" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>20</v>
@@ -5767,10 +5767,10 @@
         <v>118</v>
       </c>
       <c r="B133" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C133" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>12</v>
@@ -5794,10 +5794,10 @@
         <v>167</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>12</v>
@@ -5930,13 +5930,13 @@
         <v>123</v>
       </c>
       <c r="B140" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D140" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="E140" s="19" t="s">
         <v>20</v>
@@ -6523,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>20155.259999999998</v>
+        <v>20463.259999999998</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4379,14 +4379,14 @@
         <v>20</v>
       </c>
       <c r="F77" s="20">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G77" s="21">
         <v>33.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>1373.5</v>
+        <v>871</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4400,14 +4400,14 @@
         <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G78" s="21">
         <v>33.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>3484</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5204,14 +5204,14 @@
         <v>20</v>
       </c>
       <c r="F110" s="20">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G110" s="21">
         <v>0.83</v>
       </c>
       <c r="H110" s="45">
         <f t="shared" si="2"/>
-        <v>41.5</v>
+        <v>29.049999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5231,14 +5231,14 @@
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="G111" s="21">
         <v>4.7</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>653.30000000000007</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5258,14 +5258,14 @@
         <v>20</v>
       </c>
       <c r="F112" s="20">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="G112" s="21">
         <v>2.5</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>222.5</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6523,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>20463.259999999998</v>
+        <v>19055.310000000001</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="252">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -696,9 +696,6 @@
   </si>
   <si>
     <t>550</t>
-  </si>
-  <si>
-    <t>18/6/2018</t>
   </si>
   <si>
     <t>13/7/2018</t>
@@ -787,6 +784,12 @@
   </si>
   <si>
     <t>250</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>18/9/2018</t>
   </si>
 </sst>
 </file>
@@ -1951,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2392,7 +2395,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -3138,10 +3141,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>218</v>
@@ -3183,10 +3186,10 @@
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>214</v>
@@ -3256,10 +3259,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>221</v>
@@ -3283,10 +3286,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>218</v>
@@ -3333,10 +3336,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>218</v>
@@ -3387,10 +3390,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>222</v>
@@ -3602,14 +3605,14 @@
         <v>20</v>
       </c>
       <c r="F44" s="20">
-        <v>555</v>
+        <v>427</v>
       </c>
       <c r="G44" s="21">
         <v>0.35</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>194.25</v>
+        <v>149.44999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3897,10 +3900,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>218</v>
@@ -3970,10 +3973,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>218</v>
@@ -3997,7 +4000,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>194</v>
@@ -4021,13 +4024,13 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>218</v>
@@ -4048,13 +4051,13 @@
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="C63" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>237</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>218</v>
@@ -4370,7 +4373,7 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -4391,7 +4394,7 @@
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4618,7 +4621,7 @@
         <v>75</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>200</v>
@@ -4887,7 +4890,7 @@
         <v>86</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>160</v>
@@ -4914,7 +4917,7 @@
         <v>87</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>161</v>
@@ -4998,7 +5001,7 @@
         <v>197</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>165</v>
@@ -5177,14 +5180,14 @@
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="G109" s="43">
         <v>2.4</v>
       </c>
       <c r="H109" s="46">
         <f t="shared" si="2"/>
-        <v>364.8</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5192,10 +5195,10 @@
         <v>94</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>218</v>
@@ -5350,10 +5353,10 @@
         <v>99</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>149</v>
@@ -5416,14 +5419,14 @@
         <v>20</v>
       </c>
       <c r="F118" s="20">
-        <v>887</v>
+        <v>819</v>
       </c>
       <c r="G118" s="21">
         <v>0.66</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>585.42000000000007</v>
+        <v>540.54000000000008</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5431,10 +5434,10 @@
         <v>103</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="D119" s="19" t="s">
         <v>218</v>
@@ -5470,14 +5473,14 @@
         <v>20</v>
       </c>
       <c r="F120" s="20">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G120" s="21">
         <v>1.72</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="2"/>
-        <v>12.04</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5485,10 +5488,10 @@
         <v>105</v>
       </c>
       <c r="B121" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C121" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="D121" s="19" t="s">
         <v>218</v>
@@ -5794,10 +5797,10 @@
         <v>167</v>
       </c>
       <c r="B134" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C134" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>12</v>
@@ -6523,7 +6526,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>19055.310000000001</v>
+        <v>18739.030000000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4382,14 +4382,14 @@
         <v>20</v>
       </c>
       <c r="F77" s="20">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G77" s="21">
         <v>33.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>871</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5234,14 +5234,14 @@
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G111" s="21">
         <v>4.7</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>277.3</v>
+        <v>263.2</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5311,14 +5311,14 @@
         <v>20</v>
       </c>
       <c r="F114" s="20">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G114" s="21">
         <v>2</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5379,12 +5379,8 @@
       <c r="A117" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B117" s="29">
-        <v>43140</v>
-      </c>
-      <c r="C117" s="11">
-        <v>48</v>
-      </c>
+      <c r="B117" s="29"/>
+      <c r="C117" s="11"/>
       <c r="D117" s="11" t="s">
         <v>183</v>
       </c>
@@ -5392,14 +5388,14 @@
         <v>101</v>
       </c>
       <c r="F117" s="12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G117" s="14">
         <v>6</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6526,7 +6522,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>18739.030000000002</v>
+        <v>18464.930000000004</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="251">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -692,22 +692,10 @@
     <t>Comerima</t>
   </si>
   <si>
-    <t>13/6/2018</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
     <t>13/7/2018</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>19/7/2018</t>
-  </si>
-  <si>
-    <t>912</t>
   </si>
   <si>
     <t>28/8/2018</t>
@@ -790,6 +778,15 @@
   </si>
   <si>
     <t>18/9/2018</t>
+  </si>
+  <si>
+    <t>25/9/2018</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>1062</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2347,8 +2344,12 @@
       <c r="A9" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="10">
+        <v>43368</v>
+      </c>
+      <c r="C9" s="16">
+        <v>50</v>
+      </c>
       <c r="D9" s="16" t="s">
         <v>12</v>
       </c>
@@ -2356,14 +2357,14 @@
         <v>11</v>
       </c>
       <c r="F9" s="17">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -2395,7 +2396,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -3141,10 +3142,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>218</v>
@@ -3186,10 +3187,10 @@
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>214</v>
@@ -3259,10 +3260,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>221</v>
@@ -3286,10 +3287,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>218</v>
@@ -3336,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>218</v>
@@ -3390,10 +3391,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>222</v>
@@ -3900,10 +3901,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>218</v>
@@ -3973,10 +3974,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>218</v>
@@ -4000,7 +4001,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>194</v>
@@ -4024,13 +4025,13 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>218</v>
@@ -4051,13 +4052,13 @@
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D63" s="19" t="s">
         <v>218</v>
@@ -4373,7 +4374,7 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -4394,7 +4395,7 @@
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4403,14 +4404,14 @@
         <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G78" s="21">
         <v>33.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>3082</v>
+        <v>3115.5</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4621,7 +4622,7 @@
         <v>75</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>200</v>
@@ -4890,7 +4891,7 @@
         <v>86</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>160</v>
@@ -4917,7 +4918,7 @@
         <v>87</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>161</v>
@@ -4985,14 +4986,14 @@
         <v>20</v>
       </c>
       <c r="F102" s="20">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G102" s="43">
         <v>2.9</v>
       </c>
       <c r="H102" s="46">
         <f t="shared" si="2"/>
-        <v>258.09999999999997</v>
+        <v>252.29999999999998</v>
       </c>
       <c r="I102" s="42"/>
     </row>
@@ -5001,7 +5002,7 @@
         <v>197</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>165</v>
@@ -5195,10 +5196,10 @@
         <v>94</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>218</v>
@@ -5353,10 +5354,10 @@
         <v>99</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>149</v>
@@ -5430,10 +5431,10 @@
         <v>103</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D119" s="19" t="s">
         <v>218</v>
@@ -5484,10 +5485,10 @@
         <v>105</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D121" s="19" t="s">
         <v>218</v>
@@ -5751,14 +5752,14 @@
         <v>11</v>
       </c>
       <c r="F132" s="20">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="G132" s="21">
         <v>7</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="2"/>
-        <v>665</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
@@ -5766,10 +5767,10 @@
         <v>118</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>12</v>
@@ -5778,14 +5779,14 @@
         <v>11</v>
       </c>
       <c r="F133" s="20">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="G133" s="21">
         <v>2.69</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>134.5</v>
+        <v>677.88</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
@@ -5793,10 +5794,10 @@
         <v>167</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>12</v>
@@ -5805,14 +5806,14 @@
         <v>11</v>
       </c>
       <c r="F134" s="20">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G134" s="21">
         <v>2.21</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>552.5</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
@@ -6293,14 +6294,14 @@
         <v>20</v>
       </c>
       <c r="F145" s="24">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G145" s="25">
         <v>5.5</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
@@ -6335,14 +6336,14 @@
         <v>20</v>
       </c>
       <c r="F147" s="24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G147" s="25">
         <v>0.5</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
@@ -6419,14 +6420,14 @@
         <v>20</v>
       </c>
       <c r="F151" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G151" s="25">
         <v>3.4</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="2"/>
-        <v>23.8</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.35" customHeight="1">
@@ -6440,14 +6441,14 @@
         <v>20</v>
       </c>
       <c r="F152" s="24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G152" s="25">
         <v>3</v>
       </c>
       <c r="H152" s="14">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.35" customHeight="1">
@@ -6522,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>18464.930000000004</v>
+        <v>20178.610000000004</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4383,14 +4383,14 @@
         <v>20</v>
       </c>
       <c r="F77" s="20">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G77" s="21">
         <v>33.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>603</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4404,14 +4404,14 @@
         <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G78" s="21">
         <v>33.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>3115.5</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6523,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>20178.610000000004</v>
+        <v>19341.11</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -566,9 +566,6 @@
     <t>9/2/2019</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>cartemani</t>
   </si>
   <si>
@@ -605,9 +602,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>9/4/2018</t>
-  </si>
-  <si>
     <t>17/4/2018</t>
   </si>
   <si>
@@ -648,9 +642,6 @@
   </si>
   <si>
     <t>Cartuccia toner segret. M312</t>
-  </si>
-  <si>
-    <t>22/5/2018</t>
   </si>
   <si>
     <t>Appendini plastica</t>
@@ -787,6 +778,15 @@
   </si>
   <si>
     <t>1062</t>
+  </si>
+  <si>
+    <t>27/9/2018</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="5" spans="1:35" ht="24.95" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="6" spans="1:35" ht="24.2" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="10">
         <v>43291</v>
@@ -2199,14 +2199,14 @@
         <v>11</v>
       </c>
       <c r="F6" s="17">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G6" s="13">
         <v>2</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="7" spans="1:35" ht="25.35" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -2559,7 +2559,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>143</v>
@@ -2604,12 +2604,12 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>143</v>
@@ -2654,12 +2654,12 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>143</v>
@@ -2704,12 +2704,12 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>143</v>
@@ -2754,12 +2754,12 @@
     </row>
     <row r="17" spans="1:35" ht="28.35" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>143</v>
@@ -2804,12 +2804,12 @@
     </row>
     <row r="18" spans="1:35" ht="27.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>143</v>
@@ -3121,7 +3121,7 @@
         <v>171</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
@@ -3142,13 +3142,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>27</v>
@@ -3171,7 +3171,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>20</v>
@@ -3187,16 +3187,16 @@
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>20</v>
@@ -3233,13 +3233,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>194</v>
-      </c>
       <c r="D29" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>25</v>
@@ -3260,13 +3260,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>25</v>
@@ -3287,13 +3287,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>25</v>
@@ -3316,7 +3316,7 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>25</v>
@@ -3337,13 +3337,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>25</v>
@@ -3370,7 +3370,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>9</v>
@@ -3391,13 +3391,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>33</v>
@@ -3420,7 +3420,7 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>9</v>
@@ -3443,7 +3443,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>20</v>
@@ -3466,7 +3466,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>20</v>
@@ -3489,7 +3489,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
@@ -3512,7 +3512,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>20</v>
@@ -3535,7 +3535,7 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>20</v>
@@ -3553,12 +3553,12 @@
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>20</v>
@@ -3640,13 +3640,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>20</v>
@@ -3667,13 +3667,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>20</v>
@@ -3696,7 +3696,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>20</v>
@@ -3719,7 +3719,7 @@
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>11</v>
@@ -3784,7 +3784,7 @@
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
@@ -3807,7 +3807,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
@@ -3830,7 +3830,7 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>20</v>
@@ -3853,7 +3853,7 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>33</v>
@@ -3880,7 +3880,7 @@
         <v>160</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -3901,13 +3901,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -3930,7 +3930,7 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
@@ -3953,7 +3953,7 @@
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
@@ -3974,13 +3974,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
@@ -4001,13 +4001,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>20</v>
@@ -4025,16 +4025,16 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>20</v>
@@ -4052,16 +4052,16 @@
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>20</v>
@@ -4102,16 +4102,16 @@
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>169</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>143</v>
@@ -4132,13 +4132,13 @@
         <v>58</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>20</v>
@@ -4249,7 +4249,7 @@
         <v>170</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>20</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4437,14 +4437,14 @@
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>11</v>
@@ -4467,7 +4467,7 @@
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
@@ -4490,7 +4490,7 @@
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>11</v>
@@ -4513,7 +4513,7 @@
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>11</v>
@@ -4536,7 +4536,7 @@
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>11</v>
@@ -4601,7 +4601,7 @@
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
@@ -4622,13 +4622,13 @@
         <v>75</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
@@ -4651,7 +4651,7 @@
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>20</v>
@@ -4674,7 +4674,7 @@
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>20</v>
@@ -4697,7 +4697,7 @@
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>20</v>
@@ -4724,7 +4724,7 @@
         <v>169</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>9</v>
@@ -4747,7 +4747,7 @@
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>20</v>
@@ -4770,7 +4770,7 @@
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>20</v>
@@ -4793,7 +4793,7 @@
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>20</v>
@@ -4814,13 +4814,13 @@
         <v>83</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>170</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
@@ -4841,13 +4841,13 @@
         <v>84</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>170</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
@@ -4870,7 +4870,7 @@
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
       <c r="D98" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>20</v>
@@ -4891,13 +4891,13 @@
         <v>86</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>20</v>
@@ -4918,13 +4918,13 @@
         <v>87</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>20</v>
@@ -4999,10 +4999,10 @@
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>165</v>
@@ -5070,14 +5070,14 @@
         <v>20</v>
       </c>
       <c r="F105" s="20">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G105" s="43">
         <v>3.75</v>
       </c>
       <c r="H105" s="46">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>172.5</v>
       </c>
       <c r="I105" s="42"/>
     </row>
@@ -5086,13 +5086,13 @@
         <v>90</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>162</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>20</v>
@@ -5120,7 +5120,7 @@
         <v>161</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
@@ -5148,7 +5148,7 @@
         <v>162</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>20</v>
@@ -5172,7 +5172,7 @@
         <v>181</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>14</v>
@@ -5196,13 +5196,13 @@
         <v>94</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>20</v>
@@ -5223,26 +5223,26 @@
         <v>95</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="G111" s="21">
         <v>4.7</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>263.2</v>
+        <v>968.2</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5277,7 +5277,7 @@
         <v>97</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>160</v>
@@ -5287,14 +5287,14 @@
         <v>20</v>
       </c>
       <c r="F113" s="20">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G113" s="21">
         <v>2</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5302,38 +5302,38 @@
         <v>98</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D114" s="19"/>
       <c r="E114" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F114" s="20">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G114" s="21">
         <v>2</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>20</v>
@@ -5354,10 +5354,10 @@
         <v>99</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>149</v>
@@ -5383,7 +5383,7 @@
       <c r="B117" s="29"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>101</v>
@@ -5431,13 +5431,13 @@
         <v>103</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
@@ -5458,13 +5458,13 @@
         <v>104</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>20</v>
@@ -5485,13 +5485,13 @@
         <v>105</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>20</v>
@@ -5512,13 +5512,13 @@
         <v>106</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E122" s="19" t="s">
         <v>20</v>
@@ -5656,13 +5656,13 @@
         <v>112</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C128" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D128" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E128" s="19" t="s">
         <v>113</v>
@@ -5767,10 +5767,10 @@
         <v>118</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>12</v>
@@ -5794,10 +5794,10 @@
         <v>167</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>12</v>
@@ -5842,7 +5842,7 @@
         <v>120</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
@@ -5930,13 +5930,13 @@
         <v>123</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E140" s="19" t="s">
         <v>20</v>
@@ -6523,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>19341.11</v>
+        <v>20070.610000000004</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3606,14 +3606,14 @@
         <v>20</v>
       </c>
       <c r="F44" s="20">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="G44" s="21">
         <v>0.35</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>149.44999999999999</v>
+        <v>134.04999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4383,14 +4383,14 @@
         <v>20</v>
       </c>
       <c r="F77" s="20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G77" s="21">
         <v>33.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4404,14 +4404,14 @@
         <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G78" s="21">
         <v>33.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>2680</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5070,14 +5070,14 @@
         <v>20</v>
       </c>
       <c r="F105" s="20">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G105" s="43">
         <v>3.75</v>
       </c>
       <c r="H105" s="46">
         <f t="shared" si="2"/>
-        <v>172.5</v>
+        <v>165</v>
       </c>
       <c r="I105" s="42"/>
     </row>
@@ -5235,14 +5235,14 @@
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>206</v>
+        <v>97</v>
       </c>
       <c r="G111" s="21">
         <v>4.7</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>968.2</v>
+        <v>455.90000000000003</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5262,14 +5262,14 @@
         <v>20</v>
       </c>
       <c r="F112" s="20">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G112" s="21">
         <v>2.5</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>107.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5416,14 +5416,14 @@
         <v>20</v>
       </c>
       <c r="F118" s="20">
-        <v>819</v>
+        <v>775</v>
       </c>
       <c r="G118" s="21">
         <v>0.66</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>540.54000000000008</v>
+        <v>511.5</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6523,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>20070.610000000004</v>
+        <v>19464.870000000003</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5181,14 +5181,14 @@
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="G109" s="43">
         <v>2.4</v>
       </c>
       <c r="H109" s="46">
         <f t="shared" si="2"/>
-        <v>129.6</v>
+        <v>21.599999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5235,14 +5235,14 @@
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G111" s="21">
         <v>4.7</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>455.90000000000003</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5689,14 +5689,14 @@
         <v>20</v>
       </c>
       <c r="F129" s="20">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="G129" s="21">
         <v>3</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>870</v>
+        <v>741</v>
       </c>
     </row>
     <row r="130" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
@@ -6523,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>19464.870000000003</v>
+        <v>19147.97</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1951,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5235,14 +5235,14 @@
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G111" s="21">
         <v>4.7</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>376</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5262,14 +5262,14 @@
         <v>20</v>
       </c>
       <c r="F112" s="20">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G112" s="21">
         <v>2.5</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>32.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6523,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>19147.97</v>
+        <v>19062.47</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1952,7 +1952,7 @@
   <dimension ref="A1:IU158"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5262,14 +5262,14 @@
         <v>20</v>
       </c>
       <c r="F112" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G112" s="21">
         <v>2.5</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6523,7 +6523,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>19062.47</v>
+        <v>19054.97</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="252">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>1/10/2018</t>
   </si>
 </sst>
 </file>
@@ -1951,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3154,14 +3157,14 @@
         <v>27</v>
       </c>
       <c r="F25" s="20">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G25" s="21">
         <v>0.98</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3606,14 +3609,14 @@
         <v>20</v>
       </c>
       <c r="F44" s="20">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G44" s="21">
         <v>0.35</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>134.04999999999998</v>
+        <v>127.74999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4144,14 +4147,14 @@
         <v>20</v>
       </c>
       <c r="F66" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G66" s="21">
         <v>0.44</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="1"/>
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4958,14 +4961,14 @@
         <v>20</v>
       </c>
       <c r="F101" s="20">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G101" s="43">
         <v>3.45</v>
       </c>
       <c r="H101" s="46">
         <f>F101*G101</f>
-        <v>348.45000000000005</v>
+        <v>345</v>
       </c>
       <c r="I101" s="42"/>
     </row>
@@ -5014,14 +5017,14 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G103" s="43">
         <v>4.8</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>432</v>
+        <v>427.2</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -5070,14 +5073,14 @@
         <v>20</v>
       </c>
       <c r="F105" s="20">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G105" s="43">
         <v>3.75</v>
       </c>
       <c r="H105" s="46">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>161.25</v>
       </c>
       <c r="I105" s="42"/>
     </row>
@@ -5169,7 +5172,7 @@
         <v>93</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>212</v>
@@ -5181,14 +5184,14 @@
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="G109" s="43">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H109" s="46">
         <f t="shared" si="2"/>
-        <v>21.599999999999998</v>
+        <v>592.1</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5235,14 +5238,14 @@
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="G111" s="21">
         <v>4.7</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>305.5</v>
+        <v>145.70000000000002</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5416,14 +5419,14 @@
         <v>20</v>
       </c>
       <c r="F118" s="20">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="G118" s="21">
         <v>0.66</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>511.5</v>
+        <v>499.62</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5689,14 +5692,14 @@
         <v>20</v>
       </c>
       <c r="F129" s="20">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="G129" s="21">
         <v>3</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>741</v>
+        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
@@ -6523,7 +6526,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>19054.97</v>
+        <v>19142.170000000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="253">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -783,13 +783,16 @@
     <t>27/9/2018</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>1/10/2018</t>
+  </si>
+  <si>
+    <t>2/10/2018</t>
+  </si>
+  <si>
+    <t>4/10/2018</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3609,14 +3612,14 @@
         <v>20</v>
       </c>
       <c r="F44" s="20">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G44" s="21">
         <v>0.35</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>127.74999999999999</v>
+        <v>126.69999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4258,14 +4261,14 @@
         <v>20</v>
       </c>
       <c r="F71" s="20">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G71" s="21">
         <v>3</v>
       </c>
       <c r="H71" s="14">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4386,14 +4389,14 @@
         <v>20</v>
       </c>
       <c r="F77" s="20">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G77" s="21">
         <v>33.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>301.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4407,14 +4410,14 @@
         <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="G78" s="21">
         <v>33.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>2613</v>
+        <v>938</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4428,14 +4431,14 @@
         <v>20</v>
       </c>
       <c r="F79" s="20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G79" s="21">
         <v>4.3</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>77.399999999999991</v>
+        <v>73.099999999999994</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4829,14 +4832,14 @@
         <v>20</v>
       </c>
       <c r="F96" s="20">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G96" s="38">
         <v>0.19</v>
       </c>
       <c r="H96" s="44">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4856,14 +4859,14 @@
         <v>20</v>
       </c>
       <c r="F97" s="37">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G97" s="40">
         <v>0.19</v>
       </c>
       <c r="H97" s="46">
         <f t="shared" si="2"/>
-        <v>6.65</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5017,14 +5020,14 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G103" s="43">
         <v>4.8</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>427.2</v>
+        <v>417.59999999999997</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -5151,7 +5154,7 @@
         <v>162</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>20</v>
@@ -5172,7 +5175,7 @@
         <v>93</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C109" s="19" t="s">
         <v>212</v>
@@ -5184,14 +5187,14 @@
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G109" s="43">
         <v>3.1</v>
       </c>
       <c r="H109" s="46">
         <f t="shared" si="2"/>
-        <v>592.1</v>
+        <v>582.80000000000007</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5226,10 +5229,10 @@
         <v>95</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>216</v>
@@ -5238,14 +5241,14 @@
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G111" s="21">
         <v>4.7</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>145.70000000000002</v>
+        <v>408.90000000000003</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5253,10 +5256,10 @@
         <v>96</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>148</v>
@@ -5265,14 +5268,14 @@
         <v>20</v>
       </c>
       <c r="F112" s="20">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G112" s="21">
         <v>2.5</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5419,14 +5422,14 @@
         <v>20</v>
       </c>
       <c r="F118" s="20">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G118" s="21">
         <v>0.66</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>499.62</v>
+        <v>497.64000000000004</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5692,14 +5695,14 @@
         <v>20</v>
       </c>
       <c r="F129" s="20">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G129" s="21">
         <v>3</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>645</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
@@ -6526,7 +6529,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>19142.170000000002</v>
+        <v>17346.839999999997</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1957,7 +1957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
@@ -5268,14 +5268,14 @@
         <v>20</v>
       </c>
       <c r="F112" s="20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G112" s="21">
         <v>2.5</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6529,7 +6529,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>17346.839999999997</v>
+        <v>17356.839999999997</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5241,14 +5241,14 @@
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G111" s="21">
         <v>4.7</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>408.90000000000003</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5422,14 +5422,14 @@
         <v>20</v>
       </c>
       <c r="F118" s="20">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G118" s="21">
         <v>0.66</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>497.64000000000004</v>
+        <v>496.98</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6447,14 +6447,14 @@
         <v>20</v>
       </c>
       <c r="F152" s="24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G152" s="25">
         <v>3</v>
       </c>
       <c r="H152" s="14">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.35" customHeight="1">
@@ -6529,7 +6529,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>17356.839999999997</v>
+        <v>17249.78</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4410,14 +4410,14 @@
         <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G78" s="21">
         <v>33.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>938</v>
+        <v>770.5</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6529,7 +6529,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>17249.78</v>
+        <v>17082.28</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5020,14 +5020,14 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G103" s="43">
         <v>4.8</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>417.59999999999997</v>
+        <v>374.4</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -5422,14 +5422,14 @@
         <v>20</v>
       </c>
       <c r="F118" s="20">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G118" s="21">
         <v>0.66</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>496.98</v>
+        <v>496.32000000000005</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5695,14 +5695,14 @@
         <v>20</v>
       </c>
       <c r="F129" s="20">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G129" s="21">
         <v>3</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="130" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
@@ -6529,7 +6529,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>17082.28</v>
+        <v>17032.419999999998</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2467,14 +2467,14 @@
         <v>143</v>
       </c>
       <c r="F11" s="17">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="13">
         <v>1</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2521,14 +2521,14 @@
         <v>143</v>
       </c>
       <c r="F12" s="17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G12" s="13">
         <v>0.5</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2571,14 +2571,14 @@
         <v>143</v>
       </c>
       <c r="F13" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="13">
         <v>1.2</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -5674,14 +5674,14 @@
         <v>113</v>
       </c>
       <c r="F128" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G128" s="21">
         <v>7</v>
       </c>
       <c r="H128" s="14">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
@@ -5785,14 +5785,14 @@
         <v>11</v>
       </c>
       <c r="F133" s="20">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="G133" s="21">
         <v>2.69</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>677.88</v>
+        <v>538</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
@@ -5812,14 +5812,14 @@
         <v>11</v>
       </c>
       <c r="F134" s="20">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G134" s="21">
         <v>2.21</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>552.5</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
@@ -6529,7 +6529,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>17032.419999999998</v>
+        <v>16660.339999999997</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU158"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2975,14 +2975,14 @@
         <v>9</v>
       </c>
       <c r="F21" s="17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="13">
         <v>2</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -6529,7 +6529,7 @@
     <row r="156" spans="1:8" ht="48.75" customHeight="1">
       <c r="H156" s="47">
         <f>SUM(H3:H155)</f>
-        <v>16660.339999999997</v>
+        <v>16658.339999999997</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$155</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$154</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$138</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="251">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -718,12 +718,6 @@
   </si>
   <si>
     <t>Fermagli n° 58 mm</t>
-  </si>
-  <si>
-    <t>28/8/2019</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>5/9/2018</t>
@@ -1955,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IU158"/>
+  <dimension ref="A1:IU157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1969,7 +1963,7 @@
     <col min="4" max="5" width="19.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="2" customWidth="1"/>
     <col min="9" max="16384" width="23.42578125" style="4"/>
   </cols>
   <sheetData>
@@ -2402,7 +2396,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -3139,7 +3133,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" ref="H24:H75" si="1">F24*G24</f>
+        <f t="shared" ref="H24:H74" si="1">F24*G24</f>
         <v>6</v>
       </c>
     </row>
@@ -3148,10 +3142,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>215</v>
@@ -3210,8 +3204,13 @@
       <c r="F27" s="20">
         <v>4</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A28" s="23" t="s">
@@ -3266,10 +3265,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>218</v>
@@ -3293,10 +3292,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>215</v>
@@ -3343,10 +3342,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>234</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>236</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>215</v>
@@ -3397,10 +3396,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>219</v>
@@ -3685,14 +3684,14 @@
         <v>20</v>
       </c>
       <c r="F47" s="20">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G47" s="21">
         <v>1.75</v>
       </c>
       <c r="H47" s="14">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3907,7 +3906,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>225</v>
@@ -4019,14 +4018,14 @@
         <v>20</v>
       </c>
       <c r="F61" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" s="21">
         <v>2</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4046,278 +4045,272 @@
         <v>20</v>
       </c>
       <c r="F62" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="21">
         <v>1.5</v>
       </c>
       <c r="H62" s="14">
-        <f>F63*G62</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>229</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="19" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F63" s="20">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G63" s="21">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H63" s="14">
-        <f>F63*G63</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>43.56</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A64" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
+        <v>205</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="D64" s="19" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="F64" s="20">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G64" s="21">
-        <v>1.98</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="1"/>
-        <v>43.56</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>215</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="F65" s="20">
         <v>4</v>
       </c>
       <c r="G65" s="21">
-        <v>4.9000000000000004</v>
+        <v>0.44</v>
       </c>
       <c r="H65" s="14">
         <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A66" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>215</v>
-      </c>
+      <c r="A66" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="20">
-        <v>4</v>
-      </c>
-      <c r="G66" s="21">
-        <v>0.44</v>
+        <v>11</v>
+      </c>
+      <c r="F66" s="24">
+        <v>11</v>
+      </c>
+      <c r="G66" s="25">
+        <v>4.8499999999999996</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="1"/>
-        <v>1.76</v>
+        <v>53.349999999999994</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A67" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="B67" s="29"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="24">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G67" s="25">
-        <v>4.8499999999999996</v>
+        <v>5.04</v>
       </c>
       <c r="H67" s="14">
         <f t="shared" si="1"/>
-        <v>53.349999999999994</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A68" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="24">
-        <v>30</v>
-      </c>
-      <c r="G68" s="25">
-        <v>5.04</v>
+      <c r="F68" s="20">
+        <v>10</v>
+      </c>
+      <c r="G68" s="21">
+        <v>8.3000000000000007</v>
       </c>
       <c r="H68" s="14">
         <f t="shared" si="1"/>
-        <v>151.19999999999999</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="11" t="s">
-        <v>11</v>
+      <c r="E69" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F69" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="21">
-        <v>8.3000000000000007</v>
+        <v>0.75</v>
       </c>
       <c r="H69" s="14">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A70" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="E70" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F70" s="20">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G70" s="21">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="H70" s="14">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A71" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>204</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F71" s="20">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G71" s="21">
         <v>3</v>
       </c>
       <c r="H71" s="14">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A72" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+      <c r="D72" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="E72" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="20">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G72" s="21">
         <v>3</v>
       </c>
       <c r="H72" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A73" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E73" s="19" t="s">
+      <c r="A73" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="20">
-        <v>35</v>
-      </c>
-      <c r="G73" s="21">
+        <v>18</v>
+      </c>
+      <c r="G73" s="32">
         <v>3</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="33">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A74" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
@@ -4326,61 +4319,61 @@
         <v>11</v>
       </c>
       <c r="F74" s="20">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G74" s="32">
         <v>3</v>
       </c>
       <c r="H74" s="33">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A75" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31" t="s">
+      <c r="A75" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="20">
-        <v>7</v>
-      </c>
-      <c r="G75" s="32">
-        <v>3</v>
-      </c>
-      <c r="H75" s="33">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="G75" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H75" s="14">
+        <f t="shared" ref="H75:H154" si="2">F75*G75</f>
+        <v>210.70000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F76" s="20">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G76" s="21">
-        <v>4.9000000000000004</v>
+        <v>33.5</v>
       </c>
       <c r="H76" s="14">
-        <f t="shared" ref="H76:H155" si="2">F76*G76</f>
-        <v>210.70000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -4389,19 +4382,19 @@
         <v>20</v>
       </c>
       <c r="F77" s="20">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G77" s="21">
         <v>33.5</v>
       </c>
       <c r="H77" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>770.5</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4410,44 +4403,46 @@
         <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G78" s="21">
-        <v>33.5</v>
+        <v>4.3</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>770.5</v>
+        <v>73.099999999999994</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="19"/>
+        <v>196</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
+      <c r="D79" s="19" t="s">
+        <v>220</v>
+      </c>
       <c r="E79" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F79" s="20">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G79" s="21">
-        <v>4.3</v>
+        <v>8.5</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>73.099999999999994</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>197</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
         <v>220</v>
@@ -4456,19 +4451,19 @@
         <v>11</v>
       </c>
       <c r="F80" s="20">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G80" s="21">
         <v>8.5</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -4479,19 +4474,19 @@
         <v>11</v>
       </c>
       <c r="F81" s="20">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="G81" s="21">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H81" s="14">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -4502,19 +4497,19 @@
         <v>11</v>
       </c>
       <c r="F82" s="20">
-        <v>1.5</v>
+        <v>20</v>
       </c>
       <c r="G82" s="21">
         <v>5</v>
       </c>
       <c r="H82" s="14">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -4525,34 +4520,32 @@
         <v>11</v>
       </c>
       <c r="F83" s="20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G83" s="21">
         <v>5</v>
       </c>
       <c r="H83" s="14">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="F84" s="20">
-        <v>0</v>
-      </c>
-      <c r="G84" s="21">
-        <v>5</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G84" s="21"/>
       <c r="H84" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4560,7 +4553,7 @@
     </row>
     <row r="85" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -4581,31 +4574,37 @@
     </row>
     <row r="86" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="F86" s="20">
-        <v>150</v>
-      </c>
-      <c r="G86" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="G86" s="21">
+        <v>0.8</v>
+      </c>
       <c r="H86" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>198</v>
+      </c>
       <c r="D87" s="19" t="s">
         <v>215</v>
       </c>
@@ -4613,26 +4612,22 @@
         <v>20</v>
       </c>
       <c r="F87" s="20">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G87" s="21">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H87" s="14">
         <f t="shared" si="2"/>
-        <v>6.4</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C88" s="19" t="s">
-        <v>198</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
         <v>215</v>
       </c>
@@ -4640,19 +4635,19 @@
         <v>20</v>
       </c>
       <c r="F88" s="20">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G88" s="21">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H88" s="14">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -4663,19 +4658,19 @@
         <v>20</v>
       </c>
       <c r="F89" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G89" s="21">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H89" s="14">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -4686,69 +4681,69 @@
         <v>20</v>
       </c>
       <c r="F90" s="20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G90" s="21">
         <v>1.5</v>
       </c>
       <c r="H90" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="D91" s="19" t="s">
         <v>215</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F91" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G91" s="21">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="H91" s="14">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>169</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
         <v>215</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F92" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G92" s="21">
-        <v>12.5</v>
+        <v>2.5</v>
       </c>
       <c r="H92" s="14">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -4759,19 +4754,19 @@
         <v>20</v>
       </c>
       <c r="F93" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93" s="21">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H93" s="14">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -4794,10 +4789,14 @@
     </row>
     <row r="95" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
+        <v>83</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="D95" s="19" t="s">
         <v>215</v>
       </c>
@@ -4805,22 +4804,22 @@
         <v>20</v>
       </c>
       <c r="F95" s="20">
-        <v>0</v>
-      </c>
-      <c r="G95" s="21">
-        <v>1</v>
-      </c>
-      <c r="H95" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G95" s="38">
+        <v>0.19</v>
+      </c>
+      <c r="H95" s="44">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>170</v>
@@ -4831,50 +4830,50 @@
       <c r="E96" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F96" s="20">
-        <v>40</v>
-      </c>
-      <c r="G96" s="38">
+      <c r="F96" s="37">
+        <v>25</v>
+      </c>
+      <c r="G96" s="40">
         <v>0.19</v>
       </c>
-      <c r="H96" s="44">
-        <f t="shared" si="2"/>
-        <v>7.6</v>
+      <c r="H96" s="46">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>170</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
       <c r="D97" s="19" t="s">
         <v>215</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F97" s="37">
-        <v>25</v>
-      </c>
-      <c r="G97" s="40">
-        <v>0.19</v>
-      </c>
-      <c r="H97" s="46">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
+      <c r="F97" s="20">
+        <v>3</v>
+      </c>
+      <c r="G97" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="H97" s="45">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="D98" s="19" t="s">
         <v>215</v>
       </c>
@@ -4882,25 +4881,25 @@
         <v>20</v>
       </c>
       <c r="F98" s="20">
-        <v>3</v>
-      </c>
-      <c r="G98" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="H98" s="45">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H98" s="44">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D99" s="19" t="s">
         <v>215</v>
@@ -4909,53 +4908,54 @@
         <v>20</v>
       </c>
       <c r="F99" s="20">
-        <v>10</v>
-      </c>
-      <c r="G99" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="H99" s="44">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G99" s="43">
+        <v>1</v>
+      </c>
+      <c r="H99" s="46">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="I99" s="41"/>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F100" s="20">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="G100" s="43">
-        <v>1</v>
+        <v>3.45</v>
       </c>
       <c r="H100" s="46">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I100" s="41"/>
+        <f>F100*G100</f>
+        <v>345</v>
+      </c>
+      <c r="I100" s="42"/>
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>172</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>173</v>
@@ -4964,26 +4964,26 @@
         <v>20</v>
       </c>
       <c r="F101" s="20">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G101" s="43">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="H101" s="46">
-        <f>F101*G101</f>
-        <v>345</v>
+        <f t="shared" si="2"/>
+        <v>246.5</v>
       </c>
       <c r="I101" s="42"/>
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>173</v>
@@ -4992,26 +4992,26 @@
         <v>20</v>
       </c>
       <c r="F102" s="20">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G102" s="43">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="H102" s="46">
         <f t="shared" si="2"/>
-        <v>252.29999999999998</v>
+        <v>340.8</v>
       </c>
       <c r="I102" s="42"/>
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>173</v>
@@ -5020,20 +5020,20 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="G103" s="43">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>374.4</v>
+        <v>0</v>
       </c>
       <c r="I103" s="42"/>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>172</v>
@@ -5048,54 +5048,54 @@
         <v>20</v>
       </c>
       <c r="F104" s="20">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G104" s="43">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>86.25</v>
+        <v>161.25</v>
       </c>
       <c r="I104" s="42"/>
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F105" s="20">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G105" s="43">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H105" s="46">
         <f t="shared" si="2"/>
-        <v>161.25</v>
+        <v>48</v>
       </c>
       <c r="I105" s="42"/>
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>215</v>
@@ -5104,343 +5104,342 @@
         <v>20</v>
       </c>
       <c r="F106" s="20">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G106" s="43">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H106" s="46">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="I106" s="42"/>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F107" s="20">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G107" s="43">
-        <v>0.8</v>
+        <v>11.7</v>
       </c>
       <c r="H107" s="46">
         <f t="shared" si="2"/>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="I107" s="42"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A108" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F108" s="20">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="G108" s="43">
-        <v>11.7</v>
+        <v>3.1</v>
       </c>
       <c r="H108" s="46">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>582.80000000000007</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>188</v>
-      </c>
-      <c r="G109" s="43">
-        <v>3.1</v>
-      </c>
-      <c r="H109" s="46">
-        <f t="shared" si="2"/>
-        <v>582.80000000000007</v>
+        <v>20</v>
+      </c>
+      <c r="G109" s="21">
+        <v>0.83</v>
+      </c>
+      <c r="H109" s="45">
+        <f t="shared" si="2"/>
+        <v>16.599999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F110" s="20">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G110" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="H110" s="45">
-        <f t="shared" si="2"/>
-        <v>29.049999999999997</v>
+        <v>4.7</v>
+      </c>
+      <c r="H110" s="14">
+        <f t="shared" si="2"/>
+        <v>305.5</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G111" s="21">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>305.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D112" s="19" t="s">
-        <v>148</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D112" s="34"/>
       <c r="E112" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F112" s="20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G112" s="21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A113" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="19"/>
       <c r="E113" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G113" s="21">
         <v>2</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A114" s="18" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D114" s="19"/>
+      <c r="D114" s="19" t="s">
+        <v>219</v>
+      </c>
       <c r="E114" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F114" s="20">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G114" s="21">
-        <v>2</v>
+        <v>41.34</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F115" s="20">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G115" s="21">
-        <v>41.34</v>
+        <v>2.7</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>243.00000000000003</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A116" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E116" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F116" s="20">
-        <v>90</v>
-      </c>
-      <c r="G116" s="21">
-        <v>2.7</v>
+      <c r="A116" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B116" s="29"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" s="12">
+        <v>12</v>
+      </c>
+      <c r="G116" s="14">
+        <v>6</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>243.00000000000003</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A117" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B117" s="29"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F117" s="12">
-        <v>12</v>
-      </c>
-      <c r="G117" s="14">
-        <v>6</v>
+      <c r="A117" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="20">
+        <v>752</v>
+      </c>
+      <c r="G117" s="21">
+        <v>0.66</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>496.32000000000005</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A118" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F118" s="20">
-        <v>752</v>
+        <v>12</v>
       </c>
       <c r="G118" s="21">
-        <v>0.66</v>
+        <v>2.85</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>496.32000000000005</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="D119" s="19" t="s">
         <v>215</v>
@@ -5452,22 +5451,22 @@
         <v>12</v>
       </c>
       <c r="G119" s="21">
-        <v>2.85</v>
+        <v>1.72</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="2"/>
-        <v>34.200000000000003</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>215</v>
@@ -5476,25 +5475,25 @@
         <v>20</v>
       </c>
       <c r="F120" s="20">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G120" s="21">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="2"/>
-        <v>20.64</v>
+        <v>75.399999999999991</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D121" s="19" t="s">
         <v>215</v>
@@ -5503,94 +5502,94 @@
         <v>20</v>
       </c>
       <c r="F121" s="20">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G121" s="21">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="H121" s="14">
         <f t="shared" si="2"/>
-        <v>75.399999999999991</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A122" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C122" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>215</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="35"/>
       <c r="E122" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F122" s="20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G122" s="21">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="2"/>
-        <v>15.48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
-      <c r="D123" s="35"/>
+      <c r="D123" s="19"/>
       <c r="E123" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F123" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G123" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H123" s="14">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="E124" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F124" s="20">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="G124" s="21">
-        <v>1</v>
+        <v>2.69</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>163</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D125" s="19" t="s">
         <v>12</v>
@@ -5599,94 +5598,88 @@
         <v>11</v>
       </c>
       <c r="F125" s="20">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G125" s="21">
-        <v>2.69</v>
+        <v>3.3</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="2"/>
-        <v>269</v>
+        <v>323.39999999999998</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A126" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B126" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>12</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
       <c r="E126" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F126" s="20">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="G126" s="21">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="2"/>
-        <v>323.39999999999998</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A127" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
+        <v>112</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="E127" s="19" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="F127" s="20">
+        <v>4</v>
+      </c>
+      <c r="G127" s="21">
+        <v>7</v>
+      </c>
+      <c r="H127" s="14">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A128" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" s="20">
+        <v>195</v>
+      </c>
+      <c r="G128" s="21">
         <v>3</v>
       </c>
-      <c r="G127" s="21">
-        <v>2.87</v>
-      </c>
-      <c r="H127" s="14">
-        <f t="shared" si="2"/>
-        <v>8.61</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A128" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F128" s="20">
-        <v>6</v>
-      </c>
-      <c r="G128" s="21">
-        <v>7</v>
-      </c>
       <c r="H128" s="14">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>585</v>
       </c>
     </row>
     <row r="129" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
       <c r="A129" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -5695,88 +5688,94 @@
         <v>20</v>
       </c>
       <c r="F129" s="20">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="G129" s="21">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="H129" s="14">
         <f t="shared" si="2"/>
-        <v>585</v>
-      </c>
-    </row>
-    <row r="130" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A130" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F130" s="20">
-        <v>1</v>
-      </c>
-      <c r="G130" s="21">
         <v>1.96</v>
       </c>
+    </row>
+    <row r="130" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A130" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="24">
+        <v>7</v>
+      </c>
+      <c r="G130" s="25">
+        <v>1.97</v>
+      </c>
       <c r="H130" s="14">
         <f t="shared" si="2"/>
-        <v>1.96</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="131" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A131" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
+      <c r="A131" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
       <c r="E131" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="24">
+      <c r="F131" s="20">
+        <v>195</v>
+      </c>
+      <c r="G131" s="21">
         <v>7</v>
       </c>
-      <c r="G131" s="25">
-        <v>1.97</v>
-      </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>13.79</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
       <c r="A132" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
+        <v>118</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="E132" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F132" s="20">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="G132" s="21">
-        <v>7</v>
+        <v>2.69</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="2"/>
-        <v>1365</v>
+        <v>403.5</v>
       </c>
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="B133" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>12</v>
@@ -5785,450 +5784,444 @@
         <v>11</v>
       </c>
       <c r="F133" s="20">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G133" s="21">
-        <v>2.69</v>
+        <v>2.21</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>538</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A134" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D134" s="19" t="s">
-        <v>12</v>
-      </c>
+      <c r="A134" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
       <c r="E134" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="20">
-        <v>150</v>
-      </c>
-      <c r="G134" s="21">
-        <v>2.21</v>
+      <c r="F134" s="24">
+        <v>100</v>
+      </c>
+      <c r="G134" s="25">
+        <v>1.43</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>331.5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A135" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+      <c r="A135" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
       <c r="E135" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="24">
-        <v>100</v>
-      </c>
-      <c r="G135" s="25">
-        <v>1.43</v>
+      <c r="F135" s="20">
+        <v>4</v>
+      </c>
+      <c r="G135" s="21">
+        <v>8.5</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
       <c r="A136" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>198</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B136" s="19"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F136" s="20">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G136" s="21">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="H136" s="14">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
       <c r="A137" s="18" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
+      <c r="D137" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="E137" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F137" s="20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G137" s="21">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>564</v>
       </c>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A138" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19" t="s">
-        <v>147</v>
-      </c>
+      <c r="A138" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
       <c r="E138" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="20">
-        <v>12</v>
-      </c>
-      <c r="G138" s="21">
-        <v>47</v>
+      <c r="F138" s="24">
+        <v>22</v>
+      </c>
+      <c r="G138" s="25">
+        <v>2.97</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>564</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A139" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11" t="s">
+      <c r="A139" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" s="20">
+        <v>140</v>
+      </c>
+      <c r="G139" s="21">
+        <v>1.07</v>
+      </c>
+      <c r="H139" s="14">
+        <f t="shared" si="2"/>
+        <v>149.80000000000001</v>
+      </c>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
+      <c r="X139"/>
+      <c r="Y139"/>
+      <c r="Z139"/>
+      <c r="AA139"/>
+      <c r="AB139"/>
+      <c r="AC139"/>
+      <c r="AD139"/>
+      <c r="AE139"/>
+      <c r="AF139"/>
+      <c r="AG139"/>
+      <c r="AH139"/>
+      <c r="AI139"/>
+      <c r="AJ139"/>
+      <c r="AK139"/>
+      <c r="AL139"/>
+      <c r="AM139"/>
+      <c r="AN139"/>
+      <c r="AO139"/>
+      <c r="AP139"/>
+      <c r="AQ139"/>
+      <c r="AR139"/>
+      <c r="AS139"/>
+      <c r="AT139"/>
+      <c r="AU139"/>
+      <c r="AV139"/>
+      <c r="AW139"/>
+      <c r="AX139"/>
+      <c r="AY139"/>
+      <c r="AZ139"/>
+      <c r="BA139"/>
+      <c r="BB139"/>
+      <c r="BC139"/>
+      <c r="BD139"/>
+      <c r="BE139"/>
+      <c r="BF139"/>
+      <c r="BG139"/>
+      <c r="BH139"/>
+      <c r="BI139"/>
+      <c r="BJ139"/>
+      <c r="BK139"/>
+      <c r="BL139"/>
+      <c r="BM139"/>
+      <c r="BN139"/>
+      <c r="BO139"/>
+      <c r="BP139"/>
+      <c r="BQ139"/>
+      <c r="BR139"/>
+      <c r="BS139"/>
+      <c r="BT139"/>
+      <c r="BU139"/>
+      <c r="BV139"/>
+      <c r="BW139"/>
+      <c r="BX139"/>
+      <c r="BY139"/>
+      <c r="BZ139"/>
+      <c r="CA139"/>
+      <c r="CB139"/>
+      <c r="CC139"/>
+      <c r="CD139"/>
+      <c r="CE139"/>
+      <c r="CF139"/>
+      <c r="CG139"/>
+      <c r="CH139"/>
+      <c r="CI139"/>
+      <c r="CJ139"/>
+      <c r="CK139"/>
+      <c r="CL139"/>
+      <c r="CM139"/>
+      <c r="CN139"/>
+      <c r="CO139"/>
+      <c r="CP139"/>
+      <c r="CQ139"/>
+      <c r="CR139"/>
+      <c r="CS139"/>
+      <c r="CT139"/>
+      <c r="CU139"/>
+      <c r="CV139"/>
+      <c r="CW139"/>
+      <c r="CX139"/>
+      <c r="CY139"/>
+      <c r="CZ139"/>
+      <c r="DA139"/>
+      <c r="DB139"/>
+      <c r="DC139"/>
+      <c r="DD139"/>
+      <c r="DE139"/>
+      <c r="DF139"/>
+      <c r="DG139"/>
+      <c r="DH139"/>
+      <c r="DI139"/>
+      <c r="DJ139"/>
+      <c r="DK139"/>
+      <c r="DL139"/>
+      <c r="DM139"/>
+      <c r="DN139"/>
+      <c r="DO139"/>
+      <c r="DP139"/>
+      <c r="DQ139"/>
+      <c r="DR139"/>
+      <c r="DS139"/>
+      <c r="DT139"/>
+      <c r="DU139"/>
+      <c r="DV139"/>
+      <c r="DW139"/>
+      <c r="DX139"/>
+      <c r="DY139"/>
+      <c r="DZ139"/>
+      <c r="EA139"/>
+      <c r="EB139"/>
+      <c r="EC139"/>
+      <c r="ED139"/>
+      <c r="EE139"/>
+      <c r="EF139"/>
+      <c r="EG139"/>
+      <c r="EH139"/>
+      <c r="EI139"/>
+      <c r="EJ139"/>
+      <c r="EK139"/>
+      <c r="EL139"/>
+      <c r="EM139"/>
+      <c r="EN139"/>
+      <c r="EO139"/>
+      <c r="EP139"/>
+      <c r="EQ139"/>
+      <c r="ER139"/>
+      <c r="ES139"/>
+      <c r="ET139"/>
+      <c r="EU139"/>
+      <c r="EV139"/>
+      <c r="EW139"/>
+      <c r="EX139"/>
+      <c r="EY139"/>
+      <c r="EZ139"/>
+      <c r="FA139"/>
+      <c r="FB139"/>
+      <c r="FC139"/>
+      <c r="FD139"/>
+      <c r="FE139"/>
+      <c r="FF139"/>
+      <c r="FG139"/>
+      <c r="FH139"/>
+      <c r="FI139"/>
+      <c r="FJ139"/>
+      <c r="FK139"/>
+      <c r="FL139"/>
+      <c r="FM139"/>
+      <c r="FN139"/>
+      <c r="FO139"/>
+      <c r="FP139"/>
+      <c r="FQ139"/>
+      <c r="FR139"/>
+      <c r="FS139"/>
+      <c r="FT139"/>
+      <c r="FU139"/>
+      <c r="FV139"/>
+      <c r="FW139"/>
+      <c r="FX139"/>
+      <c r="FY139"/>
+      <c r="FZ139"/>
+      <c r="GA139"/>
+      <c r="GB139"/>
+      <c r="GC139"/>
+      <c r="GD139"/>
+      <c r="GE139"/>
+      <c r="GF139"/>
+      <c r="GG139"/>
+      <c r="GH139"/>
+      <c r="GI139"/>
+      <c r="GJ139"/>
+      <c r="GK139"/>
+      <c r="GL139"/>
+      <c r="GM139"/>
+      <c r="GN139"/>
+      <c r="GO139"/>
+      <c r="GP139"/>
+      <c r="GQ139"/>
+      <c r="GR139"/>
+      <c r="GS139"/>
+      <c r="GT139"/>
+      <c r="GU139"/>
+      <c r="GV139"/>
+      <c r="GW139"/>
+      <c r="GX139"/>
+      <c r="GY139"/>
+      <c r="GZ139"/>
+      <c r="HA139"/>
+      <c r="HB139"/>
+      <c r="HC139"/>
+      <c r="HD139"/>
+      <c r="HE139"/>
+      <c r="HF139"/>
+      <c r="HG139"/>
+      <c r="HH139"/>
+      <c r="HI139"/>
+      <c r="HJ139"/>
+      <c r="HK139"/>
+      <c r="HL139"/>
+      <c r="HM139"/>
+      <c r="HN139"/>
+      <c r="HO139"/>
+      <c r="HP139"/>
+      <c r="HQ139"/>
+      <c r="HR139"/>
+      <c r="HS139"/>
+      <c r="HT139"/>
+      <c r="HU139"/>
+      <c r="HV139"/>
+      <c r="HW139"/>
+      <c r="HX139"/>
+      <c r="HY139"/>
+      <c r="HZ139"/>
+      <c r="IA139"/>
+      <c r="IB139"/>
+      <c r="IC139"/>
+      <c r="ID139"/>
+      <c r="IE139"/>
+      <c r="IF139"/>
+      <c r="IG139"/>
+      <c r="IH139"/>
+      <c r="II139"/>
+      <c r="IJ139"/>
+      <c r="IK139"/>
+      <c r="IL139"/>
+      <c r="IM139"/>
+      <c r="IN139"/>
+      <c r="IO139"/>
+      <c r="IP139"/>
+      <c r="IQ139"/>
+      <c r="IR139"/>
+      <c r="IS139"/>
+      <c r="IT139"/>
+      <c r="IU139"/>
+    </row>
+    <row r="140" spans="1:255" ht="28.35" customHeight="1">
+      <c r="A140" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F139" s="24">
-        <v>22</v>
-      </c>
-      <c r="G139" s="25">
-        <v>2.97</v>
-      </c>
-      <c r="H139" s="14">
-        <f t="shared" si="2"/>
-        <v>65.34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A140" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D140" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E140" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" s="20">
-        <v>140</v>
-      </c>
-      <c r="G140" s="21">
-        <v>1.07</v>
+      <c r="F140" s="24">
+        <v>25</v>
+      </c>
+      <c r="G140" s="25">
+        <v>5</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="2"/>
-        <v>149.80000000000001</v>
-      </c>
-      <c r="I140"/>
-      <c r="J140"/>
-      <c r="K140"/>
-      <c r="L140"/>
-      <c r="M140"/>
-      <c r="N140"/>
-      <c r="O140"/>
-      <c r="P140"/>
-      <c r="Q140"/>
-      <c r="R140"/>
-      <c r="S140"/>
-      <c r="T140"/>
-      <c r="U140"/>
-      <c r="V140"/>
-      <c r="W140"/>
-      <c r="X140"/>
-      <c r="Y140"/>
-      <c r="Z140"/>
-      <c r="AA140"/>
-      <c r="AB140"/>
-      <c r="AC140"/>
-      <c r="AD140"/>
-      <c r="AE140"/>
-      <c r="AF140"/>
-      <c r="AG140"/>
-      <c r="AH140"/>
-      <c r="AI140"/>
-      <c r="AJ140"/>
-      <c r="AK140"/>
-      <c r="AL140"/>
-      <c r="AM140"/>
-      <c r="AN140"/>
-      <c r="AO140"/>
-      <c r="AP140"/>
-      <c r="AQ140"/>
-      <c r="AR140"/>
-      <c r="AS140"/>
-      <c r="AT140"/>
-      <c r="AU140"/>
-      <c r="AV140"/>
-      <c r="AW140"/>
-      <c r="AX140"/>
-      <c r="AY140"/>
-      <c r="AZ140"/>
-      <c r="BA140"/>
-      <c r="BB140"/>
-      <c r="BC140"/>
-      <c r="BD140"/>
-      <c r="BE140"/>
-      <c r="BF140"/>
-      <c r="BG140"/>
-      <c r="BH140"/>
-      <c r="BI140"/>
-      <c r="BJ140"/>
-      <c r="BK140"/>
-      <c r="BL140"/>
-      <c r="BM140"/>
-      <c r="BN140"/>
-      <c r="BO140"/>
-      <c r="BP140"/>
-      <c r="BQ140"/>
-      <c r="BR140"/>
-      <c r="BS140"/>
-      <c r="BT140"/>
-      <c r="BU140"/>
-      <c r="BV140"/>
-      <c r="BW140"/>
-      <c r="BX140"/>
-      <c r="BY140"/>
-      <c r="BZ140"/>
-      <c r="CA140"/>
-      <c r="CB140"/>
-      <c r="CC140"/>
-      <c r="CD140"/>
-      <c r="CE140"/>
-      <c r="CF140"/>
-      <c r="CG140"/>
-      <c r="CH140"/>
-      <c r="CI140"/>
-      <c r="CJ140"/>
-      <c r="CK140"/>
-      <c r="CL140"/>
-      <c r="CM140"/>
-      <c r="CN140"/>
-      <c r="CO140"/>
-      <c r="CP140"/>
-      <c r="CQ140"/>
-      <c r="CR140"/>
-      <c r="CS140"/>
-      <c r="CT140"/>
-      <c r="CU140"/>
-      <c r="CV140"/>
-      <c r="CW140"/>
-      <c r="CX140"/>
-      <c r="CY140"/>
-      <c r="CZ140"/>
-      <c r="DA140"/>
-      <c r="DB140"/>
-      <c r="DC140"/>
-      <c r="DD140"/>
-      <c r="DE140"/>
-      <c r="DF140"/>
-      <c r="DG140"/>
-      <c r="DH140"/>
-      <c r="DI140"/>
-      <c r="DJ140"/>
-      <c r="DK140"/>
-      <c r="DL140"/>
-      <c r="DM140"/>
-      <c r="DN140"/>
-      <c r="DO140"/>
-      <c r="DP140"/>
-      <c r="DQ140"/>
-      <c r="DR140"/>
-      <c r="DS140"/>
-      <c r="DT140"/>
-      <c r="DU140"/>
-      <c r="DV140"/>
-      <c r="DW140"/>
-      <c r="DX140"/>
-      <c r="DY140"/>
-      <c r="DZ140"/>
-      <c r="EA140"/>
-      <c r="EB140"/>
-      <c r="EC140"/>
-      <c r="ED140"/>
-      <c r="EE140"/>
-      <c r="EF140"/>
-      <c r="EG140"/>
-      <c r="EH140"/>
-      <c r="EI140"/>
-      <c r="EJ140"/>
-      <c r="EK140"/>
-      <c r="EL140"/>
-      <c r="EM140"/>
-      <c r="EN140"/>
-      <c r="EO140"/>
-      <c r="EP140"/>
-      <c r="EQ140"/>
-      <c r="ER140"/>
-      <c r="ES140"/>
-      <c r="ET140"/>
-      <c r="EU140"/>
-      <c r="EV140"/>
-      <c r="EW140"/>
-      <c r="EX140"/>
-      <c r="EY140"/>
-      <c r="EZ140"/>
-      <c r="FA140"/>
-      <c r="FB140"/>
-      <c r="FC140"/>
-      <c r="FD140"/>
-      <c r="FE140"/>
-      <c r="FF140"/>
-      <c r="FG140"/>
-      <c r="FH140"/>
-      <c r="FI140"/>
-      <c r="FJ140"/>
-      <c r="FK140"/>
-      <c r="FL140"/>
-      <c r="FM140"/>
-      <c r="FN140"/>
-      <c r="FO140"/>
-      <c r="FP140"/>
-      <c r="FQ140"/>
-      <c r="FR140"/>
-      <c r="FS140"/>
-      <c r="FT140"/>
-      <c r="FU140"/>
-      <c r="FV140"/>
-      <c r="FW140"/>
-      <c r="FX140"/>
-      <c r="FY140"/>
-      <c r="FZ140"/>
-      <c r="GA140"/>
-      <c r="GB140"/>
-      <c r="GC140"/>
-      <c r="GD140"/>
-      <c r="GE140"/>
-      <c r="GF140"/>
-      <c r="GG140"/>
-      <c r="GH140"/>
-      <c r="GI140"/>
-      <c r="GJ140"/>
-      <c r="GK140"/>
-      <c r="GL140"/>
-      <c r="GM140"/>
-      <c r="GN140"/>
-      <c r="GO140"/>
-      <c r="GP140"/>
-      <c r="GQ140"/>
-      <c r="GR140"/>
-      <c r="GS140"/>
-      <c r="GT140"/>
-      <c r="GU140"/>
-      <c r="GV140"/>
-      <c r="GW140"/>
-      <c r="GX140"/>
-      <c r="GY140"/>
-      <c r="GZ140"/>
-      <c r="HA140"/>
-      <c r="HB140"/>
-      <c r="HC140"/>
-      <c r="HD140"/>
-      <c r="HE140"/>
-      <c r="HF140"/>
-      <c r="HG140"/>
-      <c r="HH140"/>
-      <c r="HI140"/>
-      <c r="HJ140"/>
-      <c r="HK140"/>
-      <c r="HL140"/>
-      <c r="HM140"/>
-      <c r="HN140"/>
-      <c r="HO140"/>
-      <c r="HP140"/>
-      <c r="HQ140"/>
-      <c r="HR140"/>
-      <c r="HS140"/>
-      <c r="HT140"/>
-      <c r="HU140"/>
-      <c r="HV140"/>
-      <c r="HW140"/>
-      <c r="HX140"/>
-      <c r="HY140"/>
-      <c r="HZ140"/>
-      <c r="IA140"/>
-      <c r="IB140"/>
-      <c r="IC140"/>
-      <c r="ID140"/>
-      <c r="IE140"/>
-      <c r="IF140"/>
-      <c r="IG140"/>
-      <c r="IH140"/>
-      <c r="II140"/>
-      <c r="IJ140"/>
-      <c r="IK140"/>
-      <c r="IL140"/>
-      <c r="IM140"/>
-      <c r="IN140"/>
-      <c r="IO140"/>
-      <c r="IP140"/>
-      <c r="IQ140"/>
-      <c r="IR140"/>
-      <c r="IS140"/>
-      <c r="IT140"/>
-      <c r="IU140"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
       <c r="A141" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F141" s="24">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G141" s="25">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -6237,40 +6230,40 @@
         <v>20</v>
       </c>
       <c r="F142" s="24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G142" s="25">
-        <v>12</v>
+        <v>1.36</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B143" s="11"/>
+        <v>127</v>
+      </c>
+      <c r="B143" s="29"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F143" s="24">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G143" s="25">
-        <v>1.36</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>10.88</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B144" s="29"/>
       <c r="C144" s="11"/>
@@ -6279,19 +6272,19 @@
         <v>20</v>
       </c>
       <c r="F144" s="24">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G144" s="25">
-        <v>2.2000000000000002</v>
+        <v>5.5</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="2"/>
-        <v>35.200000000000003</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
@@ -6300,61 +6293,61 @@
         <v>20</v>
       </c>
       <c r="F145" s="24">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G145" s="25">
-        <v>5.5</v>
+        <v>0.4</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>15.600000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B146" s="29"/>
+        <v>130</v>
+      </c>
+      <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F146" s="24">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G146" s="25">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>15.600000000000001</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
       <c r="A147" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B147" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="B147" s="29"/>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F147" s="24">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G147" s="25">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
       <c r="A148" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B148" s="29"/>
       <c r="C148" s="11"/>
@@ -6363,19 +6356,19 @@
         <v>20</v>
       </c>
       <c r="F148" s="24">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G148" s="25">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" si="2"/>
-        <v>19.8</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
       <c r="A149" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B149" s="29"/>
       <c r="C149" s="11"/>
@@ -6384,19 +6377,19 @@
         <v>20</v>
       </c>
       <c r="F149" s="24">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G149" s="25">
-        <v>0.9</v>
+        <v>2.85</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="2"/>
-        <v>54.9</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
       <c r="A150" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B150" s="29"/>
       <c r="C150" s="11"/>
@@ -6405,84 +6398,86 @@
         <v>20</v>
       </c>
       <c r="F150" s="24">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G150" s="25">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="H150" s="14">
         <f t="shared" si="2"/>
-        <v>79.8</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="28.35" customHeight="1">
       <c r="A151" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B151" s="29"/>
+        <v>135</v>
+      </c>
+      <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F151" s="24">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G151" s="25">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.35" customHeight="1">
       <c r="A152" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B152" s="11"/>
+        <v>136</v>
+      </c>
+      <c r="B152" s="29"/>
       <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
+      <c r="D152" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="E152" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F152" s="24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G152" s="25">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H152" s="14">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.35" customHeight="1">
       <c r="A153" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B153" s="29"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F153" s="24">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="G153" s="25">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H153" s="14">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.35" customHeight="1">
       <c r="A154" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B154" s="29"/>
       <c r="C154" s="11"/>
@@ -6493,58 +6488,35 @@
         <v>20</v>
       </c>
       <c r="F154" s="24">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="G154" s="25">
         <v>10</v>
       </c>
       <c r="H154" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="28.35" customHeight="1">
-      <c r="A155" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B155" s="29"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F155" s="24">
-        <v>8</v>
-      </c>
-      <c r="G155" s="25">
-        <v>10</v>
-      </c>
-      <c r="H155" s="14">
-        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H156" s="47">
-        <f>SUM(H3:H155)</f>
-        <v>16658.339999999997</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="29.1" customHeight="1"/>
-    <row r="158" spans="1:8" ht="30" customHeight="1"/>
+    <row r="155" spans="1:8" ht="48.75" customHeight="1">
+      <c r="H155" s="47">
+        <f>SUM(H3:H154)</f>
+        <v>16239.239999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="29.1" customHeight="1"/>
+    <row r="157" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F119:F121 F88 F28:F31 F24:F25">
+  <conditionalFormatting sqref="F118:F120 F87 F28:F31 F24:F25">
     <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F42 F91:F93 F32:F33">
+  <conditionalFormatting sqref="F90:F92 F41:F42 F32:F33">
     <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>25</formula>
     </cfRule>
@@ -6569,7 +6541,7 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50 F89:F90 F109 F94:F95">
+  <conditionalFormatting sqref="F88:F89 F108 F93:F94 F50">
     <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
@@ -6579,62 +6551,62 @@
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59 F77:F87">
+  <conditionalFormatting sqref="F76:F86 F59">
     <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
+  <conditionalFormatting sqref="F65">
     <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
+  <conditionalFormatting sqref="F70">
     <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
+  <conditionalFormatting sqref="F71">
     <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105 F100:F101">
+  <conditionalFormatting sqref="F104 F99:F100">
     <cfRule type="cellIs" dxfId="7" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F122 F110">
+  <conditionalFormatting sqref="F121 F109">
     <cfRule type="cellIs" dxfId="6" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:F115">
+  <conditionalFormatting sqref="F111:F114">
     <cfRule type="cellIs" dxfId="5" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
+  <conditionalFormatting sqref="F107">
     <cfRule type="cellIs" dxfId="4" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104">
+  <conditionalFormatting sqref="F103">
     <cfRule type="cellIs" dxfId="3" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:F103">
+  <conditionalFormatting sqref="F100:F102">
     <cfRule type="cellIs" dxfId="2" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="1" priority="36" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97:F98">
+  <conditionalFormatting sqref="F96:F97">
     <cfRule type="cellIs" dxfId="0" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>12</formula>
     </cfRule>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="252">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -567,12 +567,6 @@
   </si>
   <si>
     <t>cartemani</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>21/2//2018</t>
   </si>
   <si>
     <t>2/3/2018</t>
@@ -729,18 +723,12 @@
     <t>Kit  Macchina cucire USATI</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>10/9/2018</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
-    <t>225</t>
-  </si>
-  <si>
     <t>Adesivo Bianco  Leggero</t>
   </si>
   <si>
@@ -787,6 +775,21 @@
   </si>
   <si>
     <t>4/10/2018</t>
+  </si>
+  <si>
+    <t>18/10/2018</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>15/10/2018</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
 </sst>
 </file>
@@ -1951,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2134,7 +2137,7 @@
     </row>
     <row r="5" spans="1:35" ht="24.95" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2184,7 +2187,7 @@
     </row>
     <row r="6" spans="1:35" ht="24.2" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" s="10">
         <v>43291</v>
@@ -2238,7 +2241,7 @@
     </row>
     <row r="7" spans="1:35" ht="25.35" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
@@ -2396,7 +2399,7 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B10" s="10">
         <v>43174</v>
@@ -2500,7 +2503,7 @@
     </row>
     <row r="12" spans="1:35" ht="28.35" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12" s="10">
         <v>43242</v>
@@ -2559,7 +2562,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>143</v>
@@ -2604,12 +2607,12 @@
     </row>
     <row r="14" spans="1:35" ht="28.35" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>143</v>
@@ -2654,12 +2657,12 @@
     </row>
     <row r="15" spans="1:35" ht="28.35" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>143</v>
@@ -2704,12 +2707,12 @@
     </row>
     <row r="16" spans="1:35" ht="28.35" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>143</v>
@@ -2754,12 +2757,12 @@
     </row>
     <row r="17" spans="1:35" ht="28.35" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>143</v>
@@ -2804,12 +2807,12 @@
     </row>
     <row r="18" spans="1:35" ht="27.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>143</v>
@@ -3121,7 +3124,7 @@
         <v>171</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>20</v>
@@ -3142,13 +3145,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>27</v>
@@ -3171,7 +3174,7 @@
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>20</v>
@@ -3187,16 +3190,16 @@
     </row>
     <row r="27" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A27" s="18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>20</v>
@@ -3238,26 +3241,26 @@
         <v>24</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" s="21">
         <v>8.5</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3265,13 +3268,13 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>25</v>
@@ -3292,13 +3295,13 @@
         <v>28</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>25</v>
@@ -3321,7 +3324,7 @@
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>25</v>
@@ -3342,13 +3345,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>25</v>
@@ -3375,7 +3378,7 @@
         <v>4</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>9</v>
@@ -3396,13 +3399,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>33</v>
@@ -3425,7 +3428,7 @@
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>9</v>
@@ -3448,7 +3451,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>20</v>
@@ -3471,7 +3474,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>20</v>
@@ -3494,7 +3497,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
@@ -3517,7 +3520,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>20</v>
@@ -3540,7 +3543,7 @@
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>20</v>
@@ -3558,12 +3561,12 @@
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>20</v>
@@ -3645,13 +3648,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>211</v>
-      </c>
       <c r="D46" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>20</v>
@@ -3672,13 +3675,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>20</v>
@@ -3701,7 +3704,7 @@
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E48" s="28" t="s">
         <v>20</v>
@@ -3724,7 +3727,7 @@
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>11</v>
@@ -3789,7 +3792,7 @@
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
@@ -3812,7 +3815,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
@@ -3835,7 +3838,7 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>20</v>
@@ -3858,7 +3861,7 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>33</v>
@@ -3885,7 +3888,7 @@
         <v>160</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -3906,13 +3909,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -3935,7 +3938,7 @@
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
@@ -3958,7 +3961,7 @@
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>20</v>
@@ -3979,13 +3982,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
@@ -4006,13 +4009,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>20</v>
@@ -4030,16 +4033,16 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>20</v>
@@ -4080,16 +4083,16 @@
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A64" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>169</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>143</v>
@@ -4110,13 +4113,13 @@
         <v>58</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>20</v>
@@ -4227,7 +4230,7 @@
         <v>170</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>20</v>
@@ -4352,7 +4355,7 @@
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -4373,7 +4376,7 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -4415,14 +4418,14 @@
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>11</v>
@@ -4445,7 +4448,7 @@
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
       <c r="D80" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E80" s="19" t="s">
         <v>11</v>
@@ -4468,7 +4471,7 @@
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
@@ -4491,7 +4494,7 @@
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>11</v>
@@ -4514,7 +4517,7 @@
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>11</v>
@@ -4579,7 +4582,7 @@
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>20</v>
@@ -4600,26 +4603,26 @@
         <v>75</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>198</v>
+        <v>251</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E87" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F87" s="20">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G87" s="21">
         <v>1.1000000000000001</v>
       </c>
       <c r="H87" s="14">
         <f t="shared" si="2"/>
-        <v>16.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4629,7 +4632,7 @@
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>20</v>
@@ -4652,7 +4655,7 @@
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>20</v>
@@ -4675,7 +4678,7 @@
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>20</v>
@@ -4702,7 +4705,7 @@
         <v>169</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>9</v>
@@ -4725,7 +4728,7 @@
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>20</v>
@@ -4748,7 +4751,7 @@
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E93" s="19" t="s">
         <v>20</v>
@@ -4771,7 +4774,7 @@
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
       <c r="D94" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E94" s="19" t="s">
         <v>20</v>
@@ -4792,13 +4795,13 @@
         <v>83</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C95" s="19" t="s">
         <v>170</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>20</v>
@@ -4819,13 +4822,13 @@
         <v>84</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>170</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
@@ -4848,7 +4851,7 @@
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>20</v>
@@ -4869,13 +4872,13 @@
         <v>86</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>20</v>
@@ -4896,13 +4899,13 @@
         <v>87</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E99" s="19" t="s">
         <v>20</v>
@@ -4977,10 +4980,10 @@
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>165</v>
@@ -5064,13 +5067,13 @@
         <v>90</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>162</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>20</v>
@@ -5098,7 +5101,7 @@
         <v>161</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>20</v>
@@ -5126,7 +5129,7 @@
         <v>162</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
@@ -5147,10 +5150,10 @@
         <v>93</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>14</v>
@@ -5174,13 +5177,13 @@
         <v>94</v>
       </c>
       <c r="B109" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C109" s="19" t="s">
-        <v>225</v>
-      </c>
       <c r="D109" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>20</v>
@@ -5201,13 +5204,13 @@
         <v>95</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>20</v>
@@ -5228,10 +5231,10 @@
         <v>96</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>148</v>
@@ -5255,7 +5258,7 @@
         <v>97</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>160</v>
@@ -5280,7 +5283,7 @@
         <v>98</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>160</v>
@@ -5302,16 +5305,16 @@
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A114" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>20</v>
@@ -5332,10 +5335,10 @@
         <v>99</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D115" s="19" t="s">
         <v>149</v>
@@ -5409,13 +5412,13 @@
         <v>103</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>20</v>
@@ -5436,13 +5439,13 @@
         <v>104</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
@@ -5463,13 +5466,13 @@
         <v>105</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E120" s="19" t="s">
         <v>20</v>
@@ -5490,13 +5493,13 @@
         <v>106</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E121" s="19" t="s">
         <v>20</v>
@@ -5634,13 +5637,13 @@
         <v>112</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E127" s="19" t="s">
         <v>113</v>
@@ -5745,10 +5748,10 @@
         <v>118</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D132" s="19" t="s">
         <v>12</v>
@@ -5772,10 +5775,10 @@
         <v>167</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>12</v>
@@ -5820,7 +5823,7 @@
         <v>120</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
@@ -5908,13 +5911,13 @@
         <v>123</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C139" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D139" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>214</v>
       </c>
       <c r="E139" s="19" t="s">
         <v>20</v>
@@ -6501,7 +6504,7 @@
     <row r="155" spans="1:8" ht="48.75" customHeight="1">
       <c r="H155" s="47">
         <f>SUM(H3:H154)</f>
-        <v>16239.239999999998</v>
+        <v>16216.739999999998</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="252">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -744,9 +744,6 @@
     <t>350</t>
   </si>
   <si>
-    <t>250</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -790,6 +787,9 @@
   </si>
   <si>
     <t>55</t>
+  </si>
+  <si>
+    <t>291</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2048,14 +2048,14 @@
         <v>9</v>
       </c>
       <c r="F3" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="13">
         <v>16.5</v>
       </c>
       <c r="H3" s="14">
         <f t="shared" ref="H3:H23" si="0">F3*G3</f>
-        <v>346.5</v>
+        <v>330</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3157,14 +3157,14 @@
         <v>27</v>
       </c>
       <c r="F25" s="20">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="G25" s="21">
         <v>0.98</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="1"/>
-        <v>245</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3241,7 +3241,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>169</v>
@@ -3268,10 +3268,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>247</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>248</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>216</v>
@@ -3345,10 +3345,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>213</v>
@@ -3614,14 +3614,14 @@
         <v>20</v>
       </c>
       <c r="F44" s="20">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G44" s="21">
         <v>0.35</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>126.69999999999999</v>
+        <v>125.99999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3675,7 +3675,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>196</v>
@@ -4236,14 +4236,14 @@
         <v>20</v>
       </c>
       <c r="F70" s="20">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G70" s="21">
         <v>3</v>
       </c>
       <c r="H70" s="14">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4603,10 +4603,10 @@
         <v>75</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>213</v>
@@ -5129,7 +5129,7 @@
         <v>162</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
@@ -5150,7 +5150,7 @@
         <v>93</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>210</v>
@@ -5162,14 +5162,14 @@
         <v>20</v>
       </c>
       <c r="F108" s="20">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G108" s="43">
         <v>3.1</v>
       </c>
       <c r="H108" s="46">
         <f t="shared" si="2"/>
-        <v>582.80000000000007</v>
+        <v>573.5</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5204,7 +5204,7 @@
         <v>95</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>165</v>
@@ -5231,10 +5231,10 @@
         <v>96</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>148</v>
@@ -5243,14 +5243,14 @@
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G111" s="21">
         <v>2.5</v>
       </c>
       <c r="H111" s="14">
         <f t="shared" si="2"/>
-        <v>37.5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5258,7 +5258,7 @@
         <v>97</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>160</v>
@@ -5283,7 +5283,7 @@
         <v>98</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>160</v>
@@ -5338,7 +5338,7 @@
         <v>234</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D115" s="19" t="s">
         <v>149</v>
@@ -5412,10 +5412,10 @@
         <v>103</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>213</v>
@@ -5670,14 +5670,14 @@
         <v>20</v>
       </c>
       <c r="F128" s="20">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G128" s="21">
         <v>3</v>
       </c>
       <c r="H128" s="14">
         <f t="shared" si="2"/>
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="129" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
@@ -5728,7 +5728,9 @@
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
+      <c r="D131" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="E131" s="11" t="s">
         <v>11</v>
       </c>
@@ -5748,10 +5750,10 @@
         <v>118</v>
       </c>
       <c r="B132" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="D132" s="19" t="s">
         <v>12</v>
@@ -5760,14 +5762,14 @@
         <v>11</v>
       </c>
       <c r="F132" s="20">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G132" s="21">
         <v>2.69</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="2"/>
-        <v>403.5</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
@@ -5775,10 +5777,10 @@
         <v>167</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>12</v>
@@ -5787,14 +5789,14 @@
         <v>11</v>
       </c>
       <c r="F133" s="20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G133" s="21">
         <v>2.21</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
@@ -6380,14 +6382,14 @@
         <v>20</v>
       </c>
       <c r="F149" s="24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G149" s="25">
         <v>2.85</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="2"/>
-        <v>79.8</v>
+        <v>76.95</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
@@ -6401,14 +6403,14 @@
         <v>20</v>
       </c>
       <c r="F150" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G150" s="25">
         <v>3.4</v>
       </c>
       <c r="H150" s="14">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="28.35" customHeight="1">
@@ -6422,14 +6424,14 @@
         <v>20</v>
       </c>
       <c r="F151" s="24">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G151" s="25">
         <v>3</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.35" customHeight="1">
@@ -6504,7 +6506,7 @@
     <row r="155" spans="1:8" ht="48.75" customHeight="1">
       <c r="H155" s="47">
         <f>SUM(H3:H154)</f>
-        <v>16216.739999999998</v>
+        <v>16205.490000000002</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -771,9 +771,6 @@
     <t>2/10/2018</t>
   </si>
   <si>
-    <t>4/10/2018</t>
-  </si>
-  <si>
     <t>18/10/2018</t>
   </si>
   <si>
@@ -790,6 +787,9 @@
   </si>
   <si>
     <t>291</t>
+  </si>
+  <si>
+    <t>25/10/2018</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2960,10 +2960,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="10">
-        <v>43291</v>
+        <v>43398</v>
       </c>
       <c r="C21" s="16">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>12</v>
@@ -2972,14 +2972,14 @@
         <v>9</v>
       </c>
       <c r="F21" s="17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G21" s="13">
         <v>2</v>
       </c>
       <c r="H21" s="14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3064,10 +3064,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="29">
-        <v>43291</v>
+        <v>43398</v>
       </c>
       <c r="C23" s="11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>12</v>
@@ -3076,14 +3076,14 @@
         <v>9</v>
       </c>
       <c r="F23" s="12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G23" s="21">
         <v>2</v>
       </c>
       <c r="H23" s="14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
@@ -3241,7 +3241,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>169</v>
@@ -3268,10 +3268,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>247</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>216</v>
@@ -3345,10 +3345,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>213</v>
@@ -3675,7 +3675,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>196</v>
@@ -4603,10 +4603,10 @@
         <v>75</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>213</v>
@@ -5051,14 +5051,14 @@
         <v>20</v>
       </c>
       <c r="F104" s="20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G104" s="43">
         <v>3.75</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>161.25</v>
+        <v>157.5</v>
       </c>
       <c r="I104" s="42"/>
     </row>
@@ -5204,7 +5204,7 @@
         <v>95</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>165</v>
@@ -5216,14 +5216,14 @@
         <v>20</v>
       </c>
       <c r="F110" s="20">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="G110" s="21">
         <v>4.7</v>
       </c>
       <c r="H110" s="14">
         <f t="shared" si="2"/>
-        <v>305.5</v>
+        <v>460.6</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5338,7 +5338,7 @@
         <v>234</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D115" s="19" t="s">
         <v>149</v>
@@ -6506,7 +6506,7 @@
     <row r="155" spans="1:8" ht="48.75" customHeight="1">
       <c r="H155" s="47">
         <f>SUM(H3:H154)</f>
-        <v>16205.490000000002</v>
+        <v>16378.840000000002</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -10,15 +10,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$154</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$138</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$156</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$140</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="257">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -726,9 +726,6 @@
     <t>10/9/2018</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>Adesivo Bianco  Leggero</t>
   </si>
   <si>
@@ -741,24 +738,12 @@
     <t>21/9/2018</t>
   </si>
   <si>
-    <t>350</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
     <t>18/9/2018</t>
   </si>
   <si>
-    <t>25/9/2018</t>
-  </si>
-  <si>
-    <t>752</t>
-  </si>
-  <si>
-    <t>1062</t>
-  </si>
-  <si>
     <t>27/9/2018</t>
   </si>
   <si>
@@ -774,15 +759,9 @@
     <t>18/10/2018</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>15/10/2018</t>
   </si>
   <si>
-    <t>255</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -790,6 +769,42 @@
   </si>
   <si>
     <t>25/10/2018</t>
+  </si>
+  <si>
+    <t>28/10/2018</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Canetè  25 mm</t>
+  </si>
+  <si>
+    <t>30/10/2018</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Canetè  15 mm</t>
+  </si>
+  <si>
+    <t>30/10/2019</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
 </sst>
 </file>
@@ -1952,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IU157"/>
+  <dimension ref="A1:IU159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2399,13 +2414,13 @@
     </row>
     <row r="10" spans="1:35" ht="28.35" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="10">
-        <v>43174</v>
+        <v>43403</v>
       </c>
       <c r="C10" s="16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>12</v>
@@ -2414,14 +2429,14 @@
         <v>11</v>
       </c>
       <c r="F10" s="17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G10" s="13">
         <v>2.35</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>117.5</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -3136,7 +3151,7 @@
         <v>3</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" ref="H24:H74" si="1">F24*G24</f>
+        <f t="shared" ref="H24:H76" si="1">F24*G24</f>
         <v>6</v>
       </c>
     </row>
@@ -3145,10 +3160,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>213</v>
@@ -3216,89 +3231,89 @@
       </c>
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A28" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+      <c r="A28" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="24">
-        <v>25</v>
-      </c>
-      <c r="G28" s="25">
-        <v>1.1399999999999999</v>
+      <c r="F28" s="20">
+        <v>50</v>
+      </c>
+      <c r="G28" s="21">
+        <v>2</v>
       </c>
       <c r="H28" s="14">
         <f t="shared" si="1"/>
-        <v>28.499999999999996</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A29" s="18" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F29" s="20">
+        <v>120</v>
+      </c>
+      <c r="G29" s="21">
         <v>2</v>
-      </c>
-      <c r="G29" s="21">
-        <v>8.5</v>
       </c>
       <c r="H29" s="14">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A30" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="19" t="s">
+      <c r="A30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="24">
         <v>25</v>
       </c>
-      <c r="F30" s="20">
-        <v>10</v>
-      </c>
-      <c r="G30" s="21">
-        <v>27.44</v>
+      <c r="G30" s="25">
+        <v>1.1399999999999999</v>
       </c>
       <c r="H30" s="14">
         <f t="shared" si="1"/>
-        <v>274.40000000000003</v>
+        <v>28.499999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A31" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>213</v>
@@ -3307,48 +3322,52 @@
         <v>25</v>
       </c>
       <c r="F31" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G31" s="21">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="H31" s="14">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A32" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>254</v>
+      </c>
       <c r="D32" s="19" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="20">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G32" s="21">
-        <v>7.9</v>
+        <v>27.44</v>
       </c>
       <c r="H32" s="14">
         <f t="shared" si="1"/>
-        <v>23.700000000000003</v>
+        <v>274.40000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A33" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>213</v>
@@ -3357,87 +3376,87 @@
         <v>25</v>
       </c>
       <c r="F33" s="20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G33" s="21">
-        <v>2.76</v>
+        <v>17</v>
       </c>
       <c r="H33" s="14">
         <f t="shared" si="1"/>
-        <v>55.199999999999996</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A34" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="27">
-        <v>43256</v>
-      </c>
-      <c r="C34" s="28">
-        <v>4</v>
-      </c>
+      <c r="A34" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="12">
-        <v>0</v>
+      <c r="E34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="20">
+        <v>3</v>
       </c>
       <c r="G34" s="21">
-        <v>9.75</v>
+        <v>7.9</v>
       </c>
       <c r="H34" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.700000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A35" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F35" s="20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G35" s="21">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="H35" s="14">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>55.199999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A36" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="27">
+        <v>43256</v>
+      </c>
+      <c r="C36" s="28">
+        <v>4</v>
+      </c>
       <c r="D36" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E36" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="12">
         <v>0</v>
       </c>
       <c r="G36" s="21">
-        <v>2.7</v>
+        <v>9.75</v>
       </c>
       <c r="H36" s="14">
         <f t="shared" si="1"/>
@@ -3445,45 +3464,49 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A37" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>246</v>
+      </c>
       <c r="D37" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="12">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>3.68</v>
+        <v>217</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="20">
+        <v>50</v>
+      </c>
+      <c r="G37" s="21">
+        <v>2.6</v>
       </c>
       <c r="H37" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A38" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>20</v>
+        <v>217</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="F38" s="20">
         <v>0</v>
       </c>
       <c r="G38" s="21">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H38" s="14">
         <f t="shared" si="1"/>
@@ -3491,31 +3514,31 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A39" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="A39" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="19" t="s">
         <v>213</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="20">
-        <v>15</v>
-      </c>
-      <c r="G39" s="21">
-        <v>3</v>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>3.68</v>
       </c>
       <c r="H39" s="14">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -3526,19 +3549,19 @@
         <v>20</v>
       </c>
       <c r="F40" s="20">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G40" s="21">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H40" s="14">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A41" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -3549,19 +3572,19 @@
         <v>20</v>
       </c>
       <c r="F41" s="20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G41" s="21">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A42" s="18" t="s">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -3572,137 +3595,133 @@
         <v>20</v>
       </c>
       <c r="F42" s="20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G42" s="21">
-        <v>110</v>
+        <v>0.25</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="E43" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F43" s="20">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="G43" s="21">
-        <v>1.18</v>
+        <v>177</v>
       </c>
       <c r="H43" s="14">
         <f t="shared" si="1"/>
-        <v>200.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="D44" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="E44" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F44" s="20">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="G44" s="21">
-        <v>0.35</v>
+        <v>110</v>
       </c>
       <c r="H44" s="14">
         <f t="shared" si="1"/>
-        <v>125.99999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="28" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F45" s="20">
-        <v>60</v>
-      </c>
-      <c r="G45" s="21"/>
+        <v>170</v>
+      </c>
+      <c r="G45" s="21">
+        <v>1.18</v>
+      </c>
       <c r="H45" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>213</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="20">
-        <v>7</v>
+        <v>360</v>
       </c>
       <c r="G46" s="21">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>125.99999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>213</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="28" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F47" s="20">
-        <v>4</v>
-      </c>
-      <c r="G47" s="21">
-        <v>1.75</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G47" s="21"/>
       <c r="H47" s="14">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A48" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>209</v>
+      </c>
       <c r="D48" s="19" t="s">
         <v>213</v>
       </c>
@@ -3710,183 +3729,183 @@
         <v>20</v>
       </c>
       <c r="F48" s="20">
+        <v>7</v>
+      </c>
+      <c r="G48" s="21">
         <v>1</v>
-      </c>
-      <c r="G48" s="21">
-        <v>0.72</v>
       </c>
       <c r="H48" s="14">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="D49" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F49" s="20">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G49" s="21">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="H49" s="14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A50" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19" t="s">
-        <v>11</v>
+      <c r="D50" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>20</v>
       </c>
       <c r="F50" s="20">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G50" s="21">
-        <v>1.8</v>
+        <v>0.72</v>
       </c>
       <c r="H50" s="14">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A51" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G51" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A52" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>20</v>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="F52" s="20">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="G52" s="21">
-        <v>0.15</v>
+        <v>1.8</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="11"/>
+      <c r="A53" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="19"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>20</v>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="F53" s="20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G53" s="21">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="H53" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="A54" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F54" s="20">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G54" s="21">
-        <v>2.13</v>
+        <v>0.15</v>
       </c>
       <c r="H54" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A55" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="19"/>
+      <c r="A55" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="11"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19" t="s">
         <v>213</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F55" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" s="21">
-        <v>5.95</v>
+        <v>0.22</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="1"/>
-        <v>11.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A56" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>160</v>
-      </c>
+      <c r="A56" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="19" t="s">
         <v>213</v>
       </c>
@@ -3894,49 +3913,49 @@
         <v>20</v>
       </c>
       <c r="F56" s="20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G56" s="21">
-        <v>0.7</v>
+        <v>2.13</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="1"/>
-        <v>7.6999999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>223</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="19" t="s">
         <v>213</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F57" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G57" s="21">
-        <v>1.5</v>
+        <v>5.95</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="D58" s="19" t="s">
         <v>213</v>
       </c>
@@ -3944,22 +3963,26 @@
         <v>20</v>
       </c>
       <c r="F58" s="20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G58" s="21">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>223</v>
+      </c>
       <c r="D59" s="19" t="s">
         <v>213</v>
       </c>
@@ -3967,26 +3990,22 @@
         <v>20</v>
       </c>
       <c r="F59" s="20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G59" s="21">
         <v>1.5</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>220</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
         <v>213</v>
       </c>
@@ -3994,26 +4013,22 @@
         <v>20</v>
       </c>
       <c r="F60" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="21">
-        <v>5.35</v>
+        <v>3</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="1"/>
-        <v>5.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A61" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>191</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="19" t="s">
         <v>213</v>
       </c>
@@ -4024,19 +4039,19 @@
         <v>1</v>
       </c>
       <c r="G61" s="21">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>220</v>
@@ -4051,353 +4066,365 @@
         <v>1</v>
       </c>
       <c r="G62" s="21">
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="D63" s="19" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F63" s="20">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G63" s="21">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H63" s="14">
         <f t="shared" si="1"/>
-        <v>43.56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A64" s="18" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>213</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="F64" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G64" s="21">
-        <v>4.9000000000000004</v>
+        <v>1.5</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A65" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>171</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="19" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F65" s="20">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G65" s="21">
-        <v>0.44</v>
+        <v>1.98</v>
       </c>
       <c r="H65" s="14">
         <f t="shared" si="1"/>
-        <v>1.76</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A66" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="A66" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="E66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="24">
-        <v>11</v>
-      </c>
-      <c r="G66" s="25">
-        <v>4.8499999999999996</v>
+        <v>143</v>
+      </c>
+      <c r="F66" s="20">
+        <v>4</v>
+      </c>
+      <c r="G66" s="21">
+        <v>4.9000000000000004</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="1"/>
-        <v>53.349999999999994</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A67" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
+      <c r="A67" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="E67" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="24">
-        <v>30</v>
-      </c>
-      <c r="G67" s="25">
-        <v>5.04</v>
+        <v>20</v>
+      </c>
+      <c r="F67" s="20">
+        <v>4</v>
+      </c>
+      <c r="G67" s="21">
+        <v>0.44</v>
       </c>
       <c r="H67" s="14">
         <f t="shared" si="1"/>
-        <v>151.19999999999999</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A68" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
+      <c r="A68" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="20">
-        <v>10</v>
-      </c>
-      <c r="G68" s="21">
-        <v>8.3000000000000007</v>
+      <c r="F68" s="24">
+        <v>11</v>
+      </c>
+      <c r="G68" s="25">
+        <v>4.8499999999999996</v>
       </c>
       <c r="H68" s="14">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>53.349999999999994</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A69" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="20">
-        <v>12</v>
-      </c>
-      <c r="G69" s="21">
-        <v>0.75</v>
+      <c r="A69" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="24">
+        <v>30</v>
+      </c>
+      <c r="G69" s="25">
+        <v>5.04</v>
       </c>
       <c r="H69" s="14">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>151.19999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A70" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F70" s="20">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G70" s="21">
-        <v>3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H70" s="14">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A71" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F71" s="20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G71" s="21">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H71" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A72" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
+        <v>63</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="D72" s="19" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F72" s="20">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G72" s="21">
         <v>3</v>
       </c>
       <c r="H72" s="14">
         <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A73" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="20">
+        <v>0</v>
+      </c>
+      <c r="G73" s="21">
+        <v>3</v>
+      </c>
+      <c r="H73" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A74" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="20">
+        <v>35</v>
+      </c>
+      <c r="G74" s="21">
+        <v>3</v>
+      </c>
+      <c r="H74" s="14">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A73" s="30" t="s">
+    <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A75" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F75" s="20">
         <v>18</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G75" s="32">
         <v>3</v>
       </c>
-      <c r="H73" s="33">
+      <c r="H75" s="33">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A74" s="30" t="s">
+    <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A76" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31" t="s">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="20">
+      <c r="F76" s="20">
         <v>7</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G76" s="32">
         <v>3</v>
       </c>
-      <c r="H74" s="33">
+      <c r="H76" s="33">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A75" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75" s="20">
-        <v>43</v>
-      </c>
-      <c r="G75" s="21">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H75" s="14">
-        <f t="shared" ref="H75:H154" si="2">F75*G75</f>
-        <v>210.70000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A76" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="20">
-        <v>0</v>
-      </c>
-      <c r="G76" s="21">
-        <v>33.5</v>
-      </c>
-      <c r="H76" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>227</v>
+        <v>68</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F77" s="20">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G77" s="21">
-        <v>33.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H77" s="14">
-        <f t="shared" si="2"/>
-        <v>770.5</v>
+        <f t="shared" ref="H77:H156" si="2">F77*G77</f>
+        <v>210.70000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4406,69 +4433,65 @@
         <v>20</v>
       </c>
       <c r="F78" s="20">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G78" s="21">
-        <v>4.3</v>
+        <v>33.5</v>
       </c>
       <c r="H78" s="14">
         <f t="shared" si="2"/>
-        <v>73.099999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>195</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B79" s="19"/>
       <c r="C79" s="19"/>
-      <c r="D79" s="19" t="s">
-        <v>218</v>
-      </c>
+      <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F79" s="20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G79" s="21">
-        <v>8.5</v>
+        <v>33.5</v>
       </c>
       <c r="H79" s="14">
         <f t="shared" si="2"/>
-        <v>204</v>
+        <v>770.5</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="19" t="s">
-        <v>218</v>
-      </c>
+      <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F80" s="20">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G80" s="21">
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="H80" s="14">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>73.099999999999994</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="19"/>
+        <v>194</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>195</v>
+      </c>
       <c r="C81" s="19"/>
       <c r="D81" s="19" t="s">
         <v>218</v>
@@ -4477,19 +4500,19 @@
         <v>11</v>
       </c>
       <c r="F81" s="20">
-        <v>1.5</v>
+        <v>24</v>
       </c>
       <c r="G81" s="21">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H81" s="14">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -4500,19 +4523,19 @@
         <v>11</v>
       </c>
       <c r="F82" s="20">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G82" s="21">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="H82" s="14">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -4523,53 +4546,57 @@
         <v>11</v>
       </c>
       <c r="F83" s="20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G83" s="21">
         <v>5</v>
       </c>
       <c r="H83" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
       <c r="D84" s="19" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F84" s="20">
-        <v>150</v>
-      </c>
-      <c r="G84" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="G84" s="21">
+        <v>5</v>
+      </c>
       <c r="H84" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="19" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F85" s="20">
-        <v>150</v>
-      </c>
-      <c r="G85" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="21">
+        <v>5</v>
+      </c>
       <c r="H85" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4577,57 +4604,49 @@
     </row>
     <row r="86" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="19" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="F86" s="20">
-        <v>8</v>
-      </c>
-      <c r="G86" s="21">
-        <v>0.8</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G86" s="21"/>
       <c r="H86" s="14">
         <f t="shared" si="2"/>
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>249</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="19" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="F87" s="20">
-        <v>10</v>
-      </c>
-      <c r="G87" s="21">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G87" s="21"/>
       <c r="H87" s="14">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
@@ -4638,22 +4657,26 @@
         <v>20</v>
       </c>
       <c r="F88" s="20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G88" s="21">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H88" s="14">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>242</v>
+      </c>
       <c r="D89" s="19" t="s">
         <v>213</v>
       </c>
@@ -4661,19 +4684,19 @@
         <v>20</v>
       </c>
       <c r="F89" s="20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G89" s="21">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H89" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="90" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -4684,46 +4707,42 @@
         <v>20</v>
       </c>
       <c r="F90" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G90" s="21">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H90" s="14">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>169</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="19" t="s">
         <v>213</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F91" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G91" s="21">
-        <v>12.5</v>
+        <v>1.5</v>
       </c>
       <c r="H91" s="14">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -4734,42 +4753,46 @@
         <v>20</v>
       </c>
       <c r="F92" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G92" s="21">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H92" s="14">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="D93" s="19" t="s">
         <v>213</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F93" s="20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G93" s="21">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="H93" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -4780,26 +4803,22 @@
         <v>20</v>
       </c>
       <c r="F94" s="20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G94" s="21">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H94" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>170</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
         <v>213</v>
       </c>
@@ -4807,49 +4826,49 @@
         <v>20</v>
       </c>
       <c r="F95" s="20">
-        <v>40</v>
-      </c>
-      <c r="G95" s="38">
-        <v>0.19</v>
-      </c>
-      <c r="H95" s="44">
-        <f t="shared" si="2"/>
-        <v>7.6</v>
+        <v>0</v>
+      </c>
+      <c r="G95" s="21">
+        <v>1</v>
+      </c>
+      <c r="H95" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>170</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="19" t="s">
         <v>213</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F96" s="37">
-        <v>25</v>
-      </c>
-      <c r="G96" s="40">
-        <v>0.19</v>
-      </c>
-      <c r="H96" s="46">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
+      <c r="F96" s="20">
+        <v>0</v>
+      </c>
+      <c r="G96" s="21">
+        <v>1</v>
+      </c>
+      <c r="H96" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
+        <v>83</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="D97" s="19" t="s">
         <v>213</v>
       </c>
@@ -4857,25 +4876,25 @@
         <v>20</v>
       </c>
       <c r="F97" s="20">
-        <v>3</v>
-      </c>
-      <c r="G97" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="H97" s="45">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
+        <v>40</v>
+      </c>
+      <c r="G97" s="38">
+        <v>0.19</v>
+      </c>
+      <c r="H97" s="44">
+        <f t="shared" si="2"/>
+        <v>7.6</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>213</v>
@@ -4883,27 +4902,23 @@
       <c r="E98" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F98" s="20">
-        <v>10</v>
-      </c>
-      <c r="G98" s="21">
-        <v>0.2</v>
-      </c>
-      <c r="H98" s="44">
-        <f t="shared" si="2"/>
-        <v>2</v>
+      <c r="F98" s="37">
+        <v>25</v>
+      </c>
+      <c r="G98" s="40">
+        <v>0.19</v>
+      </c>
+      <c r="H98" s="46">
+        <f t="shared" si="2"/>
+        <v>4.75</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>161</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="19" t="s">
         <v>213</v>
       </c>
@@ -4911,79 +4926,77 @@
         <v>20</v>
       </c>
       <c r="F99" s="20">
-        <v>12</v>
-      </c>
-      <c r="G99" s="43">
-        <v>1</v>
-      </c>
-      <c r="H99" s="46">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I99" s="41"/>
+        <v>3</v>
+      </c>
+      <c r="G99" s="39">
+        <v>1.2</v>
+      </c>
+      <c r="H99" s="45">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999996</v>
+      </c>
     </row>
     <row r="100" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="E100" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F100" s="20">
-        <v>100</v>
-      </c>
-      <c r="G100" s="43">
-        <v>3.45</v>
-      </c>
-      <c r="H100" s="46">
-        <f>F100*G100</f>
-        <v>345</v>
-      </c>
-      <c r="I100" s="42"/>
+        <v>10</v>
+      </c>
+      <c r="G100" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H100" s="44">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="101" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="E101" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F101" s="20">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="G101" s="43">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H101" s="46">
         <f t="shared" si="2"/>
-        <v>246.5</v>
-      </c>
-      <c r="I101" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="I101" s="41"/>
     </row>
     <row r="102" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>165</v>
@@ -4995,20 +5008,20 @@
         <v>20</v>
       </c>
       <c r="F102" s="20">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G102" s="43">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="H102" s="46">
-        <f t="shared" si="2"/>
-        <v>340.8</v>
+        <f>F102*G102</f>
+        <v>345</v>
       </c>
       <c r="I102" s="42"/>
     </row>
     <row r="103" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>172</v>
@@ -5023,26 +5036,26 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G103" s="43">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>246.5</v>
       </c>
       <c r="I103" s="42"/>
     </row>
     <row r="104" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>173</v>
@@ -5051,425 +5064,427 @@
         <v>20</v>
       </c>
       <c r="F104" s="20">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G104" s="43">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>157.5</v>
+        <v>340.8</v>
       </c>
       <c r="I104" s="42"/>
     </row>
     <row r="105" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="E105" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F105" s="20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G105" s="43">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="H105" s="46">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I105" s="42"/>
     </row>
     <row r="106" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="E106" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F106" s="20">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G106" s="43">
-        <v>0.8</v>
+        <v>3.75</v>
       </c>
       <c r="H106" s="46">
         <f t="shared" si="2"/>
-        <v>19.200000000000003</v>
+        <v>157.5</v>
       </c>
       <c r="I106" s="42"/>
     </row>
     <row r="107" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A107" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>162</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="E107" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F107" s="20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G107" s="43">
-        <v>11.7</v>
+        <v>4</v>
       </c>
       <c r="H107" s="46">
         <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I107" s="42"/>
     </row>
     <row r="108" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A108" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="E108" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F108" s="20">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="G108" s="43">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H108" s="46">
         <f t="shared" si="2"/>
-        <v>573.5</v>
-      </c>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="I108" s="42"/>
     </row>
     <row r="109" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A109" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F109" s="20">
-        <v>20</v>
-      </c>
-      <c r="G109" s="21">
-        <v>0.83</v>
-      </c>
-      <c r="H109" s="45">
-        <f t="shared" si="2"/>
-        <v>16.599999999999998</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="43">
+        <v>11.7</v>
+      </c>
+      <c r="H109" s="46">
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A110" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="E110" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F110" s="20">
-        <v>98</v>
-      </c>
-      <c r="G110" s="21">
-        <v>4.7</v>
-      </c>
-      <c r="H110" s="14">
-        <f t="shared" si="2"/>
-        <v>460.6</v>
+        <v>185</v>
+      </c>
+      <c r="G110" s="43">
+        <v>3.1</v>
+      </c>
+      <c r="H110" s="46">
+        <f t="shared" si="2"/>
+        <v>573.5</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="E111" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F111" s="20">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="G111" s="21">
-        <v>2.5</v>
-      </c>
-      <c r="H111" s="14">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <v>0.83</v>
+      </c>
+      <c r="H111" s="45">
+        <f t="shared" si="2"/>
+        <v>16.599999999999998</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A112" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D112" s="34"/>
+        <v>165</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="E112" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F112" s="20">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="G112" s="21">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H112" s="14">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>460.6</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A113" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D113" s="19"/>
+        <v>165</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="E113" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F113" s="20">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="G113" s="21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A114" s="18" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="D114" s="19" t="s">
-        <v>217</v>
-      </c>
+      <c r="D114" s="34"/>
       <c r="E114" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F114" s="20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G114" s="21">
-        <v>41.34</v>
+        <v>2</v>
       </c>
       <c r="H114" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A115" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>149</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D115" s="19"/>
       <c r="E115" s="19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F115" s="20">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="G115" s="21">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>243.00000000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A116" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F116" s="12">
-        <v>12</v>
-      </c>
-      <c r="G116" s="14">
-        <v>6</v>
+      <c r="A116" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="20">
+        <v>0</v>
+      </c>
+      <c r="G116" s="21">
+        <v>41.34</v>
       </c>
       <c r="H116" s="14">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A117" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F117" s="20">
-        <v>752</v>
+        <v>90</v>
       </c>
       <c r="G117" s="21">
-        <v>0.66</v>
+        <v>2.7</v>
       </c>
       <c r="H117" s="14">
         <f t="shared" si="2"/>
-        <v>496.32000000000005</v>
+        <v>243.00000000000003</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A118" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B118" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="E118" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F118" s="20">
+      <c r="A118" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="29"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" s="12">
         <v>12</v>
       </c>
-      <c r="G118" s="21">
-        <v>2.85</v>
+      <c r="G118" s="14">
+        <v>6</v>
       </c>
       <c r="H118" s="14">
         <f t="shared" si="2"/>
-        <v>34.200000000000003</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A119" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="E119" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F119" s="20">
-        <v>12</v>
+        <v>752</v>
       </c>
       <c r="G119" s="21">
-        <v>1.72</v>
+        <v>0.66</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="2"/>
-        <v>20.64</v>
+        <v>496.32000000000005</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A120" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>213</v>
@@ -5478,25 +5493,25 @@
         <v>20</v>
       </c>
       <c r="F120" s="20">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G120" s="21">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="H120" s="14">
         <f t="shared" si="2"/>
-        <v>75.399999999999991</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="121" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A121" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="D121" s="19" t="s">
         <v>213</v>
@@ -5505,44 +5520,56 @@
         <v>20</v>
       </c>
       <c r="F121" s="20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G121" s="21">
         <v>1.72</v>
       </c>
       <c r="H121" s="14">
         <f t="shared" si="2"/>
-        <v>15.48</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="122" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A122" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="35"/>
+        <v>105</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="E122" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F122" s="20">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G122" s="21">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H122" s="14">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A123" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>213</v>
+      </c>
       <c r="E123" s="19" t="s">
         <v>20</v>
       </c>
@@ -5550,641 +5577,388 @@
         <v>9</v>
       </c>
       <c r="G123" s="21">
-        <v>1</v>
+        <v>1.72</v>
       </c>
       <c r="H123" s="14">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A124" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>12</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="35"/>
       <c r="E124" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F124" s="20">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G124" s="21">
-        <v>2.69</v>
+        <v>5</v>
       </c>
       <c r="H124" s="14">
         <f t="shared" si="2"/>
-        <v>269</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A125" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>12</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
       <c r="E125" s="19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F125" s="20">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="G125" s="21">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="H125" s="14">
         <f t="shared" si="2"/>
-        <v>323.39999999999998</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A126" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="E126" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F126" s="20">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G126" s="21">
-        <v>2.87</v>
+        <v>2.69</v>
       </c>
       <c r="H126" s="14">
         <f t="shared" si="2"/>
-        <v>8.61</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A127" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="F127" s="20">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="G127" s="21">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="H127" s="14">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="36" customFormat="1" ht="28.35" customHeight="1">
+        <v>323.39999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A128" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
       <c r="E128" s="19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F128" s="20">
+        <v>3</v>
+      </c>
+      <c r="G128" s="21">
+        <v>2.87</v>
+      </c>
+      <c r="H128" s="14">
+        <f t="shared" si="2"/>
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:255" s="22" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A129" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F129" s="20">
+        <v>4</v>
+      </c>
+      <c r="G129" s="21">
+        <v>7</v>
+      </c>
+      <c r="H129" s="14">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A130" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F130" s="20">
         <v>190</v>
       </c>
-      <c r="G128" s="21">
+      <c r="G130" s="21">
         <v>3</v>
       </c>
-      <c r="H128" s="14">
+      <c r="H130" s="14">
         <f t="shared" si="2"/>
         <v>570</v>
       </c>
     </row>
-    <row r="129" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A129" s="18" t="s">
+    <row r="131" spans="1:255" s="36" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A131" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" s="20">
-        <v>1</v>
-      </c>
-      <c r="G129" s="21">
-        <v>1.96</v>
-      </c>
-      <c r="H129" s="14">
-        <f t="shared" si="2"/>
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="130" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A130" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="24">
-        <v>7</v>
-      </c>
-      <c r="G130" s="25">
-        <v>1.97</v>
-      </c>
-      <c r="H130" s="14">
-        <f t="shared" si="2"/>
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="131" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A131" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
-      <c r="D131" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>11</v>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="F131" s="20">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="G131" s="21">
-        <v>7</v>
+        <v>1.96</v>
       </c>
       <c r="H131" s="14">
         <f t="shared" si="2"/>
-        <v>1365</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="132" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A132" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>12</v>
-      </c>
+      <c r="A132" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
       <c r="E132" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F132" s="20">
-        <v>100</v>
-      </c>
-      <c r="G132" s="21">
-        <v>2.69</v>
+      <c r="F132" s="24">
+        <v>7</v>
+      </c>
+      <c r="G132" s="25">
+        <v>1.97</v>
       </c>
       <c r="H132" s="14">
         <f t="shared" si="2"/>
-        <v>269</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="133" spans="1:255" ht="28.35" customHeight="1">
       <c r="A133" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>240</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
       <c r="D133" s="19" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="20">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="G133" s="21">
-        <v>2.21</v>
+        <v>7</v>
       </c>
       <c r="H133" s="14">
         <f t="shared" si="2"/>
-        <v>110.5</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="134" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A134" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="A134" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="E134" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="24">
-        <v>100</v>
-      </c>
-      <c r="G134" s="25">
-        <v>1.43</v>
+      <c r="F134" s="20">
+        <v>300</v>
+      </c>
+      <c r="G134" s="21">
+        <v>2.69</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>807</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
       <c r="A135" s="18" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
+        <v>248</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="E135" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F135" s="20">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="G135" s="21">
-        <v>8.5</v>
+        <v>2.21</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>663</v>
       </c>
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A136" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
+      <c r="A136" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
       <c r="E136" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F136" s="20">
-        <v>17</v>
-      </c>
-      <c r="G136" s="21">
-        <v>5</v>
+      <c r="F136" s="24">
+        <v>100</v>
+      </c>
+      <c r="G136" s="25">
+        <v>1.43</v>
       </c>
       <c r="H136" s="14">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:255" ht="28.35" customHeight="1">
       <c r="A137" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B137" s="19"/>
+        <v>120</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="C137" s="19"/>
-      <c r="D137" s="19" t="s">
-        <v>147</v>
-      </c>
+      <c r="D137" s="19"/>
       <c r="E137" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F137" s="20">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G137" s="21">
-        <v>47</v>
+        <v>8.5</v>
       </c>
       <c r="H137" s="14">
         <f t="shared" si="2"/>
-        <v>564</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A138" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
+      <c r="A138" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
       <c r="E138" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="24">
-        <v>22</v>
-      </c>
-      <c r="G138" s="25">
-        <v>2.97</v>
+      <c r="F138" s="20">
+        <v>17</v>
+      </c>
+      <c r="G138" s="21">
+        <v>5</v>
       </c>
       <c r="H138" s="14">
         <f t="shared" si="2"/>
-        <v>65.34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139" spans="1:255" ht="28.35" customHeight="1">
       <c r="A139" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C139" s="19" t="s">
-        <v>210</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
       <c r="D139" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E139" s="19" t="s">
-        <v>20</v>
+        <v>147</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F139" s="20">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="G139" s="21">
-        <v>1.07</v>
+        <v>47</v>
       </c>
       <c r="H139" s="14">
         <f t="shared" si="2"/>
-        <v>149.80000000000001</v>
-      </c>
-      <c r="I139"/>
-      <c r="J139"/>
-      <c r="K139"/>
-      <c r="L139"/>
-      <c r="M139"/>
-      <c r="N139"/>
-      <c r="O139"/>
-      <c r="P139"/>
-      <c r="Q139"/>
-      <c r="R139"/>
-      <c r="S139"/>
-      <c r="T139"/>
-      <c r="U139"/>
-      <c r="V139"/>
-      <c r="W139"/>
-      <c r="X139"/>
-      <c r="Y139"/>
-      <c r="Z139"/>
-      <c r="AA139"/>
-      <c r="AB139"/>
-      <c r="AC139"/>
-      <c r="AD139"/>
-      <c r="AE139"/>
-      <c r="AF139"/>
-      <c r="AG139"/>
-      <c r="AH139"/>
-      <c r="AI139"/>
-      <c r="AJ139"/>
-      <c r="AK139"/>
-      <c r="AL139"/>
-      <c r="AM139"/>
-      <c r="AN139"/>
-      <c r="AO139"/>
-      <c r="AP139"/>
-      <c r="AQ139"/>
-      <c r="AR139"/>
-      <c r="AS139"/>
-      <c r="AT139"/>
-      <c r="AU139"/>
-      <c r="AV139"/>
-      <c r="AW139"/>
-      <c r="AX139"/>
-      <c r="AY139"/>
-      <c r="AZ139"/>
-      <c r="BA139"/>
-      <c r="BB139"/>
-      <c r="BC139"/>
-      <c r="BD139"/>
-      <c r="BE139"/>
-      <c r="BF139"/>
-      <c r="BG139"/>
-      <c r="BH139"/>
-      <c r="BI139"/>
-      <c r="BJ139"/>
-      <c r="BK139"/>
-      <c r="BL139"/>
-      <c r="BM139"/>
-      <c r="BN139"/>
-      <c r="BO139"/>
-      <c r="BP139"/>
-      <c r="BQ139"/>
-      <c r="BR139"/>
-      <c r="BS139"/>
-      <c r="BT139"/>
-      <c r="BU139"/>
-      <c r="BV139"/>
-      <c r="BW139"/>
-      <c r="BX139"/>
-      <c r="BY139"/>
-      <c r="BZ139"/>
-      <c r="CA139"/>
-      <c r="CB139"/>
-      <c r="CC139"/>
-      <c r="CD139"/>
-      <c r="CE139"/>
-      <c r="CF139"/>
-      <c r="CG139"/>
-      <c r="CH139"/>
-      <c r="CI139"/>
-      <c r="CJ139"/>
-      <c r="CK139"/>
-      <c r="CL139"/>
-      <c r="CM139"/>
-      <c r="CN139"/>
-      <c r="CO139"/>
-      <c r="CP139"/>
-      <c r="CQ139"/>
-      <c r="CR139"/>
-      <c r="CS139"/>
-      <c r="CT139"/>
-      <c r="CU139"/>
-      <c r="CV139"/>
-      <c r="CW139"/>
-      <c r="CX139"/>
-      <c r="CY139"/>
-      <c r="CZ139"/>
-      <c r="DA139"/>
-      <c r="DB139"/>
-      <c r="DC139"/>
-      <c r="DD139"/>
-      <c r="DE139"/>
-      <c r="DF139"/>
-      <c r="DG139"/>
-      <c r="DH139"/>
-      <c r="DI139"/>
-      <c r="DJ139"/>
-      <c r="DK139"/>
-      <c r="DL139"/>
-      <c r="DM139"/>
-      <c r="DN139"/>
-      <c r="DO139"/>
-      <c r="DP139"/>
-      <c r="DQ139"/>
-      <c r="DR139"/>
-      <c r="DS139"/>
-      <c r="DT139"/>
-      <c r="DU139"/>
-      <c r="DV139"/>
-      <c r="DW139"/>
-      <c r="DX139"/>
-      <c r="DY139"/>
-      <c r="DZ139"/>
-      <c r="EA139"/>
-      <c r="EB139"/>
-      <c r="EC139"/>
-      <c r="ED139"/>
-      <c r="EE139"/>
-      <c r="EF139"/>
-      <c r="EG139"/>
-      <c r="EH139"/>
-      <c r="EI139"/>
-      <c r="EJ139"/>
-      <c r="EK139"/>
-      <c r="EL139"/>
-      <c r="EM139"/>
-      <c r="EN139"/>
-      <c r="EO139"/>
-      <c r="EP139"/>
-      <c r="EQ139"/>
-      <c r="ER139"/>
-      <c r="ES139"/>
-      <c r="ET139"/>
-      <c r="EU139"/>
-      <c r="EV139"/>
-      <c r="EW139"/>
-      <c r="EX139"/>
-      <c r="EY139"/>
-      <c r="EZ139"/>
-      <c r="FA139"/>
-      <c r="FB139"/>
-      <c r="FC139"/>
-      <c r="FD139"/>
-      <c r="FE139"/>
-      <c r="FF139"/>
-      <c r="FG139"/>
-      <c r="FH139"/>
-      <c r="FI139"/>
-      <c r="FJ139"/>
-      <c r="FK139"/>
-      <c r="FL139"/>
-      <c r="FM139"/>
-      <c r="FN139"/>
-      <c r="FO139"/>
-      <c r="FP139"/>
-      <c r="FQ139"/>
-      <c r="FR139"/>
-      <c r="FS139"/>
-      <c r="FT139"/>
-      <c r="FU139"/>
-      <c r="FV139"/>
-      <c r="FW139"/>
-      <c r="FX139"/>
-      <c r="FY139"/>
-      <c r="FZ139"/>
-      <c r="GA139"/>
-      <c r="GB139"/>
-      <c r="GC139"/>
-      <c r="GD139"/>
-      <c r="GE139"/>
-      <c r="GF139"/>
-      <c r="GG139"/>
-      <c r="GH139"/>
-      <c r="GI139"/>
-      <c r="GJ139"/>
-      <c r="GK139"/>
-      <c r="GL139"/>
-      <c r="GM139"/>
-      <c r="GN139"/>
-      <c r="GO139"/>
-      <c r="GP139"/>
-      <c r="GQ139"/>
-      <c r="GR139"/>
-      <c r="GS139"/>
-      <c r="GT139"/>
-      <c r="GU139"/>
-      <c r="GV139"/>
-      <c r="GW139"/>
-      <c r="GX139"/>
-      <c r="GY139"/>
-      <c r="GZ139"/>
-      <c r="HA139"/>
-      <c r="HB139"/>
-      <c r="HC139"/>
-      <c r="HD139"/>
-      <c r="HE139"/>
-      <c r="HF139"/>
-      <c r="HG139"/>
-      <c r="HH139"/>
-      <c r="HI139"/>
-      <c r="HJ139"/>
-      <c r="HK139"/>
-      <c r="HL139"/>
-      <c r="HM139"/>
-      <c r="HN139"/>
-      <c r="HO139"/>
-      <c r="HP139"/>
-      <c r="HQ139"/>
-      <c r="HR139"/>
-      <c r="HS139"/>
-      <c r="HT139"/>
-      <c r="HU139"/>
-      <c r="HV139"/>
-      <c r="HW139"/>
-      <c r="HX139"/>
-      <c r="HY139"/>
-      <c r="HZ139"/>
-      <c r="IA139"/>
-      <c r="IB139"/>
-      <c r="IC139"/>
-      <c r="ID139"/>
-      <c r="IE139"/>
-      <c r="IF139"/>
-      <c r="IG139"/>
-      <c r="IH139"/>
-      <c r="II139"/>
-      <c r="IJ139"/>
-      <c r="IK139"/>
-      <c r="IL139"/>
-      <c r="IM139"/>
-      <c r="IN139"/>
-      <c r="IO139"/>
-      <c r="IP139"/>
-      <c r="IQ139"/>
-      <c r="IR139"/>
-      <c r="IS139"/>
-      <c r="IT139"/>
-      <c r="IU139"/>
+        <v>564</v>
+      </c>
     </row>
     <row r="140" spans="1:255" ht="28.35" customHeight="1">
       <c r="A140" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -6193,84 +5967,337 @@
         <v>11</v>
       </c>
       <c r="F140" s="24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G140" s="25">
-        <v>5</v>
+        <v>2.97</v>
       </c>
       <c r="H140" s="14">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>65.34</v>
       </c>
     </row>
     <row r="141" spans="1:255" ht="28.35" customHeight="1">
-      <c r="A141" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" s="24">
-        <v>1</v>
-      </c>
-      <c r="G141" s="25">
-        <v>12</v>
+      <c r="A141" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" s="20">
+        <v>140</v>
+      </c>
+      <c r="G141" s="21">
+        <v>1.07</v>
       </c>
       <c r="H141" s="14">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
+        <v>149.80000000000001</v>
+      </c>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+      <c r="AA141"/>
+      <c r="AB141"/>
+      <c r="AC141"/>
+      <c r="AD141"/>
+      <c r="AE141"/>
+      <c r="AF141"/>
+      <c r="AG141"/>
+      <c r="AH141"/>
+      <c r="AI141"/>
+      <c r="AJ141"/>
+      <c r="AK141"/>
+      <c r="AL141"/>
+      <c r="AM141"/>
+      <c r="AN141"/>
+      <c r="AO141"/>
+      <c r="AP141"/>
+      <c r="AQ141"/>
+      <c r="AR141"/>
+      <c r="AS141"/>
+      <c r="AT141"/>
+      <c r="AU141"/>
+      <c r="AV141"/>
+      <c r="AW141"/>
+      <c r="AX141"/>
+      <c r="AY141"/>
+      <c r="AZ141"/>
+      <c r="BA141"/>
+      <c r="BB141"/>
+      <c r="BC141"/>
+      <c r="BD141"/>
+      <c r="BE141"/>
+      <c r="BF141"/>
+      <c r="BG141"/>
+      <c r="BH141"/>
+      <c r="BI141"/>
+      <c r="BJ141"/>
+      <c r="BK141"/>
+      <c r="BL141"/>
+      <c r="BM141"/>
+      <c r="BN141"/>
+      <c r="BO141"/>
+      <c r="BP141"/>
+      <c r="BQ141"/>
+      <c r="BR141"/>
+      <c r="BS141"/>
+      <c r="BT141"/>
+      <c r="BU141"/>
+      <c r="BV141"/>
+      <c r="BW141"/>
+      <c r="BX141"/>
+      <c r="BY141"/>
+      <c r="BZ141"/>
+      <c r="CA141"/>
+      <c r="CB141"/>
+      <c r="CC141"/>
+      <c r="CD141"/>
+      <c r="CE141"/>
+      <c r="CF141"/>
+      <c r="CG141"/>
+      <c r="CH141"/>
+      <c r="CI141"/>
+      <c r="CJ141"/>
+      <c r="CK141"/>
+      <c r="CL141"/>
+      <c r="CM141"/>
+      <c r="CN141"/>
+      <c r="CO141"/>
+      <c r="CP141"/>
+      <c r="CQ141"/>
+      <c r="CR141"/>
+      <c r="CS141"/>
+      <c r="CT141"/>
+      <c r="CU141"/>
+      <c r="CV141"/>
+      <c r="CW141"/>
+      <c r="CX141"/>
+      <c r="CY141"/>
+      <c r="CZ141"/>
+      <c r="DA141"/>
+      <c r="DB141"/>
+      <c r="DC141"/>
+      <c r="DD141"/>
+      <c r="DE141"/>
+      <c r="DF141"/>
+      <c r="DG141"/>
+      <c r="DH141"/>
+      <c r="DI141"/>
+      <c r="DJ141"/>
+      <c r="DK141"/>
+      <c r="DL141"/>
+      <c r="DM141"/>
+      <c r="DN141"/>
+      <c r="DO141"/>
+      <c r="DP141"/>
+      <c r="DQ141"/>
+      <c r="DR141"/>
+      <c r="DS141"/>
+      <c r="DT141"/>
+      <c r="DU141"/>
+      <c r="DV141"/>
+      <c r="DW141"/>
+      <c r="DX141"/>
+      <c r="DY141"/>
+      <c r="DZ141"/>
+      <c r="EA141"/>
+      <c r="EB141"/>
+      <c r="EC141"/>
+      <c r="ED141"/>
+      <c r="EE141"/>
+      <c r="EF141"/>
+      <c r="EG141"/>
+      <c r="EH141"/>
+      <c r="EI141"/>
+      <c r="EJ141"/>
+      <c r="EK141"/>
+      <c r="EL141"/>
+      <c r="EM141"/>
+      <c r="EN141"/>
+      <c r="EO141"/>
+      <c r="EP141"/>
+      <c r="EQ141"/>
+      <c r="ER141"/>
+      <c r="ES141"/>
+      <c r="ET141"/>
+      <c r="EU141"/>
+      <c r="EV141"/>
+      <c r="EW141"/>
+      <c r="EX141"/>
+      <c r="EY141"/>
+      <c r="EZ141"/>
+      <c r="FA141"/>
+      <c r="FB141"/>
+      <c r="FC141"/>
+      <c r="FD141"/>
+      <c r="FE141"/>
+      <c r="FF141"/>
+      <c r="FG141"/>
+      <c r="FH141"/>
+      <c r="FI141"/>
+      <c r="FJ141"/>
+      <c r="FK141"/>
+      <c r="FL141"/>
+      <c r="FM141"/>
+      <c r="FN141"/>
+      <c r="FO141"/>
+      <c r="FP141"/>
+      <c r="FQ141"/>
+      <c r="FR141"/>
+      <c r="FS141"/>
+      <c r="FT141"/>
+      <c r="FU141"/>
+      <c r="FV141"/>
+      <c r="FW141"/>
+      <c r="FX141"/>
+      <c r="FY141"/>
+      <c r="FZ141"/>
+      <c r="GA141"/>
+      <c r="GB141"/>
+      <c r="GC141"/>
+      <c r="GD141"/>
+      <c r="GE141"/>
+      <c r="GF141"/>
+      <c r="GG141"/>
+      <c r="GH141"/>
+      <c r="GI141"/>
+      <c r="GJ141"/>
+      <c r="GK141"/>
+      <c r="GL141"/>
+      <c r="GM141"/>
+      <c r="GN141"/>
+      <c r="GO141"/>
+      <c r="GP141"/>
+      <c r="GQ141"/>
+      <c r="GR141"/>
+      <c r="GS141"/>
+      <c r="GT141"/>
+      <c r="GU141"/>
+      <c r="GV141"/>
+      <c r="GW141"/>
+      <c r="GX141"/>
+      <c r="GY141"/>
+      <c r="GZ141"/>
+      <c r="HA141"/>
+      <c r="HB141"/>
+      <c r="HC141"/>
+      <c r="HD141"/>
+      <c r="HE141"/>
+      <c r="HF141"/>
+      <c r="HG141"/>
+      <c r="HH141"/>
+      <c r="HI141"/>
+      <c r="HJ141"/>
+      <c r="HK141"/>
+      <c r="HL141"/>
+      <c r="HM141"/>
+      <c r="HN141"/>
+      <c r="HO141"/>
+      <c r="HP141"/>
+      <c r="HQ141"/>
+      <c r="HR141"/>
+      <c r="HS141"/>
+      <c r="HT141"/>
+      <c r="HU141"/>
+      <c r="HV141"/>
+      <c r="HW141"/>
+      <c r="HX141"/>
+      <c r="HY141"/>
+      <c r="HZ141"/>
+      <c r="IA141"/>
+      <c r="IB141"/>
+      <c r="IC141"/>
+      <c r="ID141"/>
+      <c r="IE141"/>
+      <c r="IF141"/>
+      <c r="IG141"/>
+      <c r="IH141"/>
+      <c r="II141"/>
+      <c r="IJ141"/>
+      <c r="IK141"/>
+      <c r="IL141"/>
+      <c r="IM141"/>
+      <c r="IN141"/>
+      <c r="IO141"/>
+      <c r="IP141"/>
+      <c r="IQ141"/>
+      <c r="IR141"/>
+      <c r="IS141"/>
+      <c r="IT141"/>
+      <c r="IU141"/>
     </row>
     <row r="142" spans="1:255" ht="28.35" customHeight="1">
       <c r="A142" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F142" s="24">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G142" s="25">
-        <v>1.36</v>
+        <v>5</v>
       </c>
       <c r="H142" s="14">
         <f t="shared" si="2"/>
-        <v>10.88</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:255" ht="28.35" customHeight="1">
       <c r="A143" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B143" s="29"/>
+        <v>125</v>
+      </c>
+      <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F143" s="24">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G143" s="25">
-        <v>2.2000000000000002</v>
+        <v>12</v>
       </c>
       <c r="H143" s="14">
         <f t="shared" si="2"/>
-        <v>35.200000000000003</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:255" ht="28.35" customHeight="1">
       <c r="A144" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B144" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11" t="s">
@@ -6280,16 +6307,16 @@
         <v>8</v>
       </c>
       <c r="G144" s="25">
-        <v>5.5</v>
+        <v>1.36</v>
       </c>
       <c r="H144" s="14">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.35" customHeight="1">
       <c r="A145" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B145" s="29"/>
       <c r="C145" s="11"/>
@@ -6298,40 +6325,40 @@
         <v>20</v>
       </c>
       <c r="F145" s="24">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G145" s="25">
-        <v>0.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>15.600000000000001</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
       <c r="A146" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B146" s="11"/>
+        <v>128</v>
+      </c>
+      <c r="B146" s="29"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F146" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G146" s="25">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
       <c r="A147" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B147" s="29"/>
       <c r="C147" s="11"/>
@@ -6340,40 +6367,40 @@
         <v>20</v>
       </c>
       <c r="F147" s="24">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G147" s="25">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>19.8</v>
+        <v>15.600000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
       <c r="A148" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B148" s="29"/>
+        <v>130</v>
+      </c>
+      <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F148" s="24">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G148" s="25">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" si="2"/>
-        <v>54.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
       <c r="A149" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B149" s="29"/>
       <c r="C149" s="11"/>
@@ -6382,19 +6409,19 @@
         <v>20</v>
       </c>
       <c r="F149" s="24">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G149" s="25">
-        <v>2.85</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="2"/>
-        <v>76.95</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
       <c r="A150" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B150" s="29"/>
       <c r="C150" s="11"/>
@@ -6403,215 +6430,257 @@
         <v>20</v>
       </c>
       <c r="F150" s="24">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G150" s="25">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H150" s="14">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="28.35" customHeight="1">
       <c r="A151" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B151" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="B151" s="29"/>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F151" s="24">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G151" s="25">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>76.95</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.35" customHeight="1">
       <c r="A152" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B152" s="29"/>
       <c r="C152" s="11"/>
-      <c r="D152" s="11" t="s">
-        <v>137</v>
-      </c>
+      <c r="D152" s="11"/>
       <c r="E152" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F152" s="24">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G152" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="H152" s="14">
+        <f t="shared" si="2"/>
         <v>17</v>
-      </c>
-      <c r="H152" s="14">
-        <f t="shared" si="2"/>
-        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.35" customHeight="1">
       <c r="A153" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B153" s="29"/>
+        <v>135</v>
+      </c>
+      <c r="B153" s="11"/>
       <c r="C153" s="11"/>
-      <c r="D153" s="11" t="s">
-        <v>139</v>
-      </c>
+      <c r="D153" s="11"/>
       <c r="E153" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F153" s="24">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="G153" s="25">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H153" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.35" customHeight="1">
       <c r="A154" s="23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B154" s="29"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="24">
+        <v>21</v>
+      </c>
+      <c r="G154" s="25">
+        <v>17</v>
+      </c>
+      <c r="H154" s="14">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A155" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B155" s="29"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E154" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F154" s="24">
+      <c r="E155" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" s="24">
+        <v>100</v>
+      </c>
+      <c r="G155" s="25">
+        <v>10</v>
+      </c>
+      <c r="H155" s="14">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A156" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B156" s="29"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" s="24">
         <v>8</v>
       </c>
-      <c r="G154" s="25">
+      <c r="G156" s="25">
         <v>10</v>
       </c>
-      <c r="H154" s="14">
+      <c r="H156" s="14">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H155" s="47">
-        <f>SUM(H3:H154)</f>
-        <v>16378.840000000002</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="29.1" customHeight="1"/>
-    <row r="157" spans="1:8" ht="30" customHeight="1"/>
+    <row r="157" spans="1:8" ht="48.75" customHeight="1">
+      <c r="H157" s="47">
+        <f>SUM(H3:H156)</f>
+        <v>17882.490000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="29.1" customHeight="1"/>
+    <row r="159" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F118:F120 F87 F28:F31 F24:F25">
+  <conditionalFormatting sqref="F120:F122 F89 F30:F33 F24:F25">
     <cfRule type="cellIs" dxfId="19" priority="2" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F92 F41:F42 F32:F33">
+  <conditionalFormatting sqref="F92:F94 F43:F44 F34:F35">
     <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F35">
+  <conditionalFormatting sqref="F36:F37">
     <cfRule type="cellIs" dxfId="17" priority="5" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F40">
+  <conditionalFormatting sqref="F41:F42">
     <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F45">
+  <conditionalFormatting sqref="F46:F47">
     <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F48">
     <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:F89 F108 F93:F94 F50">
+  <conditionalFormatting sqref="F90:F91 F110 F95:F96 F52">
     <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
+  <conditionalFormatting sqref="F56">
     <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:F86 F59">
+  <conditionalFormatting sqref="F78:F88 F61">
     <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
+  <conditionalFormatting sqref="F67">
     <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
+  <conditionalFormatting sqref="F72">
     <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
+  <conditionalFormatting sqref="F73">
     <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F104 F99:F100">
+  <conditionalFormatting sqref="F106 F101:F102">
     <cfRule type="cellIs" dxfId="7" priority="24" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F121 F109">
+  <conditionalFormatting sqref="F123 F111">
     <cfRule type="cellIs" dxfId="6" priority="25" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:F114">
+  <conditionalFormatting sqref="F113:F116">
     <cfRule type="cellIs" dxfId="5" priority="28" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107">
+  <conditionalFormatting sqref="F109">
     <cfRule type="cellIs" dxfId="4" priority="31" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103">
+  <conditionalFormatting sqref="F105">
     <cfRule type="cellIs" dxfId="3" priority="33" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100:F102">
+  <conditionalFormatting sqref="F102:F104">
     <cfRule type="cellIs" dxfId="2" priority="34" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
+  <conditionalFormatting sqref="F100">
     <cfRule type="cellIs" dxfId="1" priority="36" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:F97">
+  <conditionalFormatting sqref="F98:F99">
     <cfRule type="cellIs" dxfId="0" priority="38" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>12</formula>
     </cfRule>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5008,14 +5008,14 @@
         <v>20</v>
       </c>
       <c r="F102" s="20">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G102" s="43">
         <v>3.45</v>
       </c>
       <c r="H102" s="46">
         <f>F102*G102</f>
-        <v>345</v>
+        <v>338.1</v>
       </c>
       <c r="I102" s="42"/>
     </row>
@@ -5036,14 +5036,14 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G103" s="43">
         <v>2.9</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>246.5</v>
+        <v>243.6</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -5064,14 +5064,14 @@
         <v>20</v>
       </c>
       <c r="F104" s="20">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G104" s="43">
         <v>4.8</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>340.8</v>
+        <v>336</v>
       </c>
       <c r="I104" s="42"/>
     </row>
@@ -5858,14 +5858,14 @@
         <v>11</v>
       </c>
       <c r="F135" s="20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G135" s="21">
         <v>2.21</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="2"/>
-        <v>663</v>
+        <v>552.5</v>
       </c>
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
@@ -6346,14 +6346,14 @@
         <v>20</v>
       </c>
       <c r="F146" s="24">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G146" s="25">
         <v>5.5</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
@@ -6367,14 +6367,14 @@
         <v>20</v>
       </c>
       <c r="F147" s="24">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G147" s="25">
         <v>0.4</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>15.600000000000001</v>
+        <v>15.200000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
@@ -6388,14 +6388,14 @@
         <v>20</v>
       </c>
       <c r="F148" s="24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G148" s="25">
         <v>0.5</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
@@ -6472,14 +6472,14 @@
         <v>20</v>
       </c>
       <c r="F152" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G152" s="25">
         <v>3.4</v>
       </c>
       <c r="H152" s="14">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.35" customHeight="1">
@@ -6575,7 +6575,7 @@
     <row r="157" spans="1:8" ht="48.75" customHeight="1">
       <c r="H157" s="47">
         <f>SUM(H3:H156)</f>
-        <v>17882.490000000002</v>
+        <v>17857.090000000004</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -5008,14 +5008,14 @@
         <v>20</v>
       </c>
       <c r="F102" s="20">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G102" s="43">
         <v>3.45</v>
       </c>
       <c r="H102" s="46">
         <f>F102*G102</f>
-        <v>338.1</v>
+        <v>331.20000000000005</v>
       </c>
       <c r="I102" s="42"/>
     </row>
@@ -5036,14 +5036,14 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G103" s="43">
         <v>2.9</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>243.6</v>
+        <v>211.7</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -5064,14 +5064,14 @@
         <v>20</v>
       </c>
       <c r="F104" s="20">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G104" s="43">
         <v>4.8</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="I104" s="42"/>
     </row>
@@ -5312,14 +5312,14 @@
         <v>20</v>
       </c>
       <c r="F113" s="20">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G113" s="21">
         <v>2.5</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5858,14 +5858,14 @@
         <v>11</v>
       </c>
       <c r="F135" s="20">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G135" s="21">
         <v>2.21</v>
       </c>
       <c r="H135" s="14">
         <f t="shared" si="2"/>
-        <v>552.5</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:255" ht="28.35" customHeight="1">
@@ -6346,14 +6346,14 @@
         <v>20</v>
       </c>
       <c r="F146" s="24">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G146" s="25">
         <v>5.5</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>148.5</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
@@ -6367,14 +6367,14 @@
         <v>20</v>
       </c>
       <c r="F147" s="24">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G147" s="25">
         <v>0.4</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>15.200000000000001</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
@@ -6388,14 +6388,14 @@
         <v>20</v>
       </c>
       <c r="F148" s="24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G148" s="25">
         <v>0.5</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
@@ -6472,14 +6472,14 @@
         <v>20</v>
       </c>
       <c r="F152" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G152" s="25">
         <v>3.4</v>
       </c>
       <c r="H152" s="14">
         <f t="shared" si="2"/>
-        <v>13.6</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.35" customHeight="1">
@@ -6575,7 +6575,7 @@
     <row r="157" spans="1:8" ht="48.75" customHeight="1">
       <c r="H157" s="47">
         <f>SUM(H3:H156)</f>
-        <v>17857.090000000004</v>
+        <v>17637.090000000004</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4305,14 +4305,14 @@
         <v>20</v>
       </c>
       <c r="F72" s="20">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G72" s="21">
         <v>3</v>
       </c>
       <c r="H72" s="14">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5036,14 +5036,14 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G103" s="43">
         <v>2.9</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>211.7</v>
+        <v>208.79999999999998</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -5312,14 +5312,14 @@
         <v>20</v>
       </c>
       <c r="F113" s="20">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G113" s="21">
         <v>2.5</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5466,14 +5466,14 @@
         <v>20</v>
       </c>
       <c r="F119" s="20">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="G119" s="21">
         <v>0.66</v>
       </c>
       <c r="H119" s="14">
         <f t="shared" si="2"/>
-        <v>496.32000000000005</v>
+        <v>481.8</v>
       </c>
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -6575,7 +6575,7 @@
     <row r="157" spans="1:8" ht="48.75" customHeight="1">
       <c r="H157" s="47">
         <f>SUM(H3:H156)</f>
-        <v>17637.090000000004</v>
+        <v>17606.170000000002</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="29.1" customHeight="1"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$156</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$157</definedName>
     <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Sheet1!$A$1:$H$140</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="258">
   <si>
     <t>PRODOTTO</t>
   </si>
@@ -729,9 +729,6 @@
     <t>Adesivo Bianco  Leggero</t>
   </si>
   <si>
-    <t>2350</t>
-  </si>
-  <si>
     <t>12/9/2018</t>
   </si>
   <si>
@@ -805,6 +802,12 @@
   </si>
   <si>
     <t>56</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>Piedino Cerniera invisibile</t>
   </si>
 </sst>
 </file>
@@ -1967,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IU159"/>
+  <dimension ref="A1:IU160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -3160,10 +3163,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>213</v>
@@ -3172,14 +3175,14 @@
         <v>27</v>
       </c>
       <c r="F25" s="20">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="G25" s="21">
         <v>0.98</v>
       </c>
       <c r="H25" s="14">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -3232,13 +3235,13 @@
     </row>
     <row r="28" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A28" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="C28" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>12</v>
@@ -3259,10 +3262,10 @@
     </row>
     <row r="29" spans="1:35" s="22" customFormat="1" ht="28.35" customHeight="1">
       <c r="A29" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>250</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>251</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>223</v>
@@ -3310,7 +3313,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>169</v>
@@ -3337,10 +3340,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>216</v>
@@ -3364,10 +3367,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>213</v>
@@ -3414,10 +3417,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>213</v>
@@ -3468,10 +3471,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>217</v>
@@ -3744,7 +3747,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>196</v>
@@ -4349,14 +4352,14 @@
         <v>11</v>
       </c>
       <c r="F74" s="20">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G74" s="21">
         <v>3</v>
       </c>
       <c r="H74" s="14">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -4418,7 +4421,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="H77" s="14">
-        <f t="shared" ref="H77:H156" si="2">F77*G77</f>
+        <f t="shared" ref="H77:H157" si="2">F77*G77</f>
         <v>210.70000000000002</v>
       </c>
     </row>
@@ -4615,7 +4618,7 @@
         <v>143</v>
       </c>
       <c r="F86" s="20">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="G86" s="21"/>
       <c r="H86" s="14">
@@ -4636,7 +4639,7 @@
         <v>143</v>
       </c>
       <c r="F87" s="20">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="G87" s="21"/>
       <c r="H87" s="14">
@@ -4672,10 +4675,10 @@
         <v>75</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D89" s="19" t="s">
         <v>213</v>
@@ -5008,14 +5011,14 @@
         <v>20</v>
       </c>
       <c r="F102" s="20">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G102" s="43">
         <v>3.45</v>
       </c>
       <c r="H102" s="46">
         <f>F102*G102</f>
-        <v>331.20000000000005</v>
+        <v>313.95</v>
       </c>
       <c r="I102" s="42"/>
     </row>
@@ -5036,14 +5039,14 @@
         <v>20</v>
       </c>
       <c r="F103" s="20">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G103" s="43">
         <v>2.9</v>
       </c>
       <c r="H103" s="46">
         <f t="shared" si="2"/>
-        <v>208.79999999999998</v>
+        <v>200.1</v>
       </c>
       <c r="I103" s="42"/>
     </row>
@@ -5064,14 +5067,14 @@
         <v>20</v>
       </c>
       <c r="F104" s="20">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G104" s="43">
         <v>4.8</v>
       </c>
       <c r="H104" s="46">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>302.39999999999998</v>
       </c>
       <c r="I104" s="42"/>
     </row>
@@ -5198,7 +5201,7 @@
         <v>162</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E109" s="19" t="s">
         <v>20</v>
@@ -5219,7 +5222,7 @@
         <v>93</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C110" s="19" t="s">
         <v>210</v>
@@ -5273,7 +5276,7 @@
         <v>95</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C112" s="19" t="s">
         <v>165</v>
@@ -5300,7 +5303,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>165</v>
@@ -5312,14 +5315,14 @@
         <v>20</v>
       </c>
       <c r="F113" s="20">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G113" s="21">
         <v>2.5</v>
       </c>
       <c r="H113" s="14">
         <f t="shared" si="2"/>
-        <v>127.5</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5327,7 +5330,7 @@
         <v>97</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C114" s="19" t="s">
         <v>160</v>
@@ -5352,7 +5355,7 @@
         <v>98</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C115" s="19" t="s">
         <v>160</v>
@@ -5362,14 +5365,14 @@
         <v>20</v>
       </c>
       <c r="F115" s="20">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G115" s="21">
         <v>2</v>
       </c>
       <c r="H115" s="14">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="28.35" customHeight="1">
@@ -5404,10 +5407,10 @@
         <v>99</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>149</v>
@@ -5481,10 +5484,10 @@
         <v>103</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>213</v>
@@ -5819,10 +5822,10 @@
         <v>118</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>12</v>
@@ -5831,14 +5834,14 @@
         <v>11</v>
       </c>
       <c r="F134" s="20">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G134" s="21">
         <v>2.69</v>
       </c>
       <c r="H134" s="14">
         <f t="shared" si="2"/>
-        <v>807</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="135" spans="1:255" ht="28.35" customHeight="1">
@@ -5846,10 +5849,10 @@
         <v>167</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D135" s="19" t="s">
         <v>12</v>
@@ -6325,14 +6328,14 @@
         <v>20</v>
       </c>
       <c r="F145" s="24">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G145" s="25">
         <v>2.2000000000000002</v>
       </c>
       <c r="H145" s="14">
         <f t="shared" si="2"/>
-        <v>35.200000000000003</v>
+        <v>114.4</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="28.35" customHeight="1">
@@ -6346,14 +6349,14 @@
         <v>20</v>
       </c>
       <c r="F146" s="24">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G146" s="25">
         <v>5.5</v>
       </c>
       <c r="H146" s="14">
         <f t="shared" si="2"/>
-        <v>137.5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.35" customHeight="1">
@@ -6367,14 +6370,14 @@
         <v>20</v>
       </c>
       <c r="F147" s="24">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G147" s="25">
         <v>0.4</v>
       </c>
       <c r="H147" s="14">
         <f t="shared" si="2"/>
-        <v>14.4</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.35" customHeight="1">
@@ -6388,14 +6391,14 @@
         <v>20</v>
       </c>
       <c r="F148" s="24">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G148" s="25">
         <v>0.5</v>
       </c>
       <c r="H148" s="14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.35" customHeight="1">
@@ -6409,14 +6412,14 @@
         <v>20</v>
       </c>
       <c r="F149" s="24">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G149" s="25">
         <v>1.1000000000000001</v>
       </c>
       <c r="H149" s="14">
         <f t="shared" si="2"/>
-        <v>19.8</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.35" customHeight="1">
@@ -6451,14 +6454,14 @@
         <v>20</v>
       </c>
       <c r="F151" s="24">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G151" s="25">
         <v>2.85</v>
       </c>
       <c r="H151" s="14">
         <f t="shared" si="2"/>
-        <v>76.95</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.35" customHeight="1">
@@ -6472,86 +6475,82 @@
         <v>20</v>
       </c>
       <c r="F152" s="24">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G152" s="25">
         <v>3.4</v>
       </c>
       <c r="H152" s="14">
         <f t="shared" si="2"/>
-        <v>10.199999999999999</v>
+        <v>139.4</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.35" customHeight="1">
       <c r="A153" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="B153" s="11"/>
+        <v>257</v>
+      </c>
+      <c r="B153" s="29"/>
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
-      <c r="E153" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="E153" s="11"/>
       <c r="F153" s="24">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G153" s="25">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H153" s="14">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.35" customHeight="1">
       <c r="A154" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B154" s="29"/>
+        <v>135</v>
+      </c>
+      <c r="B154" s="11"/>
       <c r="C154" s="11"/>
-      <c r="D154" s="11" t="s">
-        <v>137</v>
-      </c>
+      <c r="D154" s="11"/>
       <c r="E154" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F154" s="24">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G154" s="25">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H154" s="14">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.35" customHeight="1">
       <c r="A155" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B155" s="29"/>
       <c r="C155" s="11"/>
       <c r="D155" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E155" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F155" s="24">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="G155" s="25">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H155" s="14">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="28.35" customHeight="1">
       <c r="A156" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B156" s="29"/>
       <c r="C156" s="11"/>
@@ -6562,24 +6561,47 @@
         <v>20</v>
       </c>
       <c r="F156" s="24">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G156" s="25">
         <v>10</v>
       </c>
       <c r="H156" s="14">
         <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="28.35" customHeight="1">
+      <c r="A157" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B157" s="29"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="24">
+        <v>8</v>
+      </c>
+      <c r="G157" s="25">
+        <v>10</v>
+      </c>
+      <c r="H157" s="14">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="48.75" customHeight="1">
-      <c r="H157" s="47">
-        <f>SUM(H3:H156)</f>
-        <v>17606.170000000002</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="29.1" customHeight="1"/>
-    <row r="159" spans="1:8" ht="30" customHeight="1"/>
+    <row r="158" spans="1:8" ht="48.75" customHeight="1">
+      <c r="H158" s="47">
+        <f>SUM(H3:H157)</f>
+        <v>17658.37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="29.1" customHeight="1"/>
+    <row r="160" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -830,7 +830,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -851,44 +851,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -961,42 +923,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF10243E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCF305"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1007,7 +939,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -1061,7 +993,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1085,413 +1017,213 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="66" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="66" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="9" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="4" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="9" borderId="3" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="5" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="66" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="1" xfId="66" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="66" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="9" borderId="0" xfId="66" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Accent 1 8" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2 9" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3 7" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 6" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error 3" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote 2" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome1" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome10" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome11" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome12" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome13" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome14" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome15" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome16" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome17" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome18" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome19" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome2" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome20" xfId="38" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome21" xfId="39" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome22" xfId="40" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome23" xfId="41" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome24" xfId="42" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome25" xfId="43" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome26" xfId="44" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome27" xfId="45" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome28" xfId="46" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome29" xfId="47" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome3" xfId="48" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome30" xfId="49" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome31" xfId="50" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome32" xfId="51" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome33" xfId="52" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome34" xfId="53" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome35" xfId="54" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome36" xfId="55" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome37" xfId="56" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome4" xfId="57" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome5" xfId="58" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome6" xfId="59" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome7" xfId="60" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome8" xfId="61" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Senza nome9" xfId="62" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status 1" xfId="63" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text 5" xfId="64" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning 4" xfId="65" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Normal" xfId="66" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1512,7 +1244,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF669933"/>
@@ -1527,7 +1259,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFCF305"/>
@@ -1572,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F89" activeCellId="0" sqref="F89"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B149" activeCellId="0" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1583,8 +1315,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="23.42"/>
   </cols>
   <sheetData>
@@ -3963,43 +3695,43 @@
       </c>
     </row>
     <row r="75" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="34" t="s">
+      <c r="A75" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35" t="s">
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="G75" s="36" t="n">
+      <c r="G75" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="H75" s="37" t="n">
+      <c r="H75" s="16" t="n">
         <f aca="false">F75*G75</f>
         <v>54</v>
       </c>
     </row>
     <row r="76" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="34" t="s">
+      <c r="A76" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35" t="s">
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="G76" s="36" t="n">
+      <c r="G76" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="H76" s="37" t="n">
+      <c r="H76" s="16" t="n">
         <f aca="false">F76*G76</f>
         <v>21</v>
       </c>
@@ -4036,14 +3768,14 @@
         <v>44</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4057,14 +3789,14 @@
         <v>44</v>
       </c>
       <c r="F79" s="25" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G79" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>770.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4481,10 +4213,10 @@
       <c r="F97" s="25" t="n">
         <v>40</v>
       </c>
-      <c r="G97" s="38" t="n">
+      <c r="G97" s="34" t="n">
         <v>0.19</v>
       </c>
-      <c r="H97" s="39" t="n">
+      <c r="H97" s="35" t="n">
         <f aca="false">F97*G97</f>
         <v>7.6</v>
       </c>
@@ -4505,13 +4237,13 @@
       <c r="E98" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F98" s="40" t="n">
+      <c r="F98" s="36" t="n">
         <v>25</v>
       </c>
-      <c r="G98" s="41" t="n">
+      <c r="G98" s="37" t="n">
         <v>0.19</v>
       </c>
-      <c r="H98" s="42" t="n">
+      <c r="H98" s="38" t="n">
         <f aca="false">F98*G98</f>
         <v>4.75</v>
       </c>
@@ -4531,10 +4263,10 @@
       <c r="F99" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="G99" s="43" t="n">
+      <c r="G99" s="39" t="n">
         <v>1.2</v>
       </c>
-      <c r="H99" s="44" t="n">
+      <c r="H99" s="40" t="n">
         <f aca="false">F99*G99</f>
         <v>3.6</v>
       </c>
@@ -4561,7 +4293,7 @@
       <c r="G100" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="H100" s="39" t="n">
+      <c r="H100" s="35" t="n">
         <f aca="false">F100*G100</f>
         <v>2</v>
       </c>
@@ -4585,14 +4317,14 @@
       <c r="F101" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="G101" s="45" t="n">
+      <c r="G101" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="H101" s="42" t="n">
+      <c r="H101" s="38" t="n">
         <f aca="false">F101*G101</f>
         <v>12</v>
       </c>
-      <c r="I101" s="46"/>
+      <c r="I101" s="42"/>
     </row>
     <row r="102" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="23" t="s">
@@ -4613,14 +4345,14 @@
       <c r="F102" s="25" t="n">
         <v>91</v>
       </c>
-      <c r="G102" s="45" t="n">
+      <c r="G102" s="41" t="n">
         <v>3.45</v>
       </c>
-      <c r="H102" s="42" t="n">
+      <c r="H102" s="38" t="n">
         <f aca="false">F102*G102</f>
         <v>313.95</v>
       </c>
-      <c r="I102" s="47"/>
+      <c r="I102" s="43"/>
     </row>
     <row r="103" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="23" t="s">
@@ -4641,14 +4373,14 @@
       <c r="F103" s="25" t="n">
         <v>67</v>
       </c>
-      <c r="G103" s="45" t="n">
+      <c r="G103" s="41" t="n">
         <v>2.9</v>
       </c>
-      <c r="H103" s="42" t="n">
+      <c r="H103" s="38" t="n">
         <f aca="false">F103*G103</f>
         <v>194.3</v>
       </c>
-      <c r="I103" s="47"/>
+      <c r="I103" s="43"/>
     </row>
     <row r="104" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="23" t="s">
@@ -4669,14 +4401,14 @@
       <c r="F104" s="25" t="n">
         <v>63</v>
       </c>
-      <c r="G104" s="45" t="n">
+      <c r="G104" s="41" t="n">
         <v>4.8</v>
       </c>
-      <c r="H104" s="42" t="n">
+      <c r="H104" s="38" t="n">
         <f aca="false">F104*G104</f>
         <v>302.4</v>
       </c>
-      <c r="I104" s="47"/>
+      <c r="I104" s="43"/>
     </row>
     <row r="105" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
@@ -4697,14 +4429,14 @@
       <c r="F105" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G105" s="45" t="n">
+      <c r="G105" s="41" t="n">
         <v>3.45</v>
       </c>
-      <c r="H105" s="42" t="n">
+      <c r="H105" s="38" t="n">
         <f aca="false">F105*G105</f>
         <v>0</v>
       </c>
-      <c r="I105" s="47"/>
+      <c r="I105" s="43"/>
     </row>
     <row r="106" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="23" t="s">
@@ -4725,14 +4457,14 @@
       <c r="F106" s="25" t="n">
         <v>42</v>
       </c>
-      <c r="G106" s="45" t="n">
+      <c r="G106" s="41" t="n">
         <v>3.75</v>
       </c>
-      <c r="H106" s="42" t="n">
+      <c r="H106" s="38" t="n">
         <f aca="false">F106*G106</f>
         <v>157.5</v>
       </c>
-      <c r="I106" s="47"/>
+      <c r="I106" s="43"/>
     </row>
     <row r="107" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="23" t="s">
@@ -4753,14 +4485,14 @@
       <c r="F107" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="G107" s="45" t="n">
+      <c r="G107" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="H107" s="42" t="n">
+      <c r="H107" s="38" t="n">
         <f aca="false">F107*G107</f>
         <v>48</v>
       </c>
-      <c r="I107" s="47"/>
+      <c r="I107" s="43"/>
     </row>
     <row r="108" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="23" t="s">
@@ -4781,14 +4513,14 @@
       <c r="F108" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="G108" s="45" t="n">
+      <c r="G108" s="41" t="n">
         <v>0.8</v>
       </c>
-      <c r="H108" s="42" t="n">
+      <c r="H108" s="38" t="n">
         <f aca="false">F108*G108</f>
         <v>19.2</v>
       </c>
-      <c r="I108" s="47"/>
+      <c r="I108" s="43"/>
     </row>
     <row r="109" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="23" t="s">
@@ -4809,10 +4541,10 @@
       <c r="F109" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="G109" s="45" t="n">
+      <c r="G109" s="41" t="n">
         <v>11.7</v>
       </c>
-      <c r="H109" s="42" t="n">
+      <c r="H109" s="38" t="n">
         <f aca="false">F109*G109</f>
         <v>117</v>
       </c>
@@ -4836,10 +4568,10 @@
       <c r="F110" s="25" t="n">
         <v>185</v>
       </c>
-      <c r="G110" s="45" t="n">
+      <c r="G110" s="41" t="n">
         <v>3.1</v>
       </c>
-      <c r="H110" s="42" t="n">
+      <c r="H110" s="38" t="n">
         <f aca="false">F110*G110</f>
         <v>573.5</v>
       </c>
@@ -4866,7 +4598,7 @@
       <c r="G111" s="20" t="n">
         <v>0.83</v>
       </c>
-      <c r="H111" s="44" t="n">
+      <c r="H111" s="40" t="n">
         <f aca="false">F111*G111</f>
         <v>16.6</v>
       </c>
@@ -4935,7 +4667,7 @@
       <c r="C114" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="48"/>
+      <c r="D114" s="44"/>
       <c r="E114" s="24" t="s">
         <v>44</v>
       </c>
@@ -5193,7 +4925,7 @@
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="24"/>
-      <c r="D124" s="49"/>
+      <c r="D124" s="45"/>
       <c r="E124" s="24" t="s">
         <v>44</v>
       </c>
@@ -5331,7 +5063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" s="50" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="23" t="s">
         <v>223</v>
       </c>
@@ -5352,7 +5084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" s="50" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="23" t="s">
         <v>224</v>
       </c>
@@ -5702,14 +5434,14 @@
         <v>44</v>
       </c>
       <c r="F146" s="29" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G146" s="30" t="n">
         <v>5.5</v>
       </c>
       <c r="H146" s="16" t="n">
         <f aca="false">F146*G146</f>
-        <v>275</v>
+        <v>269.5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5948,9 +5680,9 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H158" s="51" t="n">
+      <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>17123.07</v>
+        <v>16481.07</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1304,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B149" activeCellId="0" sqref="B149"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1968,14 +1968,14 @@
         <v>22</v>
       </c>
       <c r="F14" s="18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" s="15" t="n">
         <v>0.6</v>
       </c>
       <c r="H14" s="16" t="n">
         <f aca="false">F14*G14</f>
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -3018,14 +3018,14 @@
         <v>44</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G46" s="20" t="n">
         <v>0.35</v>
       </c>
       <c r="H46" s="16" t="n">
         <f aca="false">F46*G46</f>
-        <v>126</v>
+        <v>124.95</v>
       </c>
     </row>
     <row r="47" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3640,14 +3640,14 @@
         <v>44</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72" s="20" t="n">
         <v>3</v>
       </c>
       <c r="H72" s="16" t="n">
         <f aca="false">F72*G72</f>
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4238,14 +4238,14 @@
         <v>44</v>
       </c>
       <c r="F98" s="36" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G98" s="37" t="n">
         <v>0.19</v>
       </c>
       <c r="H98" s="38" t="n">
         <f aca="false">F98*G98</f>
-        <v>4.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4371,14 +4371,14 @@
         <v>44</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G103" s="41" t="n">
         <v>2.9</v>
       </c>
       <c r="H103" s="38" t="n">
         <f aca="false">F103*G103</f>
-        <v>194.3</v>
+        <v>191.4</v>
       </c>
       <c r="I103" s="43"/>
     </row>
@@ -4399,14 +4399,14 @@
         <v>44</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G104" s="41" t="n">
         <v>4.8</v>
       </c>
       <c r="H104" s="38" t="n">
         <f aca="false">F104*G104</f>
-        <v>302.4</v>
+        <v>292.8</v>
       </c>
       <c r="I104" s="43"/>
     </row>
@@ -4647,14 +4647,14 @@
         <v>44</v>
       </c>
       <c r="F113" s="25" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G113" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H113" s="16" t="n">
         <f aca="false">F113*G113</f>
-        <v>122.5</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="114" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5053,14 +5053,14 @@
         <v>222</v>
       </c>
       <c r="F129" s="25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G129" s="20" t="n">
         <v>7</v>
       </c>
       <c r="H129" s="16" t="n">
         <f aca="false">F129*G129</f>
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5682,7 +5682,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>16481.07</v>
+        <v>16433.52</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1304,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F69" activeCellId="0" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1398,14 +1398,14 @@
         <v>11</v>
       </c>
       <c r="F3" s="14" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G3" s="15" t="n">
         <v>16.5</v>
       </c>
       <c r="H3" s="16" t="n">
         <f aca="false">F3*G3</f>
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1448,14 +1448,14 @@
         <v>11</v>
       </c>
       <c r="F4" s="14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="15" t="n">
         <v>16.5</v>
       </c>
       <c r="H4" s="16" t="n">
         <f aca="false">F4*G4</f>
-        <v>346.5</v>
+        <v>330</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -3325,14 +3325,14 @@
         <v>44</v>
       </c>
       <c r="F59" s="25" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G59" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="H59" s="16" t="n">
         <f aca="false">F59*G59</f>
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4539,14 +4539,14 @@
         <v>44</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G109" s="41" t="n">
         <v>11.7</v>
       </c>
       <c r="H109" s="38" t="n">
         <f aca="false">F109*G109</f>
-        <v>117</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="110" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4620,14 +4620,14 @@
         <v>44</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="G112" s="20" t="n">
         <v>4.7</v>
       </c>
       <c r="H112" s="16" t="n">
         <f aca="false">F112*G112</f>
-        <v>460.6</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="113" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5005,14 +5005,14 @@
         <v>14</v>
       </c>
       <c r="F127" s="25" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G127" s="20" t="n">
         <v>3.3</v>
       </c>
       <c r="H127" s="16" t="n">
         <f aca="false">F127*G127</f>
-        <v>323.4</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="128" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5193,14 +5193,14 @@
         <v>14</v>
       </c>
       <c r="F135" s="25" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G135" s="20" t="n">
         <v>2.21</v>
       </c>
       <c r="H135" s="16" t="n">
         <f aca="false">F135*G135</f>
-        <v>442</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5539,14 +5539,14 @@
         <v>44</v>
       </c>
       <c r="F151" s="29" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G151" s="30" t="n">
         <v>2.85</v>
       </c>
       <c r="H151" s="16" t="n">
         <f aca="false">F151*G151</f>
-        <v>128.25</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5682,7 +5682,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>16433.52</v>
+        <v>15867.77</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -173,7 +173,7 @@
     <t xml:space="preserve">lyreco</t>
   </si>
   <si>
-    <t xml:space="preserve">Buste Plastica forate f.to 23x33x 100 pz</t>
+    <t xml:space="preserve">Buste Plastica forate f.toA3 buste  da 10</t>
   </si>
   <si>
     <r>
@@ -1304,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F69" activeCellId="0" sqref="F69"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1398,14 +1398,14 @@
         <v>11</v>
       </c>
       <c r="F3" s="14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="15" t="n">
         <v>16.5</v>
       </c>
       <c r="H3" s="16" t="n">
         <f aca="false">F3*G3</f>
-        <v>198</v>
+        <v>214.5</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -2529,13 +2529,15 @@
       <c r="E26" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="25" t="n">
+        <v>3</v>
+      </c>
       <c r="G26" s="20" t="n">
         <v>6</v>
       </c>
       <c r="H26" s="16" t="n">
         <f aca="false">F26*G26</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3064,14 +3066,14 @@
         <v>44</v>
       </c>
       <c r="F48" s="25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G48" s="20" t="n">
         <v>1</v>
       </c>
       <c r="H48" s="16" t="n">
         <f aca="false">F48*G48</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3091,14 +3093,14 @@
         <v>44</v>
       </c>
       <c r="F49" s="25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G49" s="20" t="n">
         <v>1.75</v>
       </c>
       <c r="H49" s="16" t="n">
         <f aca="false">F49*G49</f>
-        <v>10.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="50" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3271,14 +3273,14 @@
         <v>78</v>
       </c>
       <c r="F57" s="25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" s="20" t="n">
         <v>5.95</v>
       </c>
       <c r="H57" s="16" t="n">
         <f aca="false">F57*G57</f>
-        <v>11.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3529,14 +3531,14 @@
         <v>44</v>
       </c>
       <c r="F67" s="25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G67" s="20" t="n">
         <v>0.44</v>
       </c>
       <c r="H67" s="16" t="n">
         <f aca="false">F67*G67</f>
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="68" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4115,14 +4117,14 @@
         <v>11</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G93" s="20" t="n">
         <v>12.5</v>
       </c>
       <c r="H93" s="16" t="n">
         <f aca="false">F93*G93</f>
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="94" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4138,14 +4140,14 @@
         <v>44</v>
       </c>
       <c r="F94" s="25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G94" s="20" t="n">
         <v>2.5</v>
       </c>
       <c r="H94" s="16" t="n">
         <f aca="false">F94*G94</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4211,14 +4213,14 @@
         <v>44</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G97" s="34" t="n">
         <v>0.19</v>
       </c>
       <c r="H97" s="35" t="n">
         <f aca="false">F97*G97</f>
-        <v>7.6</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="98" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4238,14 +4240,14 @@
         <v>44</v>
       </c>
       <c r="F98" s="36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G98" s="37" t="n">
         <v>0.19</v>
       </c>
       <c r="H98" s="38" t="n">
         <f aca="false">F98*G98</f>
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4261,14 +4263,14 @@
         <v>44</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G99" s="39" t="n">
         <v>1.2</v>
       </c>
       <c r="H99" s="40" t="n">
         <f aca="false">F99*G99</f>
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4288,14 +4290,14 @@
         <v>44</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G100" s="20" t="n">
         <v>0.2</v>
       </c>
       <c r="H100" s="35" t="n">
         <f aca="false">F100*G100</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4315,14 +4317,14 @@
         <v>44</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G101" s="41" t="n">
         <v>1</v>
       </c>
       <c r="H101" s="38" t="n">
         <f aca="false">F101*G101</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I101" s="42"/>
     </row>
@@ -4751,14 +4753,14 @@
         <v>78</v>
       </c>
       <c r="F117" s="25" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G117" s="20" t="n">
         <v>2.7</v>
       </c>
       <c r="H117" s="16" t="n">
         <f aca="false">F117*G117</f>
-        <v>243</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4855,14 +4857,14 @@
         <v>44</v>
       </c>
       <c r="F121" s="25" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G121" s="20" t="n">
         <v>1.72</v>
       </c>
       <c r="H121" s="16" t="n">
         <f aca="false">F121*G121</f>
-        <v>20.64</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="122" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4882,14 +4884,14 @@
         <v>44</v>
       </c>
       <c r="F122" s="25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G122" s="20" t="n">
         <v>2.9</v>
       </c>
       <c r="H122" s="16" t="n">
         <f aca="false">F122*G122</f>
-        <v>43.5</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="123" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4909,14 +4911,14 @@
         <v>44</v>
       </c>
       <c r="F123" s="25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G123" s="20" t="n">
         <v>1.72</v>
       </c>
       <c r="H123" s="16" t="n">
         <f aca="false">F123*G123</f>
-        <v>15.48</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="124" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4930,14 +4932,14 @@
         <v>44</v>
       </c>
       <c r="F124" s="25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G124" s="20" t="n">
         <v>5</v>
       </c>
       <c r="H124" s="16" t="n">
         <f aca="false">F124*G124</f>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5682,7 +5684,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>15867.77</v>
+        <v>15593.47</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1304,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F78" activeCellId="0" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3770,14 +3770,14 @@
         <v>44</v>
       </c>
       <c r="F78" s="25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G78" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H78" s="16" t="n">
         <f aca="false">F78*G78</f>
-        <v>67</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="79" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3791,14 +3791,14 @@
         <v>44</v>
       </c>
       <c r="F79" s="25" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G79" s="20" t="n">
         <v>33.5</v>
       </c>
       <c r="H79" s="16" t="n">
         <f aca="false">F79*G79</f>
-        <v>67</v>
+        <v>971.5</v>
       </c>
     </row>
     <row r="80" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5684,7 +5684,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>15593.47</v>
+        <v>16732.47</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/magazzino2018.xlsx
+++ b/magazzino2018.xlsx
@@ -1304,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:AI160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F78" activeCellId="0" sqref="F78"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C80" activeCellId="0" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3952,7 +3952,7 @@
         <v>22</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="16" t="n">
@@ -3973,7 +3973,7 @@
         <v>22</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="16" t="n">
@@ -4980,14 +4980,14 @@
         <v>14</v>
       </c>
       <c r="F126" s="25" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G126" s="20" t="n">
         <v>2.69</v>
       </c>
       <c r="H126" s="16" t="n">
         <f aca="false">F126*G126</f>
-        <v>269</v>
+        <v>242.1</v>
       </c>
     </row>
     <row r="127" s="26" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5684,7 +5684,7 @@
     <row r="158" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H158" s="47" t="n">
         <f aca="false">SUM(H3:H157)</f>
-        <v>16732.47</v>
+        <v>16705.57</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
